--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14759500</v>
+        <v>14855200</v>
       </c>
       <c r="E8" s="3">
-        <v>14335300</v>
+        <v>15084300</v>
       </c>
       <c r="F8" s="3">
-        <v>12932800</v>
+        <v>14650700</v>
       </c>
       <c r="G8" s="3">
-        <v>13449800</v>
+        <v>13217400</v>
       </c>
       <c r="H8" s="3">
-        <v>13876200</v>
+        <v>13745700</v>
       </c>
       <c r="I8" s="3">
-        <v>13156600</v>
+        <v>14181500</v>
       </c>
       <c r="J8" s="3">
+        <v>13446100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11635700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10765500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10541600</v>
+        <v>10756700</v>
       </c>
       <c r="E9" s="3">
-        <v>21862600</v>
+        <v>10773500</v>
       </c>
       <c r="F9" s="3">
-        <v>9539700</v>
+        <v>22343600</v>
       </c>
       <c r="G9" s="3">
-        <v>9939600</v>
+        <v>9749600</v>
       </c>
       <c r="H9" s="3">
-        <v>10336600</v>
+        <v>10158300</v>
       </c>
       <c r="I9" s="3">
-        <v>9712300</v>
+        <v>10564000</v>
       </c>
       <c r="J9" s="3">
+        <v>9926000</v>
+      </c>
+      <c r="K9" s="3">
         <v>8656900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7866100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4218000</v>
+        <v>4098500</v>
       </c>
       <c r="E10" s="3">
-        <v>-7527300</v>
+        <v>4310800</v>
       </c>
       <c r="F10" s="3">
-        <v>3393100</v>
+        <v>-7692900</v>
       </c>
       <c r="G10" s="3">
-        <v>3510200</v>
+        <v>3467800</v>
       </c>
       <c r="H10" s="3">
-        <v>3539600</v>
+        <v>3587400</v>
       </c>
       <c r="I10" s="3">
-        <v>3444200</v>
+        <v>3617500</v>
       </c>
       <c r="J10" s="3">
+        <v>3520000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2978800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2899400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>635600</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>529700</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>649600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>541400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>502500</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>443900</v>
+        <v>513600</v>
       </c>
       <c r="J12" s="3">
+        <v>453600</v>
+      </c>
+      <c r="K12" s="3">
         <v>431900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>411900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,11 +905,11 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>128600</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>131400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -898,12 +917,15 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>11400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13897600</v>
+        <v>13924400</v>
       </c>
       <c r="E17" s="3">
-        <v>13510800</v>
+        <v>14203400</v>
       </c>
       <c r="F17" s="3">
-        <v>11982500</v>
+        <v>13808100</v>
       </c>
       <c r="G17" s="3">
-        <v>12607600</v>
+        <v>12246200</v>
       </c>
       <c r="H17" s="3">
-        <v>13027000</v>
+        <v>12885000</v>
       </c>
       <c r="I17" s="3">
-        <v>12060500</v>
+        <v>13313600</v>
       </c>
       <c r="J17" s="3">
+        <v>12325900</v>
+      </c>
+      <c r="K17" s="3">
         <v>10936400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9893900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>861900</v>
+        <v>930800</v>
       </c>
       <c r="E18" s="3">
-        <v>824500</v>
+        <v>880900</v>
       </c>
       <c r="F18" s="3">
-        <v>950300</v>
+        <v>842600</v>
       </c>
       <c r="G18" s="3">
-        <v>842200</v>
+        <v>971200</v>
       </c>
       <c r="H18" s="3">
-        <v>849300</v>
+        <v>860800</v>
       </c>
       <c r="I18" s="3">
-        <v>1096100</v>
+        <v>867900</v>
       </c>
       <c r="J18" s="3">
+        <v>1120200</v>
+      </c>
+      <c r="K18" s="3">
         <v>699300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>871600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>427200</v>
+        <v>451800</v>
       </c>
       <c r="E20" s="3">
-        <v>363400</v>
+        <v>436600</v>
       </c>
       <c r="F20" s="3">
-        <v>311000</v>
+        <v>371400</v>
       </c>
       <c r="G20" s="3">
-        <v>497600</v>
+        <v>317800</v>
       </c>
       <c r="H20" s="3">
-        <v>274100</v>
+        <v>508500</v>
       </c>
       <c r="I20" s="3">
-        <v>251200</v>
+        <v>280100</v>
       </c>
       <c r="J20" s="3">
+        <v>256700</v>
+      </c>
+      <c r="K20" s="3">
         <v>239300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>185500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1871200</v>
+        <v>2243300</v>
       </c>
       <c r="E21" s="3">
-        <v>1938300</v>
+        <v>1910400</v>
       </c>
       <c r="F21" s="3">
-        <v>1966800</v>
+        <v>1978400</v>
       </c>
       <c r="G21" s="3">
-        <v>2038100</v>
+        <v>2007700</v>
       </c>
       <c r="H21" s="3">
-        <v>1788300</v>
+        <v>2080600</v>
       </c>
       <c r="I21" s="3">
-        <v>2041000</v>
+        <v>1825400</v>
       </c>
       <c r="J21" s="3">
+        <v>2083600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1609000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1718800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>11000</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>6200</v>
+        <v>11200</v>
       </c>
       <c r="F22" s="3">
-        <v>8200</v>
+        <v>6400</v>
       </c>
       <c r="G22" s="3">
-        <v>16500</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="I22" s="3">
-        <v>17700</v>
+        <v>16000</v>
       </c>
       <c r="J22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1278100</v>
+        <v>1382600</v>
       </c>
       <c r="E23" s="3">
-        <v>1181600</v>
+        <v>1306300</v>
       </c>
       <c r="F23" s="3">
-        <v>1253000</v>
+        <v>1207600</v>
       </c>
       <c r="G23" s="3">
-        <v>1323300</v>
+        <v>1280600</v>
       </c>
       <c r="H23" s="3">
-        <v>1107700</v>
+        <v>1352500</v>
       </c>
       <c r="I23" s="3">
-        <v>1329600</v>
+        <v>1132100</v>
       </c>
       <c r="J23" s="3">
+        <v>1358800</v>
+      </c>
+      <c r="K23" s="3">
         <v>921400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1038600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>234100</v>
+        <v>343500</v>
       </c>
       <c r="E24" s="3">
-        <v>434200</v>
+        <v>239300</v>
       </c>
       <c r="F24" s="3">
-        <v>258500</v>
+        <v>443700</v>
       </c>
       <c r="G24" s="3">
-        <v>285400</v>
+        <v>264200</v>
       </c>
       <c r="H24" s="3">
-        <v>-31300</v>
+        <v>291600</v>
       </c>
       <c r="I24" s="3">
-        <v>465900</v>
+        <v>-32000</v>
       </c>
       <c r="J24" s="3">
+        <v>476100</v>
+      </c>
+      <c r="K24" s="3">
         <v>309200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>272400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1044000</v>
+        <v>1039000</v>
       </c>
       <c r="E26" s="3">
-        <v>747400</v>
+        <v>1067000</v>
       </c>
       <c r="F26" s="3">
-        <v>994500</v>
+        <v>763900</v>
       </c>
       <c r="G26" s="3">
-        <v>1038000</v>
+        <v>1016400</v>
       </c>
       <c r="H26" s="3">
-        <v>1139000</v>
+        <v>1060800</v>
       </c>
       <c r="I26" s="3">
-        <v>863700</v>
+        <v>1164100</v>
       </c>
       <c r="J26" s="3">
+        <v>882700</v>
+      </c>
+      <c r="K26" s="3">
         <v>612200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>766200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>938200</v>
+        <v>1000700</v>
       </c>
       <c r="E27" s="3">
-        <v>719400</v>
+        <v>958800</v>
       </c>
       <c r="F27" s="3">
-        <v>943900</v>
+        <v>735200</v>
       </c>
       <c r="G27" s="3">
-        <v>991200</v>
+        <v>964700</v>
       </c>
       <c r="H27" s="3">
-        <v>1053300</v>
+        <v>1013000</v>
       </c>
       <c r="I27" s="3">
-        <v>806800</v>
+        <v>1076500</v>
       </c>
       <c r="J27" s="3">
+        <v>824500</v>
+      </c>
+      <c r="K27" s="3">
         <v>604200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>717400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-427200</v>
+        <v>-451800</v>
       </c>
       <c r="E32" s="3">
-        <v>-363400</v>
+        <v>-436600</v>
       </c>
       <c r="F32" s="3">
-        <v>-311000</v>
+        <v>-371400</v>
       </c>
       <c r="G32" s="3">
-        <v>-497600</v>
+        <v>-317800</v>
       </c>
       <c r="H32" s="3">
-        <v>-274100</v>
+        <v>-508500</v>
       </c>
       <c r="I32" s="3">
-        <v>-251200</v>
+        <v>-280100</v>
       </c>
       <c r="J32" s="3">
+        <v>-256700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-239300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-185500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>938200</v>
+        <v>1000700</v>
       </c>
       <c r="E33" s="3">
-        <v>719400</v>
+        <v>958800</v>
       </c>
       <c r="F33" s="3">
-        <v>943900</v>
+        <v>735200</v>
       </c>
       <c r="G33" s="3">
-        <v>991200</v>
+        <v>964700</v>
       </c>
       <c r="H33" s="3">
-        <v>1053300</v>
+        <v>1013000</v>
       </c>
       <c r="I33" s="3">
-        <v>806800</v>
+        <v>1076500</v>
       </c>
       <c r="J33" s="3">
+        <v>824500</v>
+      </c>
+      <c r="K33" s="3">
         <v>604200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>717400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>938200</v>
+        <v>1000700</v>
       </c>
       <c r="E35" s="3">
-        <v>719400</v>
+        <v>958800</v>
       </c>
       <c r="F35" s="3">
-        <v>943900</v>
+        <v>735200</v>
       </c>
       <c r="G35" s="3">
-        <v>991200</v>
+        <v>964700</v>
       </c>
       <c r="H35" s="3">
-        <v>1053300</v>
+        <v>1013000</v>
       </c>
       <c r="I35" s="3">
-        <v>806800</v>
+        <v>1076500</v>
       </c>
       <c r="J35" s="3">
+        <v>824500</v>
+      </c>
+      <c r="K35" s="3">
         <v>604200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>717400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4661500</v>
+        <v>3894100</v>
       </c>
       <c r="E41" s="3">
-        <v>3862700</v>
+        <v>4758900</v>
       </c>
       <c r="F41" s="3">
-        <v>3419600</v>
+        <v>3943400</v>
       </c>
       <c r="G41" s="3">
-        <v>3399800</v>
+        <v>3491100</v>
       </c>
       <c r="H41" s="3">
-        <v>3193900</v>
+        <v>3470900</v>
       </c>
       <c r="I41" s="3">
-        <v>3046700</v>
+        <v>3260600</v>
       </c>
       <c r="J41" s="3">
+        <v>3110400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2776600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2470500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>991500</v>
+        <v>687000</v>
       </c>
       <c r="E42" s="3">
-        <v>2252700</v>
+        <v>1012300</v>
       </c>
       <c r="F42" s="3">
-        <v>2703100</v>
+        <v>2299800</v>
       </c>
       <c r="G42" s="3">
-        <v>2865000</v>
+        <v>2759600</v>
       </c>
       <c r="H42" s="3">
-        <v>2541500</v>
+        <v>2924900</v>
       </c>
       <c r="I42" s="3">
-        <v>2510900</v>
+        <v>2594600</v>
       </c>
       <c r="J42" s="3">
+        <v>2563400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2033800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1861700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3248300</v>
+        <v>3120800</v>
       </c>
       <c r="E43" s="3">
-        <v>3478400</v>
+        <v>3316200</v>
       </c>
       <c r="F43" s="3">
-        <v>2856600</v>
+        <v>3551100</v>
       </c>
       <c r="G43" s="3">
-        <v>2581700</v>
+        <v>2916400</v>
       </c>
       <c r="H43" s="3">
-        <v>2846700</v>
+        <v>2635700</v>
       </c>
       <c r="I43" s="3">
-        <v>2498300</v>
+        <v>2906200</v>
       </c>
       <c r="J43" s="3">
+        <v>2550500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2647800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2172700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3125900</v>
+        <v>3195100</v>
       </c>
       <c r="E44" s="3">
-        <v>3316700</v>
+        <v>3191200</v>
       </c>
       <c r="F44" s="3">
-        <v>3010200</v>
+        <v>3386000</v>
       </c>
       <c r="G44" s="3">
-        <v>2980400</v>
+        <v>3073100</v>
       </c>
       <c r="H44" s="3">
-        <v>3222400</v>
+        <v>3042700</v>
       </c>
       <c r="I44" s="3">
-        <v>3052400</v>
+        <v>3289800</v>
       </c>
       <c r="J44" s="3">
+        <v>3116200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2694700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2443800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>314900</v>
+        <v>264100</v>
       </c>
       <c r="E45" s="3">
-        <v>2013200</v>
+        <v>321400</v>
       </c>
       <c r="F45" s="3">
-        <v>1088200</v>
+        <v>2055300</v>
       </c>
       <c r="G45" s="3">
-        <v>1215100</v>
+        <v>1110900</v>
       </c>
       <c r="H45" s="3">
-        <v>1444600</v>
+        <v>1240500</v>
       </c>
       <c r="I45" s="3">
-        <v>1321600</v>
+        <v>1474800</v>
       </c>
       <c r="J45" s="3">
+        <v>1349200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1376800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1398400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12342100</v>
+        <v>11161100</v>
       </c>
       <c r="E46" s="3">
-        <v>13325000</v>
+        <v>12600000</v>
       </c>
       <c r="F46" s="3">
-        <v>13077800</v>
+        <v>13603500</v>
       </c>
       <c r="G46" s="3">
-        <v>13042000</v>
+        <v>13351100</v>
       </c>
       <c r="H46" s="3">
-        <v>13249100</v>
+        <v>13314600</v>
       </c>
       <c r="I46" s="3">
-        <v>12430000</v>
+        <v>13526000</v>
       </c>
       <c r="J46" s="3">
+        <v>12689800</v>
+      </c>
+      <c r="K46" s="3">
         <v>11529600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10347200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8922000</v>
+        <v>11518700</v>
       </c>
       <c r="E47" s="3">
-        <v>19436300</v>
+        <v>9108500</v>
       </c>
       <c r="F47" s="3">
-        <v>10278600</v>
+        <v>19842600</v>
       </c>
       <c r="G47" s="3">
-        <v>10284500</v>
+        <v>10493400</v>
       </c>
       <c r="H47" s="3">
-        <v>9559400</v>
+        <v>10499400</v>
       </c>
       <c r="I47" s="3">
-        <v>6710300</v>
+        <v>9759200</v>
       </c>
       <c r="J47" s="3">
+        <v>6850600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4604000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3384400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3107500</v>
-      </c>
-      <c r="E48" s="3" t="s">
+        <v>3880800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3172400</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
-        <v>2423400</v>
-      </c>
       <c r="G48" s="3">
-        <v>2404200</v>
+        <v>2474100</v>
       </c>
       <c r="H48" s="3">
-        <v>2377000</v>
+        <v>2454400</v>
       </c>
       <c r="I48" s="3">
-        <v>2459400</v>
+        <v>2426600</v>
       </c>
       <c r="J48" s="3">
+        <v>2510800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2443600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2355300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2086200</v>
+        <v>3069300</v>
       </c>
       <c r="E49" s="3">
-        <v>4080600</v>
+        <v>2129800</v>
       </c>
       <c r="F49" s="3">
-        <v>1560800</v>
+        <v>4165900</v>
       </c>
       <c r="G49" s="3">
-        <v>1469900</v>
+        <v>1593400</v>
       </c>
       <c r="H49" s="3">
-        <v>1443300</v>
+        <v>1500600</v>
       </c>
       <c r="I49" s="3">
-        <v>1599500</v>
+        <v>1473500</v>
       </c>
       <c r="J49" s="3">
+        <v>1632900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1436300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1253800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>525700</v>
+        <v>531800</v>
       </c>
       <c r="E52" s="3">
-        <v>1277900</v>
+        <v>536700</v>
       </c>
       <c r="F52" s="3">
-        <v>933600</v>
+        <v>1304600</v>
       </c>
       <c r="G52" s="3">
-        <v>933500</v>
+        <v>953100</v>
       </c>
       <c r="H52" s="3">
-        <v>833800</v>
+        <v>953000</v>
       </c>
       <c r="I52" s="3">
-        <v>768500</v>
+        <v>851200</v>
       </c>
       <c r="J52" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K52" s="3">
         <v>737600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>686100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26983400</v>
+        <v>30161600</v>
       </c>
       <c r="E54" s="3">
-        <v>28440900</v>
+        <v>27547400</v>
       </c>
       <c r="F54" s="3">
-        <v>28274200</v>
+        <v>29035400</v>
       </c>
       <c r="G54" s="3">
-        <v>28134000</v>
+        <v>28865200</v>
       </c>
       <c r="H54" s="3">
-        <v>27462600</v>
+        <v>28722100</v>
       </c>
       <c r="I54" s="3">
-        <v>23967600</v>
+        <v>28036600</v>
       </c>
       <c r="J54" s="3">
+        <v>24468600</v>
+      </c>
+      <c r="K54" s="3">
         <v>20751100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18026700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1227700</v>
+        <v>1608200</v>
       </c>
       <c r="E57" s="3">
-        <v>2722200</v>
+        <v>1253300</v>
       </c>
       <c r="F57" s="3">
-        <v>1176800</v>
+        <v>2779100</v>
       </c>
       <c r="G57" s="3">
-        <v>1051200</v>
+        <v>1201400</v>
       </c>
       <c r="H57" s="3">
-        <v>1087700</v>
+        <v>1073200</v>
       </c>
       <c r="I57" s="3">
-        <v>1112800</v>
+        <v>1110400</v>
       </c>
       <c r="J57" s="3">
+        <v>1136100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1011300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1479800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>38200</v>
+        <v>468700</v>
       </c>
       <c r="E58" s="3">
-        <v>113700</v>
+        <v>39000</v>
       </c>
       <c r="F58" s="3">
-        <v>76600</v>
+        <v>116000</v>
       </c>
       <c r="G58" s="3">
-        <v>133000</v>
+        <v>78200</v>
       </c>
       <c r="H58" s="3">
-        <v>123400</v>
+        <v>135800</v>
       </c>
       <c r="I58" s="3">
-        <v>149300</v>
+        <v>125900</v>
       </c>
       <c r="J58" s="3">
+        <v>152400</v>
+      </c>
+      <c r="K58" s="3">
         <v>117700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2140600</v>
+        <v>1612000</v>
       </c>
       <c r="E59" s="3">
-        <v>3047400</v>
+        <v>2185300</v>
       </c>
       <c r="F59" s="3">
-        <v>2061400</v>
+        <v>3111100</v>
       </c>
       <c r="G59" s="3">
-        <v>2159400</v>
+        <v>2104500</v>
       </c>
       <c r="H59" s="3">
-        <v>2027300</v>
+        <v>2204500</v>
       </c>
       <c r="I59" s="3">
-        <v>1714400</v>
+        <v>2069700</v>
       </c>
       <c r="J59" s="3">
+        <v>1750200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1840100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1109100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3406500</v>
+        <v>3688900</v>
       </c>
       <c r="E60" s="3">
-        <v>3812200</v>
+        <v>3477700</v>
       </c>
       <c r="F60" s="3">
-        <v>3314800</v>
+        <v>3891900</v>
       </c>
       <c r="G60" s="3">
-        <v>3343600</v>
+        <v>3384100</v>
       </c>
       <c r="H60" s="3">
-        <v>3238300</v>
+        <v>3413500</v>
       </c>
       <c r="I60" s="3">
-        <v>2976500</v>
+        <v>3306000</v>
       </c>
       <c r="J60" s="3">
+        <v>3038700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2969100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2721500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51400</v>
+        <v>712900</v>
       </c>
       <c r="E61" s="3">
-        <v>54300</v>
+        <v>52500</v>
       </c>
       <c r="F61" s="3">
-        <v>149200</v>
+        <v>55400</v>
       </c>
       <c r="G61" s="3">
-        <v>164700</v>
+        <v>152300</v>
       </c>
       <c r="H61" s="3">
-        <v>162500</v>
+        <v>168100</v>
       </c>
       <c r="I61" s="3">
-        <v>176900</v>
+        <v>165900</v>
       </c>
       <c r="J61" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K61" s="3">
         <v>189600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>191600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2052600</v>
+        <v>2984500</v>
       </c>
       <c r="E62" s="3">
-        <v>2898600</v>
+        <v>2095500</v>
       </c>
       <c r="F62" s="3">
-        <v>2822400</v>
+        <v>2959200</v>
       </c>
       <c r="G62" s="3">
-        <v>3048200</v>
+        <v>2881400</v>
       </c>
       <c r="H62" s="3">
-        <v>3121800</v>
+        <v>3112000</v>
       </c>
       <c r="I62" s="3">
-        <v>2750300</v>
+        <v>3187000</v>
       </c>
       <c r="J62" s="3">
+        <v>2807800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2003700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1244100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6386200</v>
+        <v>7591400</v>
       </c>
       <c r="E66" s="3">
-        <v>7299500</v>
+        <v>6519700</v>
       </c>
       <c r="F66" s="3">
-        <v>7056100</v>
+        <v>7452000</v>
       </c>
       <c r="G66" s="3">
-        <v>7370000</v>
+        <v>7203600</v>
       </c>
       <c r="H66" s="3">
-        <v>7325300</v>
+        <v>7524100</v>
       </c>
       <c r="I66" s="3">
-        <v>6605000</v>
+        <v>7478400</v>
       </c>
       <c r="J66" s="3">
+        <v>6743000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5787600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4742400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14895900</v>
+        <v>15652300</v>
       </c>
       <c r="E72" s="3">
-        <v>14340800</v>
+        <v>15207200</v>
       </c>
       <c r="F72" s="3">
-        <v>14890500</v>
+        <v>14640500</v>
       </c>
       <c r="G72" s="3">
-        <v>14280400</v>
+        <v>15201700</v>
       </c>
       <c r="H72" s="3">
-        <v>13656000</v>
+        <v>14578900</v>
       </c>
       <c r="I72" s="3">
-        <v>12869500</v>
+        <v>13941400</v>
       </c>
       <c r="J72" s="3">
+        <v>13138500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12439800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11969400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20597200</v>
+        <v>22570200</v>
       </c>
       <c r="E76" s="3">
-        <v>21141400</v>
+        <v>21027700</v>
       </c>
       <c r="F76" s="3">
-        <v>21218100</v>
+        <v>21583300</v>
       </c>
       <c r="G76" s="3">
-        <v>20764000</v>
+        <v>21661600</v>
       </c>
       <c r="H76" s="3">
-        <v>20137200</v>
+        <v>21198000</v>
       </c>
       <c r="I76" s="3">
-        <v>17362700</v>
+        <v>20558200</v>
       </c>
       <c r="J76" s="3">
+        <v>17725600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14963600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13284300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>938200</v>
+        <v>1000700</v>
       </c>
       <c r="E81" s="3">
-        <v>719400</v>
+        <v>958800</v>
       </c>
       <c r="F81" s="3">
-        <v>943900</v>
+        <v>735200</v>
       </c>
       <c r="G81" s="3">
-        <v>991200</v>
+        <v>964700</v>
       </c>
       <c r="H81" s="3">
-        <v>1053300</v>
+        <v>1013000</v>
       </c>
       <c r="I81" s="3">
-        <v>806800</v>
+        <v>1076500</v>
       </c>
       <c r="J81" s="3">
+        <v>824500</v>
+      </c>
+      <c r="K81" s="3">
         <v>604200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>717400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>580800</v>
+        <v>861600</v>
       </c>
       <c r="E83" s="3">
-        <v>748700</v>
+        <v>593500</v>
       </c>
       <c r="F83" s="3">
-        <v>704000</v>
+        <v>765200</v>
       </c>
       <c r="G83" s="3">
-        <v>696700</v>
+        <v>719500</v>
       </c>
       <c r="H83" s="3">
-        <v>663500</v>
+        <v>712100</v>
       </c>
       <c r="I83" s="3">
-        <v>692200</v>
+        <v>678100</v>
       </c>
       <c r="J83" s="3">
+        <v>707400</v>
+      </c>
+      <c r="K83" s="3">
         <v>669000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>661000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2000000</v>
+        <v>1993900</v>
       </c>
       <c r="E89" s="3">
-        <v>1444400</v>
+        <v>2044000</v>
       </c>
       <c r="F89" s="3">
-        <v>1492900</v>
+        <v>1476200</v>
       </c>
       <c r="G89" s="3">
-        <v>1763800</v>
+        <v>1525700</v>
       </c>
       <c r="H89" s="3">
-        <v>1188700</v>
+        <v>1802600</v>
       </c>
       <c r="I89" s="3">
-        <v>1355700</v>
+        <v>1214800</v>
       </c>
       <c r="J89" s="3">
+        <v>1385500</v>
+      </c>
+      <c r="K89" s="3">
         <v>995300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>985900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1009400</v>
+        <v>-995300</v>
       </c>
       <c r="E91" s="3">
-        <v>-765300</v>
+        <v>-1031600</v>
       </c>
       <c r="F91" s="3">
-        <v>-608100</v>
+        <v>-782200</v>
       </c>
       <c r="G91" s="3">
-        <v>-600900</v>
+        <v>-621500</v>
       </c>
       <c r="H91" s="3">
-        <v>-518600</v>
+        <v>-614100</v>
       </c>
       <c r="I91" s="3">
-        <v>-462600</v>
+        <v>-530000</v>
       </c>
       <c r="J91" s="3">
+        <v>-472800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-531000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-612600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-428300</v>
+        <v>-1352200</v>
       </c>
       <c r="E94" s="3">
-        <v>-482900</v>
+        <v>-437800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1018900</v>
+        <v>-493600</v>
       </c>
       <c r="G94" s="3">
-        <v>-970900</v>
+        <v>-1041300</v>
       </c>
       <c r="H94" s="3">
-        <v>-850900</v>
+        <v>-992300</v>
       </c>
       <c r="I94" s="3">
-        <v>-919400</v>
+        <v>-869600</v>
       </c>
       <c r="J94" s="3">
+        <v>-939600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-601200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-506700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-436900</v>
+        <v>-576100</v>
       </c>
       <c r="E96" s="3">
-        <v>-435700</v>
+        <v>-446500</v>
       </c>
       <c r="F96" s="3">
-        <v>-363400</v>
+        <v>-445300</v>
       </c>
       <c r="G96" s="3">
-        <v>-398800</v>
+        <v>-371400</v>
       </c>
       <c r="H96" s="3">
-        <v>-297300</v>
+        <v>-407600</v>
       </c>
       <c r="I96" s="3">
-        <v>-260200</v>
+        <v>-303800</v>
       </c>
       <c r="J96" s="3">
+        <v>-265900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-221200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-233900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-809500</v>
+        <v>-1459700</v>
       </c>
       <c r="E100" s="3">
-        <v>-468800</v>
+        <v>-827300</v>
       </c>
       <c r="F100" s="3">
-        <v>-436100</v>
+        <v>-479100</v>
       </c>
       <c r="G100" s="3">
-        <v>-460000</v>
+        <v>-445700</v>
       </c>
       <c r="H100" s="3">
-        <v>-363500</v>
+        <v>-470100</v>
       </c>
       <c r="I100" s="3">
-        <v>-298200</v>
+        <v>-371500</v>
       </c>
       <c r="J100" s="3">
+        <v>-304800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-285700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-459000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>36600</v>
+        <v>-47800</v>
       </c>
       <c r="E101" s="3">
-        <v>-49600</v>
+        <v>37400</v>
       </c>
       <c r="F101" s="3">
-        <v>-18100</v>
+        <v>-50700</v>
       </c>
       <c r="G101" s="3">
-        <v>-127000</v>
+        <v>-18500</v>
       </c>
       <c r="H101" s="3">
-        <v>172900</v>
+        <v>-129700</v>
       </c>
       <c r="I101" s="3">
-        <v>132000</v>
+        <v>176700</v>
       </c>
       <c r="J101" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K101" s="3">
         <v>184100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>798800</v>
+        <v>-865800</v>
       </c>
       <c r="E102" s="3">
-        <v>443100</v>
+        <v>816400</v>
       </c>
       <c r="F102" s="3">
-        <v>19800</v>
+        <v>452800</v>
       </c>
       <c r="G102" s="3">
-        <v>206000</v>
+        <v>20200</v>
       </c>
       <c r="H102" s="3">
-        <v>147200</v>
+        <v>210500</v>
       </c>
       <c r="I102" s="3">
-        <v>270200</v>
+        <v>150400</v>
       </c>
       <c r="J102" s="3">
+        <v>276100</v>
+      </c>
+      <c r="K102" s="3">
         <v>292400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14855200</v>
+        <v>15095100</v>
       </c>
       <c r="E8" s="3">
-        <v>15084300</v>
+        <v>15327800</v>
       </c>
       <c r="F8" s="3">
-        <v>14650700</v>
+        <v>14887200</v>
       </c>
       <c r="G8" s="3">
-        <v>13217400</v>
+        <v>13430800</v>
       </c>
       <c r="H8" s="3">
-        <v>13745700</v>
+        <v>13967700</v>
       </c>
       <c r="I8" s="3">
-        <v>14181500</v>
+        <v>14410500</v>
       </c>
       <c r="J8" s="3">
-        <v>13446100</v>
+        <v>13663200</v>
       </c>
       <c r="K8" s="3">
         <v>11635700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10756700</v>
+        <v>10930400</v>
       </c>
       <c r="E9" s="3">
-        <v>10773500</v>
+        <v>10947400</v>
       </c>
       <c r="F9" s="3">
-        <v>22343600</v>
+        <v>22704400</v>
       </c>
       <c r="G9" s="3">
-        <v>9749600</v>
+        <v>9907000</v>
       </c>
       <c r="H9" s="3">
-        <v>10158300</v>
+        <v>10322300</v>
       </c>
       <c r="I9" s="3">
-        <v>10564000</v>
+        <v>10734600</v>
       </c>
       <c r="J9" s="3">
-        <v>9926000</v>
+        <v>10086300</v>
       </c>
       <c r="K9" s="3">
         <v>8656900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4098500</v>
+        <v>4164700</v>
       </c>
       <c r="E10" s="3">
-        <v>4310800</v>
+        <v>4380400</v>
       </c>
       <c r="F10" s="3">
-        <v>-7692900</v>
+        <v>-7817100</v>
       </c>
       <c r="G10" s="3">
-        <v>3467800</v>
+        <v>3523800</v>
       </c>
       <c r="H10" s="3">
-        <v>3587400</v>
+        <v>3645400</v>
       </c>
       <c r="I10" s="3">
-        <v>3617500</v>
+        <v>3675900</v>
       </c>
       <c r="J10" s="3">
-        <v>3520000</v>
+        <v>3576900</v>
       </c>
       <c r="K10" s="3">
         <v>2978800</v>
@@ -834,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>649600</v>
+        <v>660100</v>
       </c>
       <c r="F12" s="3">
-        <v>541400</v>
+        <v>550100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>513600</v>
+        <v>521900</v>
       </c>
       <c r="J12" s="3">
-        <v>453600</v>
+        <v>461000</v>
       </c>
       <c r="K12" s="3">
         <v>431900</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>131400</v>
+        <v>133500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13924400</v>
+        <v>14149200</v>
       </c>
       <c r="E17" s="3">
-        <v>14203400</v>
+        <v>14432700</v>
       </c>
       <c r="F17" s="3">
-        <v>13808100</v>
+        <v>14031000</v>
       </c>
       <c r="G17" s="3">
-        <v>12246200</v>
+        <v>12443900</v>
       </c>
       <c r="H17" s="3">
-        <v>12885000</v>
+        <v>13093000</v>
       </c>
       <c r="I17" s="3">
-        <v>13313600</v>
+        <v>13528500</v>
       </c>
       <c r="J17" s="3">
-        <v>12325900</v>
+        <v>12524900</v>
       </c>
       <c r="K17" s="3">
         <v>10936400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>930800</v>
+        <v>945800</v>
       </c>
       <c r="E18" s="3">
-        <v>880900</v>
+        <v>895100</v>
       </c>
       <c r="F18" s="3">
-        <v>842600</v>
+        <v>856200</v>
       </c>
       <c r="G18" s="3">
-        <v>971200</v>
+        <v>986900</v>
       </c>
       <c r="H18" s="3">
-        <v>860800</v>
+        <v>874700</v>
       </c>
       <c r="I18" s="3">
-        <v>867900</v>
+        <v>882000</v>
       </c>
       <c r="J18" s="3">
-        <v>1120200</v>
+        <v>1138300</v>
       </c>
       <c r="K18" s="3">
         <v>699300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>451800</v>
+        <v>473100</v>
       </c>
       <c r="E20" s="3">
-        <v>436600</v>
+        <v>443600</v>
       </c>
       <c r="F20" s="3">
-        <v>371400</v>
+        <v>377400</v>
       </c>
       <c r="G20" s="3">
-        <v>317800</v>
+        <v>322900</v>
       </c>
       <c r="H20" s="3">
-        <v>508500</v>
+        <v>516800</v>
       </c>
       <c r="I20" s="3">
-        <v>280100</v>
+        <v>284600</v>
       </c>
       <c r="J20" s="3">
-        <v>256700</v>
+        <v>260800</v>
       </c>
       <c r="K20" s="3">
         <v>239300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2243300</v>
+        <v>2290800</v>
       </c>
       <c r="E21" s="3">
-        <v>1910400</v>
+        <v>1939300</v>
       </c>
       <c r="F21" s="3">
-        <v>1978400</v>
+        <v>2007900</v>
       </c>
       <c r="G21" s="3">
-        <v>2007700</v>
+        <v>2037800</v>
       </c>
       <c r="H21" s="3">
-        <v>2080600</v>
+        <v>2111900</v>
       </c>
       <c r="I21" s="3">
-        <v>1825400</v>
+        <v>1852700</v>
       </c>
       <c r="J21" s="3">
-        <v>2083600</v>
+        <v>2115000</v>
       </c>
       <c r="K21" s="3">
         <v>1609000</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>14000</v>
       </c>
       <c r="E22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="F22" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="H22" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="I22" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="J22" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="K22" s="3">
         <v>17200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1382600</v>
+        <v>1404900</v>
       </c>
       <c r="E23" s="3">
-        <v>1306300</v>
+        <v>1327400</v>
       </c>
       <c r="F23" s="3">
-        <v>1207600</v>
+        <v>1227100</v>
       </c>
       <c r="G23" s="3">
-        <v>1280600</v>
+        <v>1301300</v>
       </c>
       <c r="H23" s="3">
-        <v>1352500</v>
+        <v>1374300</v>
       </c>
       <c r="I23" s="3">
-        <v>1132100</v>
+        <v>1150400</v>
       </c>
       <c r="J23" s="3">
-        <v>1358800</v>
+        <v>1380800</v>
       </c>
       <c r="K23" s="3">
         <v>921400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>343500</v>
+        <v>349100</v>
       </c>
       <c r="E24" s="3">
-        <v>239300</v>
+        <v>243100</v>
       </c>
       <c r="F24" s="3">
-        <v>443700</v>
+        <v>450900</v>
       </c>
       <c r="G24" s="3">
-        <v>264200</v>
+        <v>268500</v>
       </c>
       <c r="H24" s="3">
-        <v>291600</v>
+        <v>296300</v>
       </c>
       <c r="I24" s="3">
-        <v>-32000</v>
+        <v>-32500</v>
       </c>
       <c r="J24" s="3">
-        <v>476100</v>
+        <v>483800</v>
       </c>
       <c r="K24" s="3">
         <v>309200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1039000</v>
+        <v>1055800</v>
       </c>
       <c r="E26" s="3">
-        <v>1067000</v>
+        <v>1084200</v>
       </c>
       <c r="F26" s="3">
-        <v>763900</v>
+        <v>776200</v>
       </c>
       <c r="G26" s="3">
-        <v>1016400</v>
+        <v>1032800</v>
       </c>
       <c r="H26" s="3">
-        <v>1060800</v>
+        <v>1078000</v>
       </c>
       <c r="I26" s="3">
-        <v>1164100</v>
+        <v>1182900</v>
       </c>
       <c r="J26" s="3">
-        <v>882700</v>
+        <v>896900</v>
       </c>
       <c r="K26" s="3">
         <v>612200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000700</v>
+        <v>1016900</v>
       </c>
       <c r="E27" s="3">
-        <v>958800</v>
+        <v>974300</v>
       </c>
       <c r="F27" s="3">
-        <v>735200</v>
+        <v>747100</v>
       </c>
       <c r="G27" s="3">
-        <v>964700</v>
+        <v>980300</v>
       </c>
       <c r="H27" s="3">
-        <v>1013000</v>
+        <v>1029400</v>
       </c>
       <c r="I27" s="3">
-        <v>1076500</v>
+        <v>1093900</v>
       </c>
       <c r="J27" s="3">
-        <v>824500</v>
+        <v>837900</v>
       </c>
       <c r="K27" s="3">
         <v>604200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-451800</v>
+        <v>-473100</v>
       </c>
       <c r="E32" s="3">
-        <v>-436600</v>
+        <v>-443600</v>
       </c>
       <c r="F32" s="3">
-        <v>-371400</v>
+        <v>-377400</v>
       </c>
       <c r="G32" s="3">
-        <v>-317800</v>
+        <v>-322900</v>
       </c>
       <c r="H32" s="3">
-        <v>-508500</v>
+        <v>-516800</v>
       </c>
       <c r="I32" s="3">
-        <v>-280100</v>
+        <v>-284600</v>
       </c>
       <c r="J32" s="3">
-        <v>-256700</v>
+        <v>-260800</v>
       </c>
       <c r="K32" s="3">
         <v>-239300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000700</v>
+        <v>1016900</v>
       </c>
       <c r="E33" s="3">
-        <v>958800</v>
+        <v>974300</v>
       </c>
       <c r="F33" s="3">
-        <v>735200</v>
+        <v>747100</v>
       </c>
       <c r="G33" s="3">
-        <v>964700</v>
+        <v>980300</v>
       </c>
       <c r="H33" s="3">
-        <v>1013000</v>
+        <v>1029400</v>
       </c>
       <c r="I33" s="3">
-        <v>1076500</v>
+        <v>1093900</v>
       </c>
       <c r="J33" s="3">
-        <v>824500</v>
+        <v>837900</v>
       </c>
       <c r="K33" s="3">
         <v>604200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000700</v>
+        <v>1016900</v>
       </c>
       <c r="E35" s="3">
-        <v>958800</v>
+        <v>974300</v>
       </c>
       <c r="F35" s="3">
-        <v>735200</v>
+        <v>747100</v>
       </c>
       <c r="G35" s="3">
-        <v>964700</v>
+        <v>980300</v>
       </c>
       <c r="H35" s="3">
-        <v>1013000</v>
+        <v>1029400</v>
       </c>
       <c r="I35" s="3">
-        <v>1076500</v>
+        <v>1093900</v>
       </c>
       <c r="J35" s="3">
-        <v>824500</v>
+        <v>837900</v>
       </c>
       <c r="K35" s="3">
         <v>604200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3894100</v>
+        <v>3961200</v>
       </c>
       <c r="E41" s="3">
-        <v>4758900</v>
+        <v>4841000</v>
       </c>
       <c r="F41" s="3">
-        <v>3943400</v>
+        <v>4011400</v>
       </c>
       <c r="G41" s="3">
-        <v>3491100</v>
+        <v>3551300</v>
       </c>
       <c r="H41" s="3">
-        <v>3470900</v>
+        <v>3530700</v>
       </c>
       <c r="I41" s="3">
-        <v>3260600</v>
+        <v>3316900</v>
       </c>
       <c r="J41" s="3">
-        <v>3110400</v>
+        <v>3164000</v>
       </c>
       <c r="K41" s="3">
         <v>2776600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>687000</v>
+        <v>698900</v>
       </c>
       <c r="E42" s="3">
-        <v>1012300</v>
+        <v>1029700</v>
       </c>
       <c r="F42" s="3">
-        <v>2299800</v>
+        <v>2339400</v>
       </c>
       <c r="G42" s="3">
-        <v>2759600</v>
+        <v>2807200</v>
       </c>
       <c r="H42" s="3">
-        <v>2924900</v>
+        <v>2975300</v>
       </c>
       <c r="I42" s="3">
-        <v>2594600</v>
+        <v>2639400</v>
       </c>
       <c r="J42" s="3">
-        <v>2563400</v>
+        <v>2607600</v>
       </c>
       <c r="K42" s="3">
         <v>2033800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3120800</v>
+        <v>3174600</v>
       </c>
       <c r="E43" s="3">
-        <v>3316200</v>
+        <v>3373400</v>
       </c>
       <c r="F43" s="3">
-        <v>3551100</v>
+        <v>3612300</v>
       </c>
       <c r="G43" s="3">
-        <v>2916400</v>
+        <v>2966600</v>
       </c>
       <c r="H43" s="3">
-        <v>2635700</v>
+        <v>2681100</v>
       </c>
       <c r="I43" s="3">
-        <v>2906200</v>
+        <v>2956300</v>
       </c>
       <c r="J43" s="3">
-        <v>2550500</v>
+        <v>2594500</v>
       </c>
       <c r="K43" s="3">
         <v>2647800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3195100</v>
+        <v>3250200</v>
       </c>
       <c r="E44" s="3">
-        <v>3191200</v>
+        <v>3246200</v>
       </c>
       <c r="F44" s="3">
-        <v>3386000</v>
+        <v>3444400</v>
       </c>
       <c r="G44" s="3">
-        <v>3073100</v>
+        <v>3126100</v>
       </c>
       <c r="H44" s="3">
-        <v>3042700</v>
+        <v>3095100</v>
       </c>
       <c r="I44" s="3">
-        <v>3289800</v>
+        <v>3346500</v>
       </c>
       <c r="J44" s="3">
-        <v>3116200</v>
+        <v>3170000</v>
       </c>
       <c r="K44" s="3">
         <v>2694700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>264100</v>
+        <v>268600</v>
       </c>
       <c r="E45" s="3">
-        <v>321400</v>
+        <v>327000</v>
       </c>
       <c r="F45" s="3">
-        <v>2055300</v>
+        <v>2090800</v>
       </c>
       <c r="G45" s="3">
-        <v>1110900</v>
+        <v>1130100</v>
       </c>
       <c r="H45" s="3">
-        <v>1240500</v>
+        <v>1261900</v>
       </c>
       <c r="I45" s="3">
-        <v>1474800</v>
+        <v>1500300</v>
       </c>
       <c r="J45" s="3">
-        <v>1349200</v>
+        <v>1372400</v>
       </c>
       <c r="K45" s="3">
         <v>1376800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11161100</v>
+        <v>11353600</v>
       </c>
       <c r="E46" s="3">
-        <v>12600000</v>
+        <v>12817300</v>
       </c>
       <c r="F46" s="3">
-        <v>13603500</v>
+        <v>13838100</v>
       </c>
       <c r="G46" s="3">
-        <v>13351100</v>
+        <v>13581300</v>
       </c>
       <c r="H46" s="3">
-        <v>13314600</v>
+        <v>13544100</v>
       </c>
       <c r="I46" s="3">
-        <v>13526000</v>
+        <v>13759200</v>
       </c>
       <c r="J46" s="3">
-        <v>12689800</v>
+        <v>12908600</v>
       </c>
       <c r="K46" s="3">
         <v>11529600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11518700</v>
+        <v>11717300</v>
       </c>
       <c r="E47" s="3">
-        <v>9108500</v>
+        <v>9304800</v>
       </c>
       <c r="F47" s="3">
-        <v>19842600</v>
+        <v>20221300</v>
       </c>
       <c r="G47" s="3">
-        <v>10493400</v>
+        <v>10674300</v>
       </c>
       <c r="H47" s="3">
-        <v>10499400</v>
+        <v>10680400</v>
       </c>
       <c r="I47" s="3">
-        <v>9759200</v>
+        <v>9927500</v>
       </c>
       <c r="J47" s="3">
-        <v>6850600</v>
+        <v>6968700</v>
       </c>
       <c r="K47" s="3">
         <v>4604000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3880800</v>
+        <v>3947700</v>
       </c>
       <c r="E48" s="3">
-        <v>3172400</v>
+        <v>3227100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>2474100</v>
+        <v>2516700</v>
       </c>
       <c r="H48" s="3">
-        <v>2454400</v>
+        <v>2496800</v>
       </c>
       <c r="I48" s="3">
-        <v>2426600</v>
+        <v>2468500</v>
       </c>
       <c r="J48" s="3">
-        <v>2510800</v>
+        <v>2554100</v>
       </c>
       <c r="K48" s="3">
         <v>2443600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3069300</v>
+        <v>3122200</v>
       </c>
       <c r="E49" s="3">
-        <v>2129800</v>
+        <v>2166500</v>
       </c>
       <c r="F49" s="3">
-        <v>4165900</v>
+        <v>4237700</v>
       </c>
       <c r="G49" s="3">
-        <v>1593400</v>
+        <v>1620900</v>
       </c>
       <c r="H49" s="3">
-        <v>1500600</v>
+        <v>1526500</v>
       </c>
       <c r="I49" s="3">
-        <v>1473500</v>
+        <v>1498900</v>
       </c>
       <c r="J49" s="3">
-        <v>1632900</v>
+        <v>1661000</v>
       </c>
       <c r="K49" s="3">
         <v>1436300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>531800</v>
+        <v>540900</v>
       </c>
       <c r="E52" s="3">
-        <v>536700</v>
+        <v>506700</v>
       </c>
       <c r="F52" s="3">
-        <v>1304600</v>
+        <v>1534600</v>
       </c>
       <c r="G52" s="3">
-        <v>953100</v>
+        <v>969600</v>
       </c>
       <c r="H52" s="3">
-        <v>953000</v>
+        <v>969400</v>
       </c>
       <c r="I52" s="3">
-        <v>851200</v>
+        <v>865900</v>
       </c>
       <c r="J52" s="3">
-        <v>784500</v>
+        <v>798100</v>
       </c>
       <c r="K52" s="3">
         <v>737600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30161600</v>
+        <v>30681700</v>
       </c>
       <c r="E54" s="3">
-        <v>27547400</v>
+        <v>28022400</v>
       </c>
       <c r="F54" s="3">
-        <v>29035400</v>
+        <v>29536000</v>
       </c>
       <c r="G54" s="3">
-        <v>28865200</v>
+        <v>29362800</v>
       </c>
       <c r="H54" s="3">
-        <v>28722100</v>
+        <v>29217300</v>
       </c>
       <c r="I54" s="3">
-        <v>28036600</v>
+        <v>28520000</v>
       </c>
       <c r="J54" s="3">
-        <v>24468600</v>
+        <v>24890500</v>
       </c>
       <c r="K54" s="3">
         <v>20751100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1608200</v>
+        <v>1235800</v>
       </c>
       <c r="E57" s="3">
-        <v>1253300</v>
+        <v>1275000</v>
       </c>
       <c r="F57" s="3">
-        <v>2779100</v>
+        <v>2827000</v>
       </c>
       <c r="G57" s="3">
-        <v>1201400</v>
+        <v>1222100</v>
       </c>
       <c r="H57" s="3">
-        <v>1073200</v>
+        <v>1091700</v>
       </c>
       <c r="I57" s="3">
-        <v>1110400</v>
+        <v>1129500</v>
       </c>
       <c r="J57" s="3">
-        <v>1136100</v>
+        <v>1155700</v>
       </c>
       <c r="K57" s="3">
         <v>1011300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>468700</v>
+        <v>476700</v>
       </c>
       <c r="E58" s="3">
-        <v>39000</v>
+        <v>39700</v>
       </c>
       <c r="F58" s="3">
-        <v>116000</v>
+        <v>118000</v>
       </c>
       <c r="G58" s="3">
-        <v>78200</v>
+        <v>79500</v>
       </c>
       <c r="H58" s="3">
-        <v>135800</v>
+        <v>138200</v>
       </c>
       <c r="I58" s="3">
-        <v>125900</v>
+        <v>128100</v>
       </c>
       <c r="J58" s="3">
-        <v>152400</v>
+        <v>155000</v>
       </c>
       <c r="K58" s="3">
         <v>117700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1612000</v>
+        <v>2040000</v>
       </c>
       <c r="E59" s="3">
-        <v>2185300</v>
+        <v>2223000</v>
       </c>
       <c r="F59" s="3">
-        <v>3111100</v>
+        <v>3164800</v>
       </c>
       <c r="G59" s="3">
-        <v>2104500</v>
+        <v>2140800</v>
       </c>
       <c r="H59" s="3">
-        <v>2204500</v>
+        <v>2242500</v>
       </c>
       <c r="I59" s="3">
-        <v>2069700</v>
+        <v>2105400</v>
       </c>
       <c r="J59" s="3">
-        <v>1750200</v>
+        <v>1780400</v>
       </c>
       <c r="K59" s="3">
         <v>1840100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3688900</v>
+        <v>3752500</v>
       </c>
       <c r="E60" s="3">
-        <v>3477700</v>
+        <v>3537600</v>
       </c>
       <c r="F60" s="3">
-        <v>3891900</v>
+        <v>3959000</v>
       </c>
       <c r="G60" s="3">
-        <v>3384100</v>
+        <v>3442400</v>
       </c>
       <c r="H60" s="3">
-        <v>3413500</v>
+        <v>3472300</v>
       </c>
       <c r="I60" s="3">
-        <v>3306000</v>
+        <v>3363000</v>
       </c>
       <c r="J60" s="3">
-        <v>3038700</v>
+        <v>3091100</v>
       </c>
       <c r="K60" s="3">
         <v>2969100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>712900</v>
+        <v>725200</v>
       </c>
       <c r="E61" s="3">
-        <v>52500</v>
+        <v>53400</v>
       </c>
       <c r="F61" s="3">
-        <v>55400</v>
+        <v>56400</v>
       </c>
       <c r="G61" s="3">
-        <v>152300</v>
+        <v>154900</v>
       </c>
       <c r="H61" s="3">
-        <v>168100</v>
+        <v>171000</v>
       </c>
       <c r="I61" s="3">
-        <v>165900</v>
+        <v>168800</v>
       </c>
       <c r="J61" s="3">
-        <v>180600</v>
+        <v>183800</v>
       </c>
       <c r="K61" s="3">
         <v>189600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2984500</v>
+        <v>3036000</v>
       </c>
       <c r="E62" s="3">
-        <v>2095500</v>
+        <v>2131700</v>
       </c>
       <c r="F62" s="3">
-        <v>2959200</v>
+        <v>3010200</v>
       </c>
       <c r="G62" s="3">
-        <v>2881400</v>
+        <v>2931000</v>
       </c>
       <c r="H62" s="3">
-        <v>3112000</v>
+        <v>3165600</v>
       </c>
       <c r="I62" s="3">
-        <v>3187000</v>
+        <v>3242000</v>
       </c>
       <c r="J62" s="3">
-        <v>2807800</v>
+        <v>2856200</v>
       </c>
       <c r="K62" s="3">
         <v>2003700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7591400</v>
+        <v>7722300</v>
       </c>
       <c r="E66" s="3">
-        <v>6519700</v>
+        <v>6632100</v>
       </c>
       <c r="F66" s="3">
-        <v>7452000</v>
+        <v>7580500</v>
       </c>
       <c r="G66" s="3">
-        <v>7203600</v>
+        <v>7327800</v>
       </c>
       <c r="H66" s="3">
-        <v>7524100</v>
+        <v>7653800</v>
       </c>
       <c r="I66" s="3">
-        <v>7478400</v>
+        <v>7607400</v>
       </c>
       <c r="J66" s="3">
-        <v>6743000</v>
+        <v>6859300</v>
       </c>
       <c r="K66" s="3">
         <v>5787600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15652300</v>
+        <v>15922200</v>
       </c>
       <c r="E72" s="3">
-        <v>15207200</v>
+        <v>15469400</v>
       </c>
       <c r="F72" s="3">
-        <v>14640500</v>
+        <v>14892900</v>
       </c>
       <c r="G72" s="3">
-        <v>15201700</v>
+        <v>15463800</v>
       </c>
       <c r="H72" s="3">
-        <v>14578900</v>
+        <v>14830300</v>
       </c>
       <c r="I72" s="3">
-        <v>13941400</v>
+        <v>14181800</v>
       </c>
       <c r="J72" s="3">
-        <v>13138500</v>
+        <v>13365000</v>
       </c>
       <c r="K72" s="3">
         <v>12439800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22570200</v>
+        <v>22959300</v>
       </c>
       <c r="E76" s="3">
-        <v>21027700</v>
+        <v>21390300</v>
       </c>
       <c r="F76" s="3">
-        <v>21583300</v>
+        <v>21955500</v>
       </c>
       <c r="G76" s="3">
-        <v>21661600</v>
+        <v>22035000</v>
       </c>
       <c r="H76" s="3">
-        <v>21198000</v>
+        <v>21563500</v>
       </c>
       <c r="I76" s="3">
-        <v>20558200</v>
+        <v>20912600</v>
       </c>
       <c r="J76" s="3">
-        <v>17725600</v>
+        <v>18031200</v>
       </c>
       <c r="K76" s="3">
         <v>14963600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000700</v>
+        <v>1016900</v>
       </c>
       <c r="E81" s="3">
-        <v>958800</v>
+        <v>974300</v>
       </c>
       <c r="F81" s="3">
-        <v>735200</v>
+        <v>747100</v>
       </c>
       <c r="G81" s="3">
-        <v>964700</v>
+        <v>980300</v>
       </c>
       <c r="H81" s="3">
-        <v>1013000</v>
+        <v>1029400</v>
       </c>
       <c r="I81" s="3">
-        <v>1076500</v>
+        <v>1093900</v>
       </c>
       <c r="J81" s="3">
-        <v>824500</v>
+        <v>837900</v>
       </c>
       <c r="K81" s="3">
         <v>604200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>861600</v>
+        <v>875500</v>
       </c>
       <c r="E83" s="3">
-        <v>593500</v>
+        <v>603100</v>
       </c>
       <c r="F83" s="3">
-        <v>765200</v>
+        <v>777600</v>
       </c>
       <c r="G83" s="3">
-        <v>719500</v>
+        <v>731100</v>
       </c>
       <c r="H83" s="3">
-        <v>712100</v>
+        <v>723500</v>
       </c>
       <c r="I83" s="3">
-        <v>678100</v>
+        <v>689100</v>
       </c>
       <c r="J83" s="3">
-        <v>707400</v>
+        <v>718900</v>
       </c>
       <c r="K83" s="3">
         <v>669000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1993900</v>
+        <v>2026100</v>
       </c>
       <c r="E89" s="3">
-        <v>2044000</v>
+        <v>2077000</v>
       </c>
       <c r="F89" s="3">
-        <v>1476200</v>
+        <v>1500100</v>
       </c>
       <c r="G89" s="3">
-        <v>1525700</v>
+        <v>1550300</v>
       </c>
       <c r="H89" s="3">
-        <v>1802600</v>
+        <v>1831700</v>
       </c>
       <c r="I89" s="3">
-        <v>1214800</v>
+        <v>1234400</v>
       </c>
       <c r="J89" s="3">
-        <v>1385500</v>
+        <v>1407900</v>
       </c>
       <c r="K89" s="3">
         <v>995300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-995300</v>
+        <v>-1011400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1031600</v>
+        <v>-1048200</v>
       </c>
       <c r="F91" s="3">
-        <v>-782200</v>
+        <v>-794800</v>
       </c>
       <c r="G91" s="3">
-        <v>-621500</v>
+        <v>-631500</v>
       </c>
       <c r="H91" s="3">
-        <v>-614100</v>
+        <v>-624000</v>
       </c>
       <c r="I91" s="3">
-        <v>-530000</v>
+        <v>-538600</v>
       </c>
       <c r="J91" s="3">
-        <v>-472800</v>
+        <v>-480400</v>
       </c>
       <c r="K91" s="3">
         <v>-531000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1352200</v>
+        <v>-1374000</v>
       </c>
       <c r="E94" s="3">
-        <v>-437800</v>
+        <v>-444800</v>
       </c>
       <c r="F94" s="3">
-        <v>-493600</v>
+        <v>-501500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1041300</v>
+        <v>-1058100</v>
       </c>
       <c r="H94" s="3">
-        <v>-992300</v>
+        <v>-1008300</v>
       </c>
       <c r="I94" s="3">
-        <v>-869600</v>
+        <v>-883700</v>
       </c>
       <c r="J94" s="3">
-        <v>-939600</v>
+        <v>-954800</v>
       </c>
       <c r="K94" s="3">
         <v>-601200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-576100</v>
+        <v>-585400</v>
       </c>
       <c r="E96" s="3">
-        <v>-446500</v>
+        <v>-453700</v>
       </c>
       <c r="F96" s="3">
-        <v>-445300</v>
+        <v>-452500</v>
       </c>
       <c r="G96" s="3">
-        <v>-371400</v>
+        <v>-377400</v>
       </c>
       <c r="H96" s="3">
-        <v>-407600</v>
+        <v>-414200</v>
       </c>
       <c r="I96" s="3">
-        <v>-303800</v>
+        <v>-308700</v>
       </c>
       <c r="J96" s="3">
-        <v>-265900</v>
+        <v>-270200</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1459700</v>
+        <v>-1483300</v>
       </c>
       <c r="E100" s="3">
-        <v>-827300</v>
+        <v>-840700</v>
       </c>
       <c r="F100" s="3">
-        <v>-479100</v>
+        <v>-486800</v>
       </c>
       <c r="G100" s="3">
-        <v>-445700</v>
+        <v>-452900</v>
       </c>
       <c r="H100" s="3">
-        <v>-470100</v>
+        <v>-477700</v>
       </c>
       <c r="I100" s="3">
-        <v>-371500</v>
+        <v>-377500</v>
       </c>
       <c r="J100" s="3">
-        <v>-304800</v>
+        <v>-309700</v>
       </c>
       <c r="K100" s="3">
         <v>-285700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-47800</v>
+        <v>-48600</v>
       </c>
       <c r="E101" s="3">
-        <v>37400</v>
+        <v>38000</v>
       </c>
       <c r="F101" s="3">
-        <v>-50700</v>
+        <v>-51600</v>
       </c>
       <c r="G101" s="3">
-        <v>-18500</v>
+        <v>-18800</v>
       </c>
       <c r="H101" s="3">
-        <v>-129700</v>
+        <v>-131800</v>
       </c>
       <c r="I101" s="3">
-        <v>176700</v>
+        <v>179600</v>
       </c>
       <c r="J101" s="3">
-        <v>134900</v>
+        <v>137100</v>
       </c>
       <c r="K101" s="3">
         <v>184100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-865800</v>
+        <v>-879800</v>
       </c>
       <c r="E102" s="3">
-        <v>816400</v>
+        <v>829500</v>
       </c>
       <c r="F102" s="3">
-        <v>452800</v>
+        <v>460100</v>
       </c>
       <c r="G102" s="3">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="H102" s="3">
-        <v>210500</v>
+        <v>213900</v>
       </c>
       <c r="I102" s="3">
-        <v>150400</v>
+        <v>152800</v>
       </c>
       <c r="J102" s="3">
-        <v>276100</v>
+        <v>280600</v>
       </c>
       <c r="K102" s="3">
         <v>292400</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15095100</v>
+        <v>15366900</v>
       </c>
       <c r="E8" s="3">
-        <v>15327800</v>
+        <v>15603900</v>
       </c>
       <c r="F8" s="3">
-        <v>14887200</v>
+        <v>15155300</v>
       </c>
       <c r="G8" s="3">
-        <v>13430800</v>
+        <v>13672700</v>
       </c>
       <c r="H8" s="3">
-        <v>13967700</v>
+        <v>14219200</v>
       </c>
       <c r="I8" s="3">
-        <v>14410500</v>
+        <v>14670000</v>
       </c>
       <c r="J8" s="3">
-        <v>13663200</v>
+        <v>13909200</v>
       </c>
       <c r="K8" s="3">
         <v>11635700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10930400</v>
+        <v>11127200</v>
       </c>
       <c r="E9" s="3">
-        <v>10947400</v>
+        <v>11144600</v>
       </c>
       <c r="F9" s="3">
-        <v>22704400</v>
+        <v>23113200</v>
       </c>
       <c r="G9" s="3">
-        <v>9907000</v>
+        <v>10085400</v>
       </c>
       <c r="H9" s="3">
-        <v>10322300</v>
+        <v>10508200</v>
       </c>
       <c r="I9" s="3">
-        <v>10734600</v>
+        <v>10927900</v>
       </c>
       <c r="J9" s="3">
-        <v>10086300</v>
+        <v>10267900</v>
       </c>
       <c r="K9" s="3">
         <v>8656900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4164700</v>
+        <v>4239700</v>
       </c>
       <c r="E10" s="3">
-        <v>4380400</v>
+        <v>4459300</v>
       </c>
       <c r="F10" s="3">
-        <v>-7817100</v>
+        <v>-7957900</v>
       </c>
       <c r="G10" s="3">
-        <v>3523800</v>
+        <v>3587200</v>
       </c>
       <c r="H10" s="3">
-        <v>3645400</v>
+        <v>3711000</v>
       </c>
       <c r="I10" s="3">
-        <v>3675900</v>
+        <v>3742100</v>
       </c>
       <c r="J10" s="3">
-        <v>3576900</v>
+        <v>3641300</v>
       </c>
       <c r="K10" s="3">
         <v>2978800</v>
@@ -834,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>660100</v>
+        <v>672000</v>
       </c>
       <c r="F12" s="3">
-        <v>550100</v>
+        <v>560000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>521900</v>
+        <v>531300</v>
       </c>
       <c r="J12" s="3">
-        <v>461000</v>
+        <v>469300</v>
       </c>
       <c r="K12" s="3">
         <v>431900</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14149200</v>
+        <v>14404000</v>
       </c>
       <c r="E17" s="3">
-        <v>14432700</v>
+        <v>14692600</v>
       </c>
       <c r="F17" s="3">
-        <v>14031000</v>
+        <v>14283700</v>
       </c>
       <c r="G17" s="3">
-        <v>12443900</v>
+        <v>12668000</v>
       </c>
       <c r="H17" s="3">
-        <v>13093000</v>
+        <v>13328800</v>
       </c>
       <c r="I17" s="3">
-        <v>13528500</v>
+        <v>13772200</v>
       </c>
       <c r="J17" s="3">
-        <v>12524900</v>
+        <v>12750400</v>
       </c>
       <c r="K17" s="3">
         <v>10936400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>945800</v>
+        <v>962900</v>
       </c>
       <c r="E18" s="3">
-        <v>895100</v>
+        <v>911200</v>
       </c>
       <c r="F18" s="3">
-        <v>856200</v>
+        <v>871600</v>
       </c>
       <c r="G18" s="3">
-        <v>986900</v>
+        <v>1004600</v>
       </c>
       <c r="H18" s="3">
-        <v>874700</v>
+        <v>890400</v>
       </c>
       <c r="I18" s="3">
-        <v>882000</v>
+        <v>897800</v>
       </c>
       <c r="J18" s="3">
-        <v>1138300</v>
+        <v>1158800</v>
       </c>
       <c r="K18" s="3">
         <v>699300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>473100</v>
+        <v>481600</v>
       </c>
       <c r="E20" s="3">
-        <v>443600</v>
+        <v>451600</v>
       </c>
       <c r="F20" s="3">
-        <v>377400</v>
+        <v>384200</v>
       </c>
       <c r="G20" s="3">
-        <v>322900</v>
+        <v>328700</v>
       </c>
       <c r="H20" s="3">
-        <v>516800</v>
+        <v>526100</v>
       </c>
       <c r="I20" s="3">
-        <v>284600</v>
+        <v>289800</v>
       </c>
       <c r="J20" s="3">
-        <v>260800</v>
+        <v>265500</v>
       </c>
       <c r="K20" s="3">
         <v>239300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2290800</v>
+        <v>2333900</v>
       </c>
       <c r="E21" s="3">
-        <v>1939300</v>
+        <v>1975600</v>
       </c>
       <c r="F21" s="3">
-        <v>2007900</v>
+        <v>2045700</v>
       </c>
       <c r="G21" s="3">
-        <v>2037800</v>
+        <v>2076100</v>
       </c>
       <c r="H21" s="3">
-        <v>2111900</v>
+        <v>2151500</v>
       </c>
       <c r="I21" s="3">
-        <v>1852700</v>
+        <v>1887600</v>
       </c>
       <c r="J21" s="3">
-        <v>2115000</v>
+        <v>2154600</v>
       </c>
       <c r="K21" s="3">
         <v>1609000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E22" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="G22" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H22" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="I22" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="J22" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="K22" s="3">
         <v>17200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1404900</v>
+        <v>1430200</v>
       </c>
       <c r="E23" s="3">
-        <v>1327400</v>
+        <v>1351300</v>
       </c>
       <c r="F23" s="3">
-        <v>1227100</v>
+        <v>1249200</v>
       </c>
       <c r="G23" s="3">
-        <v>1301300</v>
+        <v>1324700</v>
       </c>
       <c r="H23" s="3">
-        <v>1374300</v>
+        <v>1399100</v>
       </c>
       <c r="I23" s="3">
-        <v>1150400</v>
+        <v>1171100</v>
       </c>
       <c r="J23" s="3">
-        <v>1380800</v>
+        <v>1405600</v>
       </c>
       <c r="K23" s="3">
         <v>921400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>349100</v>
+        <v>355400</v>
       </c>
       <c r="E24" s="3">
-        <v>243100</v>
+        <v>247500</v>
       </c>
       <c r="F24" s="3">
-        <v>450900</v>
+        <v>459000</v>
       </c>
       <c r="G24" s="3">
-        <v>268500</v>
+        <v>273300</v>
       </c>
       <c r="H24" s="3">
-        <v>296300</v>
+        <v>301700</v>
       </c>
       <c r="I24" s="3">
-        <v>-32500</v>
+        <v>-33100</v>
       </c>
       <c r="J24" s="3">
-        <v>483800</v>
+        <v>492600</v>
       </c>
       <c r="K24" s="3">
         <v>309200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1055800</v>
+        <v>1074800</v>
       </c>
       <c r="E26" s="3">
-        <v>1084200</v>
+        <v>1103800</v>
       </c>
       <c r="F26" s="3">
-        <v>776200</v>
+        <v>790200</v>
       </c>
       <c r="G26" s="3">
-        <v>1032800</v>
+        <v>1051400</v>
       </c>
       <c r="H26" s="3">
-        <v>1078000</v>
+        <v>1097400</v>
       </c>
       <c r="I26" s="3">
-        <v>1182900</v>
+        <v>1204200</v>
       </c>
       <c r="J26" s="3">
-        <v>896900</v>
+        <v>913100</v>
       </c>
       <c r="K26" s="3">
         <v>612200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1016900</v>
+        <v>1035200</v>
       </c>
       <c r="E27" s="3">
-        <v>974300</v>
+        <v>991800</v>
       </c>
       <c r="F27" s="3">
-        <v>747100</v>
+        <v>760500</v>
       </c>
       <c r="G27" s="3">
-        <v>980300</v>
+        <v>997900</v>
       </c>
       <c r="H27" s="3">
-        <v>1029400</v>
+        <v>1047900</v>
       </c>
       <c r="I27" s="3">
-        <v>1093900</v>
+        <v>1113600</v>
       </c>
       <c r="J27" s="3">
-        <v>837900</v>
+        <v>852900</v>
       </c>
       <c r="K27" s="3">
         <v>604200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-473100</v>
+        <v>-481600</v>
       </c>
       <c r="E32" s="3">
-        <v>-443600</v>
+        <v>-451600</v>
       </c>
       <c r="F32" s="3">
-        <v>-377400</v>
+        <v>-384200</v>
       </c>
       <c r="G32" s="3">
-        <v>-322900</v>
+        <v>-328700</v>
       </c>
       <c r="H32" s="3">
-        <v>-516800</v>
+        <v>-526100</v>
       </c>
       <c r="I32" s="3">
-        <v>-284600</v>
+        <v>-289800</v>
       </c>
       <c r="J32" s="3">
-        <v>-260800</v>
+        <v>-265500</v>
       </c>
       <c r="K32" s="3">
         <v>-239300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1016900</v>
+        <v>1035200</v>
       </c>
       <c r="E33" s="3">
-        <v>974300</v>
+        <v>991800</v>
       </c>
       <c r="F33" s="3">
-        <v>747100</v>
+        <v>760500</v>
       </c>
       <c r="G33" s="3">
-        <v>980300</v>
+        <v>997900</v>
       </c>
       <c r="H33" s="3">
-        <v>1029400</v>
+        <v>1047900</v>
       </c>
       <c r="I33" s="3">
-        <v>1093900</v>
+        <v>1113600</v>
       </c>
       <c r="J33" s="3">
-        <v>837900</v>
+        <v>852900</v>
       </c>
       <c r="K33" s="3">
         <v>604200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1016900</v>
+        <v>1035200</v>
       </c>
       <c r="E35" s="3">
-        <v>974300</v>
+        <v>991800</v>
       </c>
       <c r="F35" s="3">
-        <v>747100</v>
+        <v>760500</v>
       </c>
       <c r="G35" s="3">
-        <v>980300</v>
+        <v>997900</v>
       </c>
       <c r="H35" s="3">
-        <v>1029400</v>
+        <v>1047900</v>
       </c>
       <c r="I35" s="3">
-        <v>1093900</v>
+        <v>1113600</v>
       </c>
       <c r="J35" s="3">
-        <v>837900</v>
+        <v>852900</v>
       </c>
       <c r="K35" s="3">
         <v>604200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3961200</v>
+        <v>4032500</v>
       </c>
       <c r="E41" s="3">
-        <v>4841000</v>
+        <v>4928100</v>
       </c>
       <c r="F41" s="3">
-        <v>4011400</v>
+        <v>4083700</v>
       </c>
       <c r="G41" s="3">
-        <v>3551300</v>
+        <v>3615200</v>
       </c>
       <c r="H41" s="3">
-        <v>3530700</v>
+        <v>3594300</v>
       </c>
       <c r="I41" s="3">
-        <v>3316900</v>
+        <v>3376600</v>
       </c>
       <c r="J41" s="3">
-        <v>3164000</v>
+        <v>3221000</v>
       </c>
       <c r="K41" s="3">
         <v>2776600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>698900</v>
+        <v>711500</v>
       </c>
       <c r="E42" s="3">
-        <v>1029700</v>
+        <v>1048300</v>
       </c>
       <c r="F42" s="3">
-        <v>2339400</v>
+        <v>2381600</v>
       </c>
       <c r="G42" s="3">
-        <v>2807200</v>
+        <v>2857700</v>
       </c>
       <c r="H42" s="3">
-        <v>2975300</v>
+        <v>3028900</v>
       </c>
       <c r="I42" s="3">
-        <v>2639400</v>
+        <v>2686900</v>
       </c>
       <c r="J42" s="3">
-        <v>2607600</v>
+        <v>2654600</v>
       </c>
       <c r="K42" s="3">
         <v>2033800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3174600</v>
+        <v>3231800</v>
       </c>
       <c r="E43" s="3">
-        <v>3373400</v>
+        <v>3434200</v>
       </c>
       <c r="F43" s="3">
-        <v>3612300</v>
+        <v>3677400</v>
       </c>
       <c r="G43" s="3">
-        <v>2966600</v>
+        <v>3020100</v>
       </c>
       <c r="H43" s="3">
-        <v>2681100</v>
+        <v>2729400</v>
       </c>
       <c r="I43" s="3">
-        <v>2956300</v>
+        <v>3009500</v>
       </c>
       <c r="J43" s="3">
-        <v>2594500</v>
+        <v>2641200</v>
       </c>
       <c r="K43" s="3">
         <v>2647800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3250200</v>
+        <v>3308800</v>
       </c>
       <c r="E44" s="3">
-        <v>3246200</v>
+        <v>3304700</v>
       </c>
       <c r="F44" s="3">
-        <v>3444400</v>
+        <v>3506400</v>
       </c>
       <c r="G44" s="3">
-        <v>3126100</v>
+        <v>3182400</v>
       </c>
       <c r="H44" s="3">
-        <v>3095100</v>
+        <v>3150900</v>
       </c>
       <c r="I44" s="3">
-        <v>3346500</v>
+        <v>3406700</v>
       </c>
       <c r="J44" s="3">
-        <v>3170000</v>
+        <v>3227100</v>
       </c>
       <c r="K44" s="3">
         <v>2694700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>268600</v>
+        <v>273500</v>
       </c>
       <c r="E45" s="3">
-        <v>327000</v>
+        <v>332900</v>
       </c>
       <c r="F45" s="3">
-        <v>2090800</v>
+        <v>2128400</v>
       </c>
       <c r="G45" s="3">
-        <v>1130100</v>
+        <v>1150500</v>
       </c>
       <c r="H45" s="3">
-        <v>1261900</v>
+        <v>1284600</v>
       </c>
       <c r="I45" s="3">
-        <v>1500300</v>
+        <v>1527300</v>
       </c>
       <c r="J45" s="3">
-        <v>1372400</v>
+        <v>1397200</v>
       </c>
       <c r="K45" s="3">
         <v>1376800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11353600</v>
+        <v>11558000</v>
       </c>
       <c r="E46" s="3">
-        <v>12817300</v>
+        <v>13048100</v>
       </c>
       <c r="F46" s="3">
-        <v>13838100</v>
+        <v>14087300</v>
       </c>
       <c r="G46" s="3">
-        <v>13581300</v>
+        <v>13825900</v>
       </c>
       <c r="H46" s="3">
-        <v>13544100</v>
+        <v>13788100</v>
       </c>
       <c r="I46" s="3">
-        <v>13759200</v>
+        <v>14007000</v>
       </c>
       <c r="J46" s="3">
-        <v>12908600</v>
+        <v>13141100</v>
       </c>
       <c r="K46" s="3">
         <v>11529600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11717300</v>
+        <v>11928300</v>
       </c>
       <c r="E47" s="3">
-        <v>9304800</v>
+        <v>9472400</v>
       </c>
       <c r="F47" s="3">
-        <v>20221300</v>
+        <v>20585400</v>
       </c>
       <c r="G47" s="3">
-        <v>10674300</v>
+        <v>10866600</v>
       </c>
       <c r="H47" s="3">
-        <v>10680400</v>
+        <v>10872800</v>
       </c>
       <c r="I47" s="3">
-        <v>9927500</v>
+        <v>10106200</v>
       </c>
       <c r="J47" s="3">
-        <v>6968700</v>
+        <v>7094200</v>
       </c>
       <c r="K47" s="3">
         <v>4604000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3947700</v>
+        <v>4018800</v>
       </c>
       <c r="E48" s="3">
-        <v>3227100</v>
+        <v>3285200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>2516700</v>
+        <v>2562100</v>
       </c>
       <c r="H48" s="3">
-        <v>2496800</v>
+        <v>2541700</v>
       </c>
       <c r="I48" s="3">
-        <v>2468500</v>
+        <v>2512900</v>
       </c>
       <c r="J48" s="3">
-        <v>2554100</v>
+        <v>2600100</v>
       </c>
       <c r="K48" s="3">
         <v>2443600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3122200</v>
+        <v>3178400</v>
       </c>
       <c r="E49" s="3">
-        <v>2166500</v>
+        <v>2205500</v>
       </c>
       <c r="F49" s="3">
-        <v>4237700</v>
+        <v>4314000</v>
       </c>
       <c r="G49" s="3">
-        <v>1620900</v>
+        <v>1650100</v>
       </c>
       <c r="H49" s="3">
-        <v>1526500</v>
+        <v>1554000</v>
       </c>
       <c r="I49" s="3">
-        <v>1498900</v>
+        <v>1525900</v>
       </c>
       <c r="J49" s="3">
-        <v>1661000</v>
+        <v>1691000</v>
       </c>
       <c r="K49" s="3">
         <v>1436300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>540900</v>
+        <v>550700</v>
       </c>
       <c r="E52" s="3">
-        <v>506700</v>
+        <v>515800</v>
       </c>
       <c r="F52" s="3">
-        <v>1534600</v>
+        <v>1313700</v>
       </c>
       <c r="G52" s="3">
-        <v>969600</v>
+        <v>987000</v>
       </c>
       <c r="H52" s="3">
-        <v>969400</v>
+        <v>986900</v>
       </c>
       <c r="I52" s="3">
-        <v>865900</v>
+        <v>881500</v>
       </c>
       <c r="J52" s="3">
-        <v>798100</v>
+        <v>812400</v>
       </c>
       <c r="K52" s="3">
         <v>737600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30681700</v>
+        <v>31234200</v>
       </c>
       <c r="E54" s="3">
-        <v>28022400</v>
+        <v>28527000</v>
       </c>
       <c r="F54" s="3">
-        <v>29536000</v>
+        <v>30067900</v>
       </c>
       <c r="G54" s="3">
-        <v>29362800</v>
+        <v>29891600</v>
       </c>
       <c r="H54" s="3">
-        <v>29217300</v>
+        <v>29743400</v>
       </c>
       <c r="I54" s="3">
-        <v>28520000</v>
+        <v>29033600</v>
       </c>
       <c r="J54" s="3">
-        <v>24890500</v>
+        <v>25338700</v>
       </c>
       <c r="K54" s="3">
         <v>20751100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1235800</v>
+        <v>1258000</v>
       </c>
       <c r="E57" s="3">
-        <v>1275000</v>
+        <v>1297900</v>
       </c>
       <c r="F57" s="3">
-        <v>2827000</v>
+        <v>2877900</v>
       </c>
       <c r="G57" s="3">
-        <v>1222100</v>
+        <v>1244100</v>
       </c>
       <c r="H57" s="3">
-        <v>1091700</v>
+        <v>1111300</v>
       </c>
       <c r="I57" s="3">
-        <v>1129500</v>
+        <v>1149900</v>
       </c>
       <c r="J57" s="3">
-        <v>1155700</v>
+        <v>1176500</v>
       </c>
       <c r="K57" s="3">
         <v>1011300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>476700</v>
+        <v>485300</v>
       </c>
       <c r="E58" s="3">
-        <v>39700</v>
+        <v>40400</v>
       </c>
       <c r="F58" s="3">
-        <v>118000</v>
+        <v>120200</v>
       </c>
       <c r="G58" s="3">
-        <v>79500</v>
+        <v>81000</v>
       </c>
       <c r="H58" s="3">
-        <v>138200</v>
+        <v>140600</v>
       </c>
       <c r="I58" s="3">
-        <v>128100</v>
+        <v>130400</v>
       </c>
       <c r="J58" s="3">
-        <v>155000</v>
+        <v>157800</v>
       </c>
       <c r="K58" s="3">
         <v>117700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2040000</v>
+        <v>2076700</v>
       </c>
       <c r="E59" s="3">
-        <v>2223000</v>
+        <v>2263000</v>
       </c>
       <c r="F59" s="3">
-        <v>3164800</v>
+        <v>3221800</v>
       </c>
       <c r="G59" s="3">
-        <v>2140800</v>
+        <v>2179300</v>
       </c>
       <c r="H59" s="3">
-        <v>2242500</v>
+        <v>2282900</v>
       </c>
       <c r="I59" s="3">
-        <v>2105400</v>
+        <v>2143300</v>
       </c>
       <c r="J59" s="3">
-        <v>1780400</v>
+        <v>1812500</v>
       </c>
       <c r="K59" s="3">
         <v>1840100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3752500</v>
+        <v>3820100</v>
       </c>
       <c r="E60" s="3">
-        <v>3537600</v>
+        <v>3601300</v>
       </c>
       <c r="F60" s="3">
-        <v>3959000</v>
+        <v>4030300</v>
       </c>
       <c r="G60" s="3">
-        <v>3442400</v>
+        <v>3504400</v>
       </c>
       <c r="H60" s="3">
-        <v>3472300</v>
+        <v>3534900</v>
       </c>
       <c r="I60" s="3">
-        <v>3363000</v>
+        <v>3423600</v>
       </c>
       <c r="J60" s="3">
-        <v>3091100</v>
+        <v>3146800</v>
       </c>
       <c r="K60" s="3">
         <v>2969100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>725200</v>
+        <v>738200</v>
       </c>
       <c r="E61" s="3">
-        <v>53400</v>
+        <v>54400</v>
       </c>
       <c r="F61" s="3">
-        <v>56400</v>
+        <v>57400</v>
       </c>
       <c r="G61" s="3">
-        <v>154900</v>
+        <v>157700</v>
       </c>
       <c r="H61" s="3">
-        <v>171000</v>
+        <v>174100</v>
       </c>
       <c r="I61" s="3">
-        <v>168800</v>
+        <v>171800</v>
       </c>
       <c r="J61" s="3">
-        <v>183800</v>
+        <v>187100</v>
       </c>
       <c r="K61" s="3">
         <v>189600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3036000</v>
+        <v>3090600</v>
       </c>
       <c r="E62" s="3">
-        <v>2131700</v>
+        <v>2170000</v>
       </c>
       <c r="F62" s="3">
-        <v>3010200</v>
+        <v>3064400</v>
       </c>
       <c r="G62" s="3">
-        <v>2931000</v>
+        <v>2983800</v>
       </c>
       <c r="H62" s="3">
-        <v>3165600</v>
+        <v>3222600</v>
       </c>
       <c r="I62" s="3">
-        <v>3242000</v>
+        <v>3300400</v>
       </c>
       <c r="J62" s="3">
-        <v>2856200</v>
+        <v>2907600</v>
       </c>
       <c r="K62" s="3">
         <v>2003700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7722300</v>
+        <v>7861400</v>
       </c>
       <c r="E66" s="3">
-        <v>6632100</v>
+        <v>6751600</v>
       </c>
       <c r="F66" s="3">
-        <v>7580500</v>
+        <v>7717000</v>
       </c>
       <c r="G66" s="3">
-        <v>7327800</v>
+        <v>7459800</v>
       </c>
       <c r="H66" s="3">
-        <v>7653800</v>
+        <v>7791600</v>
       </c>
       <c r="I66" s="3">
-        <v>7607400</v>
+        <v>7744400</v>
       </c>
       <c r="J66" s="3">
-        <v>6859300</v>
+        <v>6982800</v>
       </c>
       <c r="K66" s="3">
         <v>5787600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15922200</v>
+        <v>16208900</v>
       </c>
       <c r="E72" s="3">
-        <v>15469400</v>
+        <v>15748000</v>
       </c>
       <c r="F72" s="3">
-        <v>14892900</v>
+        <v>15161100</v>
       </c>
       <c r="G72" s="3">
-        <v>15463800</v>
+        <v>15742300</v>
       </c>
       <c r="H72" s="3">
-        <v>14830300</v>
+        <v>15097300</v>
       </c>
       <c r="I72" s="3">
-        <v>14181800</v>
+        <v>14437200</v>
       </c>
       <c r="J72" s="3">
-        <v>13365000</v>
+        <v>13605700</v>
       </c>
       <c r="K72" s="3">
         <v>12439800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22959300</v>
+        <v>23372800</v>
       </c>
       <c r="E76" s="3">
-        <v>21390300</v>
+        <v>21775500</v>
       </c>
       <c r="F76" s="3">
-        <v>21955500</v>
+        <v>22350900</v>
       </c>
       <c r="G76" s="3">
-        <v>22035000</v>
+        <v>22431800</v>
       </c>
       <c r="H76" s="3">
-        <v>21563500</v>
+        <v>21951800</v>
       </c>
       <c r="I76" s="3">
-        <v>20912600</v>
+        <v>21289200</v>
       </c>
       <c r="J76" s="3">
-        <v>18031200</v>
+        <v>18355900</v>
       </c>
       <c r="K76" s="3">
         <v>14963600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1016900</v>
+        <v>1035200</v>
       </c>
       <c r="E81" s="3">
-        <v>974300</v>
+        <v>991800</v>
       </c>
       <c r="F81" s="3">
-        <v>747100</v>
+        <v>760500</v>
       </c>
       <c r="G81" s="3">
-        <v>980300</v>
+        <v>997900</v>
       </c>
       <c r="H81" s="3">
-        <v>1029400</v>
+        <v>1047900</v>
       </c>
       <c r="I81" s="3">
-        <v>1093900</v>
+        <v>1113600</v>
       </c>
       <c r="J81" s="3">
-        <v>837900</v>
+        <v>852900</v>
       </c>
       <c r="K81" s="3">
         <v>604200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>875500</v>
+        <v>891300</v>
       </c>
       <c r="E83" s="3">
-        <v>603100</v>
+        <v>614000</v>
       </c>
       <c r="F83" s="3">
-        <v>777600</v>
+        <v>791600</v>
       </c>
       <c r="G83" s="3">
-        <v>731100</v>
+        <v>744200</v>
       </c>
       <c r="H83" s="3">
-        <v>723500</v>
+        <v>736600</v>
       </c>
       <c r="I83" s="3">
-        <v>689100</v>
+        <v>701500</v>
       </c>
       <c r="J83" s="3">
-        <v>718900</v>
+        <v>731800</v>
       </c>
       <c r="K83" s="3">
         <v>669000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2026100</v>
+        <v>2062600</v>
       </c>
       <c r="E89" s="3">
-        <v>2077000</v>
+        <v>2114400</v>
       </c>
       <c r="F89" s="3">
-        <v>1500100</v>
+        <v>1527100</v>
       </c>
       <c r="G89" s="3">
-        <v>1550300</v>
+        <v>1578300</v>
       </c>
       <c r="H89" s="3">
-        <v>1831700</v>
+        <v>1864700</v>
       </c>
       <c r="I89" s="3">
-        <v>1234400</v>
+        <v>1256700</v>
       </c>
       <c r="J89" s="3">
-        <v>1407900</v>
+        <v>1433200</v>
       </c>
       <c r="K89" s="3">
         <v>995300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1011400</v>
+        <v>-1029600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1048200</v>
+        <v>-1067100</v>
       </c>
       <c r="F91" s="3">
-        <v>-794800</v>
+        <v>-809100</v>
       </c>
       <c r="G91" s="3">
-        <v>-631500</v>
+        <v>-642900</v>
       </c>
       <c r="H91" s="3">
-        <v>-624000</v>
+        <v>-635200</v>
       </c>
       <c r="I91" s="3">
-        <v>-538600</v>
+        <v>-548300</v>
       </c>
       <c r="J91" s="3">
-        <v>-480400</v>
+        <v>-489100</v>
       </c>
       <c r="K91" s="3">
         <v>-531000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1374000</v>
+        <v>-1398700</v>
       </c>
       <c r="E94" s="3">
-        <v>-444800</v>
+        <v>-452800</v>
       </c>
       <c r="F94" s="3">
-        <v>-501500</v>
+        <v>-510600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1058100</v>
+        <v>-1077200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1008300</v>
+        <v>-1026400</v>
       </c>
       <c r="I94" s="3">
-        <v>-883700</v>
+        <v>-899600</v>
       </c>
       <c r="J94" s="3">
-        <v>-954800</v>
+        <v>-972000</v>
       </c>
       <c r="K94" s="3">
         <v>-601200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-585400</v>
+        <v>-596000</v>
       </c>
       <c r="E96" s="3">
-        <v>-453700</v>
+        <v>-461900</v>
       </c>
       <c r="F96" s="3">
-        <v>-452500</v>
+        <v>-460700</v>
       </c>
       <c r="G96" s="3">
-        <v>-377400</v>
+        <v>-384200</v>
       </c>
       <c r="H96" s="3">
-        <v>-414200</v>
+        <v>-421600</v>
       </c>
       <c r="I96" s="3">
-        <v>-308700</v>
+        <v>-314300</v>
       </c>
       <c r="J96" s="3">
-        <v>-270200</v>
+        <v>-275100</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1483300</v>
+        <v>-1510000</v>
       </c>
       <c r="E100" s="3">
-        <v>-840700</v>
+        <v>-855800</v>
       </c>
       <c r="F100" s="3">
-        <v>-486800</v>
+        <v>-495600</v>
       </c>
       <c r="G100" s="3">
-        <v>-452900</v>
+        <v>-461000</v>
       </c>
       <c r="H100" s="3">
-        <v>-477700</v>
+        <v>-486300</v>
       </c>
       <c r="I100" s="3">
-        <v>-377500</v>
+        <v>-384300</v>
       </c>
       <c r="J100" s="3">
-        <v>-309700</v>
+        <v>-315300</v>
       </c>
       <c r="K100" s="3">
         <v>-285700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-48600</v>
+        <v>-49500</v>
       </c>
       <c r="E101" s="3">
-        <v>38000</v>
+        <v>38700</v>
       </c>
       <c r="F101" s="3">
-        <v>-51600</v>
+        <v>-52500</v>
       </c>
       <c r="G101" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="H101" s="3">
-        <v>-131800</v>
+        <v>-134200</v>
       </c>
       <c r="I101" s="3">
-        <v>179600</v>
+        <v>182800</v>
       </c>
       <c r="J101" s="3">
-        <v>137100</v>
+        <v>139600</v>
       </c>
       <c r="K101" s="3">
         <v>184100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-879800</v>
+        <v>-895600</v>
       </c>
       <c r="E102" s="3">
-        <v>829500</v>
+        <v>844500</v>
       </c>
       <c r="F102" s="3">
-        <v>460100</v>
+        <v>468400</v>
       </c>
       <c r="G102" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="H102" s="3">
-        <v>213900</v>
+        <v>217700</v>
       </c>
       <c r="I102" s="3">
-        <v>152800</v>
+        <v>155600</v>
       </c>
       <c r="J102" s="3">
-        <v>280600</v>
+        <v>285600</v>
       </c>
       <c r="K102" s="3">
         <v>292400</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15366900</v>
+        <v>14647300</v>
       </c>
       <c r="E8" s="3">
-        <v>15603900</v>
+        <v>14873200</v>
       </c>
       <c r="F8" s="3">
-        <v>15155300</v>
+        <v>14445700</v>
       </c>
       <c r="G8" s="3">
-        <v>13672700</v>
+        <v>13032400</v>
       </c>
       <c r="H8" s="3">
-        <v>14219200</v>
+        <v>13553400</v>
       </c>
       <c r="I8" s="3">
-        <v>14670000</v>
+        <v>13983100</v>
       </c>
       <c r="J8" s="3">
-        <v>13909200</v>
+        <v>13257900</v>
       </c>
       <c r="K8" s="3">
         <v>11635700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11127200</v>
+        <v>10606200</v>
       </c>
       <c r="E9" s="3">
-        <v>11144600</v>
+        <v>10622700</v>
       </c>
       <c r="F9" s="3">
-        <v>23113200</v>
+        <v>22030900</v>
       </c>
       <c r="G9" s="3">
-        <v>10085400</v>
+        <v>9613200</v>
       </c>
       <c r="H9" s="3">
-        <v>10508200</v>
+        <v>10016200</v>
       </c>
       <c r="I9" s="3">
-        <v>10927900</v>
+        <v>10416200</v>
       </c>
       <c r="J9" s="3">
-        <v>10267900</v>
+        <v>9787100</v>
       </c>
       <c r="K9" s="3">
         <v>8656900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4239700</v>
+        <v>4041200</v>
       </c>
       <c r="E10" s="3">
-        <v>4459300</v>
+        <v>4250500</v>
       </c>
       <c r="F10" s="3">
-        <v>-7957900</v>
+        <v>-7585200</v>
       </c>
       <c r="G10" s="3">
-        <v>3587200</v>
+        <v>3419300</v>
       </c>
       <c r="H10" s="3">
-        <v>3711000</v>
+        <v>3537200</v>
       </c>
       <c r="I10" s="3">
-        <v>3742100</v>
+        <v>3566900</v>
       </c>
       <c r="J10" s="3">
-        <v>3641300</v>
+        <v>3470800</v>
       </c>
       <c r="K10" s="3">
         <v>2978800</v>
@@ -834,10 +834,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>672000</v>
+        <v>640500</v>
       </c>
       <c r="F12" s="3">
-        <v>560000</v>
+        <v>533800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>531300</v>
+        <v>506400</v>
       </c>
       <c r="J12" s="3">
-        <v>469300</v>
+        <v>447300</v>
       </c>
       <c r="K12" s="3">
         <v>431900</v>
@@ -909,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>135900</v>
+        <v>129500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14404000</v>
+        <v>13729600</v>
       </c>
       <c r="E17" s="3">
-        <v>14692600</v>
+        <v>14004600</v>
       </c>
       <c r="F17" s="3">
-        <v>14283700</v>
+        <v>13614900</v>
       </c>
       <c r="G17" s="3">
-        <v>12668000</v>
+        <v>12074800</v>
       </c>
       <c r="H17" s="3">
-        <v>13328800</v>
+        <v>12704700</v>
       </c>
       <c r="I17" s="3">
-        <v>13772200</v>
+        <v>13127300</v>
       </c>
       <c r="J17" s="3">
-        <v>12750400</v>
+        <v>12153400</v>
       </c>
       <c r="K17" s="3">
         <v>10936400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>962900</v>
+        <v>917800</v>
       </c>
       <c r="E18" s="3">
-        <v>911200</v>
+        <v>868600</v>
       </c>
       <c r="F18" s="3">
-        <v>871600</v>
+        <v>830800</v>
       </c>
       <c r="G18" s="3">
-        <v>1004600</v>
+        <v>957600</v>
       </c>
       <c r="H18" s="3">
-        <v>890400</v>
+        <v>848700</v>
       </c>
       <c r="I18" s="3">
-        <v>897800</v>
+        <v>855800</v>
       </c>
       <c r="J18" s="3">
-        <v>1158800</v>
+        <v>1104500</v>
       </c>
       <c r="K18" s="3">
         <v>699300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>481600</v>
+        <v>459100</v>
       </c>
       <c r="E20" s="3">
-        <v>451600</v>
+        <v>430500</v>
       </c>
       <c r="F20" s="3">
-        <v>384200</v>
+        <v>366200</v>
       </c>
       <c r="G20" s="3">
-        <v>328700</v>
+        <v>313300</v>
       </c>
       <c r="H20" s="3">
-        <v>526100</v>
+        <v>501400</v>
       </c>
       <c r="I20" s="3">
-        <v>289800</v>
+        <v>276200</v>
       </c>
       <c r="J20" s="3">
-        <v>265500</v>
+        <v>253100</v>
       </c>
       <c r="K20" s="3">
         <v>239300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2333900</v>
+        <v>2230100</v>
       </c>
       <c r="E21" s="3">
-        <v>1975600</v>
+        <v>1886800</v>
       </c>
       <c r="F21" s="3">
-        <v>2045700</v>
+        <v>1954800</v>
       </c>
       <c r="G21" s="3">
-        <v>2076100</v>
+        <v>1983400</v>
       </c>
       <c r="H21" s="3">
-        <v>2151500</v>
+        <v>2055300</v>
       </c>
       <c r="I21" s="3">
-        <v>1887600</v>
+        <v>1803500</v>
       </c>
       <c r="J21" s="3">
-        <v>2154600</v>
+        <v>2058200</v>
       </c>
       <c r="K21" s="3">
         <v>1609000</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="E22" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="G22" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="H22" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="I22" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="J22" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="K22" s="3">
         <v>17200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1430200</v>
+        <v>1363200</v>
       </c>
       <c r="E23" s="3">
-        <v>1351300</v>
+        <v>1288000</v>
       </c>
       <c r="F23" s="3">
-        <v>1249200</v>
+        <v>1190700</v>
       </c>
       <c r="G23" s="3">
-        <v>1324700</v>
+        <v>1262700</v>
       </c>
       <c r="H23" s="3">
-        <v>1399100</v>
+        <v>1333500</v>
       </c>
       <c r="I23" s="3">
-        <v>1171100</v>
+        <v>1116300</v>
       </c>
       <c r="J23" s="3">
-        <v>1405600</v>
+        <v>1339800</v>
       </c>
       <c r="K23" s="3">
         <v>921400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>355400</v>
+        <v>338700</v>
       </c>
       <c r="E24" s="3">
-        <v>247500</v>
+        <v>235900</v>
       </c>
       <c r="F24" s="3">
-        <v>459000</v>
+        <v>437500</v>
       </c>
       <c r="G24" s="3">
-        <v>273300</v>
+        <v>260500</v>
       </c>
       <c r="H24" s="3">
-        <v>301700</v>
+        <v>287600</v>
       </c>
       <c r="I24" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="J24" s="3">
-        <v>492600</v>
+        <v>469500</v>
       </c>
       <c r="K24" s="3">
         <v>309200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1074800</v>
+        <v>1024500</v>
       </c>
       <c r="E26" s="3">
-        <v>1103800</v>
+        <v>1052100</v>
       </c>
       <c r="F26" s="3">
-        <v>790200</v>
+        <v>753200</v>
       </c>
       <c r="G26" s="3">
-        <v>1051400</v>
+        <v>1002200</v>
       </c>
       <c r="H26" s="3">
-        <v>1097400</v>
+        <v>1046000</v>
       </c>
       <c r="I26" s="3">
-        <v>1204200</v>
+        <v>1147800</v>
       </c>
       <c r="J26" s="3">
-        <v>913100</v>
+        <v>870300</v>
       </c>
       <c r="K26" s="3">
         <v>612200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1035200</v>
+        <v>986700</v>
       </c>
       <c r="E27" s="3">
-        <v>991800</v>
+        <v>945400</v>
       </c>
       <c r="F27" s="3">
-        <v>760500</v>
+        <v>724900</v>
       </c>
       <c r="G27" s="3">
-        <v>997900</v>
+        <v>951200</v>
       </c>
       <c r="H27" s="3">
-        <v>1047900</v>
+        <v>998900</v>
       </c>
       <c r="I27" s="3">
-        <v>1113600</v>
+        <v>1061400</v>
       </c>
       <c r="J27" s="3">
-        <v>852900</v>
+        <v>813000</v>
       </c>
       <c r="K27" s="3">
         <v>604200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-481600</v>
+        <v>-459100</v>
       </c>
       <c r="E32" s="3">
-        <v>-451600</v>
+        <v>-430500</v>
       </c>
       <c r="F32" s="3">
-        <v>-384200</v>
+        <v>-366200</v>
       </c>
       <c r="G32" s="3">
-        <v>-328700</v>
+        <v>-313300</v>
       </c>
       <c r="H32" s="3">
-        <v>-526100</v>
+        <v>-501400</v>
       </c>
       <c r="I32" s="3">
-        <v>-289800</v>
+        <v>-276200</v>
       </c>
       <c r="J32" s="3">
-        <v>-265500</v>
+        <v>-253100</v>
       </c>
       <c r="K32" s="3">
         <v>-239300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1035200</v>
+        <v>986700</v>
       </c>
       <c r="E33" s="3">
-        <v>991800</v>
+        <v>945400</v>
       </c>
       <c r="F33" s="3">
-        <v>760500</v>
+        <v>724900</v>
       </c>
       <c r="G33" s="3">
-        <v>997900</v>
+        <v>951200</v>
       </c>
       <c r="H33" s="3">
-        <v>1047900</v>
+        <v>998900</v>
       </c>
       <c r="I33" s="3">
-        <v>1113600</v>
+        <v>1061400</v>
       </c>
       <c r="J33" s="3">
-        <v>852900</v>
+        <v>813000</v>
       </c>
       <c r="K33" s="3">
         <v>604200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1035200</v>
+        <v>986700</v>
       </c>
       <c r="E35" s="3">
-        <v>991800</v>
+        <v>945400</v>
       </c>
       <c r="F35" s="3">
-        <v>760500</v>
+        <v>724900</v>
       </c>
       <c r="G35" s="3">
-        <v>997900</v>
+        <v>951200</v>
       </c>
       <c r="H35" s="3">
-        <v>1047900</v>
+        <v>998900</v>
       </c>
       <c r="I35" s="3">
-        <v>1113600</v>
+        <v>1061400</v>
       </c>
       <c r="J35" s="3">
-        <v>852900</v>
+        <v>813000</v>
       </c>
       <c r="K35" s="3">
         <v>604200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4032500</v>
+        <v>3843700</v>
       </c>
       <c r="E41" s="3">
-        <v>4928100</v>
+        <v>4697400</v>
       </c>
       <c r="F41" s="3">
-        <v>4083700</v>
+        <v>3892400</v>
       </c>
       <c r="G41" s="3">
-        <v>3615200</v>
+        <v>3445900</v>
       </c>
       <c r="H41" s="3">
-        <v>3594300</v>
+        <v>3426000</v>
       </c>
       <c r="I41" s="3">
-        <v>3376600</v>
+        <v>3218500</v>
       </c>
       <c r="J41" s="3">
-        <v>3221000</v>
+        <v>3070200</v>
       </c>
       <c r="K41" s="3">
         <v>2776600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>711500</v>
+        <v>678200</v>
       </c>
       <c r="E42" s="3">
-        <v>1048300</v>
+        <v>999200</v>
       </c>
       <c r="F42" s="3">
-        <v>2381600</v>
+        <v>2270000</v>
       </c>
       <c r="G42" s="3">
-        <v>2857700</v>
+        <v>2723900</v>
       </c>
       <c r="H42" s="3">
-        <v>3028900</v>
+        <v>2887000</v>
       </c>
       <c r="I42" s="3">
-        <v>2686900</v>
+        <v>2561100</v>
       </c>
       <c r="J42" s="3">
-        <v>2654600</v>
+        <v>2530300</v>
       </c>
       <c r="K42" s="3">
         <v>2033800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3231800</v>
+        <v>3080500</v>
       </c>
       <c r="E43" s="3">
-        <v>3434200</v>
+        <v>3273300</v>
       </c>
       <c r="F43" s="3">
-        <v>3677400</v>
+        <v>3505200</v>
       </c>
       <c r="G43" s="3">
-        <v>3020100</v>
+        <v>2878600</v>
       </c>
       <c r="H43" s="3">
-        <v>2729400</v>
+        <v>2601600</v>
       </c>
       <c r="I43" s="3">
-        <v>3009500</v>
+        <v>2868600</v>
       </c>
       <c r="J43" s="3">
-        <v>2641200</v>
+        <v>2517600</v>
       </c>
       <c r="K43" s="3">
         <v>2647800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3308800</v>
+        <v>3153800</v>
       </c>
       <c r="E44" s="3">
-        <v>3304700</v>
+        <v>3149900</v>
       </c>
       <c r="F44" s="3">
-        <v>3506400</v>
+        <v>3342300</v>
       </c>
       <c r="G44" s="3">
-        <v>3182400</v>
+        <v>3033400</v>
       </c>
       <c r="H44" s="3">
-        <v>3150900</v>
+        <v>3003300</v>
       </c>
       <c r="I44" s="3">
-        <v>3406700</v>
+        <v>3247200</v>
       </c>
       <c r="J44" s="3">
-        <v>3227100</v>
+        <v>3075900</v>
       </c>
       <c r="K44" s="3">
         <v>2694700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>273500</v>
+        <v>260600</v>
       </c>
       <c r="E45" s="3">
-        <v>332900</v>
+        <v>317300</v>
       </c>
       <c r="F45" s="3">
-        <v>2128400</v>
+        <v>2028700</v>
       </c>
       <c r="G45" s="3">
-        <v>1150500</v>
+        <v>1096600</v>
       </c>
       <c r="H45" s="3">
-        <v>1284600</v>
+        <v>1224400</v>
       </c>
       <c r="I45" s="3">
-        <v>1527300</v>
+        <v>1455800</v>
       </c>
       <c r="J45" s="3">
-        <v>1397200</v>
+        <v>1331700</v>
       </c>
       <c r="K45" s="3">
         <v>1376800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11558000</v>
+        <v>11016800</v>
       </c>
       <c r="E46" s="3">
-        <v>13048100</v>
+        <v>12437100</v>
       </c>
       <c r="F46" s="3">
-        <v>14087300</v>
+        <v>13427600</v>
       </c>
       <c r="G46" s="3">
-        <v>13825900</v>
+        <v>13178500</v>
       </c>
       <c r="H46" s="3">
-        <v>13788100</v>
+        <v>13142400</v>
       </c>
       <c r="I46" s="3">
-        <v>14007000</v>
+        <v>13351100</v>
       </c>
       <c r="J46" s="3">
-        <v>13141100</v>
+        <v>12525700</v>
       </c>
       <c r="K46" s="3">
         <v>11529600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11928300</v>
+        <v>11369700</v>
       </c>
       <c r="E47" s="3">
-        <v>9472400</v>
+        <v>9028800</v>
       </c>
       <c r="F47" s="3">
-        <v>20585400</v>
+        <v>19621500</v>
       </c>
       <c r="G47" s="3">
-        <v>10866600</v>
+        <v>10357700</v>
       </c>
       <c r="H47" s="3">
-        <v>10872800</v>
+        <v>10363700</v>
       </c>
       <c r="I47" s="3">
-        <v>10106200</v>
+        <v>9633000</v>
       </c>
       <c r="J47" s="3">
-        <v>7094200</v>
+        <v>6762000</v>
       </c>
       <c r="K47" s="3">
         <v>4604000</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4018800</v>
+        <v>3830600</v>
       </c>
       <c r="E48" s="3">
-        <v>3285200</v>
+        <v>3131400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3">
-        <v>2562100</v>
+        <v>2442100</v>
       </c>
       <c r="H48" s="3">
-        <v>2541700</v>
+        <v>2422700</v>
       </c>
       <c r="I48" s="3">
-        <v>2512900</v>
+        <v>2395300</v>
       </c>
       <c r="J48" s="3">
-        <v>2600100</v>
+        <v>2478300</v>
       </c>
       <c r="K48" s="3">
         <v>2443600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3178400</v>
+        <v>3029600</v>
       </c>
       <c r="E49" s="3">
-        <v>2205500</v>
+        <v>2102200</v>
       </c>
       <c r="F49" s="3">
-        <v>4314000</v>
+        <v>4112000</v>
       </c>
       <c r="G49" s="3">
-        <v>1650100</v>
+        <v>1572800</v>
       </c>
       <c r="H49" s="3">
-        <v>1554000</v>
+        <v>1481200</v>
       </c>
       <c r="I49" s="3">
-        <v>1525900</v>
+        <v>1454400</v>
       </c>
       <c r="J49" s="3">
-        <v>1691000</v>
+        <v>1611800</v>
       </c>
       <c r="K49" s="3">
         <v>1436300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>550700</v>
+        <v>524900</v>
       </c>
       <c r="E52" s="3">
-        <v>515800</v>
+        <v>491700</v>
       </c>
       <c r="F52" s="3">
-        <v>1313700</v>
+        <v>1252200</v>
       </c>
       <c r="G52" s="3">
-        <v>987000</v>
+        <v>940800</v>
       </c>
       <c r="H52" s="3">
-        <v>986900</v>
+        <v>940700</v>
       </c>
       <c r="I52" s="3">
-        <v>881500</v>
+        <v>840200</v>
       </c>
       <c r="J52" s="3">
-        <v>812400</v>
+        <v>774400</v>
       </c>
       <c r="K52" s="3">
         <v>737600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31234200</v>
+        <v>29771600</v>
       </c>
       <c r="E54" s="3">
-        <v>28527000</v>
+        <v>27191200</v>
       </c>
       <c r="F54" s="3">
-        <v>30067900</v>
+        <v>28659900</v>
       </c>
       <c r="G54" s="3">
-        <v>29891600</v>
+        <v>28491900</v>
       </c>
       <c r="H54" s="3">
-        <v>29743400</v>
+        <v>28350600</v>
       </c>
       <c r="I54" s="3">
-        <v>29033600</v>
+        <v>27674000</v>
       </c>
       <c r="J54" s="3">
-        <v>25338700</v>
+        <v>24152200</v>
       </c>
       <c r="K54" s="3">
         <v>20751100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1258000</v>
+        <v>1199100</v>
       </c>
       <c r="E57" s="3">
-        <v>1297900</v>
+        <v>1237100</v>
       </c>
       <c r="F57" s="3">
-        <v>2877900</v>
+        <v>2743100</v>
       </c>
       <c r="G57" s="3">
-        <v>1244100</v>
+        <v>1185900</v>
       </c>
       <c r="H57" s="3">
-        <v>1111300</v>
+        <v>1059300</v>
       </c>
       <c r="I57" s="3">
-        <v>1149900</v>
+        <v>1096000</v>
       </c>
       <c r="J57" s="3">
-        <v>1176500</v>
+        <v>1121400</v>
       </c>
       <c r="K57" s="3">
         <v>1011300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>485300</v>
+        <v>462600</v>
       </c>
       <c r="E58" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="F58" s="3">
-        <v>120200</v>
+        <v>114500</v>
       </c>
       <c r="G58" s="3">
-        <v>81000</v>
+        <v>77200</v>
       </c>
       <c r="H58" s="3">
-        <v>140600</v>
+        <v>134100</v>
       </c>
       <c r="I58" s="3">
-        <v>130400</v>
+        <v>124300</v>
       </c>
       <c r="J58" s="3">
-        <v>157800</v>
+        <v>150400</v>
       </c>
       <c r="K58" s="3">
         <v>117700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2076700</v>
+        <v>1979500</v>
       </c>
       <c r="E59" s="3">
-        <v>2263000</v>
+        <v>2157000</v>
       </c>
       <c r="F59" s="3">
-        <v>3221800</v>
+        <v>3070900</v>
       </c>
       <c r="G59" s="3">
-        <v>2179300</v>
+        <v>2077300</v>
       </c>
       <c r="H59" s="3">
-        <v>2282900</v>
+        <v>2176000</v>
       </c>
       <c r="I59" s="3">
-        <v>2143300</v>
+        <v>2042900</v>
       </c>
       <c r="J59" s="3">
-        <v>1812500</v>
+        <v>1727600</v>
       </c>
       <c r="K59" s="3">
         <v>1840100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3820100</v>
+        <v>3641200</v>
       </c>
       <c r="E60" s="3">
-        <v>3601300</v>
+        <v>3432700</v>
       </c>
       <c r="F60" s="3">
-        <v>4030300</v>
+        <v>3841600</v>
       </c>
       <c r="G60" s="3">
-        <v>3504400</v>
+        <v>3340300</v>
       </c>
       <c r="H60" s="3">
-        <v>3534900</v>
+        <v>3369300</v>
       </c>
       <c r="I60" s="3">
-        <v>3423600</v>
+        <v>3263300</v>
       </c>
       <c r="J60" s="3">
-        <v>3146800</v>
+        <v>2999500</v>
       </c>
       <c r="K60" s="3">
         <v>2969100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>738200</v>
+        <v>703600</v>
       </c>
       <c r="E61" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="F61" s="3">
-        <v>57400</v>
+        <v>54700</v>
       </c>
       <c r="G61" s="3">
-        <v>157700</v>
+        <v>150300</v>
       </c>
       <c r="H61" s="3">
-        <v>174100</v>
+        <v>165900</v>
       </c>
       <c r="I61" s="3">
-        <v>171800</v>
+        <v>163800</v>
       </c>
       <c r="J61" s="3">
-        <v>187100</v>
+        <v>178300</v>
       </c>
       <c r="K61" s="3">
         <v>189600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3090600</v>
+        <v>2945900</v>
       </c>
       <c r="E62" s="3">
-        <v>2170000</v>
+        <v>2068400</v>
       </c>
       <c r="F62" s="3">
-        <v>3064400</v>
+        <v>2920900</v>
       </c>
       <c r="G62" s="3">
-        <v>2983800</v>
+        <v>2844100</v>
       </c>
       <c r="H62" s="3">
-        <v>3222600</v>
+        <v>3071700</v>
       </c>
       <c r="I62" s="3">
-        <v>3300400</v>
+        <v>3145800</v>
       </c>
       <c r="J62" s="3">
-        <v>2907600</v>
+        <v>2771500</v>
       </c>
       <c r="K62" s="3">
         <v>2003700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7861400</v>
+        <v>7493300</v>
       </c>
       <c r="E66" s="3">
-        <v>6751600</v>
+        <v>6435400</v>
       </c>
       <c r="F66" s="3">
-        <v>7717000</v>
+        <v>7355700</v>
       </c>
       <c r="G66" s="3">
-        <v>7459800</v>
+        <v>7110500</v>
       </c>
       <c r="H66" s="3">
-        <v>7791600</v>
+        <v>7426800</v>
       </c>
       <c r="I66" s="3">
-        <v>7744400</v>
+        <v>7381700</v>
       </c>
       <c r="J66" s="3">
-        <v>6982800</v>
+        <v>6655800</v>
       </c>
       <c r="K66" s="3">
         <v>5787600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16208900</v>
+        <v>15449900</v>
       </c>
       <c r="E72" s="3">
-        <v>15748000</v>
+        <v>15010600</v>
       </c>
       <c r="F72" s="3">
-        <v>15161100</v>
+        <v>14451200</v>
       </c>
       <c r="G72" s="3">
-        <v>15742300</v>
+        <v>15005100</v>
       </c>
       <c r="H72" s="3">
-        <v>15097300</v>
+        <v>14390400</v>
       </c>
       <c r="I72" s="3">
-        <v>14437200</v>
+        <v>13761200</v>
       </c>
       <c r="J72" s="3">
-        <v>13605700</v>
+        <v>12968600</v>
       </c>
       <c r="K72" s="3">
         <v>12439800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23372800</v>
+        <v>22278300</v>
       </c>
       <c r="E76" s="3">
-        <v>21775500</v>
+        <v>20755800</v>
       </c>
       <c r="F76" s="3">
-        <v>22350900</v>
+        <v>21304200</v>
       </c>
       <c r="G76" s="3">
-        <v>22431800</v>
+        <v>21381400</v>
       </c>
       <c r="H76" s="3">
-        <v>21951800</v>
+        <v>20923900</v>
       </c>
       <c r="I76" s="3">
-        <v>21289200</v>
+        <v>20292300</v>
       </c>
       <c r="J76" s="3">
-        <v>18355900</v>
+        <v>17496400</v>
       </c>
       <c r="K76" s="3">
         <v>14963600</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1035200</v>
+        <v>986700</v>
       </c>
       <c r="E81" s="3">
-        <v>991800</v>
+        <v>945400</v>
       </c>
       <c r="F81" s="3">
-        <v>760500</v>
+        <v>724900</v>
       </c>
       <c r="G81" s="3">
-        <v>997900</v>
+        <v>951200</v>
       </c>
       <c r="H81" s="3">
-        <v>1047900</v>
+        <v>998900</v>
       </c>
       <c r="I81" s="3">
-        <v>1113600</v>
+        <v>1061400</v>
       </c>
       <c r="J81" s="3">
-        <v>852900</v>
+        <v>813000</v>
       </c>
       <c r="K81" s="3">
         <v>604200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>891300</v>
+        <v>849600</v>
       </c>
       <c r="E83" s="3">
-        <v>614000</v>
+        <v>585200</v>
       </c>
       <c r="F83" s="3">
-        <v>791600</v>
+        <v>754500</v>
       </c>
       <c r="G83" s="3">
-        <v>744200</v>
+        <v>709400</v>
       </c>
       <c r="H83" s="3">
-        <v>736600</v>
+        <v>702100</v>
       </c>
       <c r="I83" s="3">
-        <v>701500</v>
+        <v>668600</v>
       </c>
       <c r="J83" s="3">
-        <v>731800</v>
+        <v>697500</v>
       </c>
       <c r="K83" s="3">
         <v>669000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2062600</v>
+        <v>1966000</v>
       </c>
       <c r="E89" s="3">
-        <v>2114400</v>
+        <v>2015400</v>
       </c>
       <c r="F89" s="3">
-        <v>1527100</v>
+        <v>1455600</v>
       </c>
       <c r="G89" s="3">
-        <v>1578300</v>
+        <v>1504400</v>
       </c>
       <c r="H89" s="3">
-        <v>1864700</v>
+        <v>1777400</v>
       </c>
       <c r="I89" s="3">
-        <v>1256700</v>
+        <v>1197800</v>
       </c>
       <c r="J89" s="3">
-        <v>1433200</v>
+        <v>1366100</v>
       </c>
       <c r="K89" s="3">
         <v>995300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1029600</v>
+        <v>-981400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1067100</v>
+        <v>-1017100</v>
       </c>
       <c r="F91" s="3">
-        <v>-809100</v>
+        <v>-771200</v>
       </c>
       <c r="G91" s="3">
-        <v>-642900</v>
+        <v>-612800</v>
       </c>
       <c r="H91" s="3">
-        <v>-635200</v>
+        <v>-605500</v>
       </c>
       <c r="I91" s="3">
-        <v>-548300</v>
+        <v>-522600</v>
       </c>
       <c r="J91" s="3">
-        <v>-489100</v>
+        <v>-466200</v>
       </c>
       <c r="K91" s="3">
         <v>-531000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1398700</v>
+        <v>-1333200</v>
       </c>
       <c r="E94" s="3">
-        <v>-452800</v>
+        <v>-431600</v>
       </c>
       <c r="F94" s="3">
-        <v>-510600</v>
+        <v>-486700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1077200</v>
+        <v>-1026700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1026400</v>
+        <v>-978400</v>
       </c>
       <c r="I94" s="3">
-        <v>-899600</v>
+        <v>-857400</v>
       </c>
       <c r="J94" s="3">
-        <v>-972000</v>
+        <v>-926500</v>
       </c>
       <c r="K94" s="3">
         <v>-601200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-596000</v>
+        <v>-568100</v>
       </c>
       <c r="E96" s="3">
-        <v>-461900</v>
+        <v>-440300</v>
       </c>
       <c r="F96" s="3">
-        <v>-460700</v>
+        <v>-439100</v>
       </c>
       <c r="G96" s="3">
-        <v>-384200</v>
+        <v>-366200</v>
       </c>
       <c r="H96" s="3">
-        <v>-421600</v>
+        <v>-401900</v>
       </c>
       <c r="I96" s="3">
-        <v>-314300</v>
+        <v>-299600</v>
       </c>
       <c r="J96" s="3">
-        <v>-275100</v>
+        <v>-262200</v>
       </c>
       <c r="K96" s="3">
         <v>-221200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1510000</v>
+        <v>-1439300</v>
       </c>
       <c r="E100" s="3">
-        <v>-855800</v>
+        <v>-815800</v>
       </c>
       <c r="F100" s="3">
-        <v>-495600</v>
+        <v>-472400</v>
       </c>
       <c r="G100" s="3">
-        <v>-461000</v>
+        <v>-439400</v>
       </c>
       <c r="H100" s="3">
-        <v>-486300</v>
+        <v>-463600</v>
       </c>
       <c r="I100" s="3">
-        <v>-384300</v>
+        <v>-366300</v>
       </c>
       <c r="J100" s="3">
-        <v>-315300</v>
+        <v>-300500</v>
       </c>
       <c r="K100" s="3">
         <v>-285700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-49500</v>
+        <v>-47100</v>
       </c>
       <c r="E101" s="3">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="F101" s="3">
-        <v>-52500</v>
+        <v>-50000</v>
       </c>
       <c r="G101" s="3">
-        <v>-19200</v>
+        <v>-18300</v>
       </c>
       <c r="H101" s="3">
-        <v>-134200</v>
+        <v>-127900</v>
       </c>
       <c r="I101" s="3">
-        <v>182800</v>
+        <v>174200</v>
       </c>
       <c r="J101" s="3">
-        <v>139600</v>
+        <v>133000</v>
       </c>
       <c r="K101" s="3">
         <v>184100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-895600</v>
+        <v>-853700</v>
       </c>
       <c r="E102" s="3">
-        <v>844500</v>
+        <v>804900</v>
       </c>
       <c r="F102" s="3">
-        <v>468400</v>
+        <v>446500</v>
       </c>
       <c r="G102" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="H102" s="3">
-        <v>217700</v>
+        <v>207500</v>
       </c>
       <c r="I102" s="3">
-        <v>155600</v>
+        <v>148300</v>
       </c>
       <c r="J102" s="3">
-        <v>285600</v>
+        <v>272200</v>
       </c>
       <c r="K102" s="3">
         <v>292400</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14647300</v>
+        <v>14032200</v>
       </c>
       <c r="E8" s="3">
-        <v>14873200</v>
+        <v>14695300</v>
       </c>
       <c r="F8" s="3">
-        <v>14445700</v>
+        <v>14921900</v>
       </c>
       <c r="G8" s="3">
-        <v>13032400</v>
+        <v>14493000</v>
       </c>
       <c r="H8" s="3">
-        <v>13553400</v>
+        <v>13075100</v>
       </c>
       <c r="I8" s="3">
-        <v>13983100</v>
+        <v>13597800</v>
       </c>
       <c r="J8" s="3">
+        <v>14028900</v>
+      </c>
+      <c r="K8" s="3">
         <v>13257900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11635700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10765500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10606200</v>
+        <v>10292300</v>
       </c>
       <c r="E9" s="3">
-        <v>10622700</v>
+        <v>10640900</v>
       </c>
       <c r="F9" s="3">
-        <v>22030900</v>
+        <v>10657500</v>
       </c>
       <c r="G9" s="3">
-        <v>9613200</v>
+        <v>22103100</v>
       </c>
       <c r="H9" s="3">
-        <v>10016200</v>
+        <v>9644600</v>
       </c>
       <c r="I9" s="3">
-        <v>10416200</v>
+        <v>10049000</v>
       </c>
       <c r="J9" s="3">
+        <v>10450300</v>
+      </c>
+      <c r="K9" s="3">
         <v>9787100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8656900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7866100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4041200</v>
+        <v>3739800</v>
       </c>
       <c r="E10" s="3">
-        <v>4250500</v>
+        <v>4054400</v>
       </c>
       <c r="F10" s="3">
-        <v>-7585200</v>
+        <v>4264400</v>
       </c>
       <c r="G10" s="3">
-        <v>3419300</v>
+        <v>-7610100</v>
       </c>
       <c r="H10" s="3">
-        <v>3537200</v>
+        <v>3430500</v>
       </c>
       <c r="I10" s="3">
-        <v>3566900</v>
+        <v>3548800</v>
       </c>
       <c r="J10" s="3">
+        <v>3578600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3470800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2978800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2899400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,19 +837,20 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
-        <v>640500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>533800</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -845,21 +858,24 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>506400</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>508100</v>
+      </c>
+      <c r="K12" s="3">
         <v>447300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>431900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>411900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,17 +906,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>67800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -908,11 +927,11 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>129500</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>130000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -920,35 +939,38 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>11400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>270500</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>135600</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>135500</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13729600</v>
+        <v>13383000</v>
       </c>
       <c r="E17" s="3">
-        <v>14004600</v>
+        <v>13774500</v>
       </c>
       <c r="F17" s="3">
-        <v>13614900</v>
+        <v>14050500</v>
       </c>
       <c r="G17" s="3">
-        <v>12074800</v>
+        <v>13659500</v>
       </c>
       <c r="H17" s="3">
-        <v>12704700</v>
+        <v>12114400</v>
       </c>
       <c r="I17" s="3">
-        <v>13127300</v>
+        <v>12746300</v>
       </c>
       <c r="J17" s="3">
+        <v>13170300</v>
+      </c>
+      <c r="K17" s="3">
         <v>12153400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10936400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9893900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>917800</v>
+        <v>649200</v>
       </c>
       <c r="E18" s="3">
-        <v>868600</v>
+        <v>920800</v>
       </c>
       <c r="F18" s="3">
-        <v>830800</v>
+        <v>871400</v>
       </c>
       <c r="G18" s="3">
-        <v>957600</v>
+        <v>833500</v>
       </c>
       <c r="H18" s="3">
-        <v>848700</v>
+        <v>960700</v>
       </c>
       <c r="I18" s="3">
-        <v>855800</v>
+        <v>851500</v>
       </c>
       <c r="J18" s="3">
+        <v>858600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1104500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>699300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>871600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>459100</v>
+        <v>431100</v>
       </c>
       <c r="E20" s="3">
-        <v>430500</v>
+        <v>460600</v>
       </c>
       <c r="F20" s="3">
-        <v>366200</v>
+        <v>431900</v>
       </c>
       <c r="G20" s="3">
-        <v>313300</v>
+        <v>367400</v>
       </c>
       <c r="H20" s="3">
-        <v>501400</v>
+        <v>314400</v>
       </c>
       <c r="I20" s="3">
-        <v>276200</v>
+        <v>503100</v>
       </c>
       <c r="J20" s="3">
+        <v>277100</v>
+      </c>
+      <c r="K20" s="3">
         <v>253100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>239300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>185500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2230100</v>
+        <v>2083700</v>
       </c>
       <c r="E21" s="3">
-        <v>1886800</v>
+        <v>2234600</v>
       </c>
       <c r="F21" s="3">
-        <v>1954800</v>
+        <v>1891100</v>
       </c>
       <c r="G21" s="3">
-        <v>1983400</v>
+        <v>1958700</v>
       </c>
       <c r="H21" s="3">
-        <v>2055300</v>
+        <v>1987600</v>
       </c>
       <c r="I21" s="3">
-        <v>1803500</v>
+        <v>2059700</v>
       </c>
       <c r="J21" s="3">
+        <v>1807200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2058200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1609000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1718800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
         <v>13600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>11100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
-        <v>16600</v>
-      </c>
       <c r="I22" s="3">
-        <v>15700</v>
+        <v>16700</v>
       </c>
       <c r="J22" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K22" s="3">
         <v>17800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1363200</v>
+        <v>1080400</v>
       </c>
       <c r="E23" s="3">
-        <v>1288000</v>
+        <v>1367700</v>
       </c>
       <c r="F23" s="3">
-        <v>1190700</v>
+        <v>1292200</v>
       </c>
       <c r="G23" s="3">
-        <v>1262700</v>
+        <v>1194600</v>
       </c>
       <c r="H23" s="3">
-        <v>1333500</v>
+        <v>1266800</v>
       </c>
       <c r="I23" s="3">
-        <v>1116300</v>
+        <v>1337900</v>
       </c>
       <c r="J23" s="3">
+        <v>1119900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1339800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>921400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1038600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>338700</v>
+        <v>222500</v>
       </c>
       <c r="E24" s="3">
-        <v>235900</v>
+        <v>339800</v>
       </c>
       <c r="F24" s="3">
-        <v>437500</v>
+        <v>236700</v>
       </c>
       <c r="G24" s="3">
-        <v>260500</v>
+        <v>439000</v>
       </c>
       <c r="H24" s="3">
-        <v>287600</v>
+        <v>261400</v>
       </c>
       <c r="I24" s="3">
-        <v>-31500</v>
+        <v>288500</v>
       </c>
       <c r="J24" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="K24" s="3">
         <v>469500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>309200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>272400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1024500</v>
+        <v>857900</v>
       </c>
       <c r="E26" s="3">
-        <v>1052100</v>
+        <v>1027900</v>
       </c>
       <c r="F26" s="3">
-        <v>753200</v>
+        <v>1055500</v>
       </c>
       <c r="G26" s="3">
-        <v>1002200</v>
+        <v>755700</v>
       </c>
       <c r="H26" s="3">
-        <v>1046000</v>
+        <v>1005500</v>
       </c>
       <c r="I26" s="3">
-        <v>1147800</v>
+        <v>1049400</v>
       </c>
       <c r="J26" s="3">
+        <v>1151500</v>
+      </c>
+      <c r="K26" s="3">
         <v>870300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>612200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>766200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>986700</v>
+        <v>829100</v>
       </c>
       <c r="E27" s="3">
-        <v>945400</v>
+        <v>990000</v>
       </c>
       <c r="F27" s="3">
-        <v>724900</v>
+        <v>948500</v>
       </c>
       <c r="G27" s="3">
-        <v>951200</v>
+        <v>727300</v>
       </c>
       <c r="H27" s="3">
-        <v>998900</v>
+        <v>954300</v>
       </c>
       <c r="I27" s="3">
-        <v>1061400</v>
+        <v>1002100</v>
       </c>
       <c r="J27" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="K27" s="3">
         <v>813000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>604200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>717400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-459100</v>
+        <v>-431100</v>
       </c>
       <c r="E32" s="3">
-        <v>-430500</v>
+        <v>-460600</v>
       </c>
       <c r="F32" s="3">
-        <v>-366200</v>
+        <v>-431900</v>
       </c>
       <c r="G32" s="3">
-        <v>-313300</v>
+        <v>-367400</v>
       </c>
       <c r="H32" s="3">
-        <v>-501400</v>
+        <v>-314400</v>
       </c>
       <c r="I32" s="3">
-        <v>-276200</v>
+        <v>-503100</v>
       </c>
       <c r="J32" s="3">
+        <v>-277100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-253100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-239300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-185500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>986700</v>
+        <v>829100</v>
       </c>
       <c r="E33" s="3">
-        <v>945400</v>
+        <v>990000</v>
       </c>
       <c r="F33" s="3">
-        <v>724900</v>
+        <v>948500</v>
       </c>
       <c r="G33" s="3">
-        <v>951200</v>
+        <v>727300</v>
       </c>
       <c r="H33" s="3">
-        <v>998900</v>
+        <v>954300</v>
       </c>
       <c r="I33" s="3">
-        <v>1061400</v>
+        <v>1002100</v>
       </c>
       <c r="J33" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="K33" s="3">
         <v>813000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>604200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>717400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>986700</v>
+        <v>829100</v>
       </c>
       <c r="E35" s="3">
-        <v>945400</v>
+        <v>990000</v>
       </c>
       <c r="F35" s="3">
-        <v>724900</v>
+        <v>948500</v>
       </c>
       <c r="G35" s="3">
-        <v>951200</v>
+        <v>727300</v>
       </c>
       <c r="H35" s="3">
-        <v>998900</v>
+        <v>954300</v>
       </c>
       <c r="I35" s="3">
-        <v>1061400</v>
+        <v>1002100</v>
       </c>
       <c r="J35" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="K35" s="3">
         <v>813000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>604200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>717400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3843700</v>
+        <v>3554000</v>
       </c>
       <c r="E41" s="3">
-        <v>4697400</v>
+        <v>3856300</v>
       </c>
       <c r="F41" s="3">
-        <v>3892400</v>
+        <v>4712800</v>
       </c>
       <c r="G41" s="3">
-        <v>3445900</v>
+        <v>3905200</v>
       </c>
       <c r="H41" s="3">
-        <v>3426000</v>
+        <v>3457200</v>
       </c>
       <c r="I41" s="3">
-        <v>3218500</v>
+        <v>3437200</v>
       </c>
       <c r="J41" s="3">
+        <v>3229000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3070200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2776600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2470500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>678200</v>
+        <v>894700</v>
       </c>
       <c r="E42" s="3">
-        <v>999200</v>
+        <v>680400</v>
       </c>
       <c r="F42" s="3">
-        <v>2270000</v>
+        <v>1002500</v>
       </c>
       <c r="G42" s="3">
-        <v>2723900</v>
+        <v>2277500</v>
       </c>
       <c r="H42" s="3">
-        <v>2887000</v>
+        <v>2732800</v>
       </c>
       <c r="I42" s="3">
-        <v>2561100</v>
+        <v>2896500</v>
       </c>
       <c r="J42" s="3">
+        <v>2569500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2530300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2033800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1861700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3080500</v>
+        <v>3121100</v>
       </c>
       <c r="E43" s="3">
-        <v>3273300</v>
+        <v>3090500</v>
       </c>
       <c r="F43" s="3">
-        <v>3505200</v>
+        <v>3284100</v>
       </c>
       <c r="G43" s="3">
-        <v>2878600</v>
+        <v>3516600</v>
       </c>
       <c r="H43" s="3">
-        <v>2601600</v>
+        <v>2888100</v>
       </c>
       <c r="I43" s="3">
-        <v>2868600</v>
+        <v>2610100</v>
       </c>
       <c r="J43" s="3">
+        <v>2878000</v>
+      </c>
+      <c r="K43" s="3">
         <v>2517600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2647800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2172700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3153800</v>
+        <v>3173800</v>
       </c>
       <c r="E44" s="3">
-        <v>3149900</v>
+        <v>3164200</v>
       </c>
       <c r="F44" s="3">
-        <v>3342300</v>
+        <v>3160300</v>
       </c>
       <c r="G44" s="3">
-        <v>3033400</v>
+        <v>3353200</v>
       </c>
       <c r="H44" s="3">
-        <v>3003300</v>
+        <v>3043300</v>
       </c>
       <c r="I44" s="3">
-        <v>3247200</v>
+        <v>3013200</v>
       </c>
       <c r="J44" s="3">
+        <v>3257800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3075900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2694700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2443800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260600</v>
+        <v>282200</v>
       </c>
       <c r="E45" s="3">
-        <v>317300</v>
+        <v>261500</v>
       </c>
       <c r="F45" s="3">
-        <v>2028700</v>
+        <v>318300</v>
       </c>
       <c r="G45" s="3">
-        <v>1096600</v>
+        <v>2035400</v>
       </c>
       <c r="H45" s="3">
-        <v>1224400</v>
+        <v>1100200</v>
       </c>
       <c r="I45" s="3">
-        <v>1455800</v>
+        <v>1228400</v>
       </c>
       <c r="J45" s="3">
+        <v>1460500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1331700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1376800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1398400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11016800</v>
+        <v>11025800</v>
       </c>
       <c r="E46" s="3">
-        <v>12437100</v>
+        <v>11052900</v>
       </c>
       <c r="F46" s="3">
-        <v>13427600</v>
+        <v>12477900</v>
       </c>
       <c r="G46" s="3">
-        <v>13178500</v>
+        <v>13471600</v>
       </c>
       <c r="H46" s="3">
-        <v>13142400</v>
+        <v>13221600</v>
       </c>
       <c r="I46" s="3">
-        <v>13351100</v>
+        <v>13185500</v>
       </c>
       <c r="J46" s="3">
+        <v>13394900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12525700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11529600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10347200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11369700</v>
+        <v>12172400</v>
       </c>
       <c r="E47" s="3">
-        <v>9028800</v>
+        <v>11406900</v>
       </c>
       <c r="F47" s="3">
-        <v>19621500</v>
+        <v>9058400</v>
       </c>
       <c r="G47" s="3">
-        <v>10357700</v>
+        <v>19685700</v>
       </c>
       <c r="H47" s="3">
-        <v>10363700</v>
+        <v>10391600</v>
       </c>
       <c r="I47" s="3">
-        <v>9633000</v>
+        <v>10397600</v>
       </c>
       <c r="J47" s="3">
+        <v>9664600</v>
+      </c>
+      <c r="K47" s="3">
         <v>6762000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4604000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3384400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3830600</v>
+        <v>4390500</v>
       </c>
       <c r="E48" s="3">
-        <v>3131400</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>3843200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3141600</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
-        <v>2442100</v>
-      </c>
       <c r="H48" s="3">
-        <v>2422700</v>
+        <v>2450100</v>
       </c>
       <c r="I48" s="3">
-        <v>2395300</v>
+        <v>2430600</v>
       </c>
       <c r="J48" s="3">
+        <v>2403100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2478300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2443600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2355300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3029600</v>
+        <v>3747900</v>
       </c>
       <c r="E49" s="3">
-        <v>2102200</v>
+        <v>3039500</v>
       </c>
       <c r="F49" s="3">
-        <v>4112000</v>
+        <v>2109100</v>
       </c>
       <c r="G49" s="3">
-        <v>1572800</v>
+        <v>4125500</v>
       </c>
       <c r="H49" s="3">
-        <v>1481200</v>
+        <v>1578000</v>
       </c>
       <c r="I49" s="3">
-        <v>1454400</v>
+        <v>1486100</v>
       </c>
       <c r="J49" s="3">
+        <v>1459200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1611800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1436300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1253800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>524900</v>
+        <v>768300</v>
       </c>
       <c r="E52" s="3">
-        <v>491700</v>
+        <v>526600</v>
       </c>
       <c r="F52" s="3">
-        <v>1252200</v>
+        <v>493300</v>
       </c>
       <c r="G52" s="3">
-        <v>940800</v>
+        <v>1256300</v>
       </c>
       <c r="H52" s="3">
-        <v>940700</v>
+        <v>943900</v>
       </c>
       <c r="I52" s="3">
-        <v>840200</v>
+        <v>943700</v>
       </c>
       <c r="J52" s="3">
+        <v>843000</v>
+      </c>
+      <c r="K52" s="3">
         <v>774400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>737600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>686100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29771600</v>
+        <v>32105000</v>
       </c>
       <c r="E54" s="3">
-        <v>27191200</v>
+        <v>29869100</v>
       </c>
       <c r="F54" s="3">
-        <v>28659900</v>
+        <v>27280300</v>
       </c>
       <c r="G54" s="3">
-        <v>28491900</v>
+        <v>28753800</v>
       </c>
       <c r="H54" s="3">
-        <v>28350600</v>
+        <v>28585200</v>
       </c>
       <c r="I54" s="3">
-        <v>27674000</v>
+        <v>28443500</v>
       </c>
       <c r="J54" s="3">
+        <v>27764700</v>
+      </c>
+      <c r="K54" s="3">
         <v>24152200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20751100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18026700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1199100</v>
+        <v>1683100</v>
       </c>
       <c r="E57" s="3">
-        <v>1237100</v>
+        <v>1203000</v>
       </c>
       <c r="F57" s="3">
-        <v>2743100</v>
+        <v>1241200</v>
       </c>
       <c r="G57" s="3">
-        <v>1185900</v>
+        <v>2752100</v>
       </c>
       <c r="H57" s="3">
-        <v>1059300</v>
+        <v>1189700</v>
       </c>
       <c r="I57" s="3">
-        <v>1096000</v>
+        <v>1062800</v>
       </c>
       <c r="J57" s="3">
+        <v>1099600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1121400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1011300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1479800</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>462600</v>
+        <v>513600</v>
       </c>
       <c r="E58" s="3">
-        <v>38500</v>
+        <v>464100</v>
       </c>
       <c r="F58" s="3">
-        <v>114500</v>
+        <v>38600</v>
       </c>
       <c r="G58" s="3">
-        <v>77200</v>
+        <v>114900</v>
       </c>
       <c r="H58" s="3">
-        <v>134100</v>
+        <v>77400</v>
       </c>
       <c r="I58" s="3">
-        <v>124300</v>
+        <v>134500</v>
       </c>
       <c r="J58" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K58" s="3">
         <v>150400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>117700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>132600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1979500</v>
+        <v>1689400</v>
       </c>
       <c r="E59" s="3">
-        <v>2157000</v>
+        <v>1986000</v>
       </c>
       <c r="F59" s="3">
-        <v>3070900</v>
+        <v>2164100</v>
       </c>
       <c r="G59" s="3">
-        <v>2077300</v>
+        <v>3081000</v>
       </c>
       <c r="H59" s="3">
-        <v>2176000</v>
+        <v>2084100</v>
       </c>
       <c r="I59" s="3">
-        <v>2042900</v>
+        <v>2183100</v>
       </c>
       <c r="J59" s="3">
+        <v>2049600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1727600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1840100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1109100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3641200</v>
+        <v>3886000</v>
       </c>
       <c r="E60" s="3">
-        <v>3432700</v>
+        <v>3653100</v>
       </c>
       <c r="F60" s="3">
-        <v>3841600</v>
+        <v>3443900</v>
       </c>
       <c r="G60" s="3">
-        <v>3340300</v>
+        <v>3854200</v>
       </c>
       <c r="H60" s="3">
-        <v>3369300</v>
+        <v>3351200</v>
       </c>
       <c r="I60" s="3">
-        <v>3263300</v>
+        <v>3380400</v>
       </c>
       <c r="J60" s="3">
+        <v>3273900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2999500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2969100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2721500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>703600</v>
+        <v>844900</v>
       </c>
       <c r="E61" s="3">
-        <v>51800</v>
+        <v>705900</v>
       </c>
       <c r="F61" s="3">
-        <v>54700</v>
+        <v>52000</v>
       </c>
       <c r="G61" s="3">
-        <v>150300</v>
+        <v>54900</v>
       </c>
       <c r="H61" s="3">
-        <v>165900</v>
+        <v>150800</v>
       </c>
       <c r="I61" s="3">
-        <v>163800</v>
+        <v>166500</v>
       </c>
       <c r="J61" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K61" s="3">
         <v>178300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>189600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>191600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2945900</v>
+        <v>3332000</v>
       </c>
       <c r="E62" s="3">
-        <v>2068400</v>
+        <v>2955600</v>
       </c>
       <c r="F62" s="3">
-        <v>2920900</v>
+        <v>2075200</v>
       </c>
       <c r="G62" s="3">
-        <v>2844100</v>
+        <v>2930500</v>
       </c>
       <c r="H62" s="3">
-        <v>3071700</v>
+        <v>2853400</v>
       </c>
       <c r="I62" s="3">
-        <v>3145800</v>
+        <v>3081800</v>
       </c>
       <c r="J62" s="3">
+        <v>3156100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2771500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2003700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1244100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7493300</v>
+        <v>8289900</v>
       </c>
       <c r="E66" s="3">
-        <v>6435400</v>
+        <v>7517800</v>
       </c>
       <c r="F66" s="3">
-        <v>7355700</v>
+        <v>6456500</v>
       </c>
       <c r="G66" s="3">
-        <v>7110500</v>
+        <v>7379800</v>
       </c>
       <c r="H66" s="3">
-        <v>7426800</v>
+        <v>7133700</v>
       </c>
       <c r="I66" s="3">
-        <v>7381700</v>
+        <v>7451100</v>
       </c>
       <c r="J66" s="3">
+        <v>7405900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6655800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5787600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4742400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15449900</v>
+        <v>16084900</v>
       </c>
       <c r="E72" s="3">
-        <v>15010600</v>
+        <v>15500500</v>
       </c>
       <c r="F72" s="3">
-        <v>14451200</v>
+        <v>15059700</v>
       </c>
       <c r="G72" s="3">
-        <v>15005100</v>
+        <v>14498500</v>
       </c>
       <c r="H72" s="3">
-        <v>14390400</v>
+        <v>15054300</v>
       </c>
       <c r="I72" s="3">
-        <v>13761200</v>
+        <v>14437500</v>
       </c>
       <c r="J72" s="3">
+        <v>13806200</v>
+      </c>
+      <c r="K72" s="3">
         <v>12968600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12439800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11969400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22278300</v>
+        <v>23815100</v>
       </c>
       <c r="E76" s="3">
-        <v>20755800</v>
+        <v>22351300</v>
       </c>
       <c r="F76" s="3">
-        <v>21304200</v>
+        <v>20823800</v>
       </c>
       <c r="G76" s="3">
-        <v>21381400</v>
+        <v>21374000</v>
       </c>
       <c r="H76" s="3">
-        <v>20923900</v>
+        <v>21451500</v>
       </c>
       <c r="I76" s="3">
-        <v>20292300</v>
+        <v>20992400</v>
       </c>
       <c r="J76" s="3">
+        <v>20358800</v>
+      </c>
+      <c r="K76" s="3">
         <v>17496400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14963600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13284300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>986700</v>
+        <v>829100</v>
       </c>
       <c r="E81" s="3">
-        <v>945400</v>
+        <v>990000</v>
       </c>
       <c r="F81" s="3">
-        <v>724900</v>
+        <v>948500</v>
       </c>
       <c r="G81" s="3">
-        <v>951200</v>
+        <v>727300</v>
       </c>
       <c r="H81" s="3">
-        <v>998900</v>
+        <v>954300</v>
       </c>
       <c r="I81" s="3">
-        <v>1061400</v>
+        <v>1002100</v>
       </c>
       <c r="J81" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="K81" s="3">
         <v>813000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>604200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>717400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>849600</v>
+        <v>1002200</v>
       </c>
       <c r="E83" s="3">
-        <v>585200</v>
+        <v>852400</v>
       </c>
       <c r="F83" s="3">
-        <v>754500</v>
+        <v>587100</v>
       </c>
       <c r="G83" s="3">
-        <v>709400</v>
+        <v>757000</v>
       </c>
       <c r="H83" s="3">
-        <v>702100</v>
+        <v>711700</v>
       </c>
       <c r="I83" s="3">
-        <v>668600</v>
+        <v>704400</v>
       </c>
       <c r="J83" s="3">
+        <v>670800</v>
+      </c>
+      <c r="K83" s="3">
         <v>697500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>669000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>661000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1966000</v>
+        <v>2029300</v>
       </c>
       <c r="E89" s="3">
-        <v>2015400</v>
+        <v>1972400</v>
       </c>
       <c r="F89" s="3">
-        <v>1455600</v>
+        <v>2022000</v>
       </c>
       <c r="G89" s="3">
-        <v>1504400</v>
+        <v>1460300</v>
       </c>
       <c r="H89" s="3">
-        <v>1777400</v>
+        <v>1509300</v>
       </c>
       <c r="I89" s="3">
-        <v>1197800</v>
+        <v>1783200</v>
       </c>
       <c r="J89" s="3">
+        <v>1201700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1366100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>995300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>985900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-981400</v>
+        <v>-1128900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1017100</v>
+        <v>-984600</v>
       </c>
       <c r="F91" s="3">
-        <v>-771200</v>
+        <v>-1020500</v>
       </c>
       <c r="G91" s="3">
-        <v>-612800</v>
+        <v>-773800</v>
       </c>
       <c r="H91" s="3">
-        <v>-605500</v>
+        <v>-614800</v>
       </c>
       <c r="I91" s="3">
-        <v>-522600</v>
+        <v>-607500</v>
       </c>
       <c r="J91" s="3">
+        <v>-524300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-466200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-531000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-612600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1333200</v>
+        <v>-1689000</v>
       </c>
       <c r="E94" s="3">
-        <v>-431600</v>
+        <v>-1337600</v>
       </c>
       <c r="F94" s="3">
-        <v>-486700</v>
+        <v>-433000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1026700</v>
+        <v>-488200</v>
       </c>
       <c r="H94" s="3">
-        <v>-978400</v>
+        <v>-1030100</v>
       </c>
       <c r="I94" s="3">
-        <v>-857400</v>
+        <v>-981600</v>
       </c>
       <c r="J94" s="3">
+        <v>-860300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-926500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-601200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-506700</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-568100</v>
+        <v>-481100</v>
       </c>
       <c r="E96" s="3">
-        <v>-440300</v>
+        <v>-569900</v>
       </c>
       <c r="F96" s="3">
-        <v>-439100</v>
+        <v>-441700</v>
       </c>
       <c r="G96" s="3">
-        <v>-366200</v>
+        <v>-440500</v>
       </c>
       <c r="H96" s="3">
-        <v>-401900</v>
+        <v>-367400</v>
       </c>
       <c r="I96" s="3">
-        <v>-299600</v>
+        <v>-403200</v>
       </c>
       <c r="J96" s="3">
+        <v>-300600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-262200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-221200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-233900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1439300</v>
+        <v>-744100</v>
       </c>
       <c r="E100" s="3">
-        <v>-815800</v>
+        <v>-1444000</v>
       </c>
       <c r="F100" s="3">
-        <v>-472400</v>
+        <v>-818400</v>
       </c>
       <c r="G100" s="3">
-        <v>-439400</v>
+        <v>-473900</v>
       </c>
       <c r="H100" s="3">
-        <v>-463600</v>
+        <v>-440900</v>
       </c>
       <c r="I100" s="3">
-        <v>-366300</v>
+        <v>-465100</v>
       </c>
       <c r="J100" s="3">
+        <v>-367500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-285700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-459000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-47100</v>
+        <v>101500</v>
       </c>
       <c r="E101" s="3">
-        <v>36900</v>
+        <v>-47300</v>
       </c>
       <c r="F101" s="3">
-        <v>-50000</v>
+        <v>37000</v>
       </c>
       <c r="G101" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-18300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-127900</v>
-      </c>
       <c r="I101" s="3">
-        <v>174200</v>
+        <v>-128300</v>
       </c>
       <c r="J101" s="3">
+        <v>174800</v>
+      </c>
+      <c r="K101" s="3">
         <v>133000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>184100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-21900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-853700</v>
+        <v>-302300</v>
       </c>
       <c r="E102" s="3">
-        <v>804900</v>
+        <v>-856500</v>
       </c>
       <c r="F102" s="3">
-        <v>446500</v>
+        <v>807600</v>
       </c>
       <c r="G102" s="3">
-        <v>19900</v>
+        <v>447900</v>
       </c>
       <c r="H102" s="3">
-        <v>207500</v>
+        <v>20000</v>
       </c>
       <c r="I102" s="3">
-        <v>148300</v>
+        <v>208200</v>
       </c>
       <c r="J102" s="3">
+        <v>148800</v>
+      </c>
+      <c r="K102" s="3">
         <v>272200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>292400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14032200</v>
+        <v>13910000</v>
       </c>
       <c r="E8" s="3">
-        <v>14695300</v>
+        <v>14567400</v>
       </c>
       <c r="F8" s="3">
-        <v>14921900</v>
+        <v>14792000</v>
       </c>
       <c r="G8" s="3">
-        <v>14493000</v>
+        <v>14366800</v>
       </c>
       <c r="H8" s="3">
-        <v>13075100</v>
+        <v>12961300</v>
       </c>
       <c r="I8" s="3">
-        <v>13597800</v>
+        <v>13479400</v>
       </c>
       <c r="J8" s="3">
-        <v>14028900</v>
+        <v>13906700</v>
       </c>
       <c r="K8" s="3">
         <v>13257900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10292300</v>
+        <v>10202700</v>
       </c>
       <c r="E9" s="3">
-        <v>10640900</v>
+        <v>10548300</v>
       </c>
       <c r="F9" s="3">
-        <v>10657500</v>
+        <v>10564700</v>
       </c>
       <c r="G9" s="3">
-        <v>22103100</v>
+        <v>21910700</v>
       </c>
       <c r="H9" s="3">
-        <v>9644600</v>
+        <v>9560700</v>
       </c>
       <c r="I9" s="3">
-        <v>10049000</v>
+        <v>9961500</v>
       </c>
       <c r="J9" s="3">
-        <v>10450300</v>
+        <v>10359300</v>
       </c>
       <c r="K9" s="3">
         <v>9787100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3739800</v>
+        <v>3707300</v>
       </c>
       <c r="E10" s="3">
-        <v>4054400</v>
+        <v>4019100</v>
       </c>
       <c r="F10" s="3">
-        <v>4264400</v>
+        <v>4227200</v>
       </c>
       <c r="G10" s="3">
-        <v>-7610100</v>
+        <v>-7543800</v>
       </c>
       <c r="H10" s="3">
-        <v>3430500</v>
+        <v>3400600</v>
       </c>
       <c r="I10" s="3">
-        <v>3548800</v>
+        <v>3517900</v>
       </c>
       <c r="J10" s="3">
-        <v>3578600</v>
+        <v>3547400</v>
       </c>
       <c r="K10" s="3">
         <v>3470800</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>508100</v>
+        <v>503600</v>
       </c>
       <c r="K12" s="3">
         <v>447300</v>
@@ -915,11 +915,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>211200</v>
       </c>
       <c r="E14" s="3">
-        <v>67800</v>
+        <v>67300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>130000</v>
+        <v>128800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -951,17 +951,17 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>308300</v>
       </c>
       <c r="E15" s="3">
-        <v>270500</v>
+        <v>268200</v>
       </c>
       <c r="F15" s="3">
-        <v>135600</v>
+        <v>134400</v>
       </c>
       <c r="G15" s="3">
-        <v>135500</v>
+        <v>134300</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13383000</v>
+        <v>13266500</v>
       </c>
       <c r="E17" s="3">
-        <v>13774500</v>
+        <v>13654600</v>
       </c>
       <c r="F17" s="3">
-        <v>14050500</v>
+        <v>13928200</v>
       </c>
       <c r="G17" s="3">
-        <v>13659500</v>
+        <v>13540600</v>
       </c>
       <c r="H17" s="3">
-        <v>12114400</v>
+        <v>12008900</v>
       </c>
       <c r="I17" s="3">
-        <v>12746300</v>
+        <v>12635300</v>
       </c>
       <c r="J17" s="3">
-        <v>13170300</v>
+        <v>13055600</v>
       </c>
       <c r="K17" s="3">
         <v>12153400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>649200</v>
+        <v>643600</v>
       </c>
       <c r="E18" s="3">
-        <v>920800</v>
+        <v>912800</v>
       </c>
       <c r="F18" s="3">
-        <v>871400</v>
+        <v>863800</v>
       </c>
       <c r="G18" s="3">
-        <v>833500</v>
+        <v>826300</v>
       </c>
       <c r="H18" s="3">
-        <v>960700</v>
+        <v>952400</v>
       </c>
       <c r="I18" s="3">
-        <v>851500</v>
+        <v>844100</v>
       </c>
       <c r="J18" s="3">
-        <v>858600</v>
+        <v>851100</v>
       </c>
       <c r="K18" s="3">
         <v>1104500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>431100</v>
+        <v>446200</v>
       </c>
       <c r="E20" s="3">
-        <v>460600</v>
+        <v>456600</v>
       </c>
       <c r="F20" s="3">
-        <v>431900</v>
+        <v>428100</v>
       </c>
       <c r="G20" s="3">
-        <v>367400</v>
+        <v>364200</v>
       </c>
       <c r="H20" s="3">
-        <v>314400</v>
+        <v>311600</v>
       </c>
       <c r="I20" s="3">
-        <v>503100</v>
+        <v>498700</v>
       </c>
       <c r="J20" s="3">
-        <v>277100</v>
+        <v>274700</v>
       </c>
       <c r="K20" s="3">
         <v>253100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2083700</v>
+        <v>2083300</v>
       </c>
       <c r="E21" s="3">
-        <v>2234600</v>
+        <v>2214300</v>
       </c>
       <c r="F21" s="3">
-        <v>1891100</v>
+        <v>1874000</v>
       </c>
       <c r="G21" s="3">
-        <v>1958700</v>
+        <v>1940900</v>
       </c>
       <c r="H21" s="3">
-        <v>1987600</v>
+        <v>1969500</v>
       </c>
       <c r="I21" s="3">
-        <v>2059700</v>
+        <v>2041000</v>
       </c>
       <c r="J21" s="3">
-        <v>1807200</v>
+        <v>1790800</v>
       </c>
       <c r="K21" s="3">
         <v>2058200</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>18800</v>
       </c>
       <c r="E22" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G22" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H22" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I22" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="J22" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="K22" s="3">
         <v>17800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1080400</v>
+        <v>1071000</v>
       </c>
       <c r="E23" s="3">
-        <v>1367700</v>
+        <v>1355800</v>
       </c>
       <c r="F23" s="3">
-        <v>1292200</v>
+        <v>1281000</v>
       </c>
       <c r="G23" s="3">
-        <v>1194600</v>
+        <v>1184200</v>
       </c>
       <c r="H23" s="3">
-        <v>1266800</v>
+        <v>1255800</v>
       </c>
       <c r="I23" s="3">
-        <v>1337900</v>
+        <v>1326300</v>
       </c>
       <c r="J23" s="3">
-        <v>1119900</v>
+        <v>1110200</v>
       </c>
       <c r="K23" s="3">
         <v>1339800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>222500</v>
+        <v>220500</v>
       </c>
       <c r="E24" s="3">
-        <v>339800</v>
+        <v>336900</v>
       </c>
       <c r="F24" s="3">
-        <v>236700</v>
+        <v>234600</v>
       </c>
       <c r="G24" s="3">
-        <v>439000</v>
+        <v>435100</v>
       </c>
       <c r="H24" s="3">
-        <v>261400</v>
+        <v>259100</v>
       </c>
       <c r="I24" s="3">
-        <v>288500</v>
+        <v>286000</v>
       </c>
       <c r="J24" s="3">
-        <v>-31600</v>
+        <v>-31300</v>
       </c>
       <c r="K24" s="3">
         <v>469500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>857900</v>
+        <v>850400</v>
       </c>
       <c r="E26" s="3">
-        <v>1027900</v>
+        <v>1018900</v>
       </c>
       <c r="F26" s="3">
-        <v>1055500</v>
+        <v>1046300</v>
       </c>
       <c r="G26" s="3">
-        <v>755700</v>
+        <v>749100</v>
       </c>
       <c r="H26" s="3">
-        <v>1005500</v>
+        <v>996700</v>
       </c>
       <c r="I26" s="3">
-        <v>1049400</v>
+        <v>1040300</v>
       </c>
       <c r="J26" s="3">
-        <v>1151500</v>
+        <v>1141500</v>
       </c>
       <c r="K26" s="3">
         <v>870300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>829100</v>
+        <v>821800</v>
       </c>
       <c r="E27" s="3">
-        <v>990000</v>
+        <v>981300</v>
       </c>
       <c r="F27" s="3">
-        <v>948500</v>
+        <v>940200</v>
       </c>
       <c r="G27" s="3">
-        <v>727300</v>
+        <v>720900</v>
       </c>
       <c r="H27" s="3">
-        <v>954300</v>
+        <v>946000</v>
       </c>
       <c r="I27" s="3">
-        <v>1002100</v>
+        <v>993400</v>
       </c>
       <c r="J27" s="3">
-        <v>1064900</v>
+        <v>1055600</v>
       </c>
       <c r="K27" s="3">
         <v>813000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-431100</v>
+        <v>-446200</v>
       </c>
       <c r="E32" s="3">
-        <v>-460600</v>
+        <v>-456600</v>
       </c>
       <c r="F32" s="3">
-        <v>-431900</v>
+        <v>-428100</v>
       </c>
       <c r="G32" s="3">
-        <v>-367400</v>
+        <v>-364200</v>
       </c>
       <c r="H32" s="3">
-        <v>-314400</v>
+        <v>-311600</v>
       </c>
       <c r="I32" s="3">
-        <v>-503100</v>
+        <v>-498700</v>
       </c>
       <c r="J32" s="3">
-        <v>-277100</v>
+        <v>-274700</v>
       </c>
       <c r="K32" s="3">
         <v>-253100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>829100</v>
+        <v>821800</v>
       </c>
       <c r="E33" s="3">
-        <v>990000</v>
+        <v>981300</v>
       </c>
       <c r="F33" s="3">
-        <v>948500</v>
+        <v>940200</v>
       </c>
       <c r="G33" s="3">
-        <v>727300</v>
+        <v>720900</v>
       </c>
       <c r="H33" s="3">
-        <v>954300</v>
+        <v>946000</v>
       </c>
       <c r="I33" s="3">
-        <v>1002100</v>
+        <v>993400</v>
       </c>
       <c r="J33" s="3">
-        <v>1064900</v>
+        <v>1055600</v>
       </c>
       <c r="K33" s="3">
         <v>813000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>829100</v>
+        <v>821800</v>
       </c>
       <c r="E35" s="3">
-        <v>990000</v>
+        <v>981300</v>
       </c>
       <c r="F35" s="3">
-        <v>948500</v>
+        <v>940200</v>
       </c>
       <c r="G35" s="3">
-        <v>727300</v>
+        <v>720900</v>
       </c>
       <c r="H35" s="3">
-        <v>954300</v>
+        <v>946000</v>
       </c>
       <c r="I35" s="3">
-        <v>1002100</v>
+        <v>993400</v>
       </c>
       <c r="J35" s="3">
-        <v>1064900</v>
+        <v>1055600</v>
       </c>
       <c r="K35" s="3">
         <v>813000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3554000</v>
+        <v>3523100</v>
       </c>
       <c r="E41" s="3">
-        <v>3856300</v>
+        <v>3822700</v>
       </c>
       <c r="F41" s="3">
-        <v>4712800</v>
+        <v>4671700</v>
       </c>
       <c r="G41" s="3">
-        <v>3905200</v>
+        <v>3871200</v>
       </c>
       <c r="H41" s="3">
-        <v>3457200</v>
+        <v>3427100</v>
       </c>
       <c r="I41" s="3">
-        <v>3437200</v>
+        <v>3407300</v>
       </c>
       <c r="J41" s="3">
-        <v>3229000</v>
+        <v>3200900</v>
       </c>
       <c r="K41" s="3">
         <v>3070200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>894700</v>
+        <v>886900</v>
       </c>
       <c r="E42" s="3">
-        <v>680400</v>
+        <v>674400</v>
       </c>
       <c r="F42" s="3">
-        <v>1002500</v>
+        <v>993700</v>
       </c>
       <c r="G42" s="3">
-        <v>2277500</v>
+        <v>2257600</v>
       </c>
       <c r="H42" s="3">
-        <v>2732800</v>
+        <v>2709000</v>
       </c>
       <c r="I42" s="3">
-        <v>2896500</v>
+        <v>2871300</v>
       </c>
       <c r="J42" s="3">
-        <v>2569500</v>
+        <v>2547100</v>
       </c>
       <c r="K42" s="3">
         <v>2530300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3121100</v>
+        <v>3093900</v>
       </c>
       <c r="E43" s="3">
-        <v>3090500</v>
+        <v>3063600</v>
       </c>
       <c r="F43" s="3">
-        <v>3284100</v>
+        <v>3255500</v>
       </c>
       <c r="G43" s="3">
-        <v>3516600</v>
+        <v>3486000</v>
       </c>
       <c r="H43" s="3">
-        <v>2888100</v>
+        <v>2862900</v>
       </c>
       <c r="I43" s="3">
-        <v>2610100</v>
+        <v>2587400</v>
       </c>
       <c r="J43" s="3">
-        <v>2878000</v>
+        <v>2852900</v>
       </c>
       <c r="K43" s="3">
         <v>2517600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3173800</v>
+        <v>3146200</v>
       </c>
       <c r="E44" s="3">
-        <v>3164200</v>
+        <v>3136600</v>
       </c>
       <c r="F44" s="3">
-        <v>3160300</v>
+        <v>3132700</v>
       </c>
       <c r="G44" s="3">
-        <v>3353200</v>
+        <v>3324000</v>
       </c>
       <c r="H44" s="3">
-        <v>3043300</v>
+        <v>3016800</v>
       </c>
       <c r="I44" s="3">
-        <v>3013200</v>
+        <v>2986900</v>
       </c>
       <c r="J44" s="3">
-        <v>3257800</v>
+        <v>3229500</v>
       </c>
       <c r="K44" s="3">
         <v>3075900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>282200</v>
+        <v>279700</v>
       </c>
       <c r="E45" s="3">
-        <v>261500</v>
+        <v>259200</v>
       </c>
       <c r="F45" s="3">
-        <v>318300</v>
+        <v>315500</v>
       </c>
       <c r="G45" s="3">
-        <v>2035400</v>
+        <v>2017700</v>
       </c>
       <c r="H45" s="3">
-        <v>1100200</v>
+        <v>1090600</v>
       </c>
       <c r="I45" s="3">
-        <v>1228400</v>
+        <v>1217700</v>
       </c>
       <c r="J45" s="3">
-        <v>1460500</v>
+        <v>1447800</v>
       </c>
       <c r="K45" s="3">
         <v>1331700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11025800</v>
+        <v>10929900</v>
       </c>
       <c r="E46" s="3">
-        <v>11052900</v>
+        <v>10956700</v>
       </c>
       <c r="F46" s="3">
-        <v>12477900</v>
+        <v>12369200</v>
       </c>
       <c r="G46" s="3">
-        <v>13471600</v>
+        <v>13354300</v>
       </c>
       <c r="H46" s="3">
-        <v>13221600</v>
+        <v>13106500</v>
       </c>
       <c r="I46" s="3">
-        <v>13185500</v>
+        <v>13070700</v>
       </c>
       <c r="J46" s="3">
-        <v>13394900</v>
+        <v>13278300</v>
       </c>
       <c r="K46" s="3">
         <v>12525700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12172400</v>
+        <v>12066500</v>
       </c>
       <c r="E47" s="3">
-        <v>11406900</v>
+        <v>11307700</v>
       </c>
       <c r="F47" s="3">
-        <v>9058400</v>
+        <v>8979500</v>
       </c>
       <c r="G47" s="3">
-        <v>19685700</v>
+        <v>19514400</v>
       </c>
       <c r="H47" s="3">
-        <v>10391600</v>
+        <v>10301200</v>
       </c>
       <c r="I47" s="3">
-        <v>10397600</v>
+        <v>10307100</v>
       </c>
       <c r="J47" s="3">
-        <v>9664600</v>
+        <v>9580400</v>
       </c>
       <c r="K47" s="3">
         <v>6762000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4390500</v>
+        <v>4352300</v>
       </c>
       <c r="E48" s="3">
-        <v>3843200</v>
+        <v>3809700</v>
       </c>
       <c r="F48" s="3">
-        <v>3141600</v>
+        <v>3114300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>2450100</v>
+        <v>2428800</v>
       </c>
       <c r="I48" s="3">
-        <v>2430600</v>
+        <v>2409500</v>
       </c>
       <c r="J48" s="3">
-        <v>2403100</v>
+        <v>2382200</v>
       </c>
       <c r="K48" s="3">
         <v>2478300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3747900</v>
+        <v>3715300</v>
       </c>
       <c r="E49" s="3">
-        <v>3039500</v>
+        <v>3013000</v>
       </c>
       <c r="F49" s="3">
-        <v>2109100</v>
+        <v>2090700</v>
       </c>
       <c r="G49" s="3">
-        <v>4125500</v>
+        <v>4089600</v>
       </c>
       <c r="H49" s="3">
-        <v>1578000</v>
+        <v>1564200</v>
       </c>
       <c r="I49" s="3">
-        <v>1486100</v>
+        <v>1473100</v>
       </c>
       <c r="J49" s="3">
-        <v>1459200</v>
+        <v>1446500</v>
       </c>
       <c r="K49" s="3">
         <v>1611800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>768300</v>
+        <v>761600</v>
       </c>
       <c r="E52" s="3">
-        <v>526600</v>
+        <v>522000</v>
       </c>
       <c r="F52" s="3">
-        <v>493300</v>
+        <v>489000</v>
       </c>
       <c r="G52" s="3">
-        <v>1256300</v>
+        <v>1245400</v>
       </c>
       <c r="H52" s="3">
-        <v>943900</v>
+        <v>935700</v>
       </c>
       <c r="I52" s="3">
-        <v>943700</v>
+        <v>935500</v>
       </c>
       <c r="J52" s="3">
-        <v>843000</v>
+        <v>835600</v>
       </c>
       <c r="K52" s="3">
         <v>774400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32105000</v>
+        <v>31825500</v>
       </c>
       <c r="E54" s="3">
-        <v>29869100</v>
+        <v>29609100</v>
       </c>
       <c r="F54" s="3">
-        <v>27280300</v>
+        <v>27042800</v>
       </c>
       <c r="G54" s="3">
-        <v>28753800</v>
+        <v>28503500</v>
       </c>
       <c r="H54" s="3">
-        <v>28585200</v>
+        <v>28336400</v>
       </c>
       <c r="I54" s="3">
-        <v>28443500</v>
+        <v>28195900</v>
       </c>
       <c r="J54" s="3">
-        <v>27764700</v>
+        <v>27523000</v>
       </c>
       <c r="K54" s="3">
         <v>24152200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1683100</v>
+        <v>1273400</v>
       </c>
       <c r="E57" s="3">
-        <v>1203000</v>
+        <v>1192600</v>
       </c>
       <c r="F57" s="3">
-        <v>1241200</v>
+        <v>1230400</v>
       </c>
       <c r="G57" s="3">
-        <v>2752100</v>
+        <v>2728200</v>
       </c>
       <c r="H57" s="3">
-        <v>1189700</v>
+        <v>1179400</v>
       </c>
       <c r="I57" s="3">
-        <v>1062800</v>
+        <v>1053500</v>
       </c>
       <c r="J57" s="3">
-        <v>1099600</v>
+        <v>1090000</v>
       </c>
       <c r="K57" s="3">
         <v>1121400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>513600</v>
+        <v>509100</v>
       </c>
       <c r="E58" s="3">
-        <v>464100</v>
+        <v>460100</v>
       </c>
       <c r="F58" s="3">
-        <v>38600</v>
+        <v>38300</v>
       </c>
       <c r="G58" s="3">
-        <v>114900</v>
+        <v>113900</v>
       </c>
       <c r="H58" s="3">
-        <v>77400</v>
+        <v>76800</v>
       </c>
       <c r="I58" s="3">
-        <v>134500</v>
+        <v>133300</v>
       </c>
       <c r="J58" s="3">
-        <v>124700</v>
+        <v>123600</v>
       </c>
       <c r="K58" s="3">
         <v>150400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1689400</v>
+        <v>2069700</v>
       </c>
       <c r="E59" s="3">
-        <v>1986000</v>
+        <v>1968700</v>
       </c>
       <c r="F59" s="3">
+        <v>2145300</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3054100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2065900</v>
+      </c>
+      <c r="I59" s="3">
         <v>2164100</v>
       </c>
-      <c r="G59" s="3">
-        <v>3081000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2084100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2183100</v>
-      </c>
       <c r="J59" s="3">
-        <v>2049600</v>
+        <v>2031800</v>
       </c>
       <c r="K59" s="3">
         <v>1727600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3886000</v>
+        <v>3852200</v>
       </c>
       <c r="E60" s="3">
-        <v>3653100</v>
+        <v>3621300</v>
       </c>
       <c r="F60" s="3">
-        <v>3443900</v>
+        <v>3414000</v>
       </c>
       <c r="G60" s="3">
-        <v>3854200</v>
+        <v>3820600</v>
       </c>
       <c r="H60" s="3">
-        <v>3351200</v>
+        <v>3322100</v>
       </c>
       <c r="I60" s="3">
-        <v>3380400</v>
+        <v>3350900</v>
       </c>
       <c r="J60" s="3">
-        <v>3273900</v>
+        <v>3245400</v>
       </c>
       <c r="K60" s="3">
         <v>2999500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>844900</v>
+        <v>837600</v>
       </c>
       <c r="E61" s="3">
-        <v>705900</v>
+        <v>699800</v>
       </c>
       <c r="F61" s="3">
-        <v>52000</v>
+        <v>51500</v>
       </c>
       <c r="G61" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="H61" s="3">
-        <v>150800</v>
+        <v>149500</v>
       </c>
       <c r="I61" s="3">
-        <v>166500</v>
+        <v>165000</v>
       </c>
       <c r="J61" s="3">
-        <v>164300</v>
+        <v>162900</v>
       </c>
       <c r="K61" s="3">
         <v>178300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3332000</v>
+        <v>3303000</v>
       </c>
       <c r="E62" s="3">
-        <v>2955600</v>
+        <v>2929800</v>
       </c>
       <c r="F62" s="3">
-        <v>2075200</v>
+        <v>2057100</v>
       </c>
       <c r="G62" s="3">
-        <v>2930500</v>
+        <v>2905000</v>
       </c>
       <c r="H62" s="3">
-        <v>2853400</v>
+        <v>2828600</v>
       </c>
       <c r="I62" s="3">
-        <v>3081800</v>
+        <v>3054900</v>
       </c>
       <c r="J62" s="3">
-        <v>3156100</v>
+        <v>3128600</v>
       </c>
       <c r="K62" s="3">
         <v>2771500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8289900</v>
+        <v>8217700</v>
       </c>
       <c r="E66" s="3">
-        <v>7517800</v>
+        <v>7452400</v>
       </c>
       <c r="F66" s="3">
-        <v>6456500</v>
+        <v>6400300</v>
       </c>
       <c r="G66" s="3">
-        <v>7379800</v>
+        <v>7315500</v>
       </c>
       <c r="H66" s="3">
-        <v>7133700</v>
+        <v>7071600</v>
       </c>
       <c r="I66" s="3">
-        <v>7451100</v>
+        <v>7386300</v>
       </c>
       <c r="J66" s="3">
-        <v>7405900</v>
+        <v>7341400</v>
       </c>
       <c r="K66" s="3">
         <v>6655800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16084900</v>
+        <v>15944900</v>
       </c>
       <c r="E72" s="3">
-        <v>15500500</v>
+        <v>15365600</v>
       </c>
       <c r="F72" s="3">
-        <v>15059700</v>
+        <v>14928600</v>
       </c>
       <c r="G72" s="3">
-        <v>14498500</v>
+        <v>14372300</v>
       </c>
       <c r="H72" s="3">
-        <v>15054300</v>
+        <v>14923200</v>
       </c>
       <c r="I72" s="3">
-        <v>14437500</v>
+        <v>14311800</v>
       </c>
       <c r="J72" s="3">
-        <v>13806200</v>
+        <v>13686000</v>
       </c>
       <c r="K72" s="3">
         <v>12968600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23815100</v>
+        <v>23607800</v>
       </c>
       <c r="E76" s="3">
-        <v>22351300</v>
+        <v>22156700</v>
       </c>
       <c r="F76" s="3">
-        <v>20823800</v>
+        <v>20642500</v>
       </c>
       <c r="G76" s="3">
-        <v>21374000</v>
+        <v>21188000</v>
       </c>
       <c r="H76" s="3">
-        <v>21451500</v>
+        <v>21264700</v>
       </c>
       <c r="I76" s="3">
-        <v>20992400</v>
+        <v>20809600</v>
       </c>
       <c r="J76" s="3">
-        <v>20358800</v>
+        <v>20181600</v>
       </c>
       <c r="K76" s="3">
         <v>17496400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>829100</v>
+        <v>821800</v>
       </c>
       <c r="E81" s="3">
-        <v>990000</v>
+        <v>981300</v>
       </c>
       <c r="F81" s="3">
-        <v>948500</v>
+        <v>940200</v>
       </c>
       <c r="G81" s="3">
-        <v>727300</v>
+        <v>720900</v>
       </c>
       <c r="H81" s="3">
-        <v>954300</v>
+        <v>946000</v>
       </c>
       <c r="I81" s="3">
-        <v>1002100</v>
+        <v>993400</v>
       </c>
       <c r="J81" s="3">
-        <v>1064900</v>
+        <v>1055600</v>
       </c>
       <c r="K81" s="3">
         <v>813000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1002200</v>
+        <v>993500</v>
       </c>
       <c r="E83" s="3">
-        <v>852400</v>
+        <v>844900</v>
       </c>
       <c r="F83" s="3">
-        <v>587100</v>
+        <v>582000</v>
       </c>
       <c r="G83" s="3">
-        <v>757000</v>
+        <v>750400</v>
       </c>
       <c r="H83" s="3">
-        <v>711700</v>
+        <v>705500</v>
       </c>
       <c r="I83" s="3">
-        <v>704400</v>
+        <v>698300</v>
       </c>
       <c r="J83" s="3">
-        <v>670800</v>
+        <v>665000</v>
       </c>
       <c r="K83" s="3">
         <v>697500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2029300</v>
+        <v>2011700</v>
       </c>
       <c r="E89" s="3">
-        <v>1972400</v>
+        <v>1955300</v>
       </c>
       <c r="F89" s="3">
-        <v>2022000</v>
+        <v>2004400</v>
       </c>
       <c r="G89" s="3">
-        <v>1460300</v>
+        <v>1447600</v>
       </c>
       <c r="H89" s="3">
-        <v>1509300</v>
+        <v>1496100</v>
       </c>
       <c r="I89" s="3">
-        <v>1783200</v>
+        <v>1767700</v>
       </c>
       <c r="J89" s="3">
-        <v>1201700</v>
+        <v>1191300</v>
       </c>
       <c r="K89" s="3">
         <v>1366100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1128900</v>
+        <v>-1119100</v>
       </c>
       <c r="E91" s="3">
-        <v>-984600</v>
+        <v>-976000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1020500</v>
+        <v>-1011600</v>
       </c>
       <c r="G91" s="3">
-        <v>-773800</v>
+        <v>-767000</v>
       </c>
       <c r="H91" s="3">
-        <v>-614800</v>
+        <v>-609500</v>
       </c>
       <c r="I91" s="3">
-        <v>-607500</v>
+        <v>-602200</v>
       </c>
       <c r="J91" s="3">
-        <v>-524300</v>
+        <v>-519800</v>
       </c>
       <c r="K91" s="3">
         <v>-466200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1689000</v>
+        <v>-1674300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1337600</v>
+        <v>-1326000</v>
       </c>
       <c r="F94" s="3">
-        <v>-433000</v>
+        <v>-429300</v>
       </c>
       <c r="G94" s="3">
-        <v>-488200</v>
+        <v>-484000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1030100</v>
+        <v>-1021100</v>
       </c>
       <c r="I94" s="3">
-        <v>-981600</v>
+        <v>-973000</v>
       </c>
       <c r="J94" s="3">
-        <v>-860300</v>
+        <v>-852800</v>
       </c>
       <c r="K94" s="3">
         <v>-926500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-481100</v>
+        <v>-476900</v>
       </c>
       <c r="E96" s="3">
-        <v>-569900</v>
+        <v>-565000</v>
       </c>
       <c r="F96" s="3">
-        <v>-441700</v>
+        <v>-437900</v>
       </c>
       <c r="G96" s="3">
-        <v>-440500</v>
+        <v>-436700</v>
       </c>
       <c r="H96" s="3">
-        <v>-367400</v>
+        <v>-364200</v>
       </c>
       <c r="I96" s="3">
-        <v>-403200</v>
+        <v>-399700</v>
       </c>
       <c r="J96" s="3">
-        <v>-300600</v>
+        <v>-297900</v>
       </c>
       <c r="K96" s="3">
         <v>-262200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-744100</v>
+        <v>-737600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1444000</v>
+        <v>-1431400</v>
       </c>
       <c r="F100" s="3">
-        <v>-818400</v>
+        <v>-811300</v>
       </c>
       <c r="G100" s="3">
-        <v>-473900</v>
+        <v>-469800</v>
       </c>
       <c r="H100" s="3">
-        <v>-440900</v>
+        <v>-437000</v>
       </c>
       <c r="I100" s="3">
-        <v>-465100</v>
+        <v>-461000</v>
       </c>
       <c r="J100" s="3">
-        <v>-367500</v>
+        <v>-364300</v>
       </c>
       <c r="K100" s="3">
         <v>-300500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101500</v>
+        <v>100600</v>
       </c>
       <c r="E101" s="3">
-        <v>-47300</v>
+        <v>-46900</v>
       </c>
       <c r="F101" s="3">
-        <v>37000</v>
+        <v>36700</v>
       </c>
       <c r="G101" s="3">
-        <v>-50200</v>
+        <v>-49800</v>
       </c>
       <c r="H101" s="3">
-        <v>-18300</v>
+        <v>-18200</v>
       </c>
       <c r="I101" s="3">
-        <v>-128300</v>
+        <v>-127200</v>
       </c>
       <c r="J101" s="3">
-        <v>174800</v>
+        <v>173300</v>
       </c>
       <c r="K101" s="3">
         <v>133000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-302300</v>
+        <v>-299700</v>
       </c>
       <c r="E102" s="3">
-        <v>-856500</v>
+        <v>-849000</v>
       </c>
       <c r="F102" s="3">
-        <v>807600</v>
+        <v>800600</v>
       </c>
       <c r="G102" s="3">
-        <v>447900</v>
+        <v>444000</v>
       </c>
       <c r="H102" s="3">
-        <v>20000</v>
+        <v>19800</v>
       </c>
       <c r="I102" s="3">
-        <v>208200</v>
+        <v>206400</v>
       </c>
       <c r="J102" s="3">
-        <v>148800</v>
+        <v>147500</v>
       </c>
       <c r="K102" s="3">
         <v>272200</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13910000</v>
+        <v>13452000</v>
       </c>
       <c r="E8" s="3">
-        <v>14567400</v>
+        <v>14087700</v>
       </c>
       <c r="F8" s="3">
-        <v>14792000</v>
+        <v>14304900</v>
       </c>
       <c r="G8" s="3">
-        <v>14366800</v>
+        <v>13893700</v>
       </c>
       <c r="H8" s="3">
-        <v>12961300</v>
+        <v>12534500</v>
       </c>
       <c r="I8" s="3">
-        <v>13479400</v>
+        <v>13035500</v>
       </c>
       <c r="J8" s="3">
-        <v>13906700</v>
+        <v>13448800</v>
       </c>
       <c r="K8" s="3">
         <v>13257900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10202700</v>
+        <v>9866800</v>
       </c>
       <c r="E9" s="3">
-        <v>10548300</v>
+        <v>10200900</v>
       </c>
       <c r="F9" s="3">
-        <v>10564700</v>
+        <v>10216800</v>
       </c>
       <c r="G9" s="3">
-        <v>21910700</v>
+        <v>21189100</v>
       </c>
       <c r="H9" s="3">
-        <v>9560700</v>
+        <v>9245800</v>
       </c>
       <c r="I9" s="3">
-        <v>9961500</v>
+        <v>9633400</v>
       </c>
       <c r="J9" s="3">
-        <v>10359300</v>
+        <v>10018200</v>
       </c>
       <c r="K9" s="3">
         <v>9787100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3707300</v>
+        <v>3585200</v>
       </c>
       <c r="E10" s="3">
-        <v>4019100</v>
+        <v>3886700</v>
       </c>
       <c r="F10" s="3">
-        <v>4227200</v>
+        <v>4088000</v>
       </c>
       <c r="G10" s="3">
-        <v>-7543800</v>
+        <v>-7295400</v>
       </c>
       <c r="H10" s="3">
-        <v>3400600</v>
+        <v>3288600</v>
       </c>
       <c r="I10" s="3">
-        <v>3517900</v>
+        <v>3402100</v>
       </c>
       <c r="J10" s="3">
-        <v>3547400</v>
+        <v>3430600</v>
       </c>
       <c r="K10" s="3">
         <v>3470800</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>503600</v>
+        <v>487100</v>
       </c>
       <c r="K12" s="3">
         <v>447300</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>211200</v>
+        <v>204300</v>
       </c>
       <c r="E14" s="3">
-        <v>67300</v>
+        <v>65000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>128800</v>
+        <v>124600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>308300</v>
+        <v>298200</v>
       </c>
       <c r="E15" s="3">
-        <v>268200</v>
+        <v>259300</v>
       </c>
       <c r="F15" s="3">
-        <v>134400</v>
+        <v>130000</v>
       </c>
       <c r="G15" s="3">
-        <v>134300</v>
+        <v>129900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13266500</v>
+        <v>12829600</v>
       </c>
       <c r="E17" s="3">
-        <v>13654600</v>
+        <v>13205000</v>
       </c>
       <c r="F17" s="3">
-        <v>13928200</v>
+        <v>13469500</v>
       </c>
       <c r="G17" s="3">
-        <v>13540600</v>
+        <v>13094700</v>
       </c>
       <c r="H17" s="3">
-        <v>12008900</v>
+        <v>11613400</v>
       </c>
       <c r="I17" s="3">
-        <v>12635300</v>
+        <v>12219200</v>
       </c>
       <c r="J17" s="3">
-        <v>13055600</v>
+        <v>12625700</v>
       </c>
       <c r="K17" s="3">
         <v>12153400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>643600</v>
+        <v>622400</v>
       </c>
       <c r="E18" s="3">
-        <v>912800</v>
+        <v>882700</v>
       </c>
       <c r="F18" s="3">
-        <v>863800</v>
+        <v>835400</v>
       </c>
       <c r="G18" s="3">
-        <v>826300</v>
+        <v>799100</v>
       </c>
       <c r="H18" s="3">
-        <v>952400</v>
+        <v>921000</v>
       </c>
       <c r="I18" s="3">
-        <v>844100</v>
+        <v>816300</v>
       </c>
       <c r="J18" s="3">
-        <v>851100</v>
+        <v>823100</v>
       </c>
       <c r="K18" s="3">
         <v>1104500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>446200</v>
+        <v>431500</v>
       </c>
       <c r="E20" s="3">
-        <v>456600</v>
+        <v>441500</v>
       </c>
       <c r="F20" s="3">
-        <v>428100</v>
+        <v>414000</v>
       </c>
       <c r="G20" s="3">
-        <v>364200</v>
+        <v>352200</v>
       </c>
       <c r="H20" s="3">
-        <v>311600</v>
+        <v>301400</v>
       </c>
       <c r="I20" s="3">
-        <v>498700</v>
+        <v>482300</v>
       </c>
       <c r="J20" s="3">
-        <v>274700</v>
+        <v>265600</v>
       </c>
       <c r="K20" s="3">
         <v>253100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2083300</v>
+        <v>2016900</v>
       </c>
       <c r="E21" s="3">
-        <v>2214300</v>
+        <v>2143200</v>
       </c>
       <c r="F21" s="3">
-        <v>1874000</v>
+        <v>1813600</v>
       </c>
       <c r="G21" s="3">
-        <v>1940900</v>
+        <v>1878600</v>
       </c>
       <c r="H21" s="3">
-        <v>1969500</v>
+        <v>1906200</v>
       </c>
       <c r="I21" s="3">
-        <v>2041000</v>
+        <v>1975400</v>
       </c>
       <c r="J21" s="3">
-        <v>1790800</v>
+        <v>1733300</v>
       </c>
       <c r="K21" s="3">
         <v>2058200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>13100</v>
       </c>
       <c r="F22" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="G22" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="J22" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="K22" s="3">
         <v>17800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1071000</v>
+        <v>1035700</v>
       </c>
       <c r="E23" s="3">
-        <v>1355800</v>
+        <v>1311200</v>
       </c>
       <c r="F23" s="3">
-        <v>1281000</v>
+        <v>1238800</v>
       </c>
       <c r="G23" s="3">
-        <v>1184200</v>
+        <v>1145200</v>
       </c>
       <c r="H23" s="3">
-        <v>1255800</v>
+        <v>1214400</v>
       </c>
       <c r="I23" s="3">
-        <v>1326300</v>
+        <v>1282600</v>
       </c>
       <c r="J23" s="3">
-        <v>1110200</v>
+        <v>1073600</v>
       </c>
       <c r="K23" s="3">
         <v>1339800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>220500</v>
+        <v>213300</v>
       </c>
       <c r="E24" s="3">
-        <v>336900</v>
+        <v>325800</v>
       </c>
       <c r="F24" s="3">
-        <v>234600</v>
+        <v>226900</v>
       </c>
       <c r="G24" s="3">
-        <v>435100</v>
+        <v>420800</v>
       </c>
       <c r="H24" s="3">
-        <v>259100</v>
+        <v>250600</v>
       </c>
       <c r="I24" s="3">
-        <v>286000</v>
+        <v>276600</v>
       </c>
       <c r="J24" s="3">
-        <v>-31300</v>
+        <v>-30300</v>
       </c>
       <c r="K24" s="3">
         <v>469500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>850400</v>
+        <v>822400</v>
       </c>
       <c r="E26" s="3">
-        <v>1018900</v>
+        <v>985400</v>
       </c>
       <c r="F26" s="3">
-        <v>1046300</v>
+        <v>1011900</v>
       </c>
       <c r="G26" s="3">
-        <v>749100</v>
+        <v>724400</v>
       </c>
       <c r="H26" s="3">
-        <v>996700</v>
+        <v>963900</v>
       </c>
       <c r="I26" s="3">
-        <v>1040300</v>
+        <v>1006000</v>
       </c>
       <c r="J26" s="3">
-        <v>1141500</v>
+        <v>1103900</v>
       </c>
       <c r="K26" s="3">
         <v>870300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>821800</v>
+        <v>794800</v>
       </c>
       <c r="E27" s="3">
-        <v>981300</v>
+        <v>949000</v>
       </c>
       <c r="F27" s="3">
-        <v>940200</v>
+        <v>909300</v>
       </c>
       <c r="G27" s="3">
-        <v>720900</v>
+        <v>697200</v>
       </c>
       <c r="H27" s="3">
-        <v>946000</v>
+        <v>914900</v>
       </c>
       <c r="I27" s="3">
-        <v>993400</v>
+        <v>960700</v>
       </c>
       <c r="J27" s="3">
-        <v>1055600</v>
+        <v>1020900</v>
       </c>
       <c r="K27" s="3">
         <v>813000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-446200</v>
+        <v>-431500</v>
       </c>
       <c r="E32" s="3">
-        <v>-456600</v>
+        <v>-441500</v>
       </c>
       <c r="F32" s="3">
-        <v>-428100</v>
+        <v>-414000</v>
       </c>
       <c r="G32" s="3">
-        <v>-364200</v>
+        <v>-352200</v>
       </c>
       <c r="H32" s="3">
-        <v>-311600</v>
+        <v>-301400</v>
       </c>
       <c r="I32" s="3">
-        <v>-498700</v>
+        <v>-482300</v>
       </c>
       <c r="J32" s="3">
-        <v>-274700</v>
+        <v>-265600</v>
       </c>
       <c r="K32" s="3">
         <v>-253100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>821800</v>
+        <v>794800</v>
       </c>
       <c r="E33" s="3">
-        <v>981300</v>
+        <v>949000</v>
       </c>
       <c r="F33" s="3">
-        <v>940200</v>
+        <v>909300</v>
       </c>
       <c r="G33" s="3">
-        <v>720900</v>
+        <v>697200</v>
       </c>
       <c r="H33" s="3">
-        <v>946000</v>
+        <v>914900</v>
       </c>
       <c r="I33" s="3">
-        <v>993400</v>
+        <v>960700</v>
       </c>
       <c r="J33" s="3">
-        <v>1055600</v>
+        <v>1020900</v>
       </c>
       <c r="K33" s="3">
         <v>813000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>821800</v>
+        <v>794800</v>
       </c>
       <c r="E35" s="3">
-        <v>981300</v>
+        <v>949000</v>
       </c>
       <c r="F35" s="3">
-        <v>940200</v>
+        <v>909300</v>
       </c>
       <c r="G35" s="3">
-        <v>720900</v>
+        <v>697200</v>
       </c>
       <c r="H35" s="3">
-        <v>946000</v>
+        <v>914900</v>
       </c>
       <c r="I35" s="3">
-        <v>993400</v>
+        <v>960700</v>
       </c>
       <c r="J35" s="3">
-        <v>1055600</v>
+        <v>1020900</v>
       </c>
       <c r="K35" s="3">
         <v>813000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3523100</v>
+        <v>3407100</v>
       </c>
       <c r="E41" s="3">
-        <v>3822700</v>
+        <v>3696900</v>
       </c>
       <c r="F41" s="3">
-        <v>4671700</v>
+        <v>4517900</v>
       </c>
       <c r="G41" s="3">
-        <v>3871200</v>
+        <v>3743700</v>
       </c>
       <c r="H41" s="3">
-        <v>3427100</v>
+        <v>3314300</v>
       </c>
       <c r="I41" s="3">
-        <v>3407300</v>
+        <v>3295100</v>
       </c>
       <c r="J41" s="3">
-        <v>3200900</v>
+        <v>3095500</v>
       </c>
       <c r="K41" s="3">
         <v>3070200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>886900</v>
+        <v>857700</v>
       </c>
       <c r="E42" s="3">
-        <v>674400</v>
+        <v>652200</v>
       </c>
       <c r="F42" s="3">
-        <v>993700</v>
+        <v>961000</v>
       </c>
       <c r="G42" s="3">
-        <v>2257600</v>
+        <v>2183300</v>
       </c>
       <c r="H42" s="3">
-        <v>2709000</v>
+        <v>2619800</v>
       </c>
       <c r="I42" s="3">
-        <v>2871300</v>
+        <v>2776700</v>
       </c>
       <c r="J42" s="3">
-        <v>2547100</v>
+        <v>2463200</v>
       </c>
       <c r="K42" s="3">
         <v>2530300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3093900</v>
+        <v>2992100</v>
       </c>
       <c r="E43" s="3">
-        <v>3063600</v>
+        <v>2962800</v>
       </c>
       <c r="F43" s="3">
-        <v>3255500</v>
+        <v>3148300</v>
       </c>
       <c r="G43" s="3">
-        <v>3486000</v>
+        <v>3371200</v>
       </c>
       <c r="H43" s="3">
-        <v>2862900</v>
+        <v>2768600</v>
       </c>
       <c r="I43" s="3">
-        <v>2587400</v>
+        <v>2502200</v>
       </c>
       <c r="J43" s="3">
-        <v>2852900</v>
+        <v>2759000</v>
       </c>
       <c r="K43" s="3">
         <v>2517600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3146200</v>
+        <v>3042600</v>
       </c>
       <c r="E44" s="3">
-        <v>3136600</v>
+        <v>3033300</v>
       </c>
       <c r="F44" s="3">
-        <v>3132700</v>
+        <v>3029600</v>
       </c>
       <c r="G44" s="3">
-        <v>3324000</v>
+        <v>3214500</v>
       </c>
       <c r="H44" s="3">
-        <v>3016800</v>
+        <v>2917500</v>
       </c>
       <c r="I44" s="3">
-        <v>2986900</v>
+        <v>2888600</v>
       </c>
       <c r="J44" s="3">
-        <v>3229500</v>
+        <v>3123100</v>
       </c>
       <c r="K44" s="3">
         <v>3075900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>279700</v>
+        <v>270500</v>
       </c>
       <c r="E45" s="3">
-        <v>259200</v>
+        <v>250700</v>
       </c>
       <c r="F45" s="3">
-        <v>315500</v>
+        <v>305200</v>
       </c>
       <c r="G45" s="3">
-        <v>2017700</v>
+        <v>1951200</v>
       </c>
       <c r="H45" s="3">
-        <v>1090600</v>
+        <v>1054700</v>
       </c>
       <c r="I45" s="3">
-        <v>1217700</v>
+        <v>1177600</v>
       </c>
       <c r="J45" s="3">
-        <v>1447800</v>
+        <v>1400100</v>
       </c>
       <c r="K45" s="3">
         <v>1331700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10929900</v>
+        <v>10569900</v>
       </c>
       <c r="E46" s="3">
-        <v>10956700</v>
+        <v>10595800</v>
       </c>
       <c r="F46" s="3">
-        <v>12369200</v>
+        <v>11961900</v>
       </c>
       <c r="G46" s="3">
-        <v>13354300</v>
+        <v>12914600</v>
       </c>
       <c r="H46" s="3">
-        <v>13106500</v>
+        <v>12674900</v>
       </c>
       <c r="I46" s="3">
-        <v>13070700</v>
+        <v>12640200</v>
       </c>
       <c r="J46" s="3">
-        <v>13278300</v>
+        <v>12841000</v>
       </c>
       <c r="K46" s="3">
         <v>12525700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12066500</v>
+        <v>11669100</v>
       </c>
       <c r="E47" s="3">
-        <v>11307700</v>
+        <v>10935300</v>
       </c>
       <c r="F47" s="3">
-        <v>8979500</v>
+        <v>8683800</v>
       </c>
       <c r="G47" s="3">
-        <v>19514400</v>
+        <v>18871700</v>
       </c>
       <c r="H47" s="3">
-        <v>10301200</v>
+        <v>9962000</v>
       </c>
       <c r="I47" s="3">
-        <v>10307100</v>
+        <v>9967700</v>
       </c>
       <c r="J47" s="3">
-        <v>9580400</v>
+        <v>9264900</v>
       </c>
       <c r="K47" s="3">
         <v>6762000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4352300</v>
+        <v>4209000</v>
       </c>
       <c r="E48" s="3">
-        <v>3809700</v>
+        <v>3684300</v>
       </c>
       <c r="F48" s="3">
-        <v>3114300</v>
+        <v>3011700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>2428800</v>
+        <v>2348800</v>
       </c>
       <c r="I48" s="3">
-        <v>2409500</v>
+        <v>2330100</v>
       </c>
       <c r="J48" s="3">
-        <v>2382200</v>
+        <v>2303700</v>
       </c>
       <c r="K48" s="3">
         <v>2478300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3715300</v>
+        <v>3593000</v>
       </c>
       <c r="E49" s="3">
-        <v>3013000</v>
+        <v>2913800</v>
       </c>
       <c r="F49" s="3">
-        <v>2090700</v>
+        <v>2021900</v>
       </c>
       <c r="G49" s="3">
-        <v>4089600</v>
+        <v>3954900</v>
       </c>
       <c r="H49" s="3">
-        <v>1564200</v>
+        <v>1512700</v>
       </c>
       <c r="I49" s="3">
-        <v>1473100</v>
+        <v>1424600</v>
       </c>
       <c r="J49" s="3">
-        <v>1446500</v>
+        <v>1398900</v>
       </c>
       <c r="K49" s="3">
         <v>1611800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>761600</v>
+        <v>736500</v>
       </c>
       <c r="E52" s="3">
-        <v>522000</v>
+        <v>504800</v>
       </c>
       <c r="F52" s="3">
-        <v>489000</v>
+        <v>472900</v>
       </c>
       <c r="G52" s="3">
-        <v>1245400</v>
+        <v>1204400</v>
       </c>
       <c r="H52" s="3">
-        <v>935700</v>
+        <v>904900</v>
       </c>
       <c r="I52" s="3">
-        <v>935500</v>
+        <v>904700</v>
       </c>
       <c r="J52" s="3">
-        <v>835600</v>
+        <v>808100</v>
       </c>
       <c r="K52" s="3">
         <v>774400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31825500</v>
+        <v>30777500</v>
       </c>
       <c r="E54" s="3">
-        <v>29609100</v>
+        <v>28634000</v>
       </c>
       <c r="F54" s="3">
-        <v>27042800</v>
+        <v>26152300</v>
       </c>
       <c r="G54" s="3">
-        <v>28503500</v>
+        <v>27564800</v>
       </c>
       <c r="H54" s="3">
-        <v>28336400</v>
+        <v>27403200</v>
       </c>
       <c r="I54" s="3">
-        <v>28195900</v>
+        <v>27267400</v>
       </c>
       <c r="J54" s="3">
-        <v>27523000</v>
+        <v>26616600</v>
       </c>
       <c r="K54" s="3">
         <v>24152200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1273400</v>
+        <v>1231500</v>
       </c>
       <c r="E57" s="3">
-        <v>1192600</v>
+        <v>1153300</v>
       </c>
       <c r="F57" s="3">
-        <v>1230400</v>
+        <v>1189900</v>
       </c>
       <c r="G57" s="3">
-        <v>2728200</v>
+        <v>2638300</v>
       </c>
       <c r="H57" s="3">
-        <v>1179400</v>
+        <v>1140500</v>
       </c>
       <c r="I57" s="3">
-        <v>1053500</v>
+        <v>1018800</v>
       </c>
       <c r="J57" s="3">
-        <v>1090000</v>
+        <v>1054200</v>
       </c>
       <c r="K57" s="3">
         <v>1121400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>509100</v>
+        <v>492300</v>
       </c>
       <c r="E58" s="3">
-        <v>460100</v>
+        <v>444900</v>
       </c>
       <c r="F58" s="3">
-        <v>38300</v>
+        <v>37000</v>
       </c>
       <c r="G58" s="3">
-        <v>113900</v>
+        <v>110200</v>
       </c>
       <c r="H58" s="3">
-        <v>76800</v>
+        <v>74200</v>
       </c>
       <c r="I58" s="3">
-        <v>133300</v>
+        <v>128900</v>
       </c>
       <c r="J58" s="3">
-        <v>123600</v>
+        <v>119600</v>
       </c>
       <c r="K58" s="3">
         <v>150400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2069700</v>
+        <v>2001500</v>
       </c>
       <c r="E59" s="3">
-        <v>1968700</v>
+        <v>1903800</v>
       </c>
       <c r="F59" s="3">
-        <v>2145300</v>
+        <v>2074600</v>
       </c>
       <c r="G59" s="3">
-        <v>3054100</v>
+        <v>2953600</v>
       </c>
       <c r="H59" s="3">
-        <v>2065900</v>
+        <v>1997900</v>
       </c>
       <c r="I59" s="3">
-        <v>2164100</v>
+        <v>2092800</v>
       </c>
       <c r="J59" s="3">
-        <v>2031800</v>
+        <v>1964900</v>
       </c>
       <c r="K59" s="3">
         <v>1727600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3852200</v>
+        <v>3725300</v>
       </c>
       <c r="E60" s="3">
-        <v>3621300</v>
+        <v>3502100</v>
       </c>
       <c r="F60" s="3">
-        <v>3414000</v>
+        <v>3301500</v>
       </c>
       <c r="G60" s="3">
-        <v>3820600</v>
+        <v>3694800</v>
       </c>
       <c r="H60" s="3">
-        <v>3322100</v>
+        <v>3212700</v>
       </c>
       <c r="I60" s="3">
-        <v>3350900</v>
+        <v>3240600</v>
       </c>
       <c r="J60" s="3">
-        <v>3245400</v>
+        <v>3138600</v>
       </c>
       <c r="K60" s="3">
         <v>2999500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>837600</v>
+        <v>810000</v>
       </c>
       <c r="E61" s="3">
-        <v>699800</v>
+        <v>676800</v>
       </c>
       <c r="F61" s="3">
-        <v>51500</v>
+        <v>49800</v>
       </c>
       <c r="G61" s="3">
-        <v>54400</v>
+        <v>52600</v>
       </c>
       <c r="H61" s="3">
-        <v>149500</v>
+        <v>144600</v>
       </c>
       <c r="I61" s="3">
-        <v>165000</v>
+        <v>159600</v>
       </c>
       <c r="J61" s="3">
-        <v>162900</v>
+        <v>157500</v>
       </c>
       <c r="K61" s="3">
         <v>178300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3303000</v>
+        <v>3194200</v>
       </c>
       <c r="E62" s="3">
-        <v>2929800</v>
+        <v>2833400</v>
       </c>
       <c r="F62" s="3">
-        <v>2057100</v>
+        <v>1989400</v>
       </c>
       <c r="G62" s="3">
-        <v>2905000</v>
+        <v>2809300</v>
       </c>
       <c r="H62" s="3">
-        <v>2828600</v>
+        <v>2735400</v>
       </c>
       <c r="I62" s="3">
-        <v>3054900</v>
+        <v>2954300</v>
       </c>
       <c r="J62" s="3">
-        <v>3128600</v>
+        <v>3025600</v>
       </c>
       <c r="K62" s="3">
         <v>2771500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8217700</v>
+        <v>7947100</v>
       </c>
       <c r="E66" s="3">
-        <v>7452400</v>
+        <v>7206900</v>
       </c>
       <c r="F66" s="3">
-        <v>6400300</v>
+        <v>6189500</v>
       </c>
       <c r="G66" s="3">
-        <v>7315500</v>
+        <v>7074600</v>
       </c>
       <c r="H66" s="3">
-        <v>7071600</v>
+        <v>6838800</v>
       </c>
       <c r="I66" s="3">
-        <v>7386300</v>
+        <v>7143000</v>
       </c>
       <c r="J66" s="3">
-        <v>7341400</v>
+        <v>7099700</v>
       </c>
       <c r="K66" s="3">
         <v>6655800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15944900</v>
+        <v>15419800</v>
       </c>
       <c r="E72" s="3">
-        <v>15365600</v>
+        <v>14859600</v>
       </c>
       <c r="F72" s="3">
-        <v>14928600</v>
+        <v>14437000</v>
       </c>
       <c r="G72" s="3">
-        <v>14372300</v>
+        <v>13899000</v>
       </c>
       <c r="H72" s="3">
-        <v>14923200</v>
+        <v>14431800</v>
       </c>
       <c r="I72" s="3">
-        <v>14311800</v>
+        <v>13840500</v>
       </c>
       <c r="J72" s="3">
-        <v>13686000</v>
+        <v>13235400</v>
       </c>
       <c r="K72" s="3">
         <v>12968600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23607800</v>
+        <v>22830400</v>
       </c>
       <c r="E76" s="3">
-        <v>22156700</v>
+        <v>21427100</v>
       </c>
       <c r="F76" s="3">
-        <v>20642500</v>
+        <v>19962700</v>
       </c>
       <c r="G76" s="3">
-        <v>21188000</v>
+        <v>20490200</v>
       </c>
       <c r="H76" s="3">
-        <v>21264700</v>
+        <v>20564500</v>
       </c>
       <c r="I76" s="3">
-        <v>20809600</v>
+        <v>20124400</v>
       </c>
       <c r="J76" s="3">
-        <v>20181600</v>
+        <v>19517000</v>
       </c>
       <c r="K76" s="3">
         <v>17496400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>821800</v>
+        <v>794800</v>
       </c>
       <c r="E81" s="3">
-        <v>981300</v>
+        <v>949000</v>
       </c>
       <c r="F81" s="3">
-        <v>940200</v>
+        <v>909300</v>
       </c>
       <c r="G81" s="3">
-        <v>720900</v>
+        <v>697200</v>
       </c>
       <c r="H81" s="3">
-        <v>946000</v>
+        <v>914900</v>
       </c>
       <c r="I81" s="3">
-        <v>993400</v>
+        <v>960700</v>
       </c>
       <c r="J81" s="3">
-        <v>1055600</v>
+        <v>1020900</v>
       </c>
       <c r="K81" s="3">
         <v>813000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>993500</v>
+        <v>960800</v>
       </c>
       <c r="E83" s="3">
-        <v>844900</v>
+        <v>817100</v>
       </c>
       <c r="F83" s="3">
-        <v>582000</v>
+        <v>562900</v>
       </c>
       <c r="G83" s="3">
-        <v>750400</v>
+        <v>725700</v>
       </c>
       <c r="H83" s="3">
-        <v>705500</v>
+        <v>682300</v>
       </c>
       <c r="I83" s="3">
-        <v>698300</v>
+        <v>675300</v>
       </c>
       <c r="J83" s="3">
-        <v>665000</v>
+        <v>643100</v>
       </c>
       <c r="K83" s="3">
         <v>697500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2011700</v>
+        <v>1945400</v>
       </c>
       <c r="E89" s="3">
-        <v>1955300</v>
+        <v>1890900</v>
       </c>
       <c r="F89" s="3">
-        <v>2004400</v>
+        <v>1938400</v>
       </c>
       <c r="G89" s="3">
-        <v>1447600</v>
+        <v>1400000</v>
       </c>
       <c r="H89" s="3">
-        <v>1496100</v>
+        <v>1446900</v>
       </c>
       <c r="I89" s="3">
-        <v>1767700</v>
+        <v>1709500</v>
       </c>
       <c r="J89" s="3">
-        <v>1191300</v>
+        <v>1152100</v>
       </c>
       <c r="K89" s="3">
         <v>1366100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1119100</v>
+        <v>-1082200</v>
       </c>
       <c r="E91" s="3">
-        <v>-976000</v>
+        <v>-943900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1011600</v>
+        <v>-978300</v>
       </c>
       <c r="G91" s="3">
-        <v>-767000</v>
+        <v>-741800</v>
       </c>
       <c r="H91" s="3">
-        <v>-609500</v>
+        <v>-589400</v>
       </c>
       <c r="I91" s="3">
-        <v>-602200</v>
+        <v>-582400</v>
       </c>
       <c r="J91" s="3">
-        <v>-519800</v>
+        <v>-502700</v>
       </c>
       <c r="K91" s="3">
         <v>-466200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1674300</v>
+        <v>-1619200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1326000</v>
+        <v>-1282300</v>
       </c>
       <c r="F94" s="3">
-        <v>-429300</v>
+        <v>-415100</v>
       </c>
       <c r="G94" s="3">
-        <v>-484000</v>
+        <v>-468100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1021100</v>
+        <v>-987500</v>
       </c>
       <c r="I94" s="3">
-        <v>-973000</v>
+        <v>-941000</v>
       </c>
       <c r="J94" s="3">
-        <v>-852800</v>
+        <v>-824700</v>
       </c>
       <c r="K94" s="3">
         <v>-926500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-476900</v>
+        <v>-461200</v>
       </c>
       <c r="E96" s="3">
-        <v>-565000</v>
+        <v>-546400</v>
       </c>
       <c r="F96" s="3">
-        <v>-437900</v>
+        <v>-423400</v>
       </c>
       <c r="G96" s="3">
-        <v>-436700</v>
+        <v>-422300</v>
       </c>
       <c r="H96" s="3">
-        <v>-364200</v>
+        <v>-352200</v>
       </c>
       <c r="I96" s="3">
-        <v>-399700</v>
+        <v>-386500</v>
       </c>
       <c r="J96" s="3">
-        <v>-297900</v>
+        <v>-288100</v>
       </c>
       <c r="K96" s="3">
         <v>-262200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-737600</v>
+        <v>-713300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1431400</v>
+        <v>-1384300</v>
       </c>
       <c r="F100" s="3">
-        <v>-811300</v>
+        <v>-784600</v>
       </c>
       <c r="G100" s="3">
-        <v>-469800</v>
+        <v>-454300</v>
       </c>
       <c r="H100" s="3">
-        <v>-437000</v>
+        <v>-422600</v>
       </c>
       <c r="I100" s="3">
-        <v>-461000</v>
+        <v>-445900</v>
       </c>
       <c r="J100" s="3">
-        <v>-364300</v>
+        <v>-352300</v>
       </c>
       <c r="K100" s="3">
         <v>-300500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100600</v>
+        <v>97300</v>
       </c>
       <c r="E101" s="3">
-        <v>-46900</v>
+        <v>-45300</v>
       </c>
       <c r="F101" s="3">
-        <v>36700</v>
+        <v>35500</v>
       </c>
       <c r="G101" s="3">
-        <v>-49800</v>
+        <v>-48100</v>
       </c>
       <c r="H101" s="3">
-        <v>-18200</v>
+        <v>-17600</v>
       </c>
       <c r="I101" s="3">
-        <v>-127200</v>
+        <v>-123000</v>
       </c>
       <c r="J101" s="3">
-        <v>173300</v>
+        <v>167600</v>
       </c>
       <c r="K101" s="3">
         <v>133000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-299700</v>
+        <v>-289800</v>
       </c>
       <c r="E102" s="3">
-        <v>-849000</v>
+        <v>-821000</v>
       </c>
       <c r="F102" s="3">
-        <v>800600</v>
+        <v>774200</v>
       </c>
       <c r="G102" s="3">
-        <v>444000</v>
+        <v>429400</v>
       </c>
       <c r="H102" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="I102" s="3">
-        <v>206400</v>
+        <v>199600</v>
       </c>
       <c r="J102" s="3">
-        <v>147500</v>
+        <v>142600</v>
       </c>
       <c r="K102" s="3">
         <v>272200</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13452000</v>
+        <v>13024400</v>
       </c>
       <c r="E8" s="3">
-        <v>14087700</v>
+        <v>13639900</v>
       </c>
       <c r="F8" s="3">
-        <v>14304900</v>
+        <v>13850200</v>
       </c>
       <c r="G8" s="3">
-        <v>13893700</v>
+        <v>13452100</v>
       </c>
       <c r="H8" s="3">
-        <v>12534500</v>
+        <v>12136100</v>
       </c>
       <c r="I8" s="3">
-        <v>13035500</v>
+        <v>12621200</v>
       </c>
       <c r="J8" s="3">
-        <v>13448800</v>
+        <v>13021400</v>
       </c>
       <c r="K8" s="3">
         <v>13257900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9866800</v>
+        <v>9553200</v>
       </c>
       <c r="E9" s="3">
-        <v>10200900</v>
+        <v>9876700</v>
       </c>
       <c r="F9" s="3">
-        <v>10216800</v>
+        <v>9892100</v>
       </c>
       <c r="G9" s="3">
-        <v>21189100</v>
+        <v>20515700</v>
       </c>
       <c r="H9" s="3">
-        <v>9245800</v>
+        <v>8952000</v>
       </c>
       <c r="I9" s="3">
-        <v>9633400</v>
+        <v>9327300</v>
       </c>
       <c r="J9" s="3">
-        <v>10018200</v>
+        <v>9699800</v>
       </c>
       <c r="K9" s="3">
         <v>9787100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3585200</v>
+        <v>3471300</v>
       </c>
       <c r="E10" s="3">
-        <v>3886700</v>
+        <v>3763200</v>
       </c>
       <c r="F10" s="3">
-        <v>4088000</v>
+        <v>3958100</v>
       </c>
       <c r="G10" s="3">
-        <v>-7295400</v>
+        <v>-7063500</v>
       </c>
       <c r="H10" s="3">
-        <v>3288600</v>
+        <v>3184100</v>
       </c>
       <c r="I10" s="3">
-        <v>3402100</v>
+        <v>3293900</v>
       </c>
       <c r="J10" s="3">
-        <v>3430600</v>
+        <v>3321600</v>
       </c>
       <c r="K10" s="3">
         <v>3470800</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>487100</v>
+        <v>471600</v>
       </c>
       <c r="K12" s="3">
         <v>447300</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>204300</v>
+        <v>197800</v>
       </c>
       <c r="E14" s="3">
-        <v>65000</v>
+        <v>63000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>124600</v>
+        <v>120600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -952,16 +952,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>298200</v>
+        <v>288700</v>
       </c>
       <c r="E15" s="3">
-        <v>259300</v>
+        <v>251100</v>
       </c>
       <c r="F15" s="3">
-        <v>130000</v>
+        <v>125800</v>
       </c>
       <c r="G15" s="3">
-        <v>129900</v>
+        <v>125800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12829600</v>
+        <v>12421800</v>
       </c>
       <c r="E17" s="3">
-        <v>13205000</v>
+        <v>12785300</v>
       </c>
       <c r="F17" s="3">
-        <v>13469500</v>
+        <v>13041400</v>
       </c>
       <c r="G17" s="3">
-        <v>13094700</v>
+        <v>12678500</v>
       </c>
       <c r="H17" s="3">
-        <v>11613400</v>
+        <v>11244300</v>
       </c>
       <c r="I17" s="3">
-        <v>12219200</v>
+        <v>11830900</v>
       </c>
       <c r="J17" s="3">
-        <v>12625700</v>
+        <v>12224400</v>
       </c>
       <c r="K17" s="3">
         <v>12153400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>622400</v>
+        <v>602600</v>
       </c>
       <c r="E18" s="3">
-        <v>882700</v>
+        <v>854600</v>
       </c>
       <c r="F18" s="3">
-        <v>835400</v>
+        <v>808800</v>
       </c>
       <c r="G18" s="3">
-        <v>799100</v>
+        <v>773700</v>
       </c>
       <c r="H18" s="3">
-        <v>921000</v>
+        <v>891700</v>
       </c>
       <c r="I18" s="3">
-        <v>816300</v>
+        <v>790400</v>
       </c>
       <c r="J18" s="3">
-        <v>823100</v>
+        <v>796900</v>
       </c>
       <c r="K18" s="3">
         <v>1104500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>431500</v>
+        <v>417800</v>
       </c>
       <c r="E20" s="3">
-        <v>441500</v>
+        <v>427500</v>
       </c>
       <c r="F20" s="3">
-        <v>414000</v>
+        <v>400900</v>
       </c>
       <c r="G20" s="3">
-        <v>352200</v>
+        <v>341000</v>
       </c>
       <c r="H20" s="3">
-        <v>301400</v>
+        <v>291800</v>
       </c>
       <c r="I20" s="3">
-        <v>482300</v>
+        <v>466900</v>
       </c>
       <c r="J20" s="3">
-        <v>265600</v>
+        <v>257200</v>
       </c>
       <c r="K20" s="3">
         <v>253100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2016900</v>
+        <v>1961500</v>
       </c>
       <c r="E21" s="3">
-        <v>2143200</v>
+        <v>2082600</v>
       </c>
       <c r="F21" s="3">
-        <v>1813600</v>
+        <v>1761100</v>
       </c>
       <c r="G21" s="3">
-        <v>1878600</v>
+        <v>1825500</v>
       </c>
       <c r="H21" s="3">
-        <v>1906200</v>
+        <v>1851900</v>
       </c>
       <c r="I21" s="3">
-        <v>1975400</v>
+        <v>1918800</v>
       </c>
       <c r="J21" s="3">
-        <v>1733300</v>
+        <v>1684100</v>
       </c>
       <c r="K21" s="3">
         <v>2058200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="E22" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="F22" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="G22" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H22" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="I22" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="J22" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="K22" s="3">
         <v>17800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1035700</v>
+        <v>1002800</v>
       </c>
       <c r="E23" s="3">
-        <v>1311200</v>
+        <v>1269500</v>
       </c>
       <c r="F23" s="3">
-        <v>1238800</v>
+        <v>1199400</v>
       </c>
       <c r="G23" s="3">
-        <v>1145200</v>
+        <v>1108800</v>
       </c>
       <c r="H23" s="3">
-        <v>1214400</v>
+        <v>1175900</v>
       </c>
       <c r="I23" s="3">
-        <v>1282600</v>
+        <v>1241800</v>
       </c>
       <c r="J23" s="3">
-        <v>1073600</v>
+        <v>1039500</v>
       </c>
       <c r="K23" s="3">
         <v>1339800</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>213300</v>
+        <v>206500</v>
       </c>
       <c r="E24" s="3">
-        <v>325800</v>
+        <v>315400</v>
       </c>
       <c r="F24" s="3">
-        <v>226900</v>
+        <v>219700</v>
       </c>
       <c r="G24" s="3">
-        <v>420800</v>
+        <v>407400</v>
       </c>
       <c r="H24" s="3">
-        <v>250600</v>
+        <v>242600</v>
       </c>
       <c r="I24" s="3">
-        <v>276600</v>
+        <v>267800</v>
       </c>
       <c r="J24" s="3">
-        <v>-30300</v>
+        <v>-29400</v>
       </c>
       <c r="K24" s="3">
         <v>469500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>822400</v>
+        <v>796300</v>
       </c>
       <c r="E26" s="3">
-        <v>985400</v>
+        <v>954000</v>
       </c>
       <c r="F26" s="3">
-        <v>1011900</v>
+        <v>979700</v>
       </c>
       <c r="G26" s="3">
-        <v>724400</v>
+        <v>701400</v>
       </c>
       <c r="H26" s="3">
-        <v>963900</v>
+        <v>933200</v>
       </c>
       <c r="I26" s="3">
-        <v>1006000</v>
+        <v>974000</v>
       </c>
       <c r="J26" s="3">
-        <v>1103900</v>
+        <v>1068800</v>
       </c>
       <c r="K26" s="3">
         <v>870300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>794800</v>
+        <v>769500</v>
       </c>
       <c r="E27" s="3">
-        <v>949000</v>
+        <v>918900</v>
       </c>
       <c r="F27" s="3">
-        <v>909300</v>
+        <v>880400</v>
       </c>
       <c r="G27" s="3">
-        <v>697200</v>
+        <v>675000</v>
       </c>
       <c r="H27" s="3">
-        <v>914900</v>
+        <v>885800</v>
       </c>
       <c r="I27" s="3">
-        <v>960700</v>
+        <v>930200</v>
       </c>
       <c r="J27" s="3">
-        <v>1020900</v>
+        <v>988400</v>
       </c>
       <c r="K27" s="3">
         <v>813000</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-431500</v>
+        <v>-417800</v>
       </c>
       <c r="E32" s="3">
-        <v>-441500</v>
+        <v>-427500</v>
       </c>
       <c r="F32" s="3">
-        <v>-414000</v>
+        <v>-400900</v>
       </c>
       <c r="G32" s="3">
-        <v>-352200</v>
+        <v>-341000</v>
       </c>
       <c r="H32" s="3">
-        <v>-301400</v>
+        <v>-291800</v>
       </c>
       <c r="I32" s="3">
-        <v>-482300</v>
+        <v>-466900</v>
       </c>
       <c r="J32" s="3">
-        <v>-265600</v>
+        <v>-257200</v>
       </c>
       <c r="K32" s="3">
         <v>-253100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>794800</v>
+        <v>769500</v>
       </c>
       <c r="E33" s="3">
-        <v>949000</v>
+        <v>918900</v>
       </c>
       <c r="F33" s="3">
-        <v>909300</v>
+        <v>880400</v>
       </c>
       <c r="G33" s="3">
-        <v>697200</v>
+        <v>675000</v>
       </c>
       <c r="H33" s="3">
-        <v>914900</v>
+        <v>885800</v>
       </c>
       <c r="I33" s="3">
-        <v>960700</v>
+        <v>930200</v>
       </c>
       <c r="J33" s="3">
-        <v>1020900</v>
+        <v>988400</v>
       </c>
       <c r="K33" s="3">
         <v>813000</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>794800</v>
+        <v>769500</v>
       </c>
       <c r="E35" s="3">
-        <v>949000</v>
+        <v>918900</v>
       </c>
       <c r="F35" s="3">
-        <v>909300</v>
+        <v>880400</v>
       </c>
       <c r="G35" s="3">
-        <v>697200</v>
+        <v>675000</v>
       </c>
       <c r="H35" s="3">
-        <v>914900</v>
+        <v>885800</v>
       </c>
       <c r="I35" s="3">
-        <v>960700</v>
+        <v>930200</v>
       </c>
       <c r="J35" s="3">
-        <v>1020900</v>
+        <v>988400</v>
       </c>
       <c r="K35" s="3">
         <v>813000</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3407100</v>
+        <v>3298800</v>
       </c>
       <c r="E41" s="3">
-        <v>3696900</v>
+        <v>3579400</v>
       </c>
       <c r="F41" s="3">
-        <v>4517900</v>
+        <v>4374300</v>
       </c>
       <c r="G41" s="3">
-        <v>3743700</v>
+        <v>3624700</v>
       </c>
       <c r="H41" s="3">
-        <v>3314300</v>
+        <v>3208900</v>
       </c>
       <c r="I41" s="3">
-        <v>3295100</v>
+        <v>3190400</v>
       </c>
       <c r="J41" s="3">
-        <v>3095500</v>
+        <v>2997100</v>
       </c>
       <c r="K41" s="3">
         <v>3070200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>857700</v>
+        <v>830400</v>
       </c>
       <c r="E42" s="3">
-        <v>652200</v>
+        <v>631500</v>
       </c>
       <c r="F42" s="3">
-        <v>961000</v>
+        <v>930500</v>
       </c>
       <c r="G42" s="3">
-        <v>2183300</v>
+        <v>2113900</v>
       </c>
       <c r="H42" s="3">
-        <v>2619800</v>
+        <v>2536600</v>
       </c>
       <c r="I42" s="3">
-        <v>2776700</v>
+        <v>2688500</v>
       </c>
       <c r="J42" s="3">
-        <v>2463200</v>
+        <v>2384900</v>
       </c>
       <c r="K42" s="3">
         <v>2530300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2992100</v>
+        <v>2897000</v>
       </c>
       <c r="E43" s="3">
-        <v>2962800</v>
+        <v>2868600</v>
       </c>
       <c r="F43" s="3">
-        <v>3148300</v>
+        <v>3048200</v>
       </c>
       <c r="G43" s="3">
-        <v>3371200</v>
+        <v>3264100</v>
       </c>
       <c r="H43" s="3">
-        <v>2768600</v>
+        <v>2680700</v>
       </c>
       <c r="I43" s="3">
-        <v>2502200</v>
+        <v>2422700</v>
       </c>
       <c r="J43" s="3">
-        <v>2759000</v>
+        <v>2671300</v>
       </c>
       <c r="K43" s="3">
         <v>2517600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3042600</v>
+        <v>2945900</v>
       </c>
       <c r="E44" s="3">
-        <v>3033300</v>
+        <v>2936900</v>
       </c>
       <c r="F44" s="3">
-        <v>3029600</v>
+        <v>2933300</v>
       </c>
       <c r="G44" s="3">
-        <v>3214500</v>
+        <v>3112400</v>
       </c>
       <c r="H44" s="3">
-        <v>2917500</v>
+        <v>2824800</v>
       </c>
       <c r="I44" s="3">
-        <v>2888600</v>
+        <v>2796800</v>
       </c>
       <c r="J44" s="3">
-        <v>3123100</v>
+        <v>3023900</v>
       </c>
       <c r="K44" s="3">
         <v>3075900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>270500</v>
+        <v>261900</v>
       </c>
       <c r="E45" s="3">
-        <v>250700</v>
+        <v>242700</v>
       </c>
       <c r="F45" s="3">
-        <v>305200</v>
+        <v>295500</v>
       </c>
       <c r="G45" s="3">
-        <v>1951200</v>
+        <v>1889200</v>
       </c>
       <c r="H45" s="3">
-        <v>1054700</v>
+        <v>1021200</v>
       </c>
       <c r="I45" s="3">
-        <v>1177600</v>
+        <v>1140200</v>
       </c>
       <c r="J45" s="3">
-        <v>1400100</v>
+        <v>1355600</v>
       </c>
       <c r="K45" s="3">
         <v>1331700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10569900</v>
+        <v>10234000</v>
       </c>
       <c r="E46" s="3">
-        <v>10595800</v>
+        <v>10259100</v>
       </c>
       <c r="F46" s="3">
-        <v>11961900</v>
+        <v>11581700</v>
       </c>
       <c r="G46" s="3">
-        <v>12914600</v>
+        <v>12504100</v>
       </c>
       <c r="H46" s="3">
-        <v>12674900</v>
+        <v>12272100</v>
       </c>
       <c r="I46" s="3">
-        <v>12640200</v>
+        <v>12238500</v>
       </c>
       <c r="J46" s="3">
-        <v>12841000</v>
+        <v>12432900</v>
       </c>
       <c r="K46" s="3">
         <v>12525700</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11669100</v>
+        <v>11298200</v>
       </c>
       <c r="E47" s="3">
-        <v>10935300</v>
+        <v>10587700</v>
       </c>
       <c r="F47" s="3">
-        <v>8683800</v>
+        <v>8407800</v>
       </c>
       <c r="G47" s="3">
-        <v>18871700</v>
+        <v>18272000</v>
       </c>
       <c r="H47" s="3">
-        <v>9962000</v>
+        <v>9645300</v>
       </c>
       <c r="I47" s="3">
-        <v>9967700</v>
+        <v>9650900</v>
       </c>
       <c r="J47" s="3">
-        <v>9264900</v>
+        <v>8970500</v>
       </c>
       <c r="K47" s="3">
         <v>6762000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4209000</v>
+        <v>4075200</v>
       </c>
       <c r="E48" s="3">
-        <v>3684300</v>
+        <v>3567200</v>
       </c>
       <c r="F48" s="3">
-        <v>3011700</v>
+        <v>2916000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3">
-        <v>2348800</v>
+        <v>2274100</v>
       </c>
       <c r="I48" s="3">
-        <v>2330100</v>
+        <v>2256100</v>
       </c>
       <c r="J48" s="3">
-        <v>2303700</v>
+        <v>2230500</v>
       </c>
       <c r="K48" s="3">
         <v>2478300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3593000</v>
+        <v>3478800</v>
       </c>
       <c r="E49" s="3">
-        <v>2913800</v>
+        <v>2821200</v>
       </c>
       <c r="F49" s="3">
-        <v>2021900</v>
+        <v>1957600</v>
       </c>
       <c r="G49" s="3">
-        <v>3954900</v>
+        <v>3829200</v>
       </c>
       <c r="H49" s="3">
-        <v>1512700</v>
+        <v>1464600</v>
       </c>
       <c r="I49" s="3">
-        <v>1424600</v>
+        <v>1379300</v>
       </c>
       <c r="J49" s="3">
-        <v>1398900</v>
+        <v>1354400</v>
       </c>
       <c r="K49" s="3">
         <v>1611800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>736500</v>
+        <v>713100</v>
       </c>
       <c r="E52" s="3">
-        <v>504800</v>
+        <v>488800</v>
       </c>
       <c r="F52" s="3">
-        <v>472900</v>
+        <v>457900</v>
       </c>
       <c r="G52" s="3">
-        <v>1204400</v>
+        <v>1166100</v>
       </c>
       <c r="H52" s="3">
-        <v>904900</v>
+        <v>876100</v>
       </c>
       <c r="I52" s="3">
-        <v>904700</v>
+        <v>876000</v>
       </c>
       <c r="J52" s="3">
-        <v>808100</v>
+        <v>782400</v>
       </c>
       <c r="K52" s="3">
         <v>774400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30777500</v>
+        <v>29799300</v>
       </c>
       <c r="E54" s="3">
-        <v>28634000</v>
+        <v>27724000</v>
       </c>
       <c r="F54" s="3">
-        <v>26152300</v>
+        <v>25321100</v>
       </c>
       <c r="G54" s="3">
-        <v>27564800</v>
+        <v>26688800</v>
       </c>
       <c r="H54" s="3">
-        <v>27403200</v>
+        <v>26532300</v>
       </c>
       <c r="I54" s="3">
-        <v>27267400</v>
+        <v>26400800</v>
       </c>
       <c r="J54" s="3">
-        <v>26616600</v>
+        <v>25770700</v>
       </c>
       <c r="K54" s="3">
         <v>24152200</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1231500</v>
+        <v>1192300</v>
       </c>
       <c r="E57" s="3">
-        <v>1153300</v>
+        <v>1116600</v>
       </c>
       <c r="F57" s="3">
-        <v>1189900</v>
+        <v>1152100</v>
       </c>
       <c r="G57" s="3">
-        <v>2638300</v>
+        <v>2554500</v>
       </c>
       <c r="H57" s="3">
-        <v>1140500</v>
+        <v>1104300</v>
       </c>
       <c r="I57" s="3">
-        <v>1018800</v>
+        <v>986400</v>
       </c>
       <c r="J57" s="3">
-        <v>1054200</v>
+        <v>1020600</v>
       </c>
       <c r="K57" s="3">
         <v>1121400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>492300</v>
+        <v>476700</v>
       </c>
       <c r="E58" s="3">
-        <v>444900</v>
+        <v>430800</v>
       </c>
       <c r="F58" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="G58" s="3">
-        <v>110200</v>
+        <v>106700</v>
       </c>
       <c r="H58" s="3">
-        <v>74200</v>
+        <v>71900</v>
       </c>
       <c r="I58" s="3">
-        <v>128900</v>
+        <v>124800</v>
       </c>
       <c r="J58" s="3">
-        <v>119600</v>
+        <v>115800</v>
       </c>
       <c r="K58" s="3">
         <v>150400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2001500</v>
+        <v>1937900</v>
       </c>
       <c r="E59" s="3">
-        <v>1903800</v>
+        <v>1843300</v>
       </c>
       <c r="F59" s="3">
-        <v>2074600</v>
+        <v>2008700</v>
       </c>
       <c r="G59" s="3">
-        <v>2953600</v>
+        <v>2859700</v>
       </c>
       <c r="H59" s="3">
-        <v>1997900</v>
+        <v>1934400</v>
       </c>
       <c r="I59" s="3">
-        <v>2092800</v>
+        <v>2026300</v>
       </c>
       <c r="J59" s="3">
-        <v>1964900</v>
+        <v>1902400</v>
       </c>
       <c r="K59" s="3">
         <v>1727600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3725300</v>
+        <v>3606900</v>
       </c>
       <c r="E60" s="3">
-        <v>3502100</v>
+        <v>3390800</v>
       </c>
       <c r="F60" s="3">
-        <v>3301500</v>
+        <v>3196600</v>
       </c>
       <c r="G60" s="3">
-        <v>3694800</v>
+        <v>3577400</v>
       </c>
       <c r="H60" s="3">
-        <v>3212700</v>
+        <v>3110600</v>
       </c>
       <c r="I60" s="3">
-        <v>3240600</v>
+        <v>3137600</v>
       </c>
       <c r="J60" s="3">
-        <v>3138600</v>
+        <v>3038800</v>
       </c>
       <c r="K60" s="3">
         <v>2999500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>810000</v>
+        <v>784200</v>
       </c>
       <c r="E61" s="3">
-        <v>676800</v>
+        <v>655200</v>
       </c>
       <c r="F61" s="3">
-        <v>49800</v>
+        <v>48200</v>
       </c>
       <c r="G61" s="3">
-        <v>52600</v>
+        <v>50900</v>
       </c>
       <c r="H61" s="3">
-        <v>144600</v>
+        <v>140000</v>
       </c>
       <c r="I61" s="3">
-        <v>159600</v>
+        <v>154500</v>
       </c>
       <c r="J61" s="3">
-        <v>157500</v>
+        <v>152500</v>
       </c>
       <c r="K61" s="3">
         <v>178300</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3194200</v>
+        <v>3092700</v>
       </c>
       <c r="E62" s="3">
-        <v>2833400</v>
+        <v>2743300</v>
       </c>
       <c r="F62" s="3">
-        <v>1989400</v>
+        <v>1926200</v>
       </c>
       <c r="G62" s="3">
-        <v>2809300</v>
+        <v>2720000</v>
       </c>
       <c r="H62" s="3">
-        <v>2735400</v>
+        <v>2648500</v>
       </c>
       <c r="I62" s="3">
-        <v>2954300</v>
+        <v>2860500</v>
       </c>
       <c r="J62" s="3">
-        <v>3025600</v>
+        <v>2929400</v>
       </c>
       <c r="K62" s="3">
         <v>2771500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7947100</v>
+        <v>7694500</v>
       </c>
       <c r="E66" s="3">
-        <v>7206900</v>
+        <v>6977900</v>
       </c>
       <c r="F66" s="3">
-        <v>6189500</v>
+        <v>5992800</v>
       </c>
       <c r="G66" s="3">
-        <v>7074600</v>
+        <v>6849800</v>
       </c>
       <c r="H66" s="3">
-        <v>6838800</v>
+        <v>6621400</v>
       </c>
       <c r="I66" s="3">
-        <v>7143000</v>
+        <v>6916000</v>
       </c>
       <c r="J66" s="3">
-        <v>7099700</v>
+        <v>6874000</v>
       </c>
       <c r="K66" s="3">
         <v>6655800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15419800</v>
+        <v>14929700</v>
       </c>
       <c r="E72" s="3">
-        <v>14859600</v>
+        <v>14387300</v>
       </c>
       <c r="F72" s="3">
-        <v>14437000</v>
+        <v>13978200</v>
       </c>
       <c r="G72" s="3">
-        <v>13899000</v>
+        <v>13457300</v>
       </c>
       <c r="H72" s="3">
-        <v>14431800</v>
+        <v>13973100</v>
       </c>
       <c r="I72" s="3">
-        <v>13840500</v>
+        <v>13400600</v>
       </c>
       <c r="J72" s="3">
-        <v>13235400</v>
+        <v>12814700</v>
       </c>
       <c r="K72" s="3">
         <v>12968600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22830400</v>
+        <v>22104800</v>
       </c>
       <c r="E76" s="3">
-        <v>21427100</v>
+        <v>20746100</v>
       </c>
       <c r="F76" s="3">
-        <v>19962700</v>
+        <v>19328300</v>
       </c>
       <c r="G76" s="3">
-        <v>20490200</v>
+        <v>19839000</v>
       </c>
       <c r="H76" s="3">
-        <v>20564500</v>
+        <v>19910900</v>
       </c>
       <c r="I76" s="3">
-        <v>20124400</v>
+        <v>19484800</v>
       </c>
       <c r="J76" s="3">
-        <v>19517000</v>
+        <v>18896700</v>
       </c>
       <c r="K76" s="3">
         <v>17496400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>794800</v>
+        <v>769500</v>
       </c>
       <c r="E81" s="3">
-        <v>949000</v>
+        <v>918900</v>
       </c>
       <c r="F81" s="3">
-        <v>909300</v>
+        <v>880400</v>
       </c>
       <c r="G81" s="3">
-        <v>697200</v>
+        <v>675000</v>
       </c>
       <c r="H81" s="3">
-        <v>914900</v>
+        <v>885800</v>
       </c>
       <c r="I81" s="3">
-        <v>960700</v>
+        <v>930200</v>
       </c>
       <c r="J81" s="3">
-        <v>1020900</v>
+        <v>988400</v>
       </c>
       <c r="K81" s="3">
         <v>813000</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>960800</v>
+        <v>930300</v>
       </c>
       <c r="E83" s="3">
-        <v>817100</v>
+        <v>791100</v>
       </c>
       <c r="F83" s="3">
-        <v>562900</v>
+        <v>545000</v>
       </c>
       <c r="G83" s="3">
-        <v>725700</v>
+        <v>702600</v>
       </c>
       <c r="H83" s="3">
-        <v>682300</v>
+        <v>660600</v>
       </c>
       <c r="I83" s="3">
-        <v>675300</v>
+        <v>653800</v>
       </c>
       <c r="J83" s="3">
-        <v>643100</v>
+        <v>622600</v>
       </c>
       <c r="K83" s="3">
         <v>697500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1945400</v>
+        <v>1883600</v>
       </c>
       <c r="E89" s="3">
-        <v>1890900</v>
+        <v>1830800</v>
       </c>
       <c r="F89" s="3">
-        <v>1938400</v>
+        <v>1876800</v>
       </c>
       <c r="G89" s="3">
-        <v>1400000</v>
+        <v>1355500</v>
       </c>
       <c r="H89" s="3">
-        <v>1446900</v>
+        <v>1400900</v>
       </c>
       <c r="I89" s="3">
-        <v>1709500</v>
+        <v>1655200</v>
       </c>
       <c r="J89" s="3">
-        <v>1152100</v>
+        <v>1115400</v>
       </c>
       <c r="K89" s="3">
         <v>1366100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1082200</v>
+        <v>-1047800</v>
       </c>
       <c r="E91" s="3">
-        <v>-943900</v>
+        <v>-913900</v>
       </c>
       <c r="F91" s="3">
-        <v>-978300</v>
+        <v>-947200</v>
       </c>
       <c r="G91" s="3">
-        <v>-741800</v>
+        <v>-718200</v>
       </c>
       <c r="H91" s="3">
-        <v>-589400</v>
+        <v>-570700</v>
       </c>
       <c r="I91" s="3">
-        <v>-582400</v>
+        <v>-563900</v>
       </c>
       <c r="J91" s="3">
-        <v>-502700</v>
+        <v>-486700</v>
       </c>
       <c r="K91" s="3">
         <v>-466200</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1619200</v>
+        <v>-1567700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1282300</v>
+        <v>-1241600</v>
       </c>
       <c r="F94" s="3">
-        <v>-415100</v>
+        <v>-401900</v>
       </c>
       <c r="G94" s="3">
-        <v>-468100</v>
+        <v>-453200</v>
       </c>
       <c r="H94" s="3">
-        <v>-987500</v>
+        <v>-956100</v>
       </c>
       <c r="I94" s="3">
-        <v>-941000</v>
+        <v>-911100</v>
       </c>
       <c r="J94" s="3">
-        <v>-824700</v>
+        <v>-798500</v>
       </c>
       <c r="K94" s="3">
         <v>-926500</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-461200</v>
+        <v>-446600</v>
       </c>
       <c r="E96" s="3">
-        <v>-546400</v>
+        <v>-529000</v>
       </c>
       <c r="F96" s="3">
-        <v>-423400</v>
+        <v>-410000</v>
       </c>
       <c r="G96" s="3">
-        <v>-422300</v>
+        <v>-408900</v>
       </c>
       <c r="H96" s="3">
-        <v>-352200</v>
+        <v>-341000</v>
       </c>
       <c r="I96" s="3">
-        <v>-386500</v>
+        <v>-374200</v>
       </c>
       <c r="J96" s="3">
-        <v>-288100</v>
+        <v>-279000</v>
       </c>
       <c r="K96" s="3">
         <v>-262200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-713300</v>
+        <v>-690700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1384300</v>
+        <v>-1340300</v>
       </c>
       <c r="F100" s="3">
-        <v>-784600</v>
+        <v>-759600</v>
       </c>
       <c r="G100" s="3">
-        <v>-454300</v>
+        <v>-439900</v>
       </c>
       <c r="H100" s="3">
-        <v>-422600</v>
+        <v>-409200</v>
       </c>
       <c r="I100" s="3">
-        <v>-445900</v>
+        <v>-431700</v>
       </c>
       <c r="J100" s="3">
-        <v>-352300</v>
+        <v>-341100</v>
       </c>
       <c r="K100" s="3">
         <v>-300500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>97300</v>
+        <v>94200</v>
       </c>
       <c r="E101" s="3">
-        <v>-45300</v>
+        <v>-43900</v>
       </c>
       <c r="F101" s="3">
-        <v>35500</v>
+        <v>34400</v>
       </c>
       <c r="G101" s="3">
-        <v>-48100</v>
+        <v>-46600</v>
       </c>
       <c r="H101" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="I101" s="3">
-        <v>-123000</v>
+        <v>-119100</v>
       </c>
       <c r="J101" s="3">
-        <v>167600</v>
+        <v>162300</v>
       </c>
       <c r="K101" s="3">
         <v>133000</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-289800</v>
+        <v>-280600</v>
       </c>
       <c r="E102" s="3">
-        <v>-821000</v>
+        <v>-794900</v>
       </c>
       <c r="F102" s="3">
-        <v>774200</v>
+        <v>749600</v>
       </c>
       <c r="G102" s="3">
-        <v>429400</v>
+        <v>415800</v>
       </c>
       <c r="H102" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="I102" s="3">
-        <v>199600</v>
+        <v>193300</v>
       </c>
       <c r="J102" s="3">
-        <v>142600</v>
+        <v>138100</v>
       </c>
       <c r="K102" s="3">
         <v>272200</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13024400</v>
+        <v>14325300</v>
       </c>
       <c r="E8" s="3">
-        <v>13639900</v>
+        <v>11894500</v>
       </c>
       <c r="F8" s="3">
-        <v>13850200</v>
+        <v>12456600</v>
       </c>
       <c r="G8" s="3">
-        <v>13452100</v>
+        <v>12648700</v>
       </c>
       <c r="H8" s="3">
-        <v>12136100</v>
+        <v>12285100</v>
       </c>
       <c r="I8" s="3">
-        <v>12621200</v>
+        <v>11083300</v>
       </c>
       <c r="J8" s="3">
+        <v>11526300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13021400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13257900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11635700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10765500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9553200</v>
+        <v>10324000</v>
       </c>
       <c r="E9" s="3">
-        <v>9876700</v>
+        <v>8724400</v>
       </c>
       <c r="F9" s="3">
-        <v>9892100</v>
+        <v>9019900</v>
       </c>
       <c r="G9" s="3">
-        <v>20515700</v>
+        <v>9034000</v>
       </c>
       <c r="H9" s="3">
-        <v>8952000</v>
+        <v>18735900</v>
       </c>
       <c r="I9" s="3">
-        <v>9327300</v>
+        <v>8175400</v>
       </c>
       <c r="J9" s="3">
+        <v>8518100</v>
+      </c>
+      <c r="K9" s="3">
         <v>9699800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9787100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8656900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7866100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3471300</v>
+        <v>4001300</v>
       </c>
       <c r="E10" s="3">
-        <v>3763200</v>
+        <v>3170100</v>
       </c>
       <c r="F10" s="3">
-        <v>3958100</v>
+        <v>3436700</v>
       </c>
       <c r="G10" s="3">
-        <v>-7063500</v>
+        <v>3614700</v>
       </c>
       <c r="H10" s="3">
-        <v>3184100</v>
+        <v>-6450800</v>
       </c>
       <c r="I10" s="3">
-        <v>3293900</v>
+        <v>2907900</v>
       </c>
       <c r="J10" s="3">
+        <v>3008200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3321600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3470800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2978800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2899400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,21 +874,24 @@
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3">
         <v>471600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>447300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>431900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>411900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,20 +925,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>197800</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>63000</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>180600</v>
+      </c>
+      <c r="F14" s="3">
+        <v>57500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -930,11 +949,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>120600</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>110200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -942,29 +961,32 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>11400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>288700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>251100</v>
+        <v>263600</v>
       </c>
       <c r="F15" s="3">
-        <v>125800</v>
+        <v>229300</v>
       </c>
       <c r="G15" s="3">
-        <v>125800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
+        <v>114900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>114900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -972,8 +994,8 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12421800</v>
+        <v>13165300</v>
       </c>
       <c r="E17" s="3">
-        <v>12785300</v>
+        <v>11344200</v>
       </c>
       <c r="F17" s="3">
-        <v>13041400</v>
+        <v>11676100</v>
       </c>
       <c r="G17" s="3">
-        <v>12678500</v>
+        <v>11910000</v>
       </c>
       <c r="H17" s="3">
-        <v>11244300</v>
+        <v>11578600</v>
       </c>
       <c r="I17" s="3">
-        <v>11830900</v>
+        <v>10268900</v>
       </c>
       <c r="J17" s="3">
+        <v>10804500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12224400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12153400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10936400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9893900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>602600</v>
+        <v>1160000</v>
       </c>
       <c r="E18" s="3">
-        <v>854600</v>
+        <v>550300</v>
       </c>
       <c r="F18" s="3">
-        <v>808800</v>
+        <v>780500</v>
       </c>
       <c r="G18" s="3">
-        <v>773700</v>
+        <v>738700</v>
       </c>
       <c r="H18" s="3">
-        <v>891700</v>
+        <v>706500</v>
       </c>
       <c r="I18" s="3">
-        <v>790400</v>
+        <v>814400</v>
       </c>
       <c r="J18" s="3">
+        <v>721800</v>
+      </c>
+      <c r="K18" s="3">
         <v>796900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1104500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>699300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>871600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>417800</v>
+        <v>389800</v>
       </c>
       <c r="E20" s="3">
-        <v>427500</v>
+        <v>381500</v>
       </c>
       <c r="F20" s="3">
-        <v>400900</v>
+        <v>390400</v>
       </c>
       <c r="G20" s="3">
-        <v>341000</v>
+        <v>366100</v>
       </c>
       <c r="H20" s="3">
-        <v>291800</v>
+        <v>311400</v>
       </c>
       <c r="I20" s="3">
-        <v>466900</v>
+        <v>266500</v>
       </c>
       <c r="J20" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K20" s="3">
         <v>257200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>253100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>239300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>185500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1961500</v>
+        <v>2541500</v>
       </c>
       <c r="E21" s="3">
-        <v>2082600</v>
+        <v>1770500</v>
       </c>
       <c r="F21" s="3">
-        <v>1761100</v>
+        <v>1884200</v>
       </c>
       <c r="G21" s="3">
-        <v>1825500</v>
+        <v>1596100</v>
       </c>
       <c r="H21" s="3">
-        <v>1851900</v>
+        <v>1651400</v>
       </c>
       <c r="I21" s="3">
-        <v>1918800</v>
+        <v>1676400</v>
       </c>
       <c r="J21" s="3">
+        <v>1737600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1684100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2058200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1609000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1718800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>17600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>12700</v>
+        <v>16100</v>
       </c>
       <c r="F22" s="3">
-        <v>10300</v>
+        <v>11600</v>
       </c>
       <c r="G22" s="3">
-        <v>5900</v>
+        <v>9400</v>
       </c>
       <c r="H22" s="3">
-        <v>7700</v>
+        <v>5300</v>
       </c>
       <c r="I22" s="3">
-        <v>15500</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K22" s="3">
         <v>14700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1002800</v>
+        <v>1549800</v>
       </c>
       <c r="E23" s="3">
-        <v>1269500</v>
+        <v>915800</v>
       </c>
       <c r="F23" s="3">
-        <v>1199400</v>
+        <v>1159400</v>
       </c>
       <c r="G23" s="3">
-        <v>1108800</v>
+        <v>1095400</v>
       </c>
       <c r="H23" s="3">
-        <v>1175900</v>
+        <v>1012600</v>
       </c>
       <c r="I23" s="3">
-        <v>1241800</v>
+        <v>1073800</v>
       </c>
       <c r="J23" s="3">
+        <v>1134100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1039500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1339800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>921400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1038600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>206500</v>
+        <v>365400</v>
       </c>
       <c r="E24" s="3">
-        <v>315400</v>
+        <v>188600</v>
       </c>
       <c r="F24" s="3">
-        <v>219700</v>
+        <v>288100</v>
       </c>
       <c r="G24" s="3">
-        <v>407400</v>
+        <v>200600</v>
       </c>
       <c r="H24" s="3">
-        <v>242600</v>
+        <v>372100</v>
       </c>
       <c r="I24" s="3">
-        <v>267800</v>
+        <v>221600</v>
       </c>
       <c r="J24" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>469500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>309200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>272400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>796300</v>
+        <v>1184400</v>
       </c>
       <c r="E26" s="3">
-        <v>954000</v>
+        <v>727200</v>
       </c>
       <c r="F26" s="3">
-        <v>979700</v>
+        <v>871300</v>
       </c>
       <c r="G26" s="3">
-        <v>701400</v>
+        <v>894700</v>
       </c>
       <c r="H26" s="3">
-        <v>933200</v>
+        <v>640500</v>
       </c>
       <c r="I26" s="3">
-        <v>974000</v>
+        <v>852300</v>
       </c>
       <c r="J26" s="3">
+        <v>889500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1068800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>870300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>612200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>766200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>769500</v>
+        <v>1156100</v>
       </c>
       <c r="E27" s="3">
-        <v>918900</v>
+        <v>702800</v>
       </c>
       <c r="F27" s="3">
-        <v>880400</v>
+        <v>839100</v>
       </c>
       <c r="G27" s="3">
-        <v>675000</v>
+        <v>804000</v>
       </c>
       <c r="H27" s="3">
-        <v>885800</v>
+        <v>616500</v>
       </c>
       <c r="I27" s="3">
-        <v>930200</v>
+        <v>808900</v>
       </c>
       <c r="J27" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K27" s="3">
         <v>988400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>813000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>604200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>717400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-417800</v>
+        <v>-389800</v>
       </c>
       <c r="E32" s="3">
-        <v>-427500</v>
+        <v>-381500</v>
       </c>
       <c r="F32" s="3">
-        <v>-400900</v>
+        <v>-390400</v>
       </c>
       <c r="G32" s="3">
-        <v>-341000</v>
+        <v>-366100</v>
       </c>
       <c r="H32" s="3">
-        <v>-291800</v>
+        <v>-311400</v>
       </c>
       <c r="I32" s="3">
-        <v>-466900</v>
+        <v>-266500</v>
       </c>
       <c r="J32" s="3">
+        <v>-426400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-257200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-253100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-239300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-185500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>769500</v>
+        <v>1156100</v>
       </c>
       <c r="E33" s="3">
-        <v>918900</v>
+        <v>702800</v>
       </c>
       <c r="F33" s="3">
-        <v>880400</v>
+        <v>839100</v>
       </c>
       <c r="G33" s="3">
-        <v>675000</v>
+        <v>804000</v>
       </c>
       <c r="H33" s="3">
-        <v>885800</v>
+        <v>616500</v>
       </c>
       <c r="I33" s="3">
-        <v>930200</v>
+        <v>808900</v>
       </c>
       <c r="J33" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K33" s="3">
         <v>988400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>813000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>604200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>717400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>769500</v>
+        <v>1156100</v>
       </c>
       <c r="E35" s="3">
-        <v>918900</v>
+        <v>702800</v>
       </c>
       <c r="F35" s="3">
-        <v>880400</v>
+        <v>839100</v>
       </c>
       <c r="G35" s="3">
-        <v>675000</v>
+        <v>804000</v>
       </c>
       <c r="H35" s="3">
-        <v>885800</v>
+        <v>616500</v>
       </c>
       <c r="I35" s="3">
-        <v>930200</v>
+        <v>808900</v>
       </c>
       <c r="J35" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K35" s="3">
         <v>988400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>813000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>604200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>717400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3298800</v>
+        <v>3226100</v>
       </c>
       <c r="E41" s="3">
-        <v>3579400</v>
+        <v>3012600</v>
       </c>
       <c r="F41" s="3">
-        <v>4374300</v>
+        <v>3268800</v>
       </c>
       <c r="G41" s="3">
-        <v>3624700</v>
+        <v>3994800</v>
       </c>
       <c r="H41" s="3">
-        <v>3208900</v>
+        <v>3310300</v>
       </c>
       <c r="I41" s="3">
-        <v>3190400</v>
+        <v>2930600</v>
       </c>
       <c r="J41" s="3">
+        <v>2913600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2997100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3070200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2776600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2470500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>830400</v>
+        <v>343400</v>
       </c>
       <c r="E42" s="3">
-        <v>631500</v>
+        <v>758400</v>
       </c>
       <c r="F42" s="3">
-        <v>930500</v>
+        <v>576700</v>
       </c>
       <c r="G42" s="3">
-        <v>2113900</v>
+        <v>849700</v>
       </c>
       <c r="H42" s="3">
-        <v>2536600</v>
+        <v>1930500</v>
       </c>
       <c r="I42" s="3">
-        <v>2688500</v>
+        <v>2316500</v>
       </c>
       <c r="J42" s="3">
+        <v>2455200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2384900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2530300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2033800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1861700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2897000</v>
+        <v>2952900</v>
       </c>
       <c r="E43" s="3">
-        <v>2868600</v>
+        <v>2645600</v>
       </c>
       <c r="F43" s="3">
-        <v>3048200</v>
+        <v>2619700</v>
       </c>
       <c r="G43" s="3">
-        <v>3264100</v>
+        <v>2783800</v>
       </c>
       <c r="H43" s="3">
-        <v>2680700</v>
+        <v>2980900</v>
       </c>
       <c r="I43" s="3">
-        <v>2422700</v>
+        <v>2448100</v>
       </c>
       <c r="J43" s="3">
+        <v>2212500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2671300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2517600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2647800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2172700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2945900</v>
+        <v>3525000</v>
       </c>
       <c r="E44" s="3">
-        <v>2936900</v>
+        <v>2690300</v>
       </c>
       <c r="F44" s="3">
-        <v>2933300</v>
+        <v>2682100</v>
       </c>
       <c r="G44" s="3">
-        <v>3112400</v>
+        <v>2678800</v>
       </c>
       <c r="H44" s="3">
-        <v>2824800</v>
+        <v>2842400</v>
       </c>
       <c r="I44" s="3">
-        <v>2796800</v>
+        <v>2579700</v>
       </c>
       <c r="J44" s="3">
+        <v>2554100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3023900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3075900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2694700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2443800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>261900</v>
+        <v>306500</v>
       </c>
       <c r="E45" s="3">
-        <v>242700</v>
+        <v>239200</v>
       </c>
       <c r="F45" s="3">
-        <v>295500</v>
+        <v>221700</v>
       </c>
       <c r="G45" s="3">
-        <v>1889200</v>
+        <v>269800</v>
       </c>
       <c r="H45" s="3">
-        <v>1021200</v>
+        <v>1725300</v>
       </c>
       <c r="I45" s="3">
-        <v>1140200</v>
+        <v>932600</v>
       </c>
       <c r="J45" s="3">
+        <v>1041300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1355600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1331700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1376800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1398400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10234000</v>
+        <v>10353900</v>
       </c>
       <c r="E46" s="3">
-        <v>10259100</v>
+        <v>9346200</v>
       </c>
       <c r="F46" s="3">
-        <v>11581700</v>
+        <v>9369100</v>
       </c>
       <c r="G46" s="3">
-        <v>12504100</v>
+        <v>10577000</v>
       </c>
       <c r="H46" s="3">
-        <v>12272100</v>
+        <v>11419400</v>
       </c>
       <c r="I46" s="3">
-        <v>12238500</v>
+        <v>11207400</v>
       </c>
       <c r="J46" s="3">
+        <v>11176800</v>
+      </c>
+      <c r="K46" s="3">
         <v>12432900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12525700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11529600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10347200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11298200</v>
+        <v>11891200</v>
       </c>
       <c r="E47" s="3">
-        <v>10587700</v>
+        <v>10318100</v>
       </c>
       <c r="F47" s="3">
-        <v>8407800</v>
+        <v>9669200</v>
       </c>
       <c r="G47" s="3">
-        <v>18272000</v>
+        <v>7678400</v>
       </c>
       <c r="H47" s="3">
-        <v>9645300</v>
+        <v>16686800</v>
       </c>
       <c r="I47" s="3">
-        <v>9650900</v>
+        <v>8808600</v>
       </c>
       <c r="J47" s="3">
+        <v>8813600</v>
+      </c>
+      <c r="K47" s="3">
         <v>8970500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6762000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4604000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3384400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4075200</v>
+        <v>4306900</v>
       </c>
       <c r="E48" s="3">
-        <v>3567200</v>
+        <v>3721700</v>
       </c>
       <c r="F48" s="3">
-        <v>2916000</v>
-      </c>
-      <c r="G48" s="3" t="s">
+        <v>3257700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2663100</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
-        <v>2274100</v>
-      </c>
       <c r="I48" s="3">
-        <v>2256100</v>
+        <v>2076800</v>
       </c>
       <c r="J48" s="3">
+        <v>2060400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2230500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2478300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2443600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2355300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3478800</v>
+        <v>3216200</v>
       </c>
       <c r="E49" s="3">
-        <v>2821200</v>
+        <v>3177000</v>
       </c>
       <c r="F49" s="3">
-        <v>1957600</v>
+        <v>2576500</v>
       </c>
       <c r="G49" s="3">
-        <v>3829200</v>
+        <v>1787800</v>
       </c>
       <c r="H49" s="3">
-        <v>1464600</v>
+        <v>3497000</v>
       </c>
       <c r="I49" s="3">
-        <v>1379300</v>
+        <v>1337600</v>
       </c>
       <c r="J49" s="3">
+        <v>1259700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1354400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1611800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1436300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1253800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>713100</v>
+        <v>747300</v>
       </c>
       <c r="E52" s="3">
-        <v>488800</v>
+        <v>651300</v>
       </c>
       <c r="F52" s="3">
-        <v>457900</v>
+        <v>446400</v>
       </c>
       <c r="G52" s="3">
-        <v>1166100</v>
+        <v>418100</v>
       </c>
       <c r="H52" s="3">
-        <v>876100</v>
+        <v>1064900</v>
       </c>
       <c r="I52" s="3">
-        <v>876000</v>
+        <v>800100</v>
       </c>
       <c r="J52" s="3">
+        <v>800000</v>
+      </c>
+      <c r="K52" s="3">
         <v>782400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>774400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>737600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>686100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29799300</v>
+        <v>30515500</v>
       </c>
       <c r="E54" s="3">
-        <v>27724000</v>
+        <v>27214100</v>
       </c>
       <c r="F54" s="3">
-        <v>25321100</v>
+        <v>25318900</v>
       </c>
       <c r="G54" s="3">
-        <v>26688800</v>
+        <v>23124400</v>
       </c>
       <c r="H54" s="3">
-        <v>26532300</v>
+        <v>24373500</v>
       </c>
       <c r="I54" s="3">
-        <v>26400800</v>
+        <v>24230600</v>
       </c>
       <c r="J54" s="3">
+        <v>24110400</v>
+      </c>
+      <c r="K54" s="3">
         <v>25770700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24152200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20751100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18026700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1192300</v>
+        <v>1736900</v>
       </c>
       <c r="E57" s="3">
-        <v>1116600</v>
+        <v>1088900</v>
       </c>
       <c r="F57" s="3">
-        <v>1152100</v>
+        <v>1019800</v>
       </c>
       <c r="G57" s="3">
-        <v>2554500</v>
+        <v>1052100</v>
       </c>
       <c r="H57" s="3">
-        <v>1104300</v>
+        <v>2332900</v>
       </c>
       <c r="I57" s="3">
-        <v>986400</v>
+        <v>1008500</v>
       </c>
       <c r="J57" s="3">
+        <v>900900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1020600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1121400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1011300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1479800</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>476700</v>
+        <v>753400</v>
       </c>
       <c r="E58" s="3">
-        <v>430800</v>
+        <v>435300</v>
       </c>
       <c r="F58" s="3">
-        <v>35900</v>
+        <v>393400</v>
       </c>
       <c r="G58" s="3">
-        <v>106700</v>
+        <v>32700</v>
       </c>
       <c r="H58" s="3">
-        <v>71900</v>
+        <v>97400</v>
       </c>
       <c r="I58" s="3">
-        <v>124800</v>
+        <v>65600</v>
       </c>
       <c r="J58" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K58" s="3">
         <v>115800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>150400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>117700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>132600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1937900</v>
+        <v>1711300</v>
       </c>
       <c r="E59" s="3">
-        <v>1843300</v>
+        <v>1769800</v>
       </c>
       <c r="F59" s="3">
-        <v>2008700</v>
+        <v>1683400</v>
       </c>
       <c r="G59" s="3">
-        <v>2859700</v>
+        <v>1834400</v>
       </c>
       <c r="H59" s="3">
-        <v>1934400</v>
+        <v>2611600</v>
       </c>
       <c r="I59" s="3">
-        <v>2026300</v>
+        <v>1766600</v>
       </c>
       <c r="J59" s="3">
+        <v>1850500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1902400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1727600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1840100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1109100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3606900</v>
+        <v>4201500</v>
       </c>
       <c r="E60" s="3">
-        <v>3390800</v>
+        <v>3294000</v>
       </c>
       <c r="F60" s="3">
-        <v>3196600</v>
+        <v>3096600</v>
       </c>
       <c r="G60" s="3">
-        <v>3577400</v>
+        <v>2919300</v>
       </c>
       <c r="H60" s="3">
-        <v>3110600</v>
+        <v>3267000</v>
       </c>
       <c r="I60" s="3">
-        <v>3137600</v>
+        <v>2840700</v>
       </c>
       <c r="J60" s="3">
+        <v>2865400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3038800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2999500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2969100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2721500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>784200</v>
+        <v>409400</v>
       </c>
       <c r="E61" s="3">
-        <v>655200</v>
+        <v>716200</v>
       </c>
       <c r="F61" s="3">
-        <v>48200</v>
+        <v>598400</v>
       </c>
       <c r="G61" s="3">
-        <v>50900</v>
+        <v>44100</v>
       </c>
       <c r="H61" s="3">
-        <v>140000</v>
+        <v>46500</v>
       </c>
       <c r="I61" s="3">
-        <v>154500</v>
+        <v>127800</v>
       </c>
       <c r="J61" s="3">
+        <v>141100</v>
+      </c>
+      <c r="K61" s="3">
         <v>152500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>178300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>189600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>191600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3092700</v>
+        <v>3327000</v>
       </c>
       <c r="E62" s="3">
-        <v>2743300</v>
+        <v>2824400</v>
       </c>
       <c r="F62" s="3">
-        <v>1926200</v>
+        <v>2505300</v>
       </c>
       <c r="G62" s="3">
-        <v>2720000</v>
+        <v>1759100</v>
       </c>
       <c r="H62" s="3">
-        <v>2648500</v>
+        <v>2484100</v>
       </c>
       <c r="I62" s="3">
-        <v>2860500</v>
+        <v>2418700</v>
       </c>
       <c r="J62" s="3">
+        <v>2612300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2929400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2771500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2003700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1244100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7694500</v>
+        <v>8146100</v>
       </c>
       <c r="E66" s="3">
-        <v>6977900</v>
+        <v>7027000</v>
       </c>
       <c r="F66" s="3">
-        <v>5992800</v>
+        <v>6372500</v>
       </c>
       <c r="G66" s="3">
-        <v>6849800</v>
+        <v>5472900</v>
       </c>
       <c r="H66" s="3">
-        <v>6621400</v>
+        <v>6255500</v>
       </c>
       <c r="I66" s="3">
-        <v>6916000</v>
+        <v>6047000</v>
       </c>
       <c r="J66" s="3">
+        <v>6316000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6874000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6655800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5787600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4742400</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14929700</v>
+        <v>14381100</v>
       </c>
       <c r="E72" s="3">
-        <v>14387300</v>
+        <v>13634500</v>
       </c>
       <c r="F72" s="3">
-        <v>13978200</v>
+        <v>13139200</v>
       </c>
       <c r="G72" s="3">
-        <v>13457300</v>
+        <v>12765500</v>
       </c>
       <c r="H72" s="3">
-        <v>13973100</v>
+        <v>12289800</v>
       </c>
       <c r="I72" s="3">
-        <v>13400600</v>
+        <v>12760900</v>
       </c>
       <c r="J72" s="3">
+        <v>12238100</v>
+      </c>
+      <c r="K72" s="3">
         <v>12814700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12968600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12439800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11969400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22104800</v>
+        <v>22369400</v>
       </c>
       <c r="E76" s="3">
-        <v>20746100</v>
+        <v>20187100</v>
       </c>
       <c r="F76" s="3">
-        <v>19328300</v>
+        <v>18946300</v>
       </c>
       <c r="G76" s="3">
-        <v>19839000</v>
+        <v>17651500</v>
       </c>
       <c r="H76" s="3">
-        <v>19910900</v>
+        <v>18117900</v>
       </c>
       <c r="I76" s="3">
-        <v>19484800</v>
+        <v>18183600</v>
       </c>
       <c r="J76" s="3">
+        <v>17794400</v>
+      </c>
+      <c r="K76" s="3">
         <v>18896700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17496400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14963600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13284300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>769500</v>
+        <v>1156100</v>
       </c>
       <c r="E81" s="3">
-        <v>918900</v>
+        <v>702800</v>
       </c>
       <c r="F81" s="3">
-        <v>880400</v>
+        <v>839100</v>
       </c>
       <c r="G81" s="3">
-        <v>675000</v>
+        <v>804000</v>
       </c>
       <c r="H81" s="3">
-        <v>885800</v>
+        <v>616500</v>
       </c>
       <c r="I81" s="3">
-        <v>930200</v>
+        <v>808900</v>
       </c>
       <c r="J81" s="3">
+        <v>849500</v>
+      </c>
+      <c r="K81" s="3">
         <v>988400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>813000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>604200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>717400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>930300</v>
+        <v>1004600</v>
       </c>
       <c r="E83" s="3">
-        <v>791100</v>
+        <v>849600</v>
       </c>
       <c r="F83" s="3">
-        <v>545000</v>
+        <v>722500</v>
       </c>
       <c r="G83" s="3">
-        <v>702600</v>
+        <v>497700</v>
       </c>
       <c r="H83" s="3">
-        <v>660600</v>
+        <v>641700</v>
       </c>
       <c r="I83" s="3">
-        <v>653800</v>
+        <v>603300</v>
       </c>
       <c r="J83" s="3">
+        <v>597100</v>
+      </c>
+      <c r="K83" s="3">
         <v>622600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>697500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>669000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>661000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1883600</v>
+        <v>1573200</v>
       </c>
       <c r="E89" s="3">
-        <v>1830800</v>
+        <v>1720200</v>
       </c>
       <c r="F89" s="3">
-        <v>1876800</v>
+        <v>1672000</v>
       </c>
       <c r="G89" s="3">
-        <v>1355500</v>
+        <v>1714000</v>
       </c>
       <c r="H89" s="3">
-        <v>1400900</v>
+        <v>1237900</v>
       </c>
       <c r="I89" s="3">
-        <v>1655200</v>
+        <v>1279400</v>
       </c>
       <c r="J89" s="3">
+        <v>1511600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1115400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1366100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>995300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>985900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1047800</v>
+        <v>-1047700</v>
       </c>
       <c r="E91" s="3">
-        <v>-913900</v>
+        <v>-956900</v>
       </c>
       <c r="F91" s="3">
-        <v>-947200</v>
+        <v>-834600</v>
       </c>
       <c r="G91" s="3">
-        <v>-718200</v>
+        <v>-865000</v>
       </c>
       <c r="H91" s="3">
-        <v>-570700</v>
+        <v>-655900</v>
       </c>
       <c r="I91" s="3">
-        <v>-563900</v>
+        <v>-521200</v>
       </c>
       <c r="J91" s="3">
+        <v>-514900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-486700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-466200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-531000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-612600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1567700</v>
+        <v>-619000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1241600</v>
+        <v>-1431700</v>
       </c>
       <c r="F94" s="3">
-        <v>-401900</v>
+        <v>-1133800</v>
       </c>
       <c r="G94" s="3">
-        <v>-453200</v>
+        <v>-367100</v>
       </c>
       <c r="H94" s="3">
-        <v>-956100</v>
+        <v>-413900</v>
       </c>
       <c r="I94" s="3">
-        <v>-911100</v>
+        <v>-873200</v>
       </c>
       <c r="J94" s="3">
+        <v>-832000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-798500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-926500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-601200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-506700</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-446600</v>
+        <v>-496800</v>
       </c>
       <c r="E96" s="3">
-        <v>-529000</v>
+        <v>-407800</v>
       </c>
       <c r="F96" s="3">
-        <v>-410000</v>
+        <v>-483100</v>
       </c>
       <c r="G96" s="3">
-        <v>-408900</v>
+        <v>-374400</v>
       </c>
       <c r="H96" s="3">
-        <v>-341000</v>
+        <v>-373400</v>
       </c>
       <c r="I96" s="3">
-        <v>-374200</v>
+        <v>-311500</v>
       </c>
       <c r="J96" s="3">
+        <v>-341800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-279000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-262200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-221200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-233900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-690700</v>
+        <v>-868400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1340300</v>
+        <v>-630700</v>
       </c>
       <c r="F100" s="3">
-        <v>-759600</v>
+        <v>-1224000</v>
       </c>
       <c r="G100" s="3">
-        <v>-439900</v>
+        <v>-693700</v>
       </c>
       <c r="H100" s="3">
-        <v>-409200</v>
+        <v>-401700</v>
       </c>
       <c r="I100" s="3">
-        <v>-431700</v>
+        <v>-373700</v>
       </c>
       <c r="J100" s="3">
+        <v>-394200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-341100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-285700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-459000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>94200</v>
+        <v>127600</v>
       </c>
       <c r="E101" s="3">
-        <v>-43900</v>
+        <v>86000</v>
       </c>
       <c r="F101" s="3">
-        <v>34400</v>
+        <v>-40100</v>
       </c>
       <c r="G101" s="3">
-        <v>-46600</v>
+        <v>31400</v>
       </c>
       <c r="H101" s="3">
-        <v>-17000</v>
+        <v>-42500</v>
       </c>
       <c r="I101" s="3">
-        <v>-119100</v>
+        <v>-15500</v>
       </c>
       <c r="J101" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="K101" s="3">
         <v>162300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>133000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>184100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-21900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280600</v>
+        <v>213500</v>
       </c>
       <c r="E102" s="3">
-        <v>-794900</v>
+        <v>-256200</v>
       </c>
       <c r="F102" s="3">
-        <v>749600</v>
+        <v>-726000</v>
       </c>
       <c r="G102" s="3">
-        <v>415800</v>
+        <v>684600</v>
       </c>
       <c r="H102" s="3">
-        <v>18600</v>
+        <v>379700</v>
       </c>
       <c r="I102" s="3">
-        <v>193300</v>
+        <v>16900</v>
       </c>
       <c r="J102" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K102" s="3">
         <v>138100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>272200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>292400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14325300</v>
+        <v>13479400</v>
       </c>
       <c r="E8" s="3">
-        <v>11894500</v>
+        <v>11192200</v>
       </c>
       <c r="F8" s="3">
-        <v>12456600</v>
+        <v>11721100</v>
       </c>
       <c r="G8" s="3">
-        <v>12648700</v>
+        <v>11901800</v>
       </c>
       <c r="H8" s="3">
-        <v>12285100</v>
+        <v>11559700</v>
       </c>
       <c r="I8" s="3">
-        <v>11083300</v>
+        <v>10428800</v>
       </c>
       <c r="J8" s="3">
-        <v>11526300</v>
+        <v>10845700</v>
       </c>
       <c r="K8" s="3">
         <v>13021400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10324000</v>
+        <v>9714400</v>
       </c>
       <c r="E9" s="3">
-        <v>8724400</v>
+        <v>8209200</v>
       </c>
       <c r="F9" s="3">
-        <v>9019900</v>
+        <v>8487300</v>
       </c>
       <c r="G9" s="3">
-        <v>9034000</v>
+        <v>8500500</v>
       </c>
       <c r="H9" s="3">
-        <v>18735900</v>
+        <v>17629500</v>
       </c>
       <c r="I9" s="3">
-        <v>8175400</v>
+        <v>7692600</v>
       </c>
       <c r="J9" s="3">
-        <v>8518100</v>
+        <v>8015100</v>
       </c>
       <c r="K9" s="3">
         <v>9699800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4001300</v>
+        <v>3765000</v>
       </c>
       <c r="E10" s="3">
-        <v>3170100</v>
+        <v>2982900</v>
       </c>
       <c r="F10" s="3">
-        <v>3436700</v>
+        <v>3233800</v>
       </c>
       <c r="G10" s="3">
-        <v>3614700</v>
+        <v>3401300</v>
       </c>
       <c r="H10" s="3">
-        <v>-6450800</v>
+        <v>-6069800</v>
       </c>
       <c r="I10" s="3">
-        <v>2907900</v>
+        <v>2736200</v>
       </c>
       <c r="J10" s="3">
-        <v>3008200</v>
+        <v>2830600</v>
       </c>
       <c r="K10" s="3">
         <v>3321600</v>
@@ -934,14 +934,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>17600</v>
       </c>
       <c r="E14" s="3">
-        <v>180600</v>
+        <v>169900</v>
       </c>
       <c r="F14" s="3">
-        <v>57500</v>
+        <v>54100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>110200</v>
+        <v>103700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -973,20 +973,20 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>274300</v>
       </c>
       <c r="E15" s="3">
-        <v>263600</v>
+        <v>248100</v>
       </c>
       <c r="F15" s="3">
-        <v>229300</v>
+        <v>215800</v>
       </c>
       <c r="G15" s="3">
-        <v>114900</v>
+        <v>108100</v>
       </c>
       <c r="H15" s="3">
-        <v>114900</v>
+        <v>108100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13165300</v>
+        <v>12387900</v>
       </c>
       <c r="E17" s="3">
-        <v>11344200</v>
+        <v>10674300</v>
       </c>
       <c r="F17" s="3">
-        <v>11676100</v>
+        <v>10986600</v>
       </c>
       <c r="G17" s="3">
-        <v>11910000</v>
+        <v>11206700</v>
       </c>
       <c r="H17" s="3">
-        <v>11578600</v>
+        <v>10894900</v>
       </c>
       <c r="I17" s="3">
-        <v>10268900</v>
+        <v>9662500</v>
       </c>
       <c r="J17" s="3">
-        <v>10804500</v>
+        <v>10166500</v>
       </c>
       <c r="K17" s="3">
         <v>12224400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1160000</v>
+        <v>1091500</v>
       </c>
       <c r="E18" s="3">
-        <v>550300</v>
+        <v>517800</v>
       </c>
       <c r="F18" s="3">
-        <v>780500</v>
+        <v>734400</v>
       </c>
       <c r="G18" s="3">
-        <v>738700</v>
+        <v>695100</v>
       </c>
       <c r="H18" s="3">
-        <v>706500</v>
+        <v>664800</v>
       </c>
       <c r="I18" s="3">
-        <v>814400</v>
+        <v>766300</v>
       </c>
       <c r="J18" s="3">
-        <v>721800</v>
+        <v>679200</v>
       </c>
       <c r="K18" s="3">
         <v>796900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>389800</v>
+        <v>386200</v>
       </c>
       <c r="E20" s="3">
-        <v>381500</v>
+        <v>359000</v>
       </c>
       <c r="F20" s="3">
-        <v>390400</v>
+        <v>367400</v>
       </c>
       <c r="G20" s="3">
-        <v>366100</v>
+        <v>344500</v>
       </c>
       <c r="H20" s="3">
-        <v>311400</v>
+        <v>293000</v>
       </c>
       <c r="I20" s="3">
-        <v>266500</v>
+        <v>250700</v>
       </c>
       <c r="J20" s="3">
-        <v>426400</v>
+        <v>401300</v>
       </c>
       <c r="K20" s="3">
         <v>257200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2541500</v>
+        <v>2417800</v>
       </c>
       <c r="E21" s="3">
-        <v>1770500</v>
+        <v>1671900</v>
       </c>
       <c r="F21" s="3">
-        <v>1884200</v>
+        <v>1777900</v>
       </c>
       <c r="G21" s="3">
-        <v>1596100</v>
+        <v>1505300</v>
       </c>
       <c r="H21" s="3">
-        <v>1651400</v>
+        <v>1558300</v>
       </c>
       <c r="I21" s="3">
-        <v>1676400</v>
+        <v>1581600</v>
       </c>
       <c r="J21" s="3">
-        <v>1737600</v>
+        <v>1639200</v>
       </c>
       <c r="K21" s="3">
         <v>1684100</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>19400</v>
       </c>
       <c r="E22" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="F22" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>14100</v>
+        <v>13300</v>
       </c>
       <c r="K22" s="3">
         <v>14700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1549800</v>
+        <v>1458300</v>
       </c>
       <c r="E23" s="3">
-        <v>915800</v>
+        <v>861700</v>
       </c>
       <c r="F23" s="3">
-        <v>1159400</v>
+        <v>1090900</v>
       </c>
       <c r="G23" s="3">
-        <v>1095400</v>
+        <v>1030700</v>
       </c>
       <c r="H23" s="3">
-        <v>1012600</v>
+        <v>952800</v>
       </c>
       <c r="I23" s="3">
-        <v>1073800</v>
+        <v>1010400</v>
       </c>
       <c r="J23" s="3">
-        <v>1134100</v>
+        <v>1067100</v>
       </c>
       <c r="K23" s="3">
         <v>1039500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>365400</v>
+        <v>343900</v>
       </c>
       <c r="E24" s="3">
-        <v>188600</v>
+        <v>177500</v>
       </c>
       <c r="F24" s="3">
-        <v>288100</v>
+        <v>271100</v>
       </c>
       <c r="G24" s="3">
-        <v>200600</v>
+        <v>188800</v>
       </c>
       <c r="H24" s="3">
-        <v>372100</v>
+        <v>350100</v>
       </c>
       <c r="I24" s="3">
-        <v>221600</v>
+        <v>208500</v>
       </c>
       <c r="J24" s="3">
-        <v>244500</v>
+        <v>230100</v>
       </c>
       <c r="K24" s="3">
         <v>-29400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1184400</v>
+        <v>1114400</v>
       </c>
       <c r="E26" s="3">
-        <v>727200</v>
+        <v>684300</v>
       </c>
       <c r="F26" s="3">
-        <v>871300</v>
+        <v>819800</v>
       </c>
       <c r="G26" s="3">
-        <v>894700</v>
+        <v>841900</v>
       </c>
       <c r="H26" s="3">
-        <v>640500</v>
+        <v>602700</v>
       </c>
       <c r="I26" s="3">
-        <v>852300</v>
+        <v>802000</v>
       </c>
       <c r="J26" s="3">
-        <v>889500</v>
+        <v>837000</v>
       </c>
       <c r="K26" s="3">
         <v>1068800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1156100</v>
+        <v>1087900</v>
       </c>
       <c r="E27" s="3">
-        <v>702800</v>
+        <v>661300</v>
       </c>
       <c r="F27" s="3">
-        <v>839100</v>
+        <v>789600</v>
       </c>
       <c r="G27" s="3">
-        <v>804000</v>
+        <v>756500</v>
       </c>
       <c r="H27" s="3">
-        <v>616500</v>
+        <v>580100</v>
       </c>
       <c r="I27" s="3">
-        <v>808900</v>
+        <v>761200</v>
       </c>
       <c r="J27" s="3">
-        <v>849500</v>
+        <v>799300</v>
       </c>
       <c r="K27" s="3">
         <v>988400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-389800</v>
+        <v>-386200</v>
       </c>
       <c r="E32" s="3">
-        <v>-381500</v>
+        <v>-359000</v>
       </c>
       <c r="F32" s="3">
-        <v>-390400</v>
+        <v>-367400</v>
       </c>
       <c r="G32" s="3">
-        <v>-366100</v>
+        <v>-344500</v>
       </c>
       <c r="H32" s="3">
-        <v>-311400</v>
+        <v>-293000</v>
       </c>
       <c r="I32" s="3">
-        <v>-266500</v>
+        <v>-250700</v>
       </c>
       <c r="J32" s="3">
-        <v>-426400</v>
+        <v>-401300</v>
       </c>
       <c r="K32" s="3">
         <v>-257200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1156100</v>
+        <v>1087900</v>
       </c>
       <c r="E33" s="3">
-        <v>702800</v>
+        <v>661300</v>
       </c>
       <c r="F33" s="3">
-        <v>839100</v>
+        <v>789600</v>
       </c>
       <c r="G33" s="3">
-        <v>804000</v>
+        <v>756500</v>
       </c>
       <c r="H33" s="3">
-        <v>616500</v>
+        <v>580100</v>
       </c>
       <c r="I33" s="3">
-        <v>808900</v>
+        <v>761200</v>
       </c>
       <c r="J33" s="3">
-        <v>849500</v>
+        <v>799300</v>
       </c>
       <c r="K33" s="3">
         <v>988400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1156100</v>
+        <v>1087900</v>
       </c>
       <c r="E35" s="3">
-        <v>702800</v>
+        <v>661300</v>
       </c>
       <c r="F35" s="3">
-        <v>839100</v>
+        <v>789600</v>
       </c>
       <c r="G35" s="3">
-        <v>804000</v>
+        <v>756500</v>
       </c>
       <c r="H35" s="3">
-        <v>616500</v>
+        <v>580100</v>
       </c>
       <c r="I35" s="3">
-        <v>808900</v>
+        <v>761200</v>
       </c>
       <c r="J35" s="3">
-        <v>849500</v>
+        <v>799300</v>
       </c>
       <c r="K35" s="3">
         <v>988400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3226100</v>
+        <v>3035600</v>
       </c>
       <c r="E41" s="3">
-        <v>3012600</v>
+        <v>2834700</v>
       </c>
       <c r="F41" s="3">
-        <v>3268800</v>
+        <v>3075800</v>
       </c>
       <c r="G41" s="3">
-        <v>3994800</v>
+        <v>3758900</v>
       </c>
       <c r="H41" s="3">
-        <v>3310300</v>
+        <v>3114800</v>
       </c>
       <c r="I41" s="3">
-        <v>2930600</v>
+        <v>2757500</v>
       </c>
       <c r="J41" s="3">
-        <v>2913600</v>
+        <v>2741600</v>
       </c>
       <c r="K41" s="3">
         <v>2997100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>343400</v>
+        <v>323100</v>
       </c>
       <c r="E42" s="3">
-        <v>758400</v>
+        <v>713600</v>
       </c>
       <c r="F42" s="3">
-        <v>576700</v>
+        <v>542700</v>
       </c>
       <c r="G42" s="3">
-        <v>849700</v>
+        <v>799600</v>
       </c>
       <c r="H42" s="3">
-        <v>1930500</v>
+        <v>1816500</v>
       </c>
       <c r="I42" s="3">
-        <v>2316500</v>
+        <v>2179700</v>
       </c>
       <c r="J42" s="3">
-        <v>2455200</v>
+        <v>2310300</v>
       </c>
       <c r="K42" s="3">
         <v>2384900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2952900</v>
+        <v>2778600</v>
       </c>
       <c r="E43" s="3">
-        <v>2645600</v>
+        <v>2489400</v>
       </c>
       <c r="F43" s="3">
-        <v>2619700</v>
+        <v>2465000</v>
       </c>
       <c r="G43" s="3">
-        <v>2783800</v>
+        <v>2619400</v>
       </c>
       <c r="H43" s="3">
-        <v>2980900</v>
+        <v>2804900</v>
       </c>
       <c r="I43" s="3">
-        <v>2448100</v>
+        <v>2303500</v>
       </c>
       <c r="J43" s="3">
-        <v>2212500</v>
+        <v>2081800</v>
       </c>
       <c r="K43" s="3">
         <v>2671300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3525000</v>
+        <v>3316900</v>
       </c>
       <c r="E44" s="3">
-        <v>2690300</v>
+        <v>2531400</v>
       </c>
       <c r="F44" s="3">
-        <v>2682100</v>
+        <v>2523700</v>
       </c>
       <c r="G44" s="3">
-        <v>2678800</v>
+        <v>2520600</v>
       </c>
       <c r="H44" s="3">
-        <v>2842400</v>
+        <v>2674500</v>
       </c>
       <c r="I44" s="3">
-        <v>2579700</v>
+        <v>2427400</v>
       </c>
       <c r="J44" s="3">
-        <v>2554100</v>
+        <v>2403300</v>
       </c>
       <c r="K44" s="3">
         <v>3023900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306500</v>
+        <v>288400</v>
       </c>
       <c r="E45" s="3">
-        <v>239200</v>
+        <v>225100</v>
       </c>
       <c r="F45" s="3">
-        <v>221700</v>
+        <v>208600</v>
       </c>
       <c r="G45" s="3">
-        <v>269800</v>
+        <v>253900</v>
       </c>
       <c r="H45" s="3">
-        <v>1725300</v>
+        <v>1623400</v>
       </c>
       <c r="I45" s="3">
-        <v>932600</v>
+        <v>877500</v>
       </c>
       <c r="J45" s="3">
-        <v>1041300</v>
+        <v>979800</v>
       </c>
       <c r="K45" s="3">
         <v>1355600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10353900</v>
+        <v>9742500</v>
       </c>
       <c r="E46" s="3">
-        <v>9346200</v>
+        <v>8794300</v>
       </c>
       <c r="F46" s="3">
-        <v>9369100</v>
+        <v>8815800</v>
       </c>
       <c r="G46" s="3">
-        <v>10577000</v>
+        <v>9952400</v>
       </c>
       <c r="H46" s="3">
-        <v>11419400</v>
+        <v>10745000</v>
       </c>
       <c r="I46" s="3">
-        <v>11207400</v>
+        <v>10545600</v>
       </c>
       <c r="J46" s="3">
-        <v>11176800</v>
+        <v>10516800</v>
       </c>
       <c r="K46" s="3">
         <v>12432900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11891200</v>
+        <v>11189000</v>
       </c>
       <c r="E47" s="3">
-        <v>10318100</v>
+        <v>9708800</v>
       </c>
       <c r="F47" s="3">
-        <v>9669200</v>
+        <v>9098300</v>
       </c>
       <c r="G47" s="3">
-        <v>7678400</v>
+        <v>7225000</v>
       </c>
       <c r="H47" s="3">
-        <v>16686800</v>
+        <v>15701500</v>
       </c>
       <c r="I47" s="3">
-        <v>8808600</v>
+        <v>8288400</v>
       </c>
       <c r="J47" s="3">
-        <v>8813600</v>
+        <v>8293200</v>
       </c>
       <c r="K47" s="3">
         <v>8970500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4306900</v>
+        <v>4052600</v>
       </c>
       <c r="E48" s="3">
-        <v>3721700</v>
+        <v>3501900</v>
       </c>
       <c r="F48" s="3">
-        <v>3257700</v>
+        <v>3065300</v>
       </c>
       <c r="G48" s="3">
-        <v>2663100</v>
+        <v>2505800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>2076800</v>
+        <v>1954200</v>
       </c>
       <c r="J48" s="3">
-        <v>2060400</v>
+        <v>1938700</v>
       </c>
       <c r="K48" s="3">
         <v>2230500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3216200</v>
+        <v>3026300</v>
       </c>
       <c r="E49" s="3">
-        <v>3177000</v>
+        <v>2989400</v>
       </c>
       <c r="F49" s="3">
-        <v>2576500</v>
+        <v>2424300</v>
       </c>
       <c r="G49" s="3">
-        <v>1787800</v>
+        <v>1682200</v>
       </c>
       <c r="H49" s="3">
-        <v>3497000</v>
+        <v>3290500</v>
       </c>
       <c r="I49" s="3">
-        <v>1337600</v>
+        <v>1258600</v>
       </c>
       <c r="J49" s="3">
-        <v>1259700</v>
+        <v>1185300</v>
       </c>
       <c r="K49" s="3">
         <v>1354400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>747300</v>
+        <v>703200</v>
       </c>
       <c r="E52" s="3">
-        <v>651300</v>
+        <v>612800</v>
       </c>
       <c r="F52" s="3">
-        <v>446400</v>
+        <v>420000</v>
       </c>
       <c r="G52" s="3">
-        <v>418100</v>
+        <v>393500</v>
       </c>
       <c r="H52" s="3">
-        <v>1064900</v>
+        <v>1002000</v>
       </c>
       <c r="I52" s="3">
-        <v>800100</v>
+        <v>752800</v>
       </c>
       <c r="J52" s="3">
-        <v>800000</v>
+        <v>752700</v>
       </c>
       <c r="K52" s="3">
         <v>782400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30515500</v>
+        <v>28713600</v>
       </c>
       <c r="E54" s="3">
-        <v>27214100</v>
+        <v>25607100</v>
       </c>
       <c r="F54" s="3">
-        <v>25318900</v>
+        <v>23823800</v>
       </c>
       <c r="G54" s="3">
-        <v>23124400</v>
+        <v>21758900</v>
       </c>
       <c r="H54" s="3">
-        <v>24373500</v>
+        <v>22934200</v>
       </c>
       <c r="I54" s="3">
-        <v>24230600</v>
+        <v>22799700</v>
       </c>
       <c r="J54" s="3">
-        <v>24110400</v>
+        <v>22686700</v>
       </c>
       <c r="K54" s="3">
         <v>25770700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1736900</v>
+        <v>1172000</v>
       </c>
       <c r="E57" s="3">
-        <v>1088900</v>
+        <v>1024600</v>
       </c>
       <c r="F57" s="3">
-        <v>1019800</v>
+        <v>959500</v>
       </c>
       <c r="G57" s="3">
-        <v>1052100</v>
+        <v>990000</v>
       </c>
       <c r="H57" s="3">
-        <v>2332900</v>
+        <v>2195100</v>
       </c>
       <c r="I57" s="3">
-        <v>1008500</v>
+        <v>948900</v>
       </c>
       <c r="J57" s="3">
-        <v>900900</v>
+        <v>847700</v>
       </c>
       <c r="K57" s="3">
         <v>1020600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>753400</v>
+        <v>708900</v>
       </c>
       <c r="E58" s="3">
-        <v>435300</v>
+        <v>409600</v>
       </c>
       <c r="F58" s="3">
-        <v>393400</v>
+        <v>370200</v>
       </c>
       <c r="G58" s="3">
-        <v>32700</v>
+        <v>30800</v>
       </c>
       <c r="H58" s="3">
-        <v>97400</v>
+        <v>91600</v>
       </c>
       <c r="I58" s="3">
-        <v>65600</v>
+        <v>61800</v>
       </c>
       <c r="J58" s="3">
-        <v>114000</v>
+        <v>107300</v>
       </c>
       <c r="K58" s="3">
         <v>115800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1711300</v>
+        <v>2072500</v>
       </c>
       <c r="E59" s="3">
-        <v>1769800</v>
+        <v>1665300</v>
       </c>
       <c r="F59" s="3">
-        <v>1683400</v>
+        <v>1584000</v>
       </c>
       <c r="G59" s="3">
-        <v>1834400</v>
+        <v>1726100</v>
       </c>
       <c r="H59" s="3">
-        <v>2611600</v>
+        <v>2457400</v>
       </c>
       <c r="I59" s="3">
-        <v>1766600</v>
+        <v>1662300</v>
       </c>
       <c r="J59" s="3">
-        <v>1850500</v>
+        <v>1741300</v>
       </c>
       <c r="K59" s="3">
         <v>1902400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4201500</v>
+        <v>3953400</v>
       </c>
       <c r="E60" s="3">
-        <v>3294000</v>
+        <v>3099500</v>
       </c>
       <c r="F60" s="3">
-        <v>3096600</v>
+        <v>2913700</v>
       </c>
       <c r="G60" s="3">
-        <v>2919300</v>
+        <v>2746900</v>
       </c>
       <c r="H60" s="3">
-        <v>3267000</v>
+        <v>3074100</v>
       </c>
       <c r="I60" s="3">
-        <v>2840700</v>
+        <v>2673000</v>
       </c>
       <c r="J60" s="3">
-        <v>2865400</v>
+        <v>2696200</v>
       </c>
       <c r="K60" s="3">
         <v>3038800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>409400</v>
+        <v>385200</v>
       </c>
       <c r="E61" s="3">
-        <v>716200</v>
+        <v>673900</v>
       </c>
       <c r="F61" s="3">
-        <v>598400</v>
+        <v>563100</v>
       </c>
       <c r="G61" s="3">
-        <v>44100</v>
+        <v>41500</v>
       </c>
       <c r="H61" s="3">
-        <v>46500</v>
+        <v>43800</v>
       </c>
       <c r="I61" s="3">
-        <v>127800</v>
+        <v>120300</v>
       </c>
       <c r="J61" s="3">
-        <v>141100</v>
+        <v>132800</v>
       </c>
       <c r="K61" s="3">
         <v>152500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3327000</v>
+        <v>3130600</v>
       </c>
       <c r="E62" s="3">
-        <v>2824400</v>
+        <v>2657600</v>
       </c>
       <c r="F62" s="3">
-        <v>2505300</v>
+        <v>2357400</v>
       </c>
       <c r="G62" s="3">
-        <v>1759100</v>
+        <v>1655200</v>
       </c>
       <c r="H62" s="3">
-        <v>2484100</v>
+        <v>2337400</v>
       </c>
       <c r="I62" s="3">
-        <v>2418700</v>
+        <v>2275900</v>
       </c>
       <c r="J62" s="3">
-        <v>2612300</v>
+        <v>2458000</v>
       </c>
       <c r="K62" s="3">
         <v>2929400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8146100</v>
+        <v>7665100</v>
       </c>
       <c r="E66" s="3">
-        <v>7027000</v>
+        <v>6612100</v>
       </c>
       <c r="F66" s="3">
-        <v>6372500</v>
+        <v>5996200</v>
       </c>
       <c r="G66" s="3">
-        <v>5472900</v>
+        <v>5149700</v>
       </c>
       <c r="H66" s="3">
-        <v>6255500</v>
+        <v>5886200</v>
       </c>
       <c r="I66" s="3">
-        <v>6047000</v>
+        <v>5689900</v>
       </c>
       <c r="J66" s="3">
-        <v>6316000</v>
+        <v>5943100</v>
       </c>
       <c r="K66" s="3">
         <v>6874000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14381100</v>
+        <v>13531900</v>
       </c>
       <c r="E72" s="3">
-        <v>13634500</v>
+        <v>12829400</v>
       </c>
       <c r="F72" s="3">
-        <v>13139200</v>
+        <v>12363300</v>
       </c>
       <c r="G72" s="3">
-        <v>12765500</v>
+        <v>12011700</v>
       </c>
       <c r="H72" s="3">
-        <v>12289800</v>
+        <v>11564100</v>
       </c>
       <c r="I72" s="3">
-        <v>12760900</v>
+        <v>12007400</v>
       </c>
       <c r="J72" s="3">
-        <v>12238100</v>
+        <v>11515400</v>
       </c>
       <c r="K72" s="3">
         <v>12814700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22369400</v>
+        <v>21048500</v>
       </c>
       <c r="E76" s="3">
-        <v>20187100</v>
+        <v>18995100</v>
       </c>
       <c r="F76" s="3">
-        <v>18946300</v>
+        <v>17827500</v>
       </c>
       <c r="G76" s="3">
-        <v>17651500</v>
+        <v>16609200</v>
       </c>
       <c r="H76" s="3">
-        <v>18117900</v>
+        <v>17048000</v>
       </c>
       <c r="I76" s="3">
-        <v>18183600</v>
+        <v>17109800</v>
       </c>
       <c r="J76" s="3">
-        <v>17794400</v>
+        <v>16743700</v>
       </c>
       <c r="K76" s="3">
         <v>18896700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1156100</v>
+        <v>1087900</v>
       </c>
       <c r="E81" s="3">
-        <v>702800</v>
+        <v>661300</v>
       </c>
       <c r="F81" s="3">
-        <v>839100</v>
+        <v>789600</v>
       </c>
       <c r="G81" s="3">
-        <v>804000</v>
+        <v>756500</v>
       </c>
       <c r="H81" s="3">
-        <v>616500</v>
+        <v>580100</v>
       </c>
       <c r="I81" s="3">
-        <v>808900</v>
+        <v>761200</v>
       </c>
       <c r="J81" s="3">
-        <v>849500</v>
+        <v>799300</v>
       </c>
       <c r="K81" s="3">
         <v>988400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1004600</v>
+        <v>945300</v>
       </c>
       <c r="E83" s="3">
-        <v>849600</v>
+        <v>799400</v>
       </c>
       <c r="F83" s="3">
-        <v>722500</v>
+        <v>679800</v>
       </c>
       <c r="G83" s="3">
-        <v>497700</v>
+        <v>468300</v>
       </c>
       <c r="H83" s="3">
-        <v>641700</v>
+        <v>603800</v>
       </c>
       <c r="I83" s="3">
-        <v>603300</v>
+        <v>567700</v>
       </c>
       <c r="J83" s="3">
-        <v>597100</v>
+        <v>561800</v>
       </c>
       <c r="K83" s="3">
         <v>622600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1480300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1618600</v>
+      </c>
+      <c r="F89" s="3">
         <v>1573200</v>
       </c>
-      <c r="E89" s="3">
-        <v>1720200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1672000</v>
-      </c>
       <c r="G89" s="3">
-        <v>1714000</v>
+        <v>1612800</v>
       </c>
       <c r="H89" s="3">
-        <v>1237900</v>
+        <v>1164800</v>
       </c>
       <c r="I89" s="3">
-        <v>1279400</v>
+        <v>1203800</v>
       </c>
       <c r="J89" s="3">
-        <v>1511600</v>
+        <v>1422300</v>
       </c>
       <c r="K89" s="3">
         <v>1115400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1047700</v>
+        <v>-985800</v>
       </c>
       <c r="E91" s="3">
-        <v>-956900</v>
+        <v>-900400</v>
       </c>
       <c r="F91" s="3">
-        <v>-834600</v>
+        <v>-785300</v>
       </c>
       <c r="G91" s="3">
-        <v>-865000</v>
+        <v>-813900</v>
       </c>
       <c r="H91" s="3">
-        <v>-655900</v>
+        <v>-617100</v>
       </c>
       <c r="I91" s="3">
-        <v>-521200</v>
+        <v>-490400</v>
       </c>
       <c r="J91" s="3">
-        <v>-514900</v>
+        <v>-484500</v>
       </c>
       <c r="K91" s="3">
         <v>-486700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-619000</v>
+        <v>-582400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1431700</v>
+        <v>-1347200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1133800</v>
+        <v>-1066900</v>
       </c>
       <c r="G94" s="3">
-        <v>-367100</v>
+        <v>-345400</v>
       </c>
       <c r="H94" s="3">
-        <v>-413900</v>
+        <v>-389400</v>
       </c>
       <c r="I94" s="3">
-        <v>-873200</v>
+        <v>-821600</v>
       </c>
       <c r="J94" s="3">
-        <v>-832000</v>
+        <v>-782900</v>
       </c>
       <c r="K94" s="3">
         <v>-798500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-496800</v>
+        <v>-467500</v>
       </c>
       <c r="E96" s="3">
-        <v>-407800</v>
+        <v>-383700</v>
       </c>
       <c r="F96" s="3">
-        <v>-483100</v>
+        <v>-454600</v>
       </c>
       <c r="G96" s="3">
-        <v>-374400</v>
+        <v>-352300</v>
       </c>
       <c r="H96" s="3">
-        <v>-373400</v>
+        <v>-351400</v>
       </c>
       <c r="I96" s="3">
-        <v>-311500</v>
+        <v>-293100</v>
       </c>
       <c r="J96" s="3">
-        <v>-341800</v>
+        <v>-321600</v>
       </c>
       <c r="K96" s="3">
         <v>-279000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-868400</v>
+        <v>-817100</v>
       </c>
       <c r="E100" s="3">
-        <v>-630700</v>
+        <v>-593500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1224000</v>
+        <v>-1151700</v>
       </c>
       <c r="G100" s="3">
-        <v>-693700</v>
+        <v>-652800</v>
       </c>
       <c r="H100" s="3">
-        <v>-401700</v>
+        <v>-378000</v>
       </c>
       <c r="I100" s="3">
-        <v>-373700</v>
+        <v>-351600</v>
       </c>
       <c r="J100" s="3">
-        <v>-394200</v>
+        <v>-371000</v>
       </c>
       <c r="K100" s="3">
         <v>-341100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>127600</v>
+        <v>120000</v>
       </c>
       <c r="E101" s="3">
-        <v>86000</v>
+        <v>81000</v>
       </c>
       <c r="F101" s="3">
-        <v>-40100</v>
+        <v>-37700</v>
       </c>
       <c r="G101" s="3">
-        <v>31400</v>
+        <v>29500</v>
       </c>
       <c r="H101" s="3">
-        <v>-42500</v>
+        <v>-40000</v>
       </c>
       <c r="I101" s="3">
-        <v>-15500</v>
+        <v>-14600</v>
       </c>
       <c r="J101" s="3">
-        <v>-108800</v>
+        <v>-102400</v>
       </c>
       <c r="K101" s="3">
         <v>162300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>213500</v>
+        <v>200900</v>
       </c>
       <c r="E102" s="3">
-        <v>-256200</v>
+        <v>-241100</v>
       </c>
       <c r="F102" s="3">
-        <v>-726000</v>
+        <v>-683100</v>
       </c>
       <c r="G102" s="3">
-        <v>684600</v>
+        <v>644100</v>
       </c>
       <c r="H102" s="3">
-        <v>379700</v>
+        <v>357300</v>
       </c>
       <c r="I102" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="J102" s="3">
-        <v>176500</v>
+        <v>166100</v>
       </c>
       <c r="K102" s="3">
         <v>138100</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13479400</v>
+        <v>13038100</v>
       </c>
       <c r="E8" s="3">
-        <v>11192200</v>
+        <v>10825700</v>
       </c>
       <c r="F8" s="3">
-        <v>11721100</v>
+        <v>11337300</v>
       </c>
       <c r="G8" s="3">
-        <v>11901800</v>
+        <v>11512100</v>
       </c>
       <c r="H8" s="3">
-        <v>11559700</v>
+        <v>11181200</v>
       </c>
       <c r="I8" s="3">
-        <v>10428800</v>
+        <v>10087300</v>
       </c>
       <c r="J8" s="3">
-        <v>10845700</v>
+        <v>10490600</v>
       </c>
       <c r="K8" s="3">
         <v>13021400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9714400</v>
+        <v>9396300</v>
       </c>
       <c r="E9" s="3">
-        <v>8209200</v>
+        <v>7940400</v>
       </c>
       <c r="F9" s="3">
-        <v>8487300</v>
+        <v>8209400</v>
       </c>
       <c r="G9" s="3">
-        <v>8500500</v>
+        <v>8222200</v>
       </c>
       <c r="H9" s="3">
-        <v>17629500</v>
+        <v>17052300</v>
       </c>
       <c r="I9" s="3">
-        <v>7692600</v>
+        <v>7440800</v>
       </c>
       <c r="J9" s="3">
-        <v>8015100</v>
+        <v>7752700</v>
       </c>
       <c r="K9" s="3">
         <v>9699800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3765000</v>
+        <v>3641700</v>
       </c>
       <c r="E10" s="3">
-        <v>2982900</v>
+        <v>2885300</v>
       </c>
       <c r="F10" s="3">
-        <v>3233800</v>
+        <v>3127900</v>
       </c>
       <c r="G10" s="3">
-        <v>3401300</v>
+        <v>3289900</v>
       </c>
       <c r="H10" s="3">
-        <v>-6069800</v>
+        <v>-5871100</v>
       </c>
       <c r="I10" s="3">
-        <v>2736200</v>
+        <v>2646600</v>
       </c>
       <c r="J10" s="3">
-        <v>2830600</v>
+        <v>2737900</v>
       </c>
       <c r="K10" s="3">
         <v>3321600</v>
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
-        <v>169900</v>
+        <v>164400</v>
       </c>
       <c r="F14" s="3">
-        <v>54100</v>
+        <v>52300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>103700</v>
+        <v>100300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>274300</v>
+        <v>265300</v>
       </c>
       <c r="E15" s="3">
-        <v>248100</v>
+        <v>239900</v>
       </c>
       <c r="F15" s="3">
-        <v>215800</v>
+        <v>208700</v>
       </c>
       <c r="G15" s="3">
-        <v>108100</v>
+        <v>104600</v>
       </c>
       <c r="H15" s="3">
-        <v>108100</v>
+        <v>104600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12387900</v>
+        <v>11982300</v>
       </c>
       <c r="E17" s="3">
-        <v>10674300</v>
+        <v>10324800</v>
       </c>
       <c r="F17" s="3">
-        <v>10986600</v>
+        <v>10626900</v>
       </c>
       <c r="G17" s="3">
-        <v>11206700</v>
+        <v>10839800</v>
       </c>
       <c r="H17" s="3">
-        <v>10894900</v>
+        <v>10538200</v>
       </c>
       <c r="I17" s="3">
-        <v>9662500</v>
+        <v>9346100</v>
       </c>
       <c r="J17" s="3">
-        <v>10166500</v>
+        <v>9833600</v>
       </c>
       <c r="K17" s="3">
         <v>12224400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1091500</v>
+        <v>1055800</v>
       </c>
       <c r="E18" s="3">
-        <v>517800</v>
+        <v>500900</v>
       </c>
       <c r="F18" s="3">
-        <v>734400</v>
+        <v>710400</v>
       </c>
       <c r="G18" s="3">
-        <v>695100</v>
+        <v>672300</v>
       </c>
       <c r="H18" s="3">
-        <v>664800</v>
+        <v>643100</v>
       </c>
       <c r="I18" s="3">
-        <v>766300</v>
+        <v>741200</v>
       </c>
       <c r="J18" s="3">
-        <v>679200</v>
+        <v>656900</v>
       </c>
       <c r="K18" s="3">
         <v>796900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>386200</v>
+        <v>373500</v>
       </c>
       <c r="E20" s="3">
-        <v>359000</v>
+        <v>347300</v>
       </c>
       <c r="F20" s="3">
-        <v>367400</v>
+        <v>355300</v>
       </c>
       <c r="G20" s="3">
-        <v>344500</v>
+        <v>333200</v>
       </c>
       <c r="H20" s="3">
-        <v>293000</v>
+        <v>283500</v>
       </c>
       <c r="I20" s="3">
-        <v>250700</v>
+        <v>242500</v>
       </c>
       <c r="J20" s="3">
-        <v>401300</v>
+        <v>388100</v>
       </c>
       <c r="K20" s="3">
         <v>257200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2417800</v>
+        <v>2310100</v>
       </c>
       <c r="E21" s="3">
-        <v>1671900</v>
+        <v>1593000</v>
       </c>
       <c r="F21" s="3">
-        <v>1777900</v>
+        <v>1699200</v>
       </c>
       <c r="G21" s="3">
-        <v>1505300</v>
+        <v>1441900</v>
       </c>
       <c r="H21" s="3">
-        <v>1558300</v>
+        <v>1489100</v>
       </c>
       <c r="I21" s="3">
-        <v>1581600</v>
+        <v>1512700</v>
       </c>
       <c r="J21" s="3">
-        <v>1639200</v>
+        <v>1568500</v>
       </c>
       <c r="K21" s="3">
         <v>1684100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>19400</v>
+        <v>18800</v>
       </c>
       <c r="E22" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="F22" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J22" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="K22" s="3">
         <v>14700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1458300</v>
+        <v>1410500</v>
       </c>
       <c r="E23" s="3">
-        <v>861700</v>
+        <v>833500</v>
       </c>
       <c r="F23" s="3">
-        <v>1090900</v>
+        <v>1055200</v>
       </c>
       <c r="G23" s="3">
-        <v>1030700</v>
+        <v>996900</v>
       </c>
       <c r="H23" s="3">
-        <v>952800</v>
+        <v>921600</v>
       </c>
       <c r="I23" s="3">
-        <v>1010400</v>
+        <v>977300</v>
       </c>
       <c r="J23" s="3">
-        <v>1067100</v>
+        <v>1032200</v>
       </c>
       <c r="K23" s="3">
         <v>1039500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>343900</v>
+        <v>332600</v>
       </c>
       <c r="E24" s="3">
-        <v>177500</v>
+        <v>171600</v>
       </c>
       <c r="F24" s="3">
-        <v>271100</v>
+        <v>262200</v>
       </c>
       <c r="G24" s="3">
-        <v>188800</v>
+        <v>182600</v>
       </c>
       <c r="H24" s="3">
-        <v>350100</v>
+        <v>338700</v>
       </c>
       <c r="I24" s="3">
-        <v>208500</v>
+        <v>201700</v>
       </c>
       <c r="J24" s="3">
-        <v>230100</v>
+        <v>222600</v>
       </c>
       <c r="K24" s="3">
         <v>-29400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1114400</v>
+        <v>1077900</v>
       </c>
       <c r="E26" s="3">
-        <v>684300</v>
+        <v>661900</v>
       </c>
       <c r="F26" s="3">
-        <v>819800</v>
+        <v>793000</v>
       </c>
       <c r="G26" s="3">
-        <v>841900</v>
+        <v>814300</v>
       </c>
       <c r="H26" s="3">
-        <v>602700</v>
+        <v>583000</v>
       </c>
       <c r="I26" s="3">
-        <v>802000</v>
+        <v>775700</v>
       </c>
       <c r="J26" s="3">
-        <v>837000</v>
+        <v>809600</v>
       </c>
       <c r="K26" s="3">
         <v>1068800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1087900</v>
+        <v>1052300</v>
       </c>
       <c r="E27" s="3">
-        <v>661300</v>
+        <v>639600</v>
       </c>
       <c r="F27" s="3">
-        <v>789600</v>
+        <v>763700</v>
       </c>
       <c r="G27" s="3">
-        <v>756500</v>
+        <v>731800</v>
       </c>
       <c r="H27" s="3">
-        <v>580100</v>
+        <v>561100</v>
       </c>
       <c r="I27" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J27" s="3">
-        <v>799300</v>
+        <v>773100</v>
       </c>
       <c r="K27" s="3">
         <v>988400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-386200</v>
+        <v>-373500</v>
       </c>
       <c r="E32" s="3">
-        <v>-359000</v>
+        <v>-347300</v>
       </c>
       <c r="F32" s="3">
-        <v>-367400</v>
+        <v>-355300</v>
       </c>
       <c r="G32" s="3">
-        <v>-344500</v>
+        <v>-333200</v>
       </c>
       <c r="H32" s="3">
-        <v>-293000</v>
+        <v>-283500</v>
       </c>
       <c r="I32" s="3">
-        <v>-250700</v>
+        <v>-242500</v>
       </c>
       <c r="J32" s="3">
-        <v>-401300</v>
+        <v>-388100</v>
       </c>
       <c r="K32" s="3">
         <v>-257200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1087900</v>
+        <v>1052300</v>
       </c>
       <c r="E33" s="3">
-        <v>661300</v>
+        <v>639600</v>
       </c>
       <c r="F33" s="3">
-        <v>789600</v>
+        <v>763700</v>
       </c>
       <c r="G33" s="3">
-        <v>756500</v>
+        <v>731800</v>
       </c>
       <c r="H33" s="3">
-        <v>580100</v>
+        <v>561100</v>
       </c>
       <c r="I33" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J33" s="3">
-        <v>799300</v>
+        <v>773100</v>
       </c>
       <c r="K33" s="3">
         <v>988400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1087900</v>
+        <v>1052300</v>
       </c>
       <c r="E35" s="3">
-        <v>661300</v>
+        <v>639600</v>
       </c>
       <c r="F35" s="3">
-        <v>789600</v>
+        <v>763700</v>
       </c>
       <c r="G35" s="3">
-        <v>756500</v>
+        <v>731800</v>
       </c>
       <c r="H35" s="3">
-        <v>580100</v>
+        <v>561100</v>
       </c>
       <c r="I35" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J35" s="3">
-        <v>799300</v>
+        <v>773100</v>
       </c>
       <c r="K35" s="3">
         <v>988400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3035600</v>
+        <v>2936200</v>
       </c>
       <c r="E41" s="3">
-        <v>2834700</v>
+        <v>2741900</v>
       </c>
       <c r="F41" s="3">
-        <v>3075800</v>
+        <v>2975100</v>
       </c>
       <c r="G41" s="3">
-        <v>3758900</v>
+        <v>3635900</v>
       </c>
       <c r="H41" s="3">
-        <v>3114800</v>
+        <v>3012800</v>
       </c>
       <c r="I41" s="3">
-        <v>2757500</v>
+        <v>2667200</v>
       </c>
       <c r="J41" s="3">
-        <v>2741600</v>
+        <v>2651800</v>
       </c>
       <c r="K41" s="3">
         <v>2997100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>323100</v>
+        <v>312500</v>
       </c>
       <c r="E42" s="3">
-        <v>713600</v>
+        <v>690300</v>
       </c>
       <c r="F42" s="3">
-        <v>542700</v>
+        <v>524900</v>
       </c>
       <c r="G42" s="3">
-        <v>799600</v>
+        <v>773400</v>
       </c>
       <c r="H42" s="3">
-        <v>1816500</v>
+        <v>1757100</v>
       </c>
       <c r="I42" s="3">
-        <v>2179700</v>
+        <v>2108400</v>
       </c>
       <c r="J42" s="3">
-        <v>2310300</v>
+        <v>2234600</v>
       </c>
       <c r="K42" s="3">
         <v>2384900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2778600</v>
+        <v>2687600</v>
       </c>
       <c r="E43" s="3">
-        <v>2489400</v>
+        <v>2407900</v>
       </c>
       <c r="F43" s="3">
-        <v>2465000</v>
+        <v>2384300</v>
       </c>
       <c r="G43" s="3">
-        <v>2619400</v>
+        <v>2533600</v>
       </c>
       <c r="H43" s="3">
-        <v>2804900</v>
+        <v>2713100</v>
       </c>
       <c r="I43" s="3">
-        <v>2303500</v>
+        <v>2228100</v>
       </c>
       <c r="J43" s="3">
-        <v>2081800</v>
+        <v>2013700</v>
       </c>
       <c r="K43" s="3">
         <v>2671300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3316900</v>
+        <v>3208300</v>
       </c>
       <c r="E44" s="3">
-        <v>2531400</v>
+        <v>2448600</v>
       </c>
       <c r="F44" s="3">
-        <v>2523700</v>
+        <v>2441100</v>
       </c>
       <c r="G44" s="3">
-        <v>2520600</v>
+        <v>2438100</v>
       </c>
       <c r="H44" s="3">
-        <v>2674500</v>
+        <v>2587000</v>
       </c>
       <c r="I44" s="3">
-        <v>2427400</v>
+        <v>2347900</v>
       </c>
       <c r="J44" s="3">
-        <v>2403300</v>
+        <v>2324600</v>
       </c>
       <c r="K44" s="3">
         <v>3023900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>288400</v>
+        <v>278900</v>
       </c>
       <c r="E45" s="3">
-        <v>225100</v>
+        <v>217700</v>
       </c>
       <c r="F45" s="3">
-        <v>208600</v>
+        <v>201700</v>
       </c>
       <c r="G45" s="3">
-        <v>253900</v>
+        <v>245600</v>
       </c>
       <c r="H45" s="3">
-        <v>1623400</v>
+        <v>1570300</v>
       </c>
       <c r="I45" s="3">
-        <v>877500</v>
+        <v>848800</v>
       </c>
       <c r="J45" s="3">
-        <v>979800</v>
+        <v>947700</v>
       </c>
       <c r="K45" s="3">
         <v>1355600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9742500</v>
+        <v>9423500</v>
       </c>
       <c r="E46" s="3">
-        <v>8794300</v>
+        <v>8506300</v>
       </c>
       <c r="F46" s="3">
-        <v>8815800</v>
+        <v>8527200</v>
       </c>
       <c r="G46" s="3">
-        <v>9952400</v>
+        <v>9626500</v>
       </c>
       <c r="H46" s="3">
-        <v>10745000</v>
+        <v>10393200</v>
       </c>
       <c r="I46" s="3">
-        <v>10545600</v>
+        <v>10200400</v>
       </c>
       <c r="J46" s="3">
-        <v>10516800</v>
+        <v>10172500</v>
       </c>
       <c r="K46" s="3">
         <v>12432900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11189000</v>
+        <v>10822700</v>
       </c>
       <c r="E47" s="3">
-        <v>9708800</v>
+        <v>9390900</v>
       </c>
       <c r="F47" s="3">
-        <v>9098300</v>
+        <v>8800400</v>
       </c>
       <c r="G47" s="3">
-        <v>7225000</v>
+        <v>6988500</v>
       </c>
       <c r="H47" s="3">
-        <v>15701500</v>
+        <v>15187400</v>
       </c>
       <c r="I47" s="3">
-        <v>8288400</v>
+        <v>8017100</v>
       </c>
       <c r="J47" s="3">
-        <v>8293200</v>
+        <v>8021600</v>
       </c>
       <c r="K47" s="3">
         <v>8970500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4052600</v>
+        <v>3919900</v>
       </c>
       <c r="E48" s="3">
-        <v>3501900</v>
+        <v>3387200</v>
       </c>
       <c r="F48" s="3">
-        <v>3065300</v>
+        <v>2965000</v>
       </c>
       <c r="G48" s="3">
-        <v>2505800</v>
+        <v>2423800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>1954200</v>
+        <v>1890200</v>
       </c>
       <c r="J48" s="3">
-        <v>1938700</v>
+        <v>1875200</v>
       </c>
       <c r="K48" s="3">
         <v>2230500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3026300</v>
+        <v>2927200</v>
       </c>
       <c r="E49" s="3">
-        <v>2989400</v>
+        <v>2891500</v>
       </c>
       <c r="F49" s="3">
-        <v>2424300</v>
+        <v>2344900</v>
       </c>
       <c r="G49" s="3">
-        <v>1682200</v>
+        <v>1627200</v>
       </c>
       <c r="H49" s="3">
-        <v>3290500</v>
+        <v>3182800</v>
       </c>
       <c r="I49" s="3">
-        <v>1258600</v>
+        <v>1217400</v>
       </c>
       <c r="J49" s="3">
-        <v>1185300</v>
+        <v>1146500</v>
       </c>
       <c r="K49" s="3">
         <v>1354400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>703200</v>
+        <v>680200</v>
       </c>
       <c r="E52" s="3">
-        <v>612800</v>
+        <v>592700</v>
       </c>
       <c r="F52" s="3">
-        <v>420000</v>
+        <v>406300</v>
       </c>
       <c r="G52" s="3">
-        <v>393500</v>
+        <v>380600</v>
       </c>
       <c r="H52" s="3">
-        <v>1002000</v>
+        <v>969200</v>
       </c>
       <c r="I52" s="3">
-        <v>752800</v>
+        <v>728200</v>
       </c>
       <c r="J52" s="3">
-        <v>752700</v>
+        <v>728100</v>
       </c>
       <c r="K52" s="3">
         <v>782400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28713600</v>
+        <v>27773400</v>
       </c>
       <c r="E54" s="3">
-        <v>25607100</v>
+        <v>24768700</v>
       </c>
       <c r="F54" s="3">
-        <v>23823800</v>
+        <v>23043700</v>
       </c>
       <c r="G54" s="3">
-        <v>21758900</v>
+        <v>21046500</v>
       </c>
       <c r="H54" s="3">
-        <v>22934200</v>
+        <v>22183300</v>
       </c>
       <c r="I54" s="3">
-        <v>22799700</v>
+        <v>22053200</v>
       </c>
       <c r="J54" s="3">
-        <v>22686700</v>
+        <v>21943900</v>
       </c>
       <c r="K54" s="3">
         <v>25770700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1172000</v>
+        <v>1133700</v>
       </c>
       <c r="E57" s="3">
-        <v>1024600</v>
+        <v>991100</v>
       </c>
       <c r="F57" s="3">
-        <v>959500</v>
+        <v>928100</v>
       </c>
       <c r="G57" s="3">
-        <v>990000</v>
+        <v>957600</v>
       </c>
       <c r="H57" s="3">
-        <v>2195100</v>
+        <v>2123200</v>
       </c>
       <c r="I57" s="3">
-        <v>948900</v>
+        <v>917900</v>
       </c>
       <c r="J57" s="3">
-        <v>847700</v>
+        <v>819900</v>
       </c>
       <c r="K57" s="3">
         <v>1020600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>708900</v>
+        <v>685700</v>
       </c>
       <c r="E58" s="3">
-        <v>409600</v>
+        <v>396200</v>
       </c>
       <c r="F58" s="3">
-        <v>370200</v>
+        <v>358100</v>
       </c>
       <c r="G58" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="H58" s="3">
-        <v>91600</v>
+        <v>88600</v>
       </c>
       <c r="I58" s="3">
-        <v>61800</v>
+        <v>59700</v>
       </c>
       <c r="J58" s="3">
-        <v>107300</v>
+        <v>103800</v>
       </c>
       <c r="K58" s="3">
         <v>115800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2072500</v>
+        <v>2004700</v>
       </c>
       <c r="E59" s="3">
-        <v>1665300</v>
+        <v>1610800</v>
       </c>
       <c r="F59" s="3">
-        <v>1584000</v>
+        <v>1532100</v>
       </c>
       <c r="G59" s="3">
-        <v>1726100</v>
+        <v>1669600</v>
       </c>
       <c r="H59" s="3">
-        <v>2457400</v>
+        <v>2376900</v>
       </c>
       <c r="I59" s="3">
-        <v>1662300</v>
+        <v>1607800</v>
       </c>
       <c r="J59" s="3">
-        <v>1741300</v>
+        <v>1684300</v>
       </c>
       <c r="K59" s="3">
         <v>1902400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3953400</v>
+        <v>3824000</v>
       </c>
       <c r="E60" s="3">
-        <v>3099500</v>
+        <v>2998000</v>
       </c>
       <c r="F60" s="3">
-        <v>2913700</v>
+        <v>2818300</v>
       </c>
       <c r="G60" s="3">
-        <v>2746900</v>
+        <v>2657000</v>
       </c>
       <c r="H60" s="3">
-        <v>3074100</v>
+        <v>2973500</v>
       </c>
       <c r="I60" s="3">
-        <v>2673000</v>
+        <v>2585400</v>
       </c>
       <c r="J60" s="3">
-        <v>2696200</v>
+        <v>2607900</v>
       </c>
       <c r="K60" s="3">
         <v>3038800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>385200</v>
+        <v>372600</v>
       </c>
       <c r="E61" s="3">
-        <v>673900</v>
+        <v>651800</v>
       </c>
       <c r="F61" s="3">
-        <v>563100</v>
+        <v>544600</v>
       </c>
       <c r="G61" s="3">
-        <v>41500</v>
+        <v>40100</v>
       </c>
       <c r="H61" s="3">
-        <v>43800</v>
+        <v>42300</v>
       </c>
       <c r="I61" s="3">
-        <v>120300</v>
+        <v>116300</v>
       </c>
       <c r="J61" s="3">
-        <v>132800</v>
+        <v>128400</v>
       </c>
       <c r="K61" s="3">
         <v>152500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3130600</v>
+        <v>3028100</v>
       </c>
       <c r="E62" s="3">
-        <v>2657600</v>
+        <v>2570600</v>
       </c>
       <c r="F62" s="3">
-        <v>2357400</v>
+        <v>2280200</v>
       </c>
       <c r="G62" s="3">
-        <v>1655200</v>
+        <v>1601000</v>
       </c>
       <c r="H62" s="3">
-        <v>2337400</v>
+        <v>2260900</v>
       </c>
       <c r="I62" s="3">
-        <v>2275900</v>
+        <v>2201400</v>
       </c>
       <c r="J62" s="3">
-        <v>2458000</v>
+        <v>2377600</v>
       </c>
       <c r="K62" s="3">
         <v>2929400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7665100</v>
+        <v>7414100</v>
       </c>
       <c r="E66" s="3">
-        <v>6612100</v>
+        <v>6395600</v>
       </c>
       <c r="F66" s="3">
-        <v>5996200</v>
+        <v>5799900</v>
       </c>
       <c r="G66" s="3">
-        <v>5149700</v>
+        <v>4981100</v>
       </c>
       <c r="H66" s="3">
-        <v>5886200</v>
+        <v>5693400</v>
       </c>
       <c r="I66" s="3">
-        <v>5689900</v>
+        <v>5503600</v>
       </c>
       <c r="J66" s="3">
-        <v>5943100</v>
+        <v>5748500</v>
       </c>
       <c r="K66" s="3">
         <v>6874000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13531900</v>
+        <v>13088900</v>
       </c>
       <c r="E72" s="3">
-        <v>12829400</v>
+        <v>12409300</v>
       </c>
       <c r="F72" s="3">
-        <v>12363300</v>
+        <v>11958500</v>
       </c>
       <c r="G72" s="3">
-        <v>12011700</v>
+        <v>11618400</v>
       </c>
       <c r="H72" s="3">
-        <v>11564100</v>
+        <v>11185500</v>
       </c>
       <c r="I72" s="3">
-        <v>12007400</v>
+        <v>11614200</v>
       </c>
       <c r="J72" s="3">
-        <v>11515400</v>
+        <v>11138400</v>
       </c>
       <c r="K72" s="3">
         <v>12814700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21048500</v>
+        <v>20359300</v>
       </c>
       <c r="E76" s="3">
-        <v>18995100</v>
+        <v>18373100</v>
       </c>
       <c r="F76" s="3">
-        <v>17827500</v>
+        <v>17243800</v>
       </c>
       <c r="G76" s="3">
-        <v>16609200</v>
+        <v>16065400</v>
       </c>
       <c r="H76" s="3">
-        <v>17048000</v>
+        <v>16489900</v>
       </c>
       <c r="I76" s="3">
-        <v>17109800</v>
+        <v>16549600</v>
       </c>
       <c r="J76" s="3">
-        <v>16743700</v>
+        <v>16195400</v>
       </c>
       <c r="K76" s="3">
         <v>18896700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1087900</v>
+        <v>1052300</v>
       </c>
       <c r="E81" s="3">
-        <v>661300</v>
+        <v>639600</v>
       </c>
       <c r="F81" s="3">
-        <v>789600</v>
+        <v>763700</v>
       </c>
       <c r="G81" s="3">
-        <v>756500</v>
+        <v>731800</v>
       </c>
       <c r="H81" s="3">
-        <v>580100</v>
+        <v>561100</v>
       </c>
       <c r="I81" s="3">
-        <v>761200</v>
+        <v>736200</v>
       </c>
       <c r="J81" s="3">
-        <v>799300</v>
+        <v>773100</v>
       </c>
       <c r="K81" s="3">
         <v>988400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>945300</v>
+        <v>914300</v>
       </c>
       <c r="E83" s="3">
-        <v>799400</v>
+        <v>773200</v>
       </c>
       <c r="F83" s="3">
-        <v>679800</v>
+        <v>657600</v>
       </c>
       <c r="G83" s="3">
-        <v>468300</v>
+        <v>453000</v>
       </c>
       <c r="H83" s="3">
-        <v>603800</v>
+        <v>584000</v>
       </c>
       <c r="I83" s="3">
-        <v>567700</v>
+        <v>549100</v>
       </c>
       <c r="J83" s="3">
-        <v>561800</v>
+        <v>543400</v>
       </c>
       <c r="K83" s="3">
         <v>622600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1480300</v>
+        <v>1431900</v>
       </c>
       <c r="E89" s="3">
-        <v>1618600</v>
+        <v>1565600</v>
       </c>
       <c r="F89" s="3">
-        <v>1573200</v>
+        <v>1521700</v>
       </c>
       <c r="G89" s="3">
-        <v>1612800</v>
+        <v>1560000</v>
       </c>
       <c r="H89" s="3">
-        <v>1164800</v>
+        <v>1126600</v>
       </c>
       <c r="I89" s="3">
-        <v>1203800</v>
+        <v>1164400</v>
       </c>
       <c r="J89" s="3">
-        <v>1422300</v>
+        <v>1375700</v>
       </c>
       <c r="K89" s="3">
         <v>1115400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-985800</v>
+        <v>-953500</v>
       </c>
       <c r="E91" s="3">
-        <v>-900400</v>
+        <v>-870900</v>
       </c>
       <c r="F91" s="3">
-        <v>-785300</v>
+        <v>-759600</v>
       </c>
       <c r="G91" s="3">
-        <v>-813900</v>
+        <v>-787300</v>
       </c>
       <c r="H91" s="3">
-        <v>-617100</v>
+        <v>-596900</v>
       </c>
       <c r="I91" s="3">
-        <v>-490400</v>
+        <v>-474300</v>
       </c>
       <c r="J91" s="3">
-        <v>-484500</v>
+        <v>-468700</v>
       </c>
       <c r="K91" s="3">
         <v>-486700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-582400</v>
+        <v>-563400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1347200</v>
+        <v>-1303100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1066900</v>
+        <v>-1032000</v>
       </c>
       <c r="G94" s="3">
-        <v>-345400</v>
+        <v>-334100</v>
       </c>
       <c r="H94" s="3">
-        <v>-389400</v>
+        <v>-376700</v>
       </c>
       <c r="I94" s="3">
-        <v>-821600</v>
+        <v>-794700</v>
       </c>
       <c r="J94" s="3">
-        <v>-782900</v>
+        <v>-757300</v>
       </c>
       <c r="K94" s="3">
         <v>-798500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-467500</v>
+        <v>-452200</v>
       </c>
       <c r="E96" s="3">
-        <v>-383700</v>
+        <v>-371200</v>
       </c>
       <c r="F96" s="3">
-        <v>-454600</v>
+        <v>-439700</v>
       </c>
       <c r="G96" s="3">
-        <v>-352300</v>
+        <v>-340800</v>
       </c>
       <c r="H96" s="3">
-        <v>-351400</v>
+        <v>-339900</v>
       </c>
       <c r="I96" s="3">
-        <v>-293100</v>
+        <v>-283500</v>
       </c>
       <c r="J96" s="3">
-        <v>-321600</v>
+        <v>-311100</v>
       </c>
       <c r="K96" s="3">
         <v>-279000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-817100</v>
+        <v>-790300</v>
       </c>
       <c r="E100" s="3">
-        <v>-593500</v>
+        <v>-574100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1151700</v>
+        <v>-1114000</v>
       </c>
       <c r="G100" s="3">
-        <v>-652800</v>
+        <v>-631400</v>
       </c>
       <c r="H100" s="3">
-        <v>-378000</v>
+        <v>-365600</v>
       </c>
       <c r="I100" s="3">
-        <v>-351600</v>
+        <v>-340100</v>
       </c>
       <c r="J100" s="3">
-        <v>-371000</v>
+        <v>-358800</v>
       </c>
       <c r="K100" s="3">
         <v>-341100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>120000</v>
+        <v>116100</v>
       </c>
       <c r="E101" s="3">
-        <v>81000</v>
+        <v>78300</v>
       </c>
       <c r="F101" s="3">
-        <v>-37700</v>
+        <v>-36500</v>
       </c>
       <c r="G101" s="3">
-        <v>29500</v>
+        <v>28600</v>
       </c>
       <c r="H101" s="3">
-        <v>-40000</v>
+        <v>-38700</v>
       </c>
       <c r="I101" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="J101" s="3">
-        <v>-102400</v>
+        <v>-99000</v>
       </c>
       <c r="K101" s="3">
         <v>162300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200900</v>
+        <v>194300</v>
       </c>
       <c r="E102" s="3">
-        <v>-241100</v>
+        <v>-233200</v>
       </c>
       <c r="F102" s="3">
-        <v>-683100</v>
+        <v>-660700</v>
       </c>
       <c r="G102" s="3">
-        <v>644100</v>
+        <v>623000</v>
       </c>
       <c r="H102" s="3">
-        <v>357300</v>
+        <v>345600</v>
       </c>
       <c r="I102" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="J102" s="3">
-        <v>166100</v>
+        <v>160600</v>
       </c>
       <c r="K102" s="3">
         <v>138100</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13038100</v>
+        <v>13516200</v>
       </c>
       <c r="E8" s="3">
-        <v>10825700</v>
+        <v>11222700</v>
       </c>
       <c r="F8" s="3">
-        <v>11337300</v>
+        <v>11753000</v>
       </c>
       <c r="G8" s="3">
-        <v>11512100</v>
+        <v>11934300</v>
       </c>
       <c r="H8" s="3">
-        <v>11181200</v>
+        <v>11591200</v>
       </c>
       <c r="I8" s="3">
-        <v>10087300</v>
+        <v>10457200</v>
       </c>
       <c r="J8" s="3">
-        <v>10490600</v>
+        <v>10875300</v>
       </c>
       <c r="K8" s="3">
         <v>13021400</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9396300</v>
+        <v>9740900</v>
       </c>
       <c r="E9" s="3">
-        <v>7940400</v>
+        <v>8231600</v>
       </c>
       <c r="F9" s="3">
-        <v>8209400</v>
+        <v>8510400</v>
       </c>
       <c r="G9" s="3">
-        <v>8222200</v>
+        <v>8523700</v>
       </c>
       <c r="H9" s="3">
-        <v>17052300</v>
+        <v>17677600</v>
       </c>
       <c r="I9" s="3">
-        <v>7440800</v>
+        <v>7713600</v>
       </c>
       <c r="J9" s="3">
-        <v>7752700</v>
+        <v>8037000</v>
       </c>
       <c r="K9" s="3">
         <v>9699800</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3641700</v>
+        <v>3775300</v>
       </c>
       <c r="E10" s="3">
-        <v>2885300</v>
+        <v>2991100</v>
       </c>
       <c r="F10" s="3">
-        <v>3127900</v>
+        <v>3242600</v>
       </c>
       <c r="G10" s="3">
-        <v>3289900</v>
+        <v>3410600</v>
       </c>
       <c r="H10" s="3">
-        <v>-5871100</v>
+        <v>-6086400</v>
       </c>
       <c r="I10" s="3">
-        <v>2646600</v>
+        <v>2743600</v>
       </c>
       <c r="J10" s="3">
-        <v>2737900</v>
+        <v>2838300</v>
       </c>
       <c r="K10" s="3">
         <v>3321600</v>
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="E14" s="3">
-        <v>164400</v>
+        <v>170400</v>
       </c>
       <c r="F14" s="3">
-        <v>52300</v>
+        <v>54300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>100300</v>
+        <v>104000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>265300</v>
+        <v>275000</v>
       </c>
       <c r="E15" s="3">
-        <v>239900</v>
+        <v>248700</v>
       </c>
       <c r="F15" s="3">
-        <v>208700</v>
+        <v>216400</v>
       </c>
       <c r="G15" s="3">
-        <v>104600</v>
+        <v>108400</v>
       </c>
       <c r="H15" s="3">
-        <v>104600</v>
+        <v>108400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11982300</v>
+        <v>12421700</v>
       </c>
       <c r="E17" s="3">
-        <v>10324800</v>
+        <v>10703500</v>
       </c>
       <c r="F17" s="3">
-        <v>10626900</v>
+        <v>11016600</v>
       </c>
       <c r="G17" s="3">
-        <v>10839800</v>
+        <v>11237300</v>
       </c>
       <c r="H17" s="3">
-        <v>10538200</v>
+        <v>10924600</v>
       </c>
       <c r="I17" s="3">
-        <v>9346100</v>
+        <v>9688900</v>
       </c>
       <c r="J17" s="3">
-        <v>9833600</v>
+        <v>10194200</v>
       </c>
       <c r="K17" s="3">
         <v>12224400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1055800</v>
+        <v>1094500</v>
       </c>
       <c r="E18" s="3">
-        <v>500900</v>
+        <v>519200</v>
       </c>
       <c r="F18" s="3">
-        <v>710400</v>
+        <v>736400</v>
       </c>
       <c r="G18" s="3">
-        <v>672300</v>
+        <v>696900</v>
       </c>
       <c r="H18" s="3">
-        <v>643100</v>
+        <v>666600</v>
       </c>
       <c r="I18" s="3">
-        <v>741200</v>
+        <v>768400</v>
       </c>
       <c r="J18" s="3">
-        <v>656900</v>
+        <v>681000</v>
       </c>
       <c r="K18" s="3">
         <v>796900</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>373500</v>
+        <v>387200</v>
       </c>
       <c r="E20" s="3">
-        <v>347300</v>
+        <v>360000</v>
       </c>
       <c r="F20" s="3">
-        <v>355300</v>
+        <v>368400</v>
       </c>
       <c r="G20" s="3">
-        <v>333200</v>
+        <v>345400</v>
       </c>
       <c r="H20" s="3">
-        <v>283500</v>
+        <v>293800</v>
       </c>
       <c r="I20" s="3">
-        <v>242500</v>
+        <v>251400</v>
       </c>
       <c r="J20" s="3">
-        <v>388100</v>
+        <v>402300</v>
       </c>
       <c r="K20" s="3">
         <v>257200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2310100</v>
+        <v>2420600</v>
       </c>
       <c r="E21" s="3">
-        <v>1593000</v>
+        <v>1673200</v>
       </c>
       <c r="F21" s="3">
-        <v>1699200</v>
+        <v>1780000</v>
       </c>
       <c r="G21" s="3">
-        <v>1441900</v>
+        <v>1507500</v>
       </c>
       <c r="H21" s="3">
-        <v>1489100</v>
+        <v>1560100</v>
       </c>
       <c r="I21" s="3">
-        <v>1512700</v>
+        <v>1583600</v>
       </c>
       <c r="J21" s="3">
-        <v>1568500</v>
+        <v>1641400</v>
       </c>
       <c r="K21" s="3">
         <v>1684100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="E22" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="F22" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="G22" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I22" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="J22" s="3">
-        <v>12900</v>
+        <v>13300</v>
       </c>
       <c r="K22" s="3">
         <v>14700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1410500</v>
+        <v>1462300</v>
       </c>
       <c r="E23" s="3">
-        <v>833500</v>
+        <v>864100</v>
       </c>
       <c r="F23" s="3">
-        <v>1055200</v>
+        <v>1093900</v>
       </c>
       <c r="G23" s="3">
-        <v>996900</v>
+        <v>1033500</v>
       </c>
       <c r="H23" s="3">
-        <v>921600</v>
+        <v>955400</v>
       </c>
       <c r="I23" s="3">
-        <v>977300</v>
+        <v>1013200</v>
       </c>
       <c r="J23" s="3">
-        <v>1032200</v>
+        <v>1070000</v>
       </c>
       <c r="K23" s="3">
         <v>1039500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>332600</v>
+        <v>344800</v>
       </c>
       <c r="E24" s="3">
-        <v>171600</v>
+        <v>177900</v>
       </c>
       <c r="F24" s="3">
-        <v>262200</v>
+        <v>271800</v>
       </c>
       <c r="G24" s="3">
-        <v>182600</v>
+        <v>189300</v>
       </c>
       <c r="H24" s="3">
-        <v>338700</v>
+        <v>351100</v>
       </c>
       <c r="I24" s="3">
-        <v>201700</v>
+        <v>209000</v>
       </c>
       <c r="J24" s="3">
-        <v>222600</v>
+        <v>230700</v>
       </c>
       <c r="K24" s="3">
         <v>-29400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1077900</v>
+        <v>1117500</v>
       </c>
       <c r="E26" s="3">
-        <v>661900</v>
+        <v>686100</v>
       </c>
       <c r="F26" s="3">
-        <v>793000</v>
+        <v>822100</v>
       </c>
       <c r="G26" s="3">
-        <v>814300</v>
+        <v>844200</v>
       </c>
       <c r="H26" s="3">
-        <v>583000</v>
+        <v>604400</v>
       </c>
       <c r="I26" s="3">
-        <v>775700</v>
+        <v>804100</v>
       </c>
       <c r="J26" s="3">
-        <v>809600</v>
+        <v>839300</v>
       </c>
       <c r="K26" s="3">
         <v>1068800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1052300</v>
+        <v>1090800</v>
       </c>
       <c r="E27" s="3">
-        <v>639600</v>
+        <v>663100</v>
       </c>
       <c r="F27" s="3">
-        <v>763700</v>
+        <v>791700</v>
       </c>
       <c r="G27" s="3">
-        <v>731800</v>
+        <v>758600</v>
       </c>
       <c r="H27" s="3">
-        <v>561100</v>
+        <v>581700</v>
       </c>
       <c r="I27" s="3">
-        <v>736200</v>
+        <v>763200</v>
       </c>
       <c r="J27" s="3">
-        <v>773100</v>
+        <v>801500</v>
       </c>
       <c r="K27" s="3">
         <v>988400</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-373500</v>
+        <v>-387200</v>
       </c>
       <c r="E32" s="3">
-        <v>-347300</v>
+        <v>-360000</v>
       </c>
       <c r="F32" s="3">
-        <v>-355300</v>
+        <v>-368400</v>
       </c>
       <c r="G32" s="3">
-        <v>-333200</v>
+        <v>-345400</v>
       </c>
       <c r="H32" s="3">
-        <v>-283500</v>
+        <v>-293800</v>
       </c>
       <c r="I32" s="3">
-        <v>-242500</v>
+        <v>-251400</v>
       </c>
       <c r="J32" s="3">
-        <v>-388100</v>
+        <v>-402300</v>
       </c>
       <c r="K32" s="3">
         <v>-257200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1052300</v>
+        <v>1090800</v>
       </c>
       <c r="E33" s="3">
-        <v>639600</v>
+        <v>663100</v>
       </c>
       <c r="F33" s="3">
-        <v>763700</v>
+        <v>791700</v>
       </c>
       <c r="G33" s="3">
-        <v>731800</v>
+        <v>758600</v>
       </c>
       <c r="H33" s="3">
-        <v>561100</v>
+        <v>581700</v>
       </c>
       <c r="I33" s="3">
-        <v>736200</v>
+        <v>763200</v>
       </c>
       <c r="J33" s="3">
-        <v>773100</v>
+        <v>801500</v>
       </c>
       <c r="K33" s="3">
         <v>988400</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1052300</v>
+        <v>1090800</v>
       </c>
       <c r="E35" s="3">
-        <v>639600</v>
+        <v>663100</v>
       </c>
       <c r="F35" s="3">
-        <v>763700</v>
+        <v>791700</v>
       </c>
       <c r="G35" s="3">
-        <v>731800</v>
+        <v>758600</v>
       </c>
       <c r="H35" s="3">
-        <v>561100</v>
+        <v>581700</v>
       </c>
       <c r="I35" s="3">
-        <v>736200</v>
+        <v>763200</v>
       </c>
       <c r="J35" s="3">
-        <v>773100</v>
+        <v>801500</v>
       </c>
       <c r="K35" s="3">
         <v>988400</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2936200</v>
+        <v>3043800</v>
       </c>
       <c r="E41" s="3">
-        <v>2741900</v>
+        <v>2842400</v>
       </c>
       <c r="F41" s="3">
-        <v>2975100</v>
+        <v>3084200</v>
       </c>
       <c r="G41" s="3">
-        <v>3635900</v>
+        <v>3769200</v>
       </c>
       <c r="H41" s="3">
-        <v>3012800</v>
+        <v>3123300</v>
       </c>
       <c r="I41" s="3">
-        <v>2667200</v>
+        <v>2765000</v>
       </c>
       <c r="J41" s="3">
-        <v>2651800</v>
+        <v>2749000</v>
       </c>
       <c r="K41" s="3">
         <v>2997100</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>312500</v>
+        <v>324000</v>
       </c>
       <c r="E42" s="3">
-        <v>690300</v>
+        <v>715600</v>
       </c>
       <c r="F42" s="3">
-        <v>524900</v>
+        <v>544100</v>
       </c>
       <c r="G42" s="3">
-        <v>773400</v>
+        <v>801700</v>
       </c>
       <c r="H42" s="3">
-        <v>1757100</v>
+        <v>1821500</v>
       </c>
       <c r="I42" s="3">
-        <v>2108400</v>
+        <v>2185700</v>
       </c>
       <c r="J42" s="3">
-        <v>2234600</v>
+        <v>2316600</v>
       </c>
       <c r="K42" s="3">
         <v>2384900</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2687600</v>
+        <v>2786100</v>
       </c>
       <c r="E43" s="3">
-        <v>2407900</v>
+        <v>2496200</v>
       </c>
       <c r="F43" s="3">
-        <v>2384300</v>
+        <v>2471800</v>
       </c>
       <c r="G43" s="3">
-        <v>2533600</v>
+        <v>2626500</v>
       </c>
       <c r="H43" s="3">
-        <v>2713100</v>
+        <v>2812500</v>
       </c>
       <c r="I43" s="3">
-        <v>2228100</v>
+        <v>2309800</v>
       </c>
       <c r="J43" s="3">
-        <v>2013700</v>
+        <v>2087500</v>
       </c>
       <c r="K43" s="3">
         <v>2671300</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3208300</v>
+        <v>3325900</v>
       </c>
       <c r="E44" s="3">
-        <v>2448600</v>
+        <v>2538400</v>
       </c>
       <c r="F44" s="3">
-        <v>2441100</v>
+        <v>2530600</v>
       </c>
       <c r="G44" s="3">
-        <v>2438100</v>
+        <v>2527500</v>
       </c>
       <c r="H44" s="3">
-        <v>2587000</v>
+        <v>2681800</v>
       </c>
       <c r="I44" s="3">
-        <v>2347900</v>
+        <v>2434000</v>
       </c>
       <c r="J44" s="3">
-        <v>2324600</v>
+        <v>2409900</v>
       </c>
       <c r="K44" s="3">
         <v>3023900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>278900</v>
+        <v>289100</v>
       </c>
       <c r="E45" s="3">
-        <v>217700</v>
+        <v>225700</v>
       </c>
       <c r="F45" s="3">
-        <v>201700</v>
+        <v>209100</v>
       </c>
       <c r="G45" s="3">
-        <v>245600</v>
+        <v>254600</v>
       </c>
       <c r="H45" s="3">
-        <v>1570300</v>
+        <v>1627900</v>
       </c>
       <c r="I45" s="3">
-        <v>848800</v>
+        <v>879900</v>
       </c>
       <c r="J45" s="3">
-        <v>947700</v>
+        <v>982500</v>
       </c>
       <c r="K45" s="3">
         <v>1355600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9423500</v>
+        <v>9769100</v>
       </c>
       <c r="E46" s="3">
-        <v>8506300</v>
+        <v>8818300</v>
       </c>
       <c r="F46" s="3">
-        <v>8527200</v>
+        <v>8839900</v>
       </c>
       <c r="G46" s="3">
-        <v>9626500</v>
+        <v>9979600</v>
       </c>
       <c r="H46" s="3">
-        <v>10393200</v>
+        <v>10774400</v>
       </c>
       <c r="I46" s="3">
-        <v>10200400</v>
+        <v>10574400</v>
       </c>
       <c r="J46" s="3">
-        <v>10172500</v>
+        <v>10545500</v>
       </c>
       <c r="K46" s="3">
         <v>12432900</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10822700</v>
+        <v>11219500</v>
       </c>
       <c r="E47" s="3">
-        <v>9390900</v>
+        <v>9735300</v>
       </c>
       <c r="F47" s="3">
-        <v>8800400</v>
+        <v>9123100</v>
       </c>
       <c r="G47" s="3">
-        <v>6988500</v>
+        <v>7244700</v>
       </c>
       <c r="H47" s="3">
-        <v>15187400</v>
+        <v>15744300</v>
       </c>
       <c r="I47" s="3">
-        <v>8017100</v>
+        <v>8311100</v>
       </c>
       <c r="J47" s="3">
-        <v>8021600</v>
+        <v>8315800</v>
       </c>
       <c r="K47" s="3">
         <v>8970500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3919900</v>
+        <v>4063700</v>
       </c>
       <c r="E48" s="3">
-        <v>3387200</v>
+        <v>3511400</v>
       </c>
       <c r="F48" s="3">
-        <v>2965000</v>
+        <v>3073700</v>
       </c>
       <c r="G48" s="3">
-        <v>2423800</v>
+        <v>2512600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3">
-        <v>1890200</v>
+        <v>1959500</v>
       </c>
       <c r="J48" s="3">
-        <v>1875200</v>
+        <v>1944000</v>
       </c>
       <c r="K48" s="3">
         <v>2230500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2927200</v>
+        <v>3034600</v>
       </c>
       <c r="E49" s="3">
-        <v>2891500</v>
+        <v>2997500</v>
       </c>
       <c r="F49" s="3">
-        <v>2344900</v>
+        <v>2430900</v>
       </c>
       <c r="G49" s="3">
-        <v>1627200</v>
+        <v>1686800</v>
       </c>
       <c r="H49" s="3">
-        <v>3182800</v>
+        <v>3299500</v>
       </c>
       <c r="I49" s="3">
-        <v>1217400</v>
+        <v>1262000</v>
       </c>
       <c r="J49" s="3">
-        <v>1146500</v>
+        <v>1188500</v>
       </c>
       <c r="K49" s="3">
         <v>1354400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>680200</v>
+        <v>705100</v>
       </c>
       <c r="E52" s="3">
-        <v>592700</v>
+        <v>614500</v>
       </c>
       <c r="F52" s="3">
-        <v>406300</v>
+        <v>421200</v>
       </c>
       <c r="G52" s="3">
-        <v>380600</v>
+        <v>394500</v>
       </c>
       <c r="H52" s="3">
-        <v>969200</v>
+        <v>1004800</v>
       </c>
       <c r="I52" s="3">
-        <v>728200</v>
+        <v>754900</v>
       </c>
       <c r="J52" s="3">
-        <v>728100</v>
+        <v>754800</v>
       </c>
       <c r="K52" s="3">
         <v>782400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27773400</v>
+        <v>28791900</v>
       </c>
       <c r="E54" s="3">
-        <v>24768700</v>
+        <v>25677000</v>
       </c>
       <c r="F54" s="3">
-        <v>23043700</v>
+        <v>23888800</v>
       </c>
       <c r="G54" s="3">
-        <v>21046500</v>
+        <v>21818300</v>
       </c>
       <c r="H54" s="3">
-        <v>22183300</v>
+        <v>22996800</v>
       </c>
       <c r="I54" s="3">
-        <v>22053200</v>
+        <v>22862000</v>
       </c>
       <c r="J54" s="3">
-        <v>21943900</v>
+        <v>22748600</v>
       </c>
       <c r="K54" s="3">
         <v>25770700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1133700</v>
+        <v>1175200</v>
       </c>
       <c r="E57" s="3">
-        <v>991100</v>
+        <v>1027400</v>
       </c>
       <c r="F57" s="3">
-        <v>928100</v>
+        <v>962200</v>
       </c>
       <c r="G57" s="3">
-        <v>957600</v>
+        <v>992700</v>
       </c>
       <c r="H57" s="3">
-        <v>2123200</v>
+        <v>2201100</v>
       </c>
       <c r="I57" s="3">
-        <v>917900</v>
+        <v>951500</v>
       </c>
       <c r="J57" s="3">
-        <v>819900</v>
+        <v>850000</v>
       </c>
       <c r="K57" s="3">
         <v>1020600</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>685700</v>
+        <v>710800</v>
       </c>
       <c r="E58" s="3">
-        <v>396200</v>
+        <v>410700</v>
       </c>
       <c r="F58" s="3">
-        <v>358100</v>
+        <v>371200</v>
       </c>
       <c r="G58" s="3">
-        <v>29800</v>
+        <v>30900</v>
       </c>
       <c r="H58" s="3">
-        <v>88600</v>
+        <v>91900</v>
       </c>
       <c r="I58" s="3">
-        <v>59700</v>
+        <v>61900</v>
       </c>
       <c r="J58" s="3">
-        <v>103800</v>
+        <v>107600</v>
       </c>
       <c r="K58" s="3">
         <v>115800</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2004700</v>
+        <v>2078200</v>
       </c>
       <c r="E59" s="3">
-        <v>1610800</v>
+        <v>1669800</v>
       </c>
       <c r="F59" s="3">
-        <v>1532100</v>
+        <v>1588300</v>
       </c>
       <c r="G59" s="3">
-        <v>1669600</v>
+        <v>1730800</v>
       </c>
       <c r="H59" s="3">
-        <v>2376900</v>
+        <v>2464100</v>
       </c>
       <c r="I59" s="3">
-        <v>1607800</v>
+        <v>1666800</v>
       </c>
       <c r="J59" s="3">
-        <v>1684300</v>
+        <v>1746000</v>
       </c>
       <c r="K59" s="3">
         <v>1902400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3824000</v>
+        <v>3964200</v>
       </c>
       <c r="E60" s="3">
-        <v>2998000</v>
+        <v>3108000</v>
       </c>
       <c r="F60" s="3">
-        <v>2818300</v>
+        <v>2921700</v>
       </c>
       <c r="G60" s="3">
-        <v>2657000</v>
+        <v>2754400</v>
       </c>
       <c r="H60" s="3">
-        <v>2973500</v>
+        <v>3082500</v>
       </c>
       <c r="I60" s="3">
-        <v>2585400</v>
+        <v>2680300</v>
       </c>
       <c r="J60" s="3">
-        <v>2607900</v>
+        <v>2703600</v>
       </c>
       <c r="K60" s="3">
         <v>3038800</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>372600</v>
+        <v>386300</v>
       </c>
       <c r="E61" s="3">
-        <v>651800</v>
+        <v>675800</v>
       </c>
       <c r="F61" s="3">
-        <v>544600</v>
+        <v>564600</v>
       </c>
       <c r="G61" s="3">
-        <v>40100</v>
+        <v>41600</v>
       </c>
       <c r="H61" s="3">
-        <v>42300</v>
+        <v>43900</v>
       </c>
       <c r="I61" s="3">
-        <v>116300</v>
+        <v>120600</v>
       </c>
       <c r="J61" s="3">
-        <v>128400</v>
+        <v>133100</v>
       </c>
       <c r="K61" s="3">
         <v>152500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3028100</v>
+        <v>3139100</v>
       </c>
       <c r="E62" s="3">
-        <v>2570600</v>
+        <v>2664900</v>
       </c>
       <c r="F62" s="3">
-        <v>2280200</v>
+        <v>2363800</v>
       </c>
       <c r="G62" s="3">
-        <v>1601000</v>
+        <v>1659700</v>
       </c>
       <c r="H62" s="3">
-        <v>2260900</v>
+        <v>2343800</v>
       </c>
       <c r="I62" s="3">
-        <v>2201400</v>
+        <v>2282100</v>
       </c>
       <c r="J62" s="3">
-        <v>2377600</v>
+        <v>2464700</v>
       </c>
       <c r="K62" s="3">
         <v>2929400</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7414100</v>
+        <v>7686000</v>
       </c>
       <c r="E66" s="3">
-        <v>6395600</v>
+        <v>6630100</v>
       </c>
       <c r="F66" s="3">
-        <v>5799900</v>
+        <v>6012600</v>
       </c>
       <c r="G66" s="3">
-        <v>4981100</v>
+        <v>5163800</v>
       </c>
       <c r="H66" s="3">
-        <v>5693400</v>
+        <v>5902200</v>
       </c>
       <c r="I66" s="3">
-        <v>5503600</v>
+        <v>5705400</v>
       </c>
       <c r="J66" s="3">
-        <v>5748500</v>
+        <v>5959300</v>
       </c>
       <c r="K66" s="3">
         <v>6874000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13088900</v>
+        <v>13568800</v>
       </c>
       <c r="E72" s="3">
-        <v>12409300</v>
+        <v>12864400</v>
       </c>
       <c r="F72" s="3">
-        <v>11958500</v>
+        <v>12397000</v>
       </c>
       <c r="G72" s="3">
-        <v>11618400</v>
+        <v>12044500</v>
       </c>
       <c r="H72" s="3">
-        <v>11185500</v>
+        <v>11595700</v>
       </c>
       <c r="I72" s="3">
-        <v>11614200</v>
+        <v>12040200</v>
       </c>
       <c r="J72" s="3">
-        <v>11138400</v>
+        <v>11546900</v>
       </c>
       <c r="K72" s="3">
         <v>12814700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20359300</v>
+        <v>21105900</v>
       </c>
       <c r="E76" s="3">
-        <v>18373100</v>
+        <v>19046900</v>
       </c>
       <c r="F76" s="3">
-        <v>17243800</v>
+        <v>17876200</v>
       </c>
       <c r="G76" s="3">
-        <v>16065400</v>
+        <v>16654500</v>
       </c>
       <c r="H76" s="3">
-        <v>16489900</v>
+        <v>17094600</v>
       </c>
       <c r="I76" s="3">
-        <v>16549600</v>
+        <v>17156500</v>
       </c>
       <c r="J76" s="3">
-        <v>16195400</v>
+        <v>16789300</v>
       </c>
       <c r="K76" s="3">
         <v>18896700</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1052300</v>
+        <v>1090800</v>
       </c>
       <c r="E81" s="3">
-        <v>639600</v>
+        <v>663100</v>
       </c>
       <c r="F81" s="3">
-        <v>763700</v>
+        <v>791700</v>
       </c>
       <c r="G81" s="3">
-        <v>731800</v>
+        <v>758600</v>
       </c>
       <c r="H81" s="3">
-        <v>561100</v>
+        <v>581700</v>
       </c>
       <c r="I81" s="3">
-        <v>736200</v>
+        <v>763200</v>
       </c>
       <c r="J81" s="3">
-        <v>773100</v>
+        <v>801500</v>
       </c>
       <c r="K81" s="3">
         <v>988400</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>914300</v>
+        <v>947900</v>
       </c>
       <c r="E83" s="3">
-        <v>773200</v>
+        <v>801600</v>
       </c>
       <c r="F83" s="3">
-        <v>657600</v>
+        <v>681700</v>
       </c>
       <c r="G83" s="3">
-        <v>453000</v>
+        <v>469600</v>
       </c>
       <c r="H83" s="3">
-        <v>584000</v>
+        <v>605400</v>
       </c>
       <c r="I83" s="3">
-        <v>549100</v>
+        <v>569200</v>
       </c>
       <c r="J83" s="3">
-        <v>543400</v>
+        <v>563400</v>
       </c>
       <c r="K83" s="3">
         <v>622600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1431900</v>
+        <v>1484400</v>
       </c>
       <c r="E89" s="3">
-        <v>1565600</v>
+        <v>1623000</v>
       </c>
       <c r="F89" s="3">
-        <v>1521700</v>
+        <v>1577500</v>
       </c>
       <c r="G89" s="3">
-        <v>1560000</v>
+        <v>1617200</v>
       </c>
       <c r="H89" s="3">
-        <v>1126600</v>
+        <v>1168000</v>
       </c>
       <c r="I89" s="3">
-        <v>1164400</v>
+        <v>1207100</v>
       </c>
       <c r="J89" s="3">
-        <v>1375700</v>
+        <v>1426200</v>
       </c>
       <c r="K89" s="3">
         <v>1115400</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-953500</v>
+        <v>-988500</v>
       </c>
       <c r="E91" s="3">
-        <v>-870900</v>
+        <v>-902900</v>
       </c>
       <c r="F91" s="3">
-        <v>-759600</v>
+        <v>-787400</v>
       </c>
       <c r="G91" s="3">
-        <v>-787300</v>
+        <v>-816100</v>
       </c>
       <c r="H91" s="3">
-        <v>-596900</v>
+        <v>-618800</v>
       </c>
       <c r="I91" s="3">
-        <v>-474300</v>
+        <v>-491700</v>
       </c>
       <c r="J91" s="3">
-        <v>-468700</v>
+        <v>-485800</v>
       </c>
       <c r="K91" s="3">
         <v>-486700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-563400</v>
+        <v>-584000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1303100</v>
+        <v>-1350900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1032000</v>
+        <v>-1069800</v>
       </c>
       <c r="G94" s="3">
-        <v>-334100</v>
+        <v>-346300</v>
       </c>
       <c r="H94" s="3">
-        <v>-376700</v>
+        <v>-390500</v>
       </c>
       <c r="I94" s="3">
-        <v>-794700</v>
+        <v>-823900</v>
       </c>
       <c r="J94" s="3">
-        <v>-757300</v>
+        <v>-785000</v>
       </c>
       <c r="K94" s="3">
         <v>-798500</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-452200</v>
+        <v>-468700</v>
       </c>
       <c r="E96" s="3">
-        <v>-371200</v>
+        <v>-384800</v>
       </c>
       <c r="F96" s="3">
-        <v>-439700</v>
+        <v>-455800</v>
       </c>
       <c r="G96" s="3">
-        <v>-340800</v>
+        <v>-353300</v>
       </c>
       <c r="H96" s="3">
-        <v>-339900</v>
+        <v>-352300</v>
       </c>
       <c r="I96" s="3">
-        <v>-283500</v>
+        <v>-293900</v>
       </c>
       <c r="J96" s="3">
-        <v>-311100</v>
+        <v>-322500</v>
       </c>
       <c r="K96" s="3">
         <v>-279000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-790300</v>
+        <v>-819300</v>
       </c>
       <c r="E100" s="3">
-        <v>-574100</v>
+        <v>-595100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1114000</v>
+        <v>-1154900</v>
       </c>
       <c r="G100" s="3">
-        <v>-631400</v>
+        <v>-654600</v>
       </c>
       <c r="H100" s="3">
-        <v>-365600</v>
+        <v>-379100</v>
       </c>
       <c r="I100" s="3">
-        <v>-340100</v>
+        <v>-352600</v>
       </c>
       <c r="J100" s="3">
-        <v>-358800</v>
+        <v>-372000</v>
       </c>
       <c r="K100" s="3">
         <v>-341100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>116100</v>
+        <v>120400</v>
       </c>
       <c r="E101" s="3">
-        <v>78300</v>
+        <v>81200</v>
       </c>
       <c r="F101" s="3">
-        <v>-36500</v>
+        <v>-37800</v>
       </c>
       <c r="G101" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="H101" s="3">
-        <v>-38700</v>
+        <v>-40100</v>
       </c>
       <c r="I101" s="3">
-        <v>-14100</v>
+        <v>-14700</v>
       </c>
       <c r="J101" s="3">
-        <v>-99000</v>
+        <v>-102700</v>
       </c>
       <c r="K101" s="3">
         <v>162300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>194300</v>
+        <v>201400</v>
       </c>
       <c r="E102" s="3">
-        <v>-233200</v>
+        <v>-241800</v>
       </c>
       <c r="F102" s="3">
-        <v>-660700</v>
+        <v>-685000</v>
       </c>
       <c r="G102" s="3">
-        <v>623000</v>
+        <v>645900</v>
       </c>
       <c r="H102" s="3">
-        <v>345600</v>
+        <v>358300</v>
       </c>
       <c r="I102" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="J102" s="3">
-        <v>160600</v>
+        <v>166500</v>
       </c>
       <c r="K102" s="3">
         <v>138100</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13516200</v>
+        <v>14602600</v>
       </c>
       <c r="E8" s="3">
-        <v>11222700</v>
+        <v>13258700</v>
       </c>
       <c r="F8" s="3">
-        <v>11753000</v>
+        <v>11008900</v>
       </c>
       <c r="G8" s="3">
-        <v>11934300</v>
+        <v>11529200</v>
       </c>
       <c r="H8" s="3">
-        <v>11591200</v>
+        <v>11706900</v>
       </c>
       <c r="I8" s="3">
-        <v>10457200</v>
+        <v>11370500</v>
       </c>
       <c r="J8" s="3">
+        <v>10258100</v>
+      </c>
+      <c r="K8" s="3">
         <v>10875300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13021400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13257900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11635700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10765500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9740900</v>
+        <v>10529400</v>
       </c>
       <c r="E9" s="3">
-        <v>8231600</v>
+        <v>9555400</v>
       </c>
       <c r="F9" s="3">
-        <v>8510400</v>
+        <v>8074800</v>
       </c>
       <c r="G9" s="3">
-        <v>8523700</v>
+        <v>8348300</v>
       </c>
       <c r="H9" s="3">
-        <v>17677600</v>
+        <v>8361300</v>
       </c>
       <c r="I9" s="3">
-        <v>7713600</v>
+        <v>17340900</v>
       </c>
       <c r="J9" s="3">
+        <v>7566700</v>
+      </c>
+      <c r="K9" s="3">
         <v>8037000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9699800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9787100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8656900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7866100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3775300</v>
+        <v>4073200</v>
       </c>
       <c r="E10" s="3">
-        <v>2991100</v>
+        <v>3703400</v>
       </c>
       <c r="F10" s="3">
-        <v>3242600</v>
+        <v>2934100</v>
       </c>
       <c r="G10" s="3">
-        <v>3410600</v>
+        <v>3180900</v>
       </c>
       <c r="H10" s="3">
-        <v>-6086400</v>
+        <v>3345600</v>
       </c>
       <c r="I10" s="3">
-        <v>2743600</v>
+        <v>-5970500</v>
       </c>
       <c r="J10" s="3">
+        <v>2691400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2838300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3321600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3470800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2978800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2899400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,21 +890,24 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3">
         <v>471600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>447300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>431900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>411900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +944,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>17600</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>170400</v>
+        <v>17300</v>
       </c>
       <c r="F14" s="3">
-        <v>54300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>167200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>53200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,11 +971,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>104000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -964,32 +983,35 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>11400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>275000</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>248700</v>
+        <v>269800</v>
       </c>
       <c r="F15" s="3">
-        <v>216400</v>
+        <v>244000</v>
       </c>
       <c r="G15" s="3">
-        <v>108400</v>
+        <v>212200</v>
       </c>
       <c r="H15" s="3">
-        <v>108400</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>106400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>106300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -997,8 +1019,8 @@
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12421700</v>
+        <v>13676000</v>
       </c>
       <c r="E17" s="3">
-        <v>10703500</v>
+        <v>12185100</v>
       </c>
       <c r="F17" s="3">
-        <v>11016600</v>
+        <v>10499600</v>
       </c>
       <c r="G17" s="3">
-        <v>11237300</v>
+        <v>10806800</v>
       </c>
       <c r="H17" s="3">
-        <v>10924600</v>
+        <v>11023300</v>
       </c>
       <c r="I17" s="3">
-        <v>9688900</v>
+        <v>10716500</v>
       </c>
       <c r="J17" s="3">
+        <v>9504300</v>
+      </c>
+      <c r="K17" s="3">
         <v>10194200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12224400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12153400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10936400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9893900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1094500</v>
+        <v>926600</v>
       </c>
       <c r="E18" s="3">
-        <v>519200</v>
+        <v>1073600</v>
       </c>
       <c r="F18" s="3">
-        <v>736400</v>
+        <v>509300</v>
       </c>
       <c r="G18" s="3">
-        <v>696900</v>
+        <v>722400</v>
       </c>
       <c r="H18" s="3">
-        <v>666600</v>
+        <v>683700</v>
       </c>
       <c r="I18" s="3">
-        <v>768400</v>
+        <v>653900</v>
       </c>
       <c r="J18" s="3">
+        <v>753700</v>
+      </c>
+      <c r="K18" s="3">
         <v>681000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>796900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1104500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>699300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>871600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>387200</v>
+        <v>343700</v>
       </c>
       <c r="E20" s="3">
-        <v>360000</v>
+        <v>379900</v>
       </c>
       <c r="F20" s="3">
-        <v>368400</v>
+        <v>353100</v>
       </c>
       <c r="G20" s="3">
-        <v>345400</v>
+        <v>361400</v>
       </c>
       <c r="H20" s="3">
-        <v>293800</v>
+        <v>338800</v>
       </c>
       <c r="I20" s="3">
-        <v>251400</v>
+        <v>288200</v>
       </c>
       <c r="J20" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K20" s="3">
         <v>402300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>257200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>253100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>239300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>185500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2420600</v>
+        <v>2356500</v>
       </c>
       <c r="E21" s="3">
-        <v>1673200</v>
+        <v>2389800</v>
       </c>
       <c r="F21" s="3">
-        <v>1780000</v>
+        <v>1654200</v>
       </c>
       <c r="G21" s="3">
-        <v>1507500</v>
+        <v>1757100</v>
       </c>
       <c r="H21" s="3">
-        <v>1560100</v>
+        <v>1486300</v>
       </c>
       <c r="I21" s="3">
-        <v>1583600</v>
+        <v>1540200</v>
       </c>
       <c r="J21" s="3">
+        <v>1562600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1641400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1684100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2058200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1609000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1718800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>19500</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>15200</v>
+        <v>19100</v>
       </c>
       <c r="F22" s="3">
-        <v>10900</v>
+        <v>14900</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>10700</v>
       </c>
       <c r="H22" s="3">
-        <v>5000</v>
+        <v>8700</v>
       </c>
       <c r="I22" s="3">
-        <v>6600</v>
+        <v>4900</v>
       </c>
       <c r="J22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K22" s="3">
         <v>13300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>14700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18500</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1462300</v>
+        <v>1270300</v>
       </c>
       <c r="E23" s="3">
-        <v>864100</v>
+        <v>1434400</v>
       </c>
       <c r="F23" s="3">
-        <v>1093900</v>
+        <v>847600</v>
       </c>
       <c r="G23" s="3">
-        <v>1033500</v>
+        <v>1073000</v>
       </c>
       <c r="H23" s="3">
-        <v>955400</v>
+        <v>1013800</v>
       </c>
       <c r="I23" s="3">
-        <v>1013200</v>
+        <v>937200</v>
       </c>
       <c r="J23" s="3">
+        <v>993900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1070000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1039500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1339800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>921400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1038600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>344800</v>
+        <v>326100</v>
       </c>
       <c r="E24" s="3">
-        <v>177900</v>
+        <v>338200</v>
       </c>
       <c r="F24" s="3">
-        <v>271800</v>
+        <v>174500</v>
       </c>
       <c r="G24" s="3">
-        <v>189300</v>
+        <v>266600</v>
       </c>
       <c r="H24" s="3">
-        <v>351100</v>
+        <v>185700</v>
       </c>
       <c r="I24" s="3">
-        <v>209000</v>
+        <v>344400</v>
       </c>
       <c r="J24" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K24" s="3">
         <v>230700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>469500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>309200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>272400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1117500</v>
+        <v>944300</v>
       </c>
       <c r="E26" s="3">
-        <v>686100</v>
+        <v>1096200</v>
       </c>
       <c r="F26" s="3">
-        <v>822100</v>
+        <v>673100</v>
       </c>
       <c r="G26" s="3">
-        <v>844200</v>
+        <v>806400</v>
       </c>
       <c r="H26" s="3">
-        <v>604400</v>
+        <v>828100</v>
       </c>
       <c r="I26" s="3">
-        <v>804100</v>
+        <v>592800</v>
       </c>
       <c r="J26" s="3">
+        <v>788800</v>
+      </c>
+      <c r="K26" s="3">
         <v>839300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1068800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>870300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>612200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>766200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1090800</v>
+        <v>922800</v>
       </c>
       <c r="E27" s="3">
-        <v>663100</v>
+        <v>1070100</v>
       </c>
       <c r="F27" s="3">
-        <v>791700</v>
+        <v>650400</v>
       </c>
       <c r="G27" s="3">
-        <v>758600</v>
+        <v>776700</v>
       </c>
       <c r="H27" s="3">
-        <v>581700</v>
+        <v>744100</v>
       </c>
       <c r="I27" s="3">
-        <v>763200</v>
+        <v>570600</v>
       </c>
       <c r="J27" s="3">
+        <v>748700</v>
+      </c>
+      <c r="K27" s="3">
         <v>801500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>988400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>813000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>604200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>717400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-387200</v>
+        <v>-343700</v>
       </c>
       <c r="E32" s="3">
-        <v>-360000</v>
+        <v>-379900</v>
       </c>
       <c r="F32" s="3">
-        <v>-368400</v>
+        <v>-353100</v>
       </c>
       <c r="G32" s="3">
-        <v>-345400</v>
+        <v>-361400</v>
       </c>
       <c r="H32" s="3">
-        <v>-293800</v>
+        <v>-338800</v>
       </c>
       <c r="I32" s="3">
-        <v>-251400</v>
+        <v>-288200</v>
       </c>
       <c r="J32" s="3">
+        <v>-246600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-402300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-257200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-253100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-239300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-185500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1090800</v>
+        <v>922800</v>
       </c>
       <c r="E33" s="3">
-        <v>663100</v>
+        <v>1070100</v>
       </c>
       <c r="F33" s="3">
-        <v>791700</v>
+        <v>650400</v>
       </c>
       <c r="G33" s="3">
-        <v>758600</v>
+        <v>776700</v>
       </c>
       <c r="H33" s="3">
-        <v>581700</v>
+        <v>744100</v>
       </c>
       <c r="I33" s="3">
-        <v>763200</v>
+        <v>570600</v>
       </c>
       <c r="J33" s="3">
+        <v>748700</v>
+      </c>
+      <c r="K33" s="3">
         <v>801500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>988400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>813000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>604200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>717400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1090800</v>
+        <v>922800</v>
       </c>
       <c r="E35" s="3">
-        <v>663100</v>
+        <v>1070100</v>
       </c>
       <c r="F35" s="3">
-        <v>791700</v>
+        <v>650400</v>
       </c>
       <c r="G35" s="3">
-        <v>758600</v>
+        <v>776700</v>
       </c>
       <c r="H35" s="3">
-        <v>581700</v>
+        <v>744100</v>
       </c>
       <c r="I35" s="3">
-        <v>763200</v>
+        <v>570600</v>
       </c>
       <c r="J35" s="3">
+        <v>748700</v>
+      </c>
+      <c r="K35" s="3">
         <v>801500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>988400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>813000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>604200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>717400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3043800</v>
+        <v>2692900</v>
       </c>
       <c r="E41" s="3">
-        <v>2842400</v>
+        <v>2985900</v>
       </c>
       <c r="F41" s="3">
-        <v>3084200</v>
+        <v>2788300</v>
       </c>
       <c r="G41" s="3">
-        <v>3769200</v>
+        <v>3025500</v>
       </c>
       <c r="H41" s="3">
-        <v>3123300</v>
+        <v>3697400</v>
       </c>
       <c r="I41" s="3">
-        <v>2765000</v>
+        <v>3063800</v>
       </c>
       <c r="J41" s="3">
+        <v>2712400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2749000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2997100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3070200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2776600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2470500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>324000</v>
+        <v>168700</v>
       </c>
       <c r="E42" s="3">
-        <v>715600</v>
+        <v>317800</v>
       </c>
       <c r="F42" s="3">
-        <v>544100</v>
+        <v>701900</v>
       </c>
       <c r="G42" s="3">
-        <v>801700</v>
+        <v>533800</v>
       </c>
       <c r="H42" s="3">
-        <v>1821500</v>
+        <v>786500</v>
       </c>
       <c r="I42" s="3">
-        <v>2185700</v>
+        <v>1786800</v>
       </c>
       <c r="J42" s="3">
+        <v>2144000</v>
+      </c>
+      <c r="K42" s="3">
         <v>2316600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2384900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2530300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2033800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1861700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2786100</v>
+        <v>2746800</v>
       </c>
       <c r="E43" s="3">
-        <v>2496200</v>
+        <v>2733100</v>
       </c>
       <c r="F43" s="3">
-        <v>2471800</v>
+        <v>2448700</v>
       </c>
       <c r="G43" s="3">
-        <v>2626500</v>
+        <v>2424700</v>
       </c>
       <c r="H43" s="3">
-        <v>2812500</v>
+        <v>2576500</v>
       </c>
       <c r="I43" s="3">
-        <v>2309800</v>
+        <v>2759000</v>
       </c>
       <c r="J43" s="3">
+        <v>2265800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2087500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2671300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2517600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2647800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2172700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3325900</v>
+        <v>3889400</v>
       </c>
       <c r="E44" s="3">
-        <v>2538400</v>
+        <v>3262600</v>
       </c>
       <c r="F44" s="3">
-        <v>2530600</v>
+        <v>2490000</v>
       </c>
       <c r="G44" s="3">
-        <v>2527500</v>
+        <v>2482400</v>
       </c>
       <c r="H44" s="3">
-        <v>2681800</v>
+        <v>2479400</v>
       </c>
       <c r="I44" s="3">
-        <v>2434000</v>
+        <v>2630700</v>
       </c>
       <c r="J44" s="3">
+        <v>2387600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2409900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3023900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3075900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2694700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2443800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>289100</v>
+        <v>288400</v>
       </c>
       <c r="E45" s="3">
-        <v>225700</v>
+        <v>283600</v>
       </c>
       <c r="F45" s="3">
-        <v>209100</v>
+        <v>221400</v>
       </c>
       <c r="G45" s="3">
-        <v>254600</v>
+        <v>205200</v>
       </c>
       <c r="H45" s="3">
-        <v>1627900</v>
+        <v>249700</v>
       </c>
       <c r="I45" s="3">
-        <v>879900</v>
+        <v>1596900</v>
       </c>
       <c r="J45" s="3">
+        <v>863100</v>
+      </c>
+      <c r="K45" s="3">
         <v>982500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1355600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1331700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1376800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1398400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9769100</v>
+        <v>9786200</v>
       </c>
       <c r="E46" s="3">
-        <v>8818300</v>
+        <v>9583000</v>
       </c>
       <c r="F46" s="3">
-        <v>8839900</v>
+        <v>8650300</v>
       </c>
       <c r="G46" s="3">
-        <v>9979600</v>
+        <v>8671500</v>
       </c>
       <c r="H46" s="3">
-        <v>10774400</v>
+        <v>9789500</v>
       </c>
       <c r="I46" s="3">
-        <v>10574400</v>
+        <v>10569100</v>
       </c>
       <c r="J46" s="3">
+        <v>10373000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10545500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12432900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12525700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11529600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10347200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11219500</v>
+        <v>11302200</v>
       </c>
       <c r="E47" s="3">
-        <v>9735300</v>
+        <v>11005800</v>
       </c>
       <c r="F47" s="3">
-        <v>9123100</v>
+        <v>9549900</v>
       </c>
       <c r="G47" s="3">
-        <v>7244700</v>
+        <v>8949300</v>
       </c>
       <c r="H47" s="3">
-        <v>15744300</v>
+        <v>7106700</v>
       </c>
       <c r="I47" s="3">
-        <v>8311100</v>
+        <v>15444400</v>
       </c>
       <c r="J47" s="3">
+        <v>8152800</v>
+      </c>
+      <c r="K47" s="3">
         <v>8315800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8970500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6762000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4604000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3384400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4063700</v>
+        <v>4687200</v>
       </c>
       <c r="E48" s="3">
-        <v>3511400</v>
+        <v>3986300</v>
       </c>
       <c r="F48" s="3">
-        <v>3073700</v>
+        <v>3444600</v>
       </c>
       <c r="G48" s="3">
-        <v>2512600</v>
-      </c>
-      <c r="H48" s="3" t="s">
+        <v>3015200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2464800</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="3">
-        <v>1959500</v>
-      </c>
       <c r="J48" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1944000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2230500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2478300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2443600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2355300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3034600</v>
+        <v>3020500</v>
       </c>
       <c r="E49" s="3">
-        <v>2997500</v>
+        <v>2976700</v>
       </c>
       <c r="F49" s="3">
-        <v>2430900</v>
+        <v>2940400</v>
       </c>
       <c r="G49" s="3">
-        <v>1686800</v>
+        <v>2384600</v>
       </c>
       <c r="H49" s="3">
-        <v>3299500</v>
+        <v>1654700</v>
       </c>
       <c r="I49" s="3">
-        <v>1262000</v>
+        <v>3236600</v>
       </c>
       <c r="J49" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1188500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1354400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1611800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1436300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1253800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>705100</v>
+        <v>721000</v>
       </c>
       <c r="E52" s="3">
-        <v>614500</v>
+        <v>691700</v>
       </c>
       <c r="F52" s="3">
-        <v>421200</v>
+        <v>602800</v>
       </c>
       <c r="G52" s="3">
-        <v>394500</v>
+        <v>413100</v>
       </c>
       <c r="H52" s="3">
-        <v>1004800</v>
+        <v>387000</v>
       </c>
       <c r="I52" s="3">
-        <v>754900</v>
+        <v>985600</v>
       </c>
       <c r="J52" s="3">
+        <v>740500</v>
+      </c>
+      <c r="K52" s="3">
         <v>754800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>782400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>774400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>737600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>686100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28791900</v>
+        <v>29517200</v>
       </c>
       <c r="E54" s="3">
-        <v>25677000</v>
+        <v>28243500</v>
       </c>
       <c r="F54" s="3">
-        <v>23888800</v>
+        <v>25187900</v>
       </c>
       <c r="G54" s="3">
-        <v>21818300</v>
+        <v>23433800</v>
       </c>
       <c r="H54" s="3">
-        <v>22996800</v>
+        <v>21402700</v>
       </c>
       <c r="I54" s="3">
-        <v>22862000</v>
+        <v>22558700</v>
       </c>
       <c r="J54" s="3">
+        <v>22426500</v>
+      </c>
+      <c r="K54" s="3">
         <v>22748600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25770700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24152200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>20751100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18026700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1175200</v>
+        <v>1469900</v>
       </c>
       <c r="E57" s="3">
-        <v>1027400</v>
+        <v>1152900</v>
       </c>
       <c r="F57" s="3">
-        <v>962200</v>
+        <v>1007800</v>
       </c>
       <c r="G57" s="3">
-        <v>992700</v>
+        <v>943800</v>
       </c>
       <c r="H57" s="3">
-        <v>2201100</v>
+        <v>973800</v>
       </c>
       <c r="I57" s="3">
-        <v>951500</v>
+        <v>2159200</v>
       </c>
       <c r="J57" s="3">
+        <v>933400</v>
+      </c>
+      <c r="K57" s="3">
         <v>850000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1020600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1121400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1011300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1479800</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>710800</v>
+        <v>356300</v>
       </c>
       <c r="E58" s="3">
-        <v>410700</v>
+        <v>697300</v>
       </c>
       <c r="F58" s="3">
-        <v>371200</v>
+        <v>402900</v>
       </c>
       <c r="G58" s="3">
-        <v>30900</v>
+        <v>364100</v>
       </c>
       <c r="H58" s="3">
-        <v>91900</v>
+        <v>30300</v>
       </c>
       <c r="I58" s="3">
-        <v>61900</v>
+        <v>90100</v>
       </c>
       <c r="J58" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K58" s="3">
         <v>107600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>115800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>150400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>117700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>132600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2078200</v>
+        <v>1498200</v>
       </c>
       <c r="E59" s="3">
-        <v>1669800</v>
+        <v>2038600</v>
       </c>
       <c r="F59" s="3">
-        <v>1588300</v>
+        <v>1638000</v>
       </c>
       <c r="G59" s="3">
-        <v>1730800</v>
+        <v>1558100</v>
       </c>
       <c r="H59" s="3">
-        <v>2464100</v>
+        <v>1697800</v>
       </c>
       <c r="I59" s="3">
-        <v>1666800</v>
+        <v>2417200</v>
       </c>
       <c r="J59" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1746000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1902400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1727600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1840100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1109100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3964200</v>
+        <v>3324300</v>
       </c>
       <c r="E60" s="3">
-        <v>3108000</v>
+        <v>3888700</v>
       </c>
       <c r="F60" s="3">
-        <v>2921700</v>
+        <v>3048800</v>
       </c>
       <c r="G60" s="3">
-        <v>2754400</v>
+        <v>2866000</v>
       </c>
       <c r="H60" s="3">
-        <v>3082500</v>
+        <v>2701900</v>
       </c>
       <c r="I60" s="3">
-        <v>2680300</v>
+        <v>3023800</v>
       </c>
       <c r="J60" s="3">
+        <v>2629200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2703600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3038800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2999500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2969100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2721500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>386300</v>
+        <v>1156400</v>
       </c>
       <c r="E61" s="3">
-        <v>675800</v>
+        <v>378900</v>
       </c>
       <c r="F61" s="3">
-        <v>564600</v>
+        <v>662900</v>
       </c>
       <c r="G61" s="3">
-        <v>41600</v>
+        <v>553900</v>
       </c>
       <c r="H61" s="3">
-        <v>43900</v>
+        <v>40800</v>
       </c>
       <c r="I61" s="3">
-        <v>120600</v>
+        <v>43000</v>
       </c>
       <c r="J61" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K61" s="3">
         <v>133100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>152500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>178300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>189600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>191600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3139100</v>
+        <v>3054400</v>
       </c>
       <c r="E62" s="3">
-        <v>2664900</v>
+        <v>3079300</v>
       </c>
       <c r="F62" s="3">
-        <v>2363800</v>
+        <v>2614100</v>
       </c>
       <c r="G62" s="3">
-        <v>1659700</v>
+        <v>2318800</v>
       </c>
       <c r="H62" s="3">
-        <v>2343800</v>
+        <v>1628100</v>
       </c>
       <c r="I62" s="3">
-        <v>2282100</v>
+        <v>2299100</v>
       </c>
       <c r="J62" s="3">
+        <v>2238600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2464700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2929400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2771500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2003700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1244100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7686000</v>
+        <v>7715800</v>
       </c>
       <c r="E66" s="3">
-        <v>6630100</v>
+        <v>7539600</v>
       </c>
       <c r="F66" s="3">
-        <v>6012600</v>
+        <v>6503800</v>
       </c>
       <c r="G66" s="3">
-        <v>5163800</v>
+        <v>5898100</v>
       </c>
       <c r="H66" s="3">
-        <v>5902200</v>
+        <v>5065400</v>
       </c>
       <c r="I66" s="3">
-        <v>5705400</v>
+        <v>5789800</v>
       </c>
       <c r="J66" s="3">
+        <v>5596800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5959300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6874000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6655800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5787600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4742400</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13568800</v>
+        <v>13788200</v>
       </c>
       <c r="E72" s="3">
-        <v>12864400</v>
+        <v>13310400</v>
       </c>
       <c r="F72" s="3">
-        <v>12397000</v>
+        <v>12619400</v>
       </c>
       <c r="G72" s="3">
-        <v>12044500</v>
+        <v>12160900</v>
       </c>
       <c r="H72" s="3">
-        <v>11595700</v>
+        <v>11815100</v>
       </c>
       <c r="I72" s="3">
-        <v>12040200</v>
+        <v>11374800</v>
       </c>
       <c r="J72" s="3">
+        <v>11810800</v>
+      </c>
+      <c r="K72" s="3">
         <v>11546900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12814700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12968600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12439800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11969400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21105900</v>
+        <v>21801400</v>
       </c>
       <c r="E76" s="3">
-        <v>19046900</v>
+        <v>20703900</v>
       </c>
       <c r="F76" s="3">
-        <v>17876200</v>
+        <v>18684100</v>
       </c>
       <c r="G76" s="3">
-        <v>16654500</v>
+        <v>17535700</v>
       </c>
       <c r="H76" s="3">
-        <v>17094600</v>
+        <v>16337300</v>
       </c>
       <c r="I76" s="3">
-        <v>17156500</v>
+        <v>16769000</v>
       </c>
       <c r="J76" s="3">
+        <v>16829700</v>
+      </c>
+      <c r="K76" s="3">
         <v>16789300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18896700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17496400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14963600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13284300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1090800</v>
+        <v>922800</v>
       </c>
       <c r="E81" s="3">
-        <v>663100</v>
+        <v>1070100</v>
       </c>
       <c r="F81" s="3">
-        <v>791700</v>
+        <v>650400</v>
       </c>
       <c r="G81" s="3">
-        <v>758600</v>
+        <v>776700</v>
       </c>
       <c r="H81" s="3">
-        <v>581700</v>
+        <v>744100</v>
       </c>
       <c r="I81" s="3">
-        <v>763200</v>
+        <v>570600</v>
       </c>
       <c r="J81" s="3">
+        <v>748700</v>
+      </c>
+      <c r="K81" s="3">
         <v>801500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>988400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>813000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>604200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>717400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>947900</v>
+        <v>1078600</v>
       </c>
       <c r="E83" s="3">
-        <v>801600</v>
+        <v>929800</v>
       </c>
       <c r="F83" s="3">
-        <v>681700</v>
+        <v>786300</v>
       </c>
       <c r="G83" s="3">
-        <v>469600</v>
+        <v>668700</v>
       </c>
       <c r="H83" s="3">
-        <v>605400</v>
+        <v>460600</v>
       </c>
       <c r="I83" s="3">
-        <v>569200</v>
+        <v>593900</v>
       </c>
       <c r="J83" s="3">
+        <v>558400</v>
+      </c>
+      <c r="K83" s="3">
         <v>563400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>622600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>697500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>669000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>661000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1484400</v>
+        <v>1292100</v>
       </c>
       <c r="E89" s="3">
-        <v>1623000</v>
+        <v>1456100</v>
       </c>
       <c r="F89" s="3">
-        <v>1577500</v>
+        <v>1592100</v>
       </c>
       <c r="G89" s="3">
-        <v>1617200</v>
+        <v>1547500</v>
       </c>
       <c r="H89" s="3">
-        <v>1168000</v>
+        <v>1586400</v>
       </c>
       <c r="I89" s="3">
-        <v>1207100</v>
+        <v>1145700</v>
       </c>
       <c r="J89" s="3">
+        <v>1184100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1426200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1115400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1366100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>995300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>985900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-988500</v>
+        <v>-1273500</v>
       </c>
       <c r="E91" s="3">
-        <v>-902900</v>
+        <v>-969700</v>
       </c>
       <c r="F91" s="3">
-        <v>-787400</v>
+        <v>-885700</v>
       </c>
       <c r="G91" s="3">
-        <v>-816100</v>
+        <v>-772400</v>
       </c>
       <c r="H91" s="3">
-        <v>-618800</v>
+        <v>-800600</v>
       </c>
       <c r="I91" s="3">
-        <v>-491700</v>
+        <v>-607000</v>
       </c>
       <c r="J91" s="3">
+        <v>-482400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-485800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-486700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-466200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-531000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-612600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-584000</v>
+        <v>-1217300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1350900</v>
+        <v>-572900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1069800</v>
+        <v>-1325100</v>
       </c>
       <c r="G94" s="3">
-        <v>-346300</v>
+        <v>-1049400</v>
       </c>
       <c r="H94" s="3">
-        <v>-390500</v>
+        <v>-339700</v>
       </c>
       <c r="I94" s="3">
-        <v>-823900</v>
+        <v>-383100</v>
       </c>
       <c r="J94" s="3">
+        <v>-808200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-785000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-798500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-926500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-601200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-506700</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-468700</v>
+        <v>-505500</v>
       </c>
       <c r="E96" s="3">
-        <v>-384800</v>
+        <v>-459800</v>
       </c>
       <c r="F96" s="3">
-        <v>-455800</v>
+        <v>-377500</v>
       </c>
       <c r="G96" s="3">
-        <v>-353300</v>
+        <v>-447100</v>
       </c>
       <c r="H96" s="3">
-        <v>-352300</v>
+        <v>-346500</v>
       </c>
       <c r="I96" s="3">
-        <v>-293900</v>
+        <v>-345600</v>
       </c>
       <c r="J96" s="3">
+        <v>-288300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-322500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-279000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-262200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-221200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-233900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-819300</v>
+        <v>-441700</v>
       </c>
       <c r="E100" s="3">
-        <v>-595100</v>
+        <v>-803700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1154900</v>
+        <v>-583800</v>
       </c>
       <c r="G100" s="3">
-        <v>-654600</v>
+        <v>-1132900</v>
       </c>
       <c r="H100" s="3">
-        <v>-379100</v>
+        <v>-642100</v>
       </c>
       <c r="I100" s="3">
-        <v>-352600</v>
+        <v>-371800</v>
       </c>
       <c r="J100" s="3">
+        <v>-345900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-372000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-341100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-285700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-459000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>120400</v>
+        <v>73900</v>
       </c>
       <c r="E101" s="3">
-        <v>81200</v>
+        <v>118100</v>
       </c>
       <c r="F101" s="3">
-        <v>-37800</v>
+        <v>79600</v>
       </c>
       <c r="G101" s="3">
-        <v>29600</v>
+        <v>-37100</v>
       </c>
       <c r="H101" s="3">
-        <v>-40100</v>
+        <v>29000</v>
       </c>
       <c r="I101" s="3">
-        <v>-14700</v>
+        <v>-39400</v>
       </c>
       <c r="J101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-102700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>162300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>133000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>184100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-21900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>201400</v>
+        <v>-292900</v>
       </c>
       <c r="E102" s="3">
-        <v>-241800</v>
+        <v>197600</v>
       </c>
       <c r="F102" s="3">
-        <v>-685000</v>
+        <v>-237200</v>
       </c>
       <c r="G102" s="3">
-        <v>645900</v>
+        <v>-671900</v>
       </c>
       <c r="H102" s="3">
-        <v>358300</v>
+        <v>633600</v>
       </c>
       <c r="I102" s="3">
-        <v>16000</v>
+        <v>351400</v>
       </c>
       <c r="J102" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K102" s="3">
         <v>166500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>138100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>272200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>292400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>KYOCY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14602600</v>
+        <v>13914000</v>
       </c>
       <c r="E8" s="3">
-        <v>13258700</v>
+        <v>12633500</v>
       </c>
       <c r="F8" s="3">
-        <v>11008900</v>
+        <v>10489800</v>
       </c>
       <c r="G8" s="3">
-        <v>11529200</v>
+        <v>10985500</v>
       </c>
       <c r="H8" s="3">
-        <v>11706900</v>
+        <v>11154900</v>
       </c>
       <c r="I8" s="3">
-        <v>11370500</v>
+        <v>10834300</v>
       </c>
       <c r="J8" s="3">
-        <v>10258100</v>
+        <v>9774300</v>
       </c>
       <c r="K8" s="3">
         <v>10875300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10529400</v>
+        <v>10032900</v>
       </c>
       <c r="E9" s="3">
-        <v>9555400</v>
+        <v>9104800</v>
       </c>
       <c r="F9" s="3">
-        <v>8074800</v>
+        <v>7694100</v>
       </c>
       <c r="G9" s="3">
-        <v>8348300</v>
+        <v>7954600</v>
       </c>
       <c r="H9" s="3">
-        <v>8361300</v>
+        <v>7967000</v>
       </c>
       <c r="I9" s="3">
-        <v>17340900</v>
+        <v>16523200</v>
       </c>
       <c r="J9" s="3">
-        <v>7566700</v>
+        <v>7209900</v>
       </c>
       <c r="K9" s="3">
         <v>8037000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4073200</v>
+        <v>3881200</v>
       </c>
       <c r="E10" s="3">
-        <v>3703400</v>
+        <v>3528700</v>
       </c>
       <c r="F10" s="3">
-        <v>2934100</v>
+        <v>2795700</v>
       </c>
       <c r="G10" s="3">
-        <v>3180900</v>
+        <v>3030900</v>
       </c>
       <c r="H10" s="3">
-        <v>3345600</v>
+        <v>3187800</v>
       </c>
       <c r="I10" s="3">
-        <v>-5970500</v>
+        <v>-5688900</v>
       </c>
       <c r="J10" s="3">
-        <v>2691400</v>
+        <v>2564400</v>
       </c>
       <c r="K10" s="3">
         <v>2838300</v>
@@ -953,17 +953,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="F14" s="3">
-        <v>167200</v>
+        <v>159300</v>
       </c>
       <c r="G14" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -995,23 +995,23 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>315600</v>
       </c>
       <c r="E15" s="3">
-        <v>269800</v>
+        <v>257100</v>
       </c>
       <c r="F15" s="3">
-        <v>244000</v>
+        <v>232500</v>
       </c>
       <c r="G15" s="3">
-        <v>212200</v>
+        <v>202200</v>
       </c>
       <c r="H15" s="3">
-        <v>106400</v>
+        <v>101400</v>
       </c>
       <c r="I15" s="3">
-        <v>106300</v>
+        <v>101300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13676000</v>
+        <v>13031100</v>
       </c>
       <c r="E17" s="3">
-        <v>12185100</v>
+        <v>11610500</v>
       </c>
       <c r="F17" s="3">
-        <v>10499600</v>
+        <v>10004500</v>
       </c>
       <c r="G17" s="3">
-        <v>10806800</v>
+        <v>10297200</v>
       </c>
       <c r="H17" s="3">
-        <v>11023300</v>
+        <v>10503500</v>
       </c>
       <c r="I17" s="3">
-        <v>10716500</v>
+        <v>10211200</v>
       </c>
       <c r="J17" s="3">
-        <v>9504300</v>
+        <v>9056100</v>
       </c>
       <c r="K17" s="3">
         <v>10194200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>926600</v>
+        <v>882900</v>
       </c>
       <c r="E18" s="3">
-        <v>1073600</v>
+        <v>1023000</v>
       </c>
       <c r="F18" s="3">
-        <v>509300</v>
+        <v>485300</v>
       </c>
       <c r="G18" s="3">
-        <v>722400</v>
+        <v>688300</v>
       </c>
       <c r="H18" s="3">
-        <v>683700</v>
+        <v>651400</v>
       </c>
       <c r="I18" s="3">
-        <v>653900</v>
+        <v>623100</v>
       </c>
       <c r="J18" s="3">
-        <v>753700</v>
+        <v>718200</v>
       </c>
       <c r="K18" s="3">
         <v>681000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>343700</v>
+        <v>348300</v>
       </c>
       <c r="E20" s="3">
-        <v>379900</v>
+        <v>362000</v>
       </c>
       <c r="F20" s="3">
-        <v>353100</v>
+        <v>336500</v>
       </c>
       <c r="G20" s="3">
-        <v>361400</v>
+        <v>344300</v>
       </c>
       <c r="H20" s="3">
-        <v>338800</v>
+        <v>322900</v>
       </c>
       <c r="I20" s="3">
-        <v>288200</v>
+        <v>274700</v>
       </c>
       <c r="J20" s="3">
-        <v>246600</v>
+        <v>235000</v>
       </c>
       <c r="K20" s="3">
         <v>402300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2356500</v>
+        <v>2259000</v>
       </c>
       <c r="E21" s="3">
-        <v>2389800</v>
+        <v>2270900</v>
       </c>
       <c r="F21" s="3">
-        <v>1654200</v>
+        <v>1571000</v>
       </c>
       <c r="G21" s="3">
-        <v>1757100</v>
+        <v>1669800</v>
       </c>
       <c r="H21" s="3">
-        <v>1486300</v>
+        <v>1413200</v>
       </c>
       <c r="I21" s="3">
-        <v>1540200</v>
+        <v>1463600</v>
       </c>
       <c r="J21" s="3">
-        <v>1562600</v>
+        <v>1485300</v>
       </c>
       <c r="K21" s="3">
         <v>1641400</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>20800</v>
       </c>
       <c r="E22" s="3">
-        <v>19100</v>
+        <v>18200</v>
       </c>
       <c r="F22" s="3">
-        <v>14900</v>
+        <v>14200</v>
       </c>
       <c r="G22" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="H22" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="I22" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J22" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="K22" s="3">
         <v>13300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1270300</v>
+        <v>1210400</v>
       </c>
       <c r="E23" s="3">
-        <v>1434400</v>
+        <v>1366800</v>
       </c>
       <c r="F23" s="3">
-        <v>847600</v>
+        <v>807600</v>
       </c>
       <c r="G23" s="3">
-        <v>1073000</v>
+        <v>1022400</v>
       </c>
       <c r="H23" s="3">
-        <v>1013800</v>
+        <v>966000</v>
       </c>
       <c r="I23" s="3">
-        <v>937200</v>
+        <v>893000</v>
       </c>
       <c r="J23" s="3">
-        <v>993900</v>
+        <v>947000</v>
       </c>
       <c r="K23" s="3">
         <v>1070000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>326100</v>
+        <v>310700</v>
       </c>
       <c r="E24" s="3">
-        <v>338200</v>
+        <v>322300</v>
       </c>
       <c r="F24" s="3">
-        <v>174500</v>
+        <v>166300</v>
       </c>
       <c r="G24" s="3">
-        <v>266600</v>
+        <v>254100</v>
       </c>
       <c r="H24" s="3">
-        <v>185700</v>
+        <v>176900</v>
       </c>
       <c r="I24" s="3">
-        <v>344400</v>
+        <v>328200</v>
       </c>
       <c r="J24" s="3">
-        <v>205100</v>
+        <v>195400</v>
       </c>
       <c r="K24" s="3">
         <v>230700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>944300</v>
+        <v>899700</v>
       </c>
       <c r="E26" s="3">
-        <v>1096200</v>
+        <v>1044500</v>
       </c>
       <c r="F26" s="3">
-        <v>673100</v>
+        <v>641300</v>
       </c>
       <c r="G26" s="3">
-        <v>806400</v>
+        <v>768400</v>
       </c>
       <c r="H26" s="3">
-        <v>828100</v>
+        <v>789100</v>
       </c>
       <c r="I26" s="3">
-        <v>592800</v>
+        <v>564900</v>
       </c>
       <c r="J26" s="3">
-        <v>788800</v>
+        <v>751600</v>
       </c>
       <c r="K26" s="3">
         <v>839300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>922800</v>
+        <v>879300</v>
       </c>
       <c r="E27" s="3">
-        <v>1070100</v>
+        <v>1019600</v>
       </c>
       <c r="F27" s="3">
-        <v>650400</v>
+        <v>619800</v>
       </c>
       <c r="G27" s="3">
-        <v>776700</v>
+        <v>740000</v>
       </c>
       <c r="H27" s="3">
-        <v>744100</v>
+        <v>709100</v>
       </c>
       <c r="I27" s="3">
-        <v>570600</v>
+        <v>543700</v>
       </c>
       <c r="J27" s="3">
-        <v>748700</v>
+        <v>713400</v>
       </c>
       <c r="K27" s="3">
         <v>801500</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-343700</v>
+        <v>-348300</v>
       </c>
       <c r="E32" s="3">
-        <v>-379900</v>
+        <v>-362000</v>
       </c>
       <c r="F32" s="3">
-        <v>-353100</v>
+        <v>-336500</v>
       </c>
       <c r="G32" s="3">
-        <v>-361400</v>
+        <v>-344300</v>
       </c>
       <c r="H32" s="3">
-        <v>-338800</v>
+        <v>-322900</v>
       </c>
       <c r="I32" s="3">
-        <v>-288200</v>
+        <v>-274700</v>
       </c>
       <c r="J32" s="3">
-        <v>-246600</v>
+        <v>-235000</v>
       </c>
       <c r="K32" s="3">
         <v>-402300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>922800</v>
+        <v>879300</v>
       </c>
       <c r="E33" s="3">
-        <v>1070100</v>
+        <v>1019600</v>
       </c>
       <c r="F33" s="3">
-        <v>650400</v>
+        <v>619800</v>
       </c>
       <c r="G33" s="3">
-        <v>776700</v>
+        <v>740000</v>
       </c>
       <c r="H33" s="3">
-        <v>744100</v>
+        <v>709100</v>
       </c>
       <c r="I33" s="3">
-        <v>570600</v>
+        <v>543700</v>
       </c>
       <c r="J33" s="3">
-        <v>748700</v>
+        <v>713400</v>
       </c>
       <c r="K33" s="3">
         <v>801500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>922800</v>
+        <v>879300</v>
       </c>
       <c r="E35" s="3">
-        <v>1070100</v>
+        <v>1019600</v>
       </c>
       <c r="F35" s="3">
-        <v>650400</v>
+        <v>619800</v>
       </c>
       <c r="G35" s="3">
-        <v>776700</v>
+        <v>740000</v>
       </c>
       <c r="H35" s="3">
-        <v>744100</v>
+        <v>709100</v>
       </c>
       <c r="I35" s="3">
-        <v>570600</v>
+        <v>543700</v>
       </c>
       <c r="J35" s="3">
-        <v>748700</v>
+        <v>713400</v>
       </c>
       <c r="K35" s="3">
         <v>801500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2692900</v>
+        <v>2565900</v>
       </c>
       <c r="E41" s="3">
-        <v>2985900</v>
+        <v>2845100</v>
       </c>
       <c r="F41" s="3">
-        <v>2788300</v>
+        <v>2656800</v>
       </c>
       <c r="G41" s="3">
-        <v>3025500</v>
+        <v>2882800</v>
       </c>
       <c r="H41" s="3">
-        <v>3697400</v>
+        <v>3523000</v>
       </c>
       <c r="I41" s="3">
-        <v>3063800</v>
+        <v>2919300</v>
       </c>
       <c r="J41" s="3">
-        <v>2712400</v>
+        <v>2584500</v>
       </c>
       <c r="K41" s="3">
         <v>2749000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>168700</v>
+        <v>160800</v>
       </c>
       <c r="E42" s="3">
-        <v>317800</v>
+        <v>302900</v>
       </c>
       <c r="F42" s="3">
-        <v>701900</v>
+        <v>668800</v>
       </c>
       <c r="G42" s="3">
-        <v>533800</v>
+        <v>508600</v>
       </c>
       <c r="H42" s="3">
-        <v>786500</v>
+        <v>749400</v>
       </c>
       <c r="I42" s="3">
-        <v>1786800</v>
+        <v>1702500</v>
       </c>
       <c r="J42" s="3">
-        <v>2144000</v>
+        <v>2042900</v>
       </c>
       <c r="K42" s="3">
         <v>2316600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2746800</v>
+        <v>2617300</v>
       </c>
       <c r="E43" s="3">
-        <v>2733100</v>
+        <v>2604200</v>
       </c>
       <c r="F43" s="3">
-        <v>2448700</v>
+        <v>2333200</v>
       </c>
       <c r="G43" s="3">
-        <v>2424700</v>
+        <v>2310300</v>
       </c>
       <c r="H43" s="3">
-        <v>2576500</v>
+        <v>2455000</v>
       </c>
       <c r="I43" s="3">
-        <v>2759000</v>
+        <v>2628900</v>
       </c>
       <c r="J43" s="3">
-        <v>2265800</v>
+        <v>2159000</v>
       </c>
       <c r="K43" s="3">
         <v>2087500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3889400</v>
+        <v>3706000</v>
       </c>
       <c r="E44" s="3">
-        <v>3262600</v>
+        <v>3108700</v>
       </c>
       <c r="F44" s="3">
-        <v>2490000</v>
+        <v>2372600</v>
       </c>
       <c r="G44" s="3">
-        <v>2482400</v>
+        <v>2365400</v>
       </c>
       <c r="H44" s="3">
-        <v>2479400</v>
+        <v>2362500</v>
       </c>
       <c r="I44" s="3">
-        <v>2630700</v>
+        <v>2506700</v>
       </c>
       <c r="J44" s="3">
-        <v>2387600</v>
+        <v>2275000</v>
       </c>
       <c r="K44" s="3">
         <v>2409900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>288400</v>
+        <v>274800</v>
       </c>
       <c r="E45" s="3">
-        <v>283600</v>
+        <v>270300</v>
       </c>
       <c r="F45" s="3">
-        <v>221400</v>
+        <v>211000</v>
       </c>
       <c r="G45" s="3">
-        <v>205200</v>
+        <v>195500</v>
       </c>
       <c r="H45" s="3">
-        <v>249700</v>
+        <v>238000</v>
       </c>
       <c r="I45" s="3">
-        <v>1596900</v>
+        <v>1521600</v>
       </c>
       <c r="J45" s="3">
-        <v>863100</v>
+        <v>822400</v>
       </c>
       <c r="K45" s="3">
         <v>982500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9786200</v>
+        <v>9324700</v>
       </c>
       <c r="E46" s="3">
-        <v>9583000</v>
+        <v>9131100</v>
       </c>
       <c r="F46" s="3">
-        <v>8650300</v>
+        <v>8242400</v>
       </c>
       <c r="G46" s="3">
-        <v>8671500</v>
+        <v>8262600</v>
       </c>
       <c r="H46" s="3">
-        <v>9789500</v>
+        <v>9327800</v>
       </c>
       <c r="I46" s="3">
-        <v>10569100</v>
+        <v>10070700</v>
       </c>
       <c r="J46" s="3">
-        <v>10373000</v>
+        <v>9883800</v>
       </c>
       <c r="K46" s="3">
         <v>10545500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11302200</v>
+        <v>10769300</v>
       </c>
       <c r="E47" s="3">
-        <v>11005800</v>
+        <v>10486800</v>
       </c>
       <c r="F47" s="3">
-        <v>9549900</v>
+        <v>9099500</v>
       </c>
       <c r="G47" s="3">
-        <v>8949300</v>
+        <v>8527300</v>
       </c>
       <c r="H47" s="3">
-        <v>7106700</v>
+        <v>6771600</v>
       </c>
       <c r="I47" s="3">
-        <v>15444400</v>
+        <v>14716100</v>
       </c>
       <c r="J47" s="3">
-        <v>8152800</v>
+        <v>7768300</v>
       </c>
       <c r="K47" s="3">
         <v>8315800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4687200</v>
+        <v>4466200</v>
       </c>
       <c r="E48" s="3">
-        <v>3986300</v>
+        <v>3798300</v>
       </c>
       <c r="F48" s="3">
-        <v>3444600</v>
+        <v>3282100</v>
       </c>
       <c r="G48" s="3">
-        <v>3015200</v>
+        <v>2873000</v>
       </c>
       <c r="H48" s="3">
-        <v>2464800</v>
+        <v>2348500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>1922200</v>
+        <v>1831600</v>
       </c>
       <c r="K48" s="3">
         <v>1944000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3020500</v>
+        <v>2878100</v>
       </c>
       <c r="E49" s="3">
-        <v>2976700</v>
+        <v>2836400</v>
       </c>
       <c r="F49" s="3">
-        <v>2940400</v>
+        <v>2801800</v>
       </c>
       <c r="G49" s="3">
-        <v>2384600</v>
+        <v>2272200</v>
       </c>
       <c r="H49" s="3">
-        <v>1654700</v>
+        <v>1576700</v>
       </c>
       <c r="I49" s="3">
-        <v>3236600</v>
+        <v>3084000</v>
       </c>
       <c r="J49" s="3">
-        <v>1238000</v>
+        <v>1179600</v>
       </c>
       <c r="K49" s="3">
         <v>1188500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>721000</v>
+        <v>687000</v>
       </c>
       <c r="E52" s="3">
-        <v>691700</v>
+        <v>659100</v>
       </c>
       <c r="F52" s="3">
-        <v>602800</v>
+        <v>574300</v>
       </c>
       <c r="G52" s="3">
-        <v>413100</v>
+        <v>393700</v>
       </c>
       <c r="H52" s="3">
-        <v>387000</v>
+        <v>368800</v>
       </c>
       <c r="I52" s="3">
-        <v>985600</v>
+        <v>939200</v>
       </c>
       <c r="J52" s="3">
-        <v>740500</v>
+        <v>705600</v>
       </c>
       <c r="K52" s="3">
         <v>754800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29517200</v>
+        <v>28125300</v>
       </c>
       <c r="E54" s="3">
-        <v>28243500</v>
+        <v>26911600</v>
       </c>
       <c r="F54" s="3">
-        <v>25187900</v>
+        <v>24000100</v>
       </c>
       <c r="G54" s="3">
-        <v>23433800</v>
+        <v>22328700</v>
       </c>
       <c r="H54" s="3">
-        <v>21402700</v>
+        <v>20393400</v>
       </c>
       <c r="I54" s="3">
-        <v>22558700</v>
+        <v>21494900</v>
       </c>
       <c r="J54" s="3">
-        <v>22426500</v>
+        <v>21368900</v>
       </c>
       <c r="K54" s="3">
         <v>22748600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1469900</v>
+        <v>1003600</v>
       </c>
       <c r="E57" s="3">
-        <v>1152900</v>
+        <v>1098500</v>
       </c>
       <c r="F57" s="3">
-        <v>1007800</v>
+        <v>960300</v>
       </c>
       <c r="G57" s="3">
-        <v>943800</v>
+        <v>899300</v>
       </c>
       <c r="H57" s="3">
-        <v>973800</v>
+        <v>927900</v>
       </c>
       <c r="I57" s="3">
-        <v>2159200</v>
+        <v>2057300</v>
       </c>
       <c r="J57" s="3">
-        <v>933400</v>
+        <v>889400</v>
       </c>
       <c r="K57" s="3">
         <v>850000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>356300</v>
+        <v>339500</v>
       </c>
       <c r="E58" s="3">
-        <v>697300</v>
+        <v>664400</v>
       </c>
       <c r="F58" s="3">
-        <v>402900</v>
+        <v>383900</v>
       </c>
       <c r="G58" s="3">
-        <v>364100</v>
+        <v>346900</v>
       </c>
       <c r="H58" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="I58" s="3">
-        <v>90100</v>
+        <v>85900</v>
       </c>
       <c r="J58" s="3">
-        <v>60800</v>
+        <v>57900</v>
       </c>
       <c r="K58" s="3">
         <v>107600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1498200</v>
+        <v>1824500</v>
       </c>
       <c r="E59" s="3">
-        <v>2038600</v>
+        <v>1942500</v>
       </c>
       <c r="F59" s="3">
-        <v>1638000</v>
+        <v>1560800</v>
       </c>
       <c r="G59" s="3">
-        <v>1558100</v>
+        <v>1484600</v>
       </c>
       <c r="H59" s="3">
-        <v>1697800</v>
+        <v>1617800</v>
       </c>
       <c r="I59" s="3">
-        <v>2417200</v>
+        <v>2303200</v>
       </c>
       <c r="J59" s="3">
-        <v>1635000</v>
+        <v>1557900</v>
       </c>
       <c r="K59" s="3">
         <v>1746000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3324300</v>
+        <v>3167600</v>
       </c>
       <c r="E60" s="3">
-        <v>3888700</v>
+        <v>3705300</v>
       </c>
       <c r="F60" s="3">
-        <v>3048800</v>
+        <v>2905000</v>
       </c>
       <c r="G60" s="3">
-        <v>2866000</v>
+        <v>2730900</v>
       </c>
       <c r="H60" s="3">
-        <v>2701900</v>
+        <v>2574500</v>
       </c>
       <c r="I60" s="3">
-        <v>3023800</v>
+        <v>2881200</v>
       </c>
       <c r="J60" s="3">
-        <v>2629200</v>
+        <v>2505200</v>
       </c>
       <c r="K60" s="3">
         <v>2703600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1156400</v>
+        <v>1101900</v>
       </c>
       <c r="E61" s="3">
-        <v>378900</v>
+        <v>361000</v>
       </c>
       <c r="F61" s="3">
-        <v>662900</v>
+        <v>631600</v>
       </c>
       <c r="G61" s="3">
-        <v>553900</v>
+        <v>527700</v>
       </c>
       <c r="H61" s="3">
-        <v>40800</v>
+        <v>38900</v>
       </c>
       <c r="I61" s="3">
-        <v>43000</v>
+        <v>41000</v>
       </c>
       <c r="J61" s="3">
-        <v>118300</v>
+        <v>112700</v>
       </c>
       <c r="K61" s="3">
         <v>133100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3054400</v>
+        <v>2910300</v>
       </c>
       <c r="E62" s="3">
-        <v>3079300</v>
+        <v>2934100</v>
       </c>
       <c r="F62" s="3">
-        <v>2614100</v>
+        <v>2490800</v>
       </c>
       <c r="G62" s="3">
-        <v>2318800</v>
+        <v>2209400</v>
       </c>
       <c r="H62" s="3">
-        <v>1628100</v>
+        <v>1551300</v>
       </c>
       <c r="I62" s="3">
-        <v>2299100</v>
+        <v>2190700</v>
       </c>
       <c r="J62" s="3">
-        <v>2238600</v>
+        <v>2133100</v>
       </c>
       <c r="K62" s="3">
         <v>2464700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7715800</v>
+        <v>7351900</v>
       </c>
       <c r="E66" s="3">
-        <v>7539600</v>
+        <v>7184000</v>
       </c>
       <c r="F66" s="3">
-        <v>6503800</v>
+        <v>6197100</v>
       </c>
       <c r="G66" s="3">
-        <v>5898100</v>
+        <v>5619900</v>
       </c>
       <c r="H66" s="3">
-        <v>5065400</v>
+        <v>4826600</v>
       </c>
       <c r="I66" s="3">
-        <v>5789800</v>
+        <v>5516800</v>
       </c>
       <c r="J66" s="3">
-        <v>5596800</v>
+        <v>5332800</v>
       </c>
       <c r="K66" s="3">
         <v>5959300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13788200</v>
+        <v>13138000</v>
       </c>
       <c r="E72" s="3">
-        <v>13310400</v>
+        <v>12682700</v>
       </c>
       <c r="F72" s="3">
-        <v>12619400</v>
+        <v>12024300</v>
       </c>
       <c r="G72" s="3">
-        <v>12160900</v>
+        <v>11587400</v>
       </c>
       <c r="H72" s="3">
-        <v>11815100</v>
+        <v>11257900</v>
       </c>
       <c r="I72" s="3">
-        <v>11374800</v>
+        <v>10838400</v>
       </c>
       <c r="J72" s="3">
-        <v>11810800</v>
+        <v>11253900</v>
       </c>
       <c r="K72" s="3">
         <v>11546900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21801400</v>
+        <v>20773300</v>
       </c>
       <c r="E76" s="3">
-        <v>20703900</v>
+        <v>19727600</v>
       </c>
       <c r="F76" s="3">
-        <v>18684100</v>
+        <v>17803000</v>
       </c>
       <c r="G76" s="3">
-        <v>17535700</v>
+        <v>16708800</v>
       </c>
       <c r="H76" s="3">
-        <v>16337300</v>
+        <v>15566900</v>
       </c>
       <c r="I76" s="3">
-        <v>16769000</v>
+        <v>15978200</v>
       </c>
       <c r="J76" s="3">
-        <v>16829700</v>
+        <v>16036100</v>
       </c>
       <c r="K76" s="3">
         <v>16789300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>922800</v>
+        <v>879300</v>
       </c>
       <c r="E81" s="3">
-        <v>1070100</v>
+        <v>1019600</v>
       </c>
       <c r="F81" s="3">
-        <v>650400</v>
+        <v>619800</v>
       </c>
       <c r="G81" s="3">
-        <v>776700</v>
+        <v>740000</v>
       </c>
       <c r="H81" s="3">
-        <v>744100</v>
+        <v>709100</v>
       </c>
       <c r="I81" s="3">
-        <v>570600</v>
+        <v>543700</v>
       </c>
       <c r="J81" s="3">
-        <v>748700</v>
+        <v>713400</v>
       </c>
       <c r="K81" s="3">
         <v>801500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1078600</v>
+        <v>1027800</v>
       </c>
       <c r="E83" s="3">
-        <v>929800</v>
+        <v>886000</v>
       </c>
       <c r="F83" s="3">
-        <v>786300</v>
+        <v>749200</v>
       </c>
       <c r="G83" s="3">
-        <v>668700</v>
+        <v>637200</v>
       </c>
       <c r="H83" s="3">
-        <v>460600</v>
+        <v>438900</v>
       </c>
       <c r="I83" s="3">
-        <v>593900</v>
+        <v>565900</v>
       </c>
       <c r="J83" s="3">
-        <v>558400</v>
+        <v>532000</v>
       </c>
       <c r="K83" s="3">
         <v>563400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1292100</v>
+        <v>1231200</v>
       </c>
       <c r="E89" s="3">
-        <v>1456100</v>
+        <v>1387400</v>
       </c>
       <c r="F89" s="3">
-        <v>1592100</v>
+        <v>1517000</v>
       </c>
       <c r="G89" s="3">
-        <v>1547500</v>
+        <v>1474500</v>
       </c>
       <c r="H89" s="3">
-        <v>1586400</v>
+        <v>1511600</v>
       </c>
       <c r="I89" s="3">
-        <v>1145700</v>
+        <v>1091700</v>
       </c>
       <c r="J89" s="3">
-        <v>1184100</v>
+        <v>1128300</v>
       </c>
       <c r="K89" s="3">
         <v>1426200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1273500</v>
+        <v>-1213400</v>
       </c>
       <c r="E91" s="3">
-        <v>-969700</v>
+        <v>-923900</v>
       </c>
       <c r="F91" s="3">
-        <v>-885700</v>
+        <v>-843900</v>
       </c>
       <c r="G91" s="3">
-        <v>-772400</v>
+        <v>-736000</v>
       </c>
       <c r="H91" s="3">
-        <v>-800600</v>
+        <v>-762800</v>
       </c>
       <c r="I91" s="3">
-        <v>-607000</v>
+        <v>-578400</v>
       </c>
       <c r="J91" s="3">
-        <v>-482400</v>
+        <v>-459600</v>
       </c>
       <c r="K91" s="3">
         <v>-485800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1217300</v>
+        <v>-1159900</v>
       </c>
       <c r="E94" s="3">
-        <v>-572900</v>
+        <v>-545900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1325100</v>
+        <v>-1262700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1049400</v>
+        <v>-999900</v>
       </c>
       <c r="H94" s="3">
-        <v>-339700</v>
+        <v>-323700</v>
       </c>
       <c r="I94" s="3">
-        <v>-383100</v>
+        <v>-365000</v>
       </c>
       <c r="J94" s="3">
-        <v>-808200</v>
+        <v>-770100</v>
       </c>
       <c r="K94" s="3">
         <v>-785000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-505500</v>
+        <v>-481700</v>
       </c>
       <c r="E96" s="3">
-        <v>-459800</v>
+        <v>-438100</v>
       </c>
       <c r="F96" s="3">
-        <v>-377500</v>
+        <v>-359700</v>
       </c>
       <c r="G96" s="3">
-        <v>-447100</v>
+        <v>-426100</v>
       </c>
       <c r="H96" s="3">
-        <v>-346500</v>
+        <v>-330200</v>
       </c>
       <c r="I96" s="3">
-        <v>-345600</v>
+        <v>-329300</v>
       </c>
       <c r="J96" s="3">
-        <v>-288300</v>
+        <v>-274700</v>
       </c>
       <c r="K96" s="3">
         <v>-322500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-441700</v>
+        <v>-420800</v>
       </c>
       <c r="E100" s="3">
-        <v>-803700</v>
+        <v>-765800</v>
       </c>
       <c r="F100" s="3">
-        <v>-583800</v>
+        <v>-556300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1132900</v>
+        <v>-1079500</v>
       </c>
       <c r="H100" s="3">
-        <v>-642100</v>
+        <v>-611800</v>
       </c>
       <c r="I100" s="3">
-        <v>-371800</v>
+        <v>-354300</v>
       </c>
       <c r="J100" s="3">
-        <v>-345900</v>
+        <v>-329600</v>
       </c>
       <c r="K100" s="3">
         <v>-372000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>73900</v>
+        <v>70400</v>
       </c>
       <c r="E101" s="3">
-        <v>118100</v>
+        <v>112500</v>
       </c>
       <c r="F101" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="G101" s="3">
-        <v>-37100</v>
+        <v>-35400</v>
       </c>
       <c r="H101" s="3">
-        <v>29000</v>
+        <v>27700</v>
       </c>
       <c r="I101" s="3">
-        <v>-39400</v>
+        <v>-37500</v>
       </c>
       <c r="J101" s="3">
-        <v>-14400</v>
+        <v>-13700</v>
       </c>
       <c r="K101" s="3">
         <v>-102700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-292900</v>
+        <v>-279100</v>
       </c>
       <c r="E102" s="3">
-        <v>197600</v>
+        <v>188300</v>
       </c>
       <c r="F102" s="3">
-        <v>-237200</v>
+        <v>-226000</v>
       </c>
       <c r="G102" s="3">
-        <v>-671900</v>
+        <v>-640200</v>
       </c>
       <c r="H102" s="3">
-        <v>633600</v>
+        <v>603700</v>
       </c>
       <c r="I102" s="3">
-        <v>351400</v>
+        <v>334900</v>
       </c>
       <c r="J102" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="K102" s="3">
         <v>166500</v>

--- a/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KYOCY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13914000</v>
+        <v>13448200</v>
       </c>
       <c r="E8" s="3">
-        <v>12633500</v>
+        <v>12210500</v>
       </c>
       <c r="F8" s="3">
-        <v>10489800</v>
+        <v>10138600</v>
       </c>
       <c r="G8" s="3">
-        <v>10985500</v>
+        <v>10617700</v>
       </c>
       <c r="H8" s="3">
-        <v>11154900</v>
+        <v>10781400</v>
       </c>
       <c r="I8" s="3">
-        <v>10834300</v>
+        <v>10471500</v>
       </c>
       <c r="J8" s="3">
-        <v>9774300</v>
+        <v>9447100</v>
       </c>
       <c r="K8" s="3">
         <v>10875300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10032900</v>
+        <v>9697000</v>
       </c>
       <c r="E9" s="3">
-        <v>9104800</v>
+        <v>8800000</v>
       </c>
       <c r="F9" s="3">
-        <v>7694100</v>
+        <v>7436500</v>
       </c>
       <c r="G9" s="3">
-        <v>7954600</v>
+        <v>7688300</v>
       </c>
       <c r="H9" s="3">
-        <v>7967000</v>
+        <v>7700300</v>
       </c>
       <c r="I9" s="3">
-        <v>16523200</v>
+        <v>15970000</v>
       </c>
       <c r="J9" s="3">
-        <v>7209900</v>
+        <v>6968500</v>
       </c>
       <c r="K9" s="3">
         <v>8037000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3881200</v>
+        <v>3751200</v>
       </c>
       <c r="E10" s="3">
-        <v>3528700</v>
+        <v>3410600</v>
       </c>
       <c r="F10" s="3">
-        <v>2795700</v>
+        <v>2702100</v>
       </c>
       <c r="G10" s="3">
-        <v>3030900</v>
+        <v>2929400</v>
       </c>
       <c r="H10" s="3">
-        <v>3187800</v>
+        <v>3081100</v>
       </c>
       <c r="I10" s="3">
-        <v>-5688900</v>
+        <v>-5498500</v>
       </c>
       <c r="J10" s="3">
-        <v>2564400</v>
+        <v>2478600</v>
       </c>
       <c r="K10" s="3">
         <v>2838300</v>
@@ -954,16 +954,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E14" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="F14" s="3">
-        <v>159300</v>
+        <v>153900</v>
       </c>
       <c r="G14" s="3">
-        <v>50700</v>
+        <v>49000</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -996,22 +996,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>315600</v>
+        <v>305000</v>
       </c>
       <c r="E15" s="3">
-        <v>257100</v>
+        <v>248500</v>
       </c>
       <c r="F15" s="3">
-        <v>232500</v>
+        <v>224700</v>
       </c>
       <c r="G15" s="3">
-        <v>202200</v>
+        <v>195500</v>
       </c>
       <c r="H15" s="3">
-        <v>101400</v>
+        <v>98000</v>
       </c>
       <c r="I15" s="3">
-        <v>101300</v>
+        <v>97900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13031100</v>
+        <v>12594900</v>
       </c>
       <c r="E17" s="3">
-        <v>11610500</v>
+        <v>11221800</v>
       </c>
       <c r="F17" s="3">
-        <v>10004500</v>
+        <v>9669500</v>
       </c>
       <c r="G17" s="3">
-        <v>10297200</v>
+        <v>9952400</v>
       </c>
       <c r="H17" s="3">
-        <v>10503500</v>
+        <v>10151800</v>
       </c>
       <c r="I17" s="3">
-        <v>10211200</v>
+        <v>9869300</v>
       </c>
       <c r="J17" s="3">
-        <v>9056100</v>
+        <v>8752900</v>
       </c>
       <c r="K17" s="3">
         <v>10194200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>882900</v>
+        <v>853400</v>
       </c>
       <c r="E18" s="3">
-        <v>1023000</v>
+        <v>988800</v>
       </c>
       <c r="F18" s="3">
-        <v>485300</v>
+        <v>469100</v>
       </c>
       <c r="G18" s="3">
-        <v>688300</v>
+        <v>665300</v>
       </c>
       <c r="H18" s="3">
-        <v>651400</v>
+        <v>629600</v>
       </c>
       <c r="I18" s="3">
-        <v>623100</v>
+        <v>602200</v>
       </c>
       <c r="J18" s="3">
-        <v>718200</v>
+        <v>694200</v>
       </c>
       <c r="K18" s="3">
         <v>681000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>348300</v>
+        <v>336700</v>
       </c>
       <c r="E20" s="3">
-        <v>362000</v>
+        <v>349800</v>
       </c>
       <c r="F20" s="3">
-        <v>336500</v>
+        <v>325200</v>
       </c>
       <c r="G20" s="3">
-        <v>344300</v>
+        <v>332800</v>
       </c>
       <c r="H20" s="3">
-        <v>322900</v>
+        <v>312100</v>
       </c>
       <c r="I20" s="3">
-        <v>274700</v>
+        <v>265500</v>
       </c>
       <c r="J20" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="K20" s="3">
         <v>402300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2259000</v>
+        <v>2178900</v>
       </c>
       <c r="E21" s="3">
-        <v>2270900</v>
+        <v>2191000</v>
       </c>
       <c r="F21" s="3">
-        <v>1571000</v>
+        <v>1515200</v>
       </c>
       <c r="G21" s="3">
-        <v>1669800</v>
+        <v>1611100</v>
       </c>
       <c r="H21" s="3">
-        <v>1413200</v>
+        <v>1364000</v>
       </c>
       <c r="I21" s="3">
-        <v>1463600</v>
+        <v>1412200</v>
       </c>
       <c r="J21" s="3">
-        <v>1485300</v>
+        <v>1433200</v>
       </c>
       <c r="K21" s="3">
         <v>1641400</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="E22" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="F22" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="G22" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="H22" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="I22" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J22" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="K22" s="3">
         <v>13300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1210400</v>
+        <v>1169900</v>
       </c>
       <c r="E23" s="3">
-        <v>1366800</v>
+        <v>1321000</v>
       </c>
       <c r="F23" s="3">
-        <v>807600</v>
+        <v>780600</v>
       </c>
       <c r="G23" s="3">
-        <v>1022400</v>
+        <v>988200</v>
       </c>
       <c r="H23" s="3">
-        <v>966000</v>
+        <v>933700</v>
       </c>
       <c r="I23" s="3">
-        <v>893000</v>
+        <v>863100</v>
       </c>
       <c r="J23" s="3">
-        <v>947000</v>
+        <v>915300</v>
       </c>
       <c r="K23" s="3">
         <v>1070000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>310700</v>
+        <v>300300</v>
       </c>
       <c r="E24" s="3">
-        <v>322300</v>
+        <v>311500</v>
       </c>
       <c r="F24" s="3">
-        <v>166300</v>
+        <v>160700</v>
       </c>
       <c r="G24" s="3">
-        <v>254100</v>
+        <v>245500</v>
       </c>
       <c r="H24" s="3">
-        <v>176900</v>
+        <v>171000</v>
       </c>
       <c r="I24" s="3">
-        <v>328200</v>
+        <v>317200</v>
       </c>
       <c r="J24" s="3">
-        <v>195400</v>
+        <v>188900</v>
       </c>
       <c r="K24" s="3">
         <v>230700</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>899700</v>
+        <v>869600</v>
       </c>
       <c r="E26" s="3">
-        <v>1044500</v>
+        <v>1009500</v>
       </c>
       <c r="F26" s="3">
-        <v>641300</v>
+        <v>619800</v>
       </c>
       <c r="G26" s="3">
-        <v>768400</v>
+        <v>742700</v>
       </c>
       <c r="H26" s="3">
-        <v>789100</v>
+        <v>762600</v>
       </c>
       <c r="I26" s="3">
-        <v>564900</v>
+        <v>546000</v>
       </c>
       <c r="J26" s="3">
-        <v>751600</v>
+        <v>726500</v>
       </c>
       <c r="K26" s="3">
         <v>839300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>879300</v>
+        <v>849800</v>
       </c>
       <c r="E27" s="3">
-        <v>1019600</v>
+        <v>985500</v>
       </c>
       <c r="F27" s="3">
-        <v>619800</v>
+        <v>599000</v>
       </c>
       <c r="G27" s="3">
-        <v>740000</v>
+        <v>715300</v>
       </c>
       <c r="H27" s="3">
-        <v>709100</v>
+        <v>685300</v>
       </c>
       <c r="I27" s="3">
-        <v>543700</v>
+        <v>525500</v>
       </c>
       <c r="J27" s="3">
-        <v>713400</v>
+        <v>689500</v>
       </c>
       <c r="K27" s="3">
         <v>801500</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-348300</v>
+        <v>-336700</v>
       </c>
       <c r="E32" s="3">
-        <v>-362000</v>
+        <v>-349800</v>
       </c>
       <c r="F32" s="3">
-        <v>-336500</v>
+        <v>-325200</v>
       </c>
       <c r="G32" s="3">
-        <v>-344300</v>
+        <v>-332800</v>
       </c>
       <c r="H32" s="3">
-        <v>-322900</v>
+        <v>-312100</v>
       </c>
       <c r="I32" s="3">
-        <v>-274700</v>
+        <v>-265500</v>
       </c>
       <c r="J32" s="3">
-        <v>-235000</v>
+        <v>-227100</v>
       </c>
       <c r="K32" s="3">
         <v>-402300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>879300</v>
+        <v>849800</v>
       </c>
       <c r="E33" s="3">
-        <v>1019600</v>
+        <v>985500</v>
       </c>
       <c r="F33" s="3">
-        <v>619800</v>
+        <v>599000</v>
       </c>
       <c r="G33" s="3">
-        <v>740000</v>
+        <v>715300</v>
       </c>
       <c r="H33" s="3">
-        <v>709100</v>
+        <v>685300</v>
       </c>
       <c r="I33" s="3">
-        <v>543700</v>
+        <v>525500</v>
       </c>
       <c r="J33" s="3">
-        <v>713400</v>
+        <v>689500</v>
       </c>
       <c r="K33" s="3">
         <v>801500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>879300</v>
+        <v>849800</v>
       </c>
       <c r="E35" s="3">
-        <v>1019600</v>
+        <v>985500</v>
       </c>
       <c r="F35" s="3">
-        <v>619800</v>
+        <v>599000</v>
       </c>
       <c r="G35" s="3">
-        <v>740000</v>
+        <v>715300</v>
       </c>
       <c r="H35" s="3">
-        <v>709100</v>
+        <v>685300</v>
       </c>
       <c r="I35" s="3">
-        <v>543700</v>
+        <v>525500</v>
       </c>
       <c r="J35" s="3">
-        <v>713400</v>
+        <v>689500</v>
       </c>
       <c r="K35" s="3">
         <v>801500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2565900</v>
+        <v>2480000</v>
       </c>
       <c r="E41" s="3">
-        <v>2845100</v>
+        <v>2749800</v>
       </c>
       <c r="F41" s="3">
-        <v>2656800</v>
+        <v>2567900</v>
       </c>
       <c r="G41" s="3">
-        <v>2882800</v>
+        <v>2786300</v>
       </c>
       <c r="H41" s="3">
-        <v>3523000</v>
+        <v>3405100</v>
       </c>
       <c r="I41" s="3">
-        <v>2919300</v>
+        <v>2821600</v>
       </c>
       <c r="J41" s="3">
-        <v>2584500</v>
+        <v>2497900</v>
       </c>
       <c r="K41" s="3">
         <v>2749000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>160800</v>
+        <v>155400</v>
       </c>
       <c r="E42" s="3">
-        <v>302900</v>
+        <v>292700</v>
       </c>
       <c r="F42" s="3">
-        <v>668800</v>
+        <v>646400</v>
       </c>
       <c r="G42" s="3">
-        <v>508600</v>
+        <v>491600</v>
       </c>
       <c r="H42" s="3">
-        <v>749400</v>
+        <v>724300</v>
       </c>
       <c r="I42" s="3">
-        <v>1702500</v>
+        <v>1645500</v>
       </c>
       <c r="J42" s="3">
-        <v>2042900</v>
+        <v>1974500</v>
       </c>
       <c r="K42" s="3">
         <v>2316600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2617300</v>
+        <v>2529700</v>
       </c>
       <c r="E43" s="3">
-        <v>2604200</v>
+        <v>2517000</v>
       </c>
       <c r="F43" s="3">
-        <v>2333200</v>
+        <v>2255100</v>
       </c>
       <c r="G43" s="3">
-        <v>2310300</v>
+        <v>2233000</v>
       </c>
       <c r="H43" s="3">
-        <v>2455000</v>
+        <v>2372800</v>
       </c>
       <c r="I43" s="3">
-        <v>2628900</v>
+        <v>2540900</v>
       </c>
       <c r="J43" s="3">
-        <v>2159000</v>
+        <v>2086700</v>
       </c>
       <c r="K43" s="3">
         <v>2087500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3706000</v>
+        <v>3581900</v>
       </c>
       <c r="E44" s="3">
-        <v>3108700</v>
+        <v>3004600</v>
       </c>
       <c r="F44" s="3">
-        <v>2372600</v>
+        <v>2293200</v>
       </c>
       <c r="G44" s="3">
-        <v>2365400</v>
+        <v>2286200</v>
       </c>
       <c r="H44" s="3">
-        <v>2362500</v>
+        <v>2283400</v>
       </c>
       <c r="I44" s="3">
-        <v>2506700</v>
+        <v>2422800</v>
       </c>
       <c r="J44" s="3">
-        <v>2275000</v>
+        <v>2198900</v>
       </c>
       <c r="K44" s="3">
         <v>2409900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>274800</v>
+        <v>265600</v>
       </c>
       <c r="E45" s="3">
-        <v>270300</v>
+        <v>261200</v>
       </c>
       <c r="F45" s="3">
-        <v>211000</v>
+        <v>203900</v>
       </c>
       <c r="G45" s="3">
-        <v>195500</v>
+        <v>188900</v>
       </c>
       <c r="H45" s="3">
-        <v>238000</v>
+        <v>230000</v>
       </c>
       <c r="I45" s="3">
-        <v>1521600</v>
+        <v>1470600</v>
       </c>
       <c r="J45" s="3">
-        <v>822400</v>
+        <v>794900</v>
       </c>
       <c r="K45" s="3">
         <v>982500</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9324700</v>
+        <v>9012600</v>
       </c>
       <c r="E46" s="3">
-        <v>9131100</v>
+        <v>8825400</v>
       </c>
       <c r="F46" s="3">
-        <v>8242400</v>
+        <v>7966400</v>
       </c>
       <c r="G46" s="3">
-        <v>8262600</v>
+        <v>7986000</v>
       </c>
       <c r="H46" s="3">
-        <v>9327800</v>
+        <v>9015600</v>
       </c>
       <c r="I46" s="3">
-        <v>10070700</v>
+        <v>9733600</v>
       </c>
       <c r="J46" s="3">
-        <v>9883800</v>
+        <v>9552900</v>
       </c>
       <c r="K46" s="3">
         <v>10545500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10769300</v>
+        <v>10408700</v>
       </c>
       <c r="E47" s="3">
-        <v>10486800</v>
+        <v>10135700</v>
       </c>
       <c r="F47" s="3">
-        <v>9099500</v>
+        <v>8794900</v>
       </c>
       <c r="G47" s="3">
-        <v>8527300</v>
+        <v>8241800</v>
       </c>
       <c r="H47" s="3">
-        <v>6771600</v>
+        <v>6544900</v>
       </c>
       <c r="I47" s="3">
-        <v>14716100</v>
+        <v>14223400</v>
       </c>
       <c r="J47" s="3">
-        <v>7768300</v>
+        <v>7508200</v>
       </c>
       <c r="K47" s="3">
         <v>8315800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4466200</v>
+        <v>4316700</v>
       </c>
       <c r="E48" s="3">
-        <v>3798300</v>
+        <v>3671100</v>
       </c>
       <c r="F48" s="3">
-        <v>3282100</v>
+        <v>3172200</v>
       </c>
       <c r="G48" s="3">
-        <v>2873000</v>
+        <v>2776800</v>
       </c>
       <c r="H48" s="3">
-        <v>2348500</v>
+        <v>2269900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>1831600</v>
+        <v>1770300</v>
       </c>
       <c r="K48" s="3">
         <v>1944000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2878100</v>
+        <v>2781700</v>
       </c>
       <c r="E49" s="3">
-        <v>2836400</v>
+        <v>2741400</v>
       </c>
       <c r="F49" s="3">
-        <v>2801800</v>
+        <v>2708000</v>
       </c>
       <c r="G49" s="3">
-        <v>2272200</v>
+        <v>2196100</v>
       </c>
       <c r="H49" s="3">
-        <v>1576700</v>
+        <v>1523900</v>
       </c>
       <c r="I49" s="3">
-        <v>3084000</v>
+        <v>2980700</v>
       </c>
       <c r="J49" s="3">
-        <v>1179600</v>
+        <v>1140100</v>
       </c>
       <c r="K49" s="3">
         <v>1188500</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>687000</v>
+        <v>664000</v>
       </c>
       <c r="E52" s="3">
-        <v>659100</v>
+        <v>637000</v>
       </c>
       <c r="F52" s="3">
-        <v>574300</v>
+        <v>555100</v>
       </c>
       <c r="G52" s="3">
-        <v>393700</v>
+        <v>380500</v>
       </c>
       <c r="H52" s="3">
-        <v>368800</v>
+        <v>356400</v>
       </c>
       <c r="I52" s="3">
-        <v>939200</v>
+        <v>907700</v>
       </c>
       <c r="J52" s="3">
-        <v>705600</v>
+        <v>682000</v>
       </c>
       <c r="K52" s="3">
         <v>754800</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28125300</v>
+        <v>27183700</v>
       </c>
       <c r="E54" s="3">
-        <v>26911600</v>
+        <v>26010600</v>
       </c>
       <c r="F54" s="3">
-        <v>24000100</v>
+        <v>23196600</v>
       </c>
       <c r="G54" s="3">
-        <v>22328700</v>
+        <v>21581200</v>
       </c>
       <c r="H54" s="3">
-        <v>20393400</v>
+        <v>19710700</v>
       </c>
       <c r="I54" s="3">
-        <v>21494900</v>
+        <v>20775300</v>
       </c>
       <c r="J54" s="3">
-        <v>21368900</v>
+        <v>20653500</v>
       </c>
       <c r="K54" s="3">
         <v>22748600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1003600</v>
+        <v>970000</v>
       </c>
       <c r="E57" s="3">
-        <v>1098500</v>
+        <v>1061700</v>
       </c>
       <c r="F57" s="3">
-        <v>960300</v>
+        <v>928200</v>
       </c>
       <c r="G57" s="3">
-        <v>899300</v>
+        <v>869200</v>
       </c>
       <c r="H57" s="3">
-        <v>927900</v>
+        <v>896800</v>
       </c>
       <c r="I57" s="3">
-        <v>2057300</v>
+        <v>1988500</v>
       </c>
       <c r="J57" s="3">
-        <v>889400</v>
+        <v>859600</v>
       </c>
       <c r="K57" s="3">
         <v>850000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>339500</v>
+        <v>328100</v>
       </c>
       <c r="E58" s="3">
-        <v>664400</v>
+        <v>642100</v>
       </c>
       <c r="F58" s="3">
-        <v>383900</v>
+        <v>371100</v>
       </c>
       <c r="G58" s="3">
-        <v>346900</v>
+        <v>335300</v>
       </c>
       <c r="H58" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="I58" s="3">
-        <v>85900</v>
+        <v>83000</v>
       </c>
       <c r="J58" s="3">
-        <v>57900</v>
+        <v>55900</v>
       </c>
       <c r="K58" s="3">
         <v>107600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1824500</v>
+        <v>1763400</v>
       </c>
       <c r="E59" s="3">
-        <v>1942500</v>
+        <v>1877400</v>
       </c>
       <c r="F59" s="3">
-        <v>1560800</v>
+        <v>1508500</v>
       </c>
       <c r="G59" s="3">
-        <v>1484600</v>
+        <v>1434900</v>
       </c>
       <c r="H59" s="3">
-        <v>1617800</v>
+        <v>1563600</v>
       </c>
       <c r="I59" s="3">
-        <v>2303200</v>
+        <v>2226100</v>
       </c>
       <c r="J59" s="3">
-        <v>1557900</v>
+        <v>1505800</v>
       </c>
       <c r="K59" s="3">
         <v>1746000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3167600</v>
+        <v>3061500</v>
       </c>
       <c r="E60" s="3">
-        <v>3705300</v>
+        <v>3581300</v>
       </c>
       <c r="F60" s="3">
-        <v>2905000</v>
+        <v>2807700</v>
       </c>
       <c r="G60" s="3">
-        <v>2730900</v>
+        <v>2639500</v>
       </c>
       <c r="H60" s="3">
-        <v>2574500</v>
+        <v>2488300</v>
       </c>
       <c r="I60" s="3">
-        <v>2881200</v>
+        <v>2784700</v>
       </c>
       <c r="J60" s="3">
-        <v>2505200</v>
+        <v>2421300</v>
       </c>
       <c r="K60" s="3">
         <v>2703600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1101900</v>
+        <v>1065000</v>
       </c>
       <c r="E61" s="3">
-        <v>361000</v>
+        <v>349000</v>
       </c>
       <c r="F61" s="3">
-        <v>631600</v>
+        <v>610500</v>
       </c>
       <c r="G61" s="3">
-        <v>527700</v>
+        <v>510100</v>
       </c>
       <c r="H61" s="3">
-        <v>38900</v>
+        <v>37600</v>
       </c>
       <c r="I61" s="3">
-        <v>41000</v>
+        <v>39600</v>
       </c>
       <c r="J61" s="3">
-        <v>112700</v>
+        <v>109000</v>
       </c>
       <c r="K61" s="3">
         <v>133100</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2910300</v>
+        <v>2812900</v>
       </c>
       <c r="E62" s="3">
-        <v>2934100</v>
+        <v>2835900</v>
       </c>
       <c r="F62" s="3">
-        <v>2490800</v>
+        <v>2407500</v>
       </c>
       <c r="G62" s="3">
-        <v>2209400</v>
+        <v>2135500</v>
       </c>
       <c r="H62" s="3">
-        <v>1551300</v>
+        <v>1499400</v>
       </c>
       <c r="I62" s="3">
-        <v>2190700</v>
+        <v>2117400</v>
       </c>
       <c r="J62" s="3">
-        <v>2133100</v>
+        <v>2061700</v>
       </c>
       <c r="K62" s="3">
         <v>2464700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7351900</v>
+        <v>7105800</v>
       </c>
       <c r="E66" s="3">
-        <v>7184000</v>
+        <v>6943500</v>
       </c>
       <c r="F66" s="3">
-        <v>6197100</v>
+        <v>5989600</v>
       </c>
       <c r="G66" s="3">
-        <v>5619900</v>
+        <v>5431800</v>
       </c>
       <c r="H66" s="3">
-        <v>4826600</v>
+        <v>4665000</v>
       </c>
       <c r="I66" s="3">
-        <v>5516800</v>
+        <v>5332100</v>
       </c>
       <c r="J66" s="3">
-        <v>5332800</v>
+        <v>5154300</v>
       </c>
       <c r="K66" s="3">
         <v>5959300</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13138000</v>
+        <v>12698200</v>
       </c>
       <c r="E72" s="3">
-        <v>12682700</v>
+        <v>12258100</v>
       </c>
       <c r="F72" s="3">
-        <v>12024300</v>
+        <v>11621700</v>
       </c>
       <c r="G72" s="3">
-        <v>11587400</v>
+        <v>11199500</v>
       </c>
       <c r="H72" s="3">
-        <v>11257900</v>
+        <v>10881000</v>
       </c>
       <c r="I72" s="3">
-        <v>10838400</v>
+        <v>10475500</v>
       </c>
       <c r="J72" s="3">
-        <v>11253900</v>
+        <v>10877100</v>
       </c>
       <c r="K72" s="3">
         <v>11546900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20773300</v>
+        <v>20077900</v>
       </c>
       <c r="E76" s="3">
-        <v>19727600</v>
+        <v>19067100</v>
       </c>
       <c r="F76" s="3">
-        <v>17803000</v>
+        <v>17207000</v>
       </c>
       <c r="G76" s="3">
-        <v>16708800</v>
+        <v>16149400</v>
       </c>
       <c r="H76" s="3">
-        <v>15566900</v>
+        <v>15045700</v>
       </c>
       <c r="I76" s="3">
-        <v>15978200</v>
+        <v>15443300</v>
       </c>
       <c r="J76" s="3">
-        <v>16036100</v>
+        <v>15499200</v>
       </c>
       <c r="K76" s="3">
         <v>16789300</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>879300</v>
+        <v>849800</v>
       </c>
       <c r="E81" s="3">
-        <v>1019600</v>
+        <v>985500</v>
       </c>
       <c r="F81" s="3">
-        <v>619800</v>
+        <v>599000</v>
       </c>
       <c r="G81" s="3">
-        <v>740000</v>
+        <v>715300</v>
       </c>
       <c r="H81" s="3">
-        <v>709100</v>
+        <v>685300</v>
       </c>
       <c r="I81" s="3">
-        <v>543700</v>
+        <v>525500</v>
       </c>
       <c r="J81" s="3">
-        <v>713400</v>
+        <v>689500</v>
       </c>
       <c r="K81" s="3">
         <v>801500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1027800</v>
+        <v>993400</v>
       </c>
       <c r="E83" s="3">
-        <v>886000</v>
+        <v>856300</v>
       </c>
       <c r="F83" s="3">
-        <v>749200</v>
+        <v>724100</v>
       </c>
       <c r="G83" s="3">
-        <v>637200</v>
+        <v>615800</v>
       </c>
       <c r="H83" s="3">
-        <v>438900</v>
+        <v>424200</v>
       </c>
       <c r="I83" s="3">
-        <v>565900</v>
+        <v>546900</v>
       </c>
       <c r="J83" s="3">
-        <v>532000</v>
+        <v>514200</v>
       </c>
       <c r="K83" s="3">
         <v>563400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1231200</v>
+        <v>1190000</v>
       </c>
       <c r="E89" s="3">
-        <v>1387400</v>
+        <v>1341000</v>
       </c>
       <c r="F89" s="3">
-        <v>1517000</v>
+        <v>1466300</v>
       </c>
       <c r="G89" s="3">
-        <v>1474500</v>
+        <v>1425100</v>
       </c>
       <c r="H89" s="3">
-        <v>1511600</v>
+        <v>1461000</v>
       </c>
       <c r="I89" s="3">
-        <v>1091700</v>
+        <v>1055100</v>
       </c>
       <c r="J89" s="3">
-        <v>1128300</v>
+        <v>1090500</v>
       </c>
       <c r="K89" s="3">
         <v>1426200</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1213400</v>
+        <v>-1172800</v>
       </c>
       <c r="E91" s="3">
-        <v>-923900</v>
+        <v>-893000</v>
       </c>
       <c r="F91" s="3">
-        <v>-843900</v>
+        <v>-815600</v>
       </c>
       <c r="G91" s="3">
-        <v>-736000</v>
+        <v>-711400</v>
       </c>
       <c r="H91" s="3">
-        <v>-762800</v>
+        <v>-737300</v>
       </c>
       <c r="I91" s="3">
-        <v>-578400</v>
+        <v>-559100</v>
       </c>
       <c r="J91" s="3">
-        <v>-459600</v>
+        <v>-444200</v>
       </c>
       <c r="K91" s="3">
         <v>-485800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1159900</v>
+        <v>-1121100</v>
       </c>
       <c r="E94" s="3">
-        <v>-545900</v>
+        <v>-527600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1262700</v>
+        <v>-1220400</v>
       </c>
       <c r="G94" s="3">
-        <v>-999900</v>
+        <v>-966500</v>
       </c>
       <c r="H94" s="3">
-        <v>-323700</v>
+        <v>-312900</v>
       </c>
       <c r="I94" s="3">
-        <v>-365000</v>
+        <v>-352800</v>
       </c>
       <c r="J94" s="3">
-        <v>-770100</v>
+        <v>-744300</v>
       </c>
       <c r="K94" s="3">
         <v>-785000</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-481700</v>
+        <v>-465600</v>
       </c>
       <c r="E96" s="3">
-        <v>-438100</v>
+        <v>-423500</v>
       </c>
       <c r="F96" s="3">
-        <v>-359700</v>
+        <v>-347600</v>
       </c>
       <c r="G96" s="3">
-        <v>-426100</v>
+        <v>-411800</v>
       </c>
       <c r="H96" s="3">
-        <v>-330200</v>
+        <v>-319100</v>
       </c>
       <c r="I96" s="3">
-        <v>-329300</v>
+        <v>-318300</v>
       </c>
       <c r="J96" s="3">
-        <v>-274700</v>
+        <v>-265500</v>
       </c>
       <c r="K96" s="3">
         <v>-322500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-420800</v>
+        <v>-406700</v>
       </c>
       <c r="E100" s="3">
-        <v>-765800</v>
+        <v>-740200</v>
       </c>
       <c r="F100" s="3">
-        <v>-556300</v>
+        <v>-537600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1079500</v>
+        <v>-1043300</v>
       </c>
       <c r="H100" s="3">
-        <v>-611800</v>
+        <v>-591300</v>
       </c>
       <c r="I100" s="3">
-        <v>-354300</v>
+        <v>-342400</v>
       </c>
       <c r="J100" s="3">
-        <v>-329600</v>
+        <v>-318500</v>
       </c>
       <c r="K100" s="3">
         <v>-372000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70400</v>
+        <v>68100</v>
       </c>
       <c r="E101" s="3">
-        <v>112500</v>
+        <v>108700</v>
       </c>
       <c r="F101" s="3">
-        <v>75900</v>
+        <v>73300</v>
       </c>
       <c r="G101" s="3">
-        <v>-35400</v>
+        <v>-34200</v>
       </c>
       <c r="H101" s="3">
-        <v>27700</v>
+        <v>26700</v>
       </c>
       <c r="I101" s="3">
-        <v>-37500</v>
+        <v>-36300</v>
       </c>
       <c r="J101" s="3">
-        <v>-13700</v>
+        <v>-13200</v>
       </c>
       <c r="K101" s="3">
         <v>-102700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-279100</v>
+        <v>-269800</v>
       </c>
       <c r="E102" s="3">
-        <v>188300</v>
+        <v>181900</v>
       </c>
       <c r="F102" s="3">
-        <v>-226000</v>
+        <v>-218400</v>
       </c>
       <c r="G102" s="3">
-        <v>-640200</v>
+        <v>-618800</v>
       </c>
       <c r="H102" s="3">
-        <v>603700</v>
+        <v>583500</v>
       </c>
       <c r="I102" s="3">
-        <v>334900</v>
+        <v>323700</v>
       </c>
       <c r="J102" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="K102" s="3">
         <v>166500</v>
